--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A67"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,335 +437,536 @@
       <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-0.3140135697527972</v>
       </c>
+      <c r="B2" t="n">
+        <v>-0.325855809859301</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>0.2156474484748018</v>
       </c>
+      <c r="B3" t="n">
+        <v>0.1980466130065022</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>0.1501439283859047</v>
       </c>
+      <c r="B4" t="n">
+        <v>0.1274204912641633</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>-0.05797921045916028</v>
       </c>
+      <c r="B5" t="n">
+        <v>-0.08768491371053436</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>0.1244747309714689</v>
       </c>
+      <c r="B6" t="n">
+        <v>0.1248329979603581</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>-0.4403246410658452</v>
       </c>
+      <c r="B7" t="n">
+        <v>-0.4661835612668545</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>-0.3103308849438261</v>
       </c>
+      <c r="B8" t="n">
+        <v>-0.2781174898209858</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>-0.4053535421255747</v>
       </c>
+      <c r="B9" t="n">
+        <v>-0.4214736441918441</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>0.3077863685140212</v>
       </c>
+      <c r="B10" t="n">
+        <v>0.3419617491862589</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>-0.2198632596458272</v>
       </c>
+      <c r="B11" t="n">
+        <v>-0.2523839996266436</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>-0.1103124218275768</v>
       </c>
+      <c r="B12" t="n">
+        <v>-0.1101101101107061</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>-0.004022845607394114</v>
       </c>
+      <c r="B13" t="n">
+        <v>-0.01543321063959337</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>-0.007810175607406114</v>
       </c>
+      <c r="B14" t="n">
+        <v>0.01304800678538062</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>-0.1324754430102111</v>
       </c>
+      <c r="B15" t="n">
+        <v>-0.05536046364716403</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>0.2094277682760297</v>
       </c>
+      <c r="B16" t="n">
+        <v>0.2922303273140344</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>0.5479266027025382</v>
       </c>
+      <c r="B17" t="n">
+        <v>0.5756115541552026</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>0.07105425029831516</v>
       </c>
+      <c r="B18" t="n">
+        <v>0.0592059676680943</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>0.3710936843533268</v>
       </c>
+      <c r="B19" t="n">
+        <v>0.38105546834259</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>0.194473076098636</v>
       </c>
+      <c r="B20" t="n">
+        <v>0.2419921713542693</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>0.3690207680348336</v>
       </c>
+      <c r="B21" t="n">
+        <v>0.4634244444961451</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>0.3141030493544485</v>
       </c>
+      <c r="B22" t="n">
+        <v>0.3481002522237359</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>-0.1138472822146566</v>
       </c>
+      <c r="B23" t="n">
+        <v>-0.0900324180873277</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>4.556862130786088</v>
       </c>
+      <c r="B24" t="n">
+        <v>4.641078204006591</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>0.6433239894217659</v>
       </c>
+      <c r="B25" t="n">
+        <v>0.5009123848056879</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>0.2103950017929433</v>
       </c>
+      <c r="B26" t="n">
+        <v>0.3873942341786615</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>0.3471548948143966</v>
       </c>
+      <c r="B27" t="n">
+        <v>0.3524642354648459</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>1.046020504602608</v>
       </c>
+      <c r="B28" t="n">
+        <v>1.12890646694507</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>6.386249319401767</v>
       </c>
+      <c r="B29" t="n">
+        <v>6.018652345223289</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>1.140721739063586</v>
       </c>
+      <c r="B30" t="n">
+        <v>1.033529866331698</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>-0.2493538576499659</v>
       </c>
+      <c r="B31" t="n">
+        <v>-0.154799951766776</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>0.786520083157729</v>
       </c>
+      <c r="B32" t="n">
+        <v>0.7756995235920929</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>1.006735987623924</v>
       </c>
+      <c r="B33" t="n">
+        <v>0.9162461804338236</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>-0.4975381834063161</v>
       </c>
+      <c r="B34" t="n">
+        <v>-0.6550935842494154</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>0.8412842265605643</v>
       </c>
+      <c r="B35" t="n">
+        <v>0.8219364119905066</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>0.8028692356988336</v>
       </c>
+      <c r="B36" t="n">
+        <v>0.7842834391820365</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>0.7935295434520913</v>
       </c>
+      <c r="B37" t="n">
+        <v>0.7601684644865452</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>0.7820668989009839</v>
       </c>
+      <c r="B38" t="n">
+        <v>0.7382220033203516</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>0.5844703980617519</v>
       </c>
+      <c r="B39" t="n">
+        <v>0.5825960925661953</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>0.7512834992005526</v>
       </c>
+      <c r="B40" t="n">
+        <v>0.7513578368536218</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>0.5805925943547264</v>
       </c>
+      <c r="B41" t="n">
+        <v>0.5631537273031965</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>0.7456031735833892</v>
       </c>
+      <c r="B42" t="n">
+        <v>0.7179397393862778</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>0.7485116497278329</v>
       </c>
+      <c r="B43" t="n">
+        <v>0.7244730836392259</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>0.6802059810269996</v>
       </c>
+      <c r="B44" t="n">
+        <v>0.680406968940486</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>0.6788495587994615</v>
       </c>
+      <c r="B45" t="n">
+        <v>0.672662189527016</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>-1.261070019130755</v>
       </c>
+      <c r="B46" t="n">
+        <v>-1.266442066389313</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>-0.9744721436008253</v>
       </c>
+      <c r="B47" t="n">
+        <v>-0.9802214546329604</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>-0.8647221716518534</v>
       </c>
+      <c r="B48" t="n">
+        <v>-0.8742256456236115</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>-0.6350754164865442</v>
       </c>
+      <c r="B49" t="n">
+        <v>-0.6446067009915347</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>-0.05762349337085547</v>
       </c>
+      <c r="B50" t="n">
+        <v>-0.05071653555803813</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>-0.8498302047653893</v>
       </c>
+      <c r="B51" t="n">
+        <v>-0.8663287312007221</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>-0.8498302047653893</v>
       </c>
+      <c r="B52" t="n">
+        <v>-0.8663287312007221</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>-1.071112977664036</v>
       </c>
+      <c r="B53" t="n">
+        <v>-1.090594527858412</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>-0.191750703599722</v>
       </c>
+      <c r="B54" t="n">
+        <v>-0.1919080813551201</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>-1.001581896554034</v>
       </c>
+      <c r="B55" t="n">
+        <v>-1.001773315998872</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>-0.9146087909004164</v>
       </c>
+      <c r="B56" t="n">
+        <v>-0.8944351431311341</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>-0.990362655569784</v>
       </c>
+      <c r="B57" t="n">
+        <v>-0.9512315283883667</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>-1.20305019036047</v>
       </c>
+      <c r="B58" t="n">
+        <v>-1.157898408136979</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>-0.88874567332365</v>
       </c>
+      <c r="B59" t="n">
+        <v>-0.8657258021339564</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>-0.5466130502156099</v>
       </c>
+      <c r="B60" t="n">
+        <v>-0.5227209645818337</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>0.3627413646747232</v>
       </c>
+      <c r="B61" t="n">
+        <v>0.3674037677542816</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>-1.299372679580961</v>
       </c>
+      <c r="B62" t="n">
+        <v>-1.23693731724293</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>-0.7868633011641275</v>
       </c>
+      <c r="B63" t="n">
+        <v>-0.7727467809697305</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>-0.9069570706413685</v>
       </c>
+      <c r="B64" t="n">
+        <v>-0.9132005957652777</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>-0.1676005642818128</v>
       </c>
+      <c r="B65" t="n">
+        <v>-0.1348743924113562</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>-0.8801614050208516</v>
       </c>
+      <c r="B66" t="n">
+        <v>-0.821441419724717</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>-0.900853687537532</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-0.8020534589983982</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,9 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -448,6 +451,9 @@
       <c r="B2" t="n">
         <v>-0.325855809859301</v>
       </c>
+      <c r="C2" t="n">
+        <v>-0.3126074021475208</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -456,6 +462,9 @@
       <c r="B3" t="n">
         <v>0.1980466130065022</v>
       </c>
+      <c r="C3" t="n">
+        <v>0.207418428702304</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -464,6 +473,9 @@
       <c r="B4" t="n">
         <v>0.1274204912641633</v>
       </c>
+      <c r="C4" t="n">
+        <v>0.1397699872622917</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -472,6 +484,9 @@
       <c r="B5" t="n">
         <v>-0.08768491371053436</v>
       </c>
+      <c r="C5" t="n">
+        <v>-0.07744184877066863</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -480,6 +495,9 @@
       <c r="B6" t="n">
         <v>0.1248329979603581</v>
       </c>
+      <c r="C6" t="n">
+        <v>0.1404438641221932</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -488,6 +506,9 @@
       <c r="B7" t="n">
         <v>-0.4661835612668545</v>
       </c>
+      <c r="C7" t="n">
+        <v>-0.4560208425961351</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -496,6 +517,9 @@
       <c r="B8" t="n">
         <v>-0.2781174898209858</v>
       </c>
+      <c r="C8" t="n">
+        <v>-0.2643008771758987</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -504,6 +528,9 @@
       <c r="B9" t="n">
         <v>-0.4214736441918441</v>
       </c>
+      <c r="C9" t="n">
+        <v>-0.4111385904835828</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -512,6 +539,9 @@
       <c r="B10" t="n">
         <v>0.3419617491862589</v>
       </c>
+      <c r="C10" t="n">
+        <v>0.3571834378931258</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -520,6 +550,9 @@
       <c r="B11" t="n">
         <v>-0.2523839996266436</v>
       </c>
+      <c r="C11" t="n">
+        <v>-0.2431705533576028</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -528,6 +561,9 @@
       <c r="B12" t="n">
         <v>-0.1101101101107061</v>
       </c>
+      <c r="C12" t="n">
+        <v>-0.08717066279005641</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -536,6 +572,9 @@
       <c r="B13" t="n">
         <v>-0.01543321063959337</v>
       </c>
+      <c r="C13" t="n">
+        <v>-0.01378700768231838</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -544,6 +583,9 @@
       <c r="B14" t="n">
         <v>0.01304800678538062</v>
       </c>
+      <c r="C14" t="n">
+        <v>0.05318596187994578</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -552,6 +594,9 @@
       <c r="B15" t="n">
         <v>-0.05536046364716403</v>
       </c>
+      <c r="C15" t="n">
+        <v>-0.01069839903220687</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -560,6 +605,9 @@
       <c r="B16" t="n">
         <v>0.2922303273140344</v>
       </c>
+      <c r="C16" t="n">
+        <v>0.3540856688049244</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -568,6 +616,9 @@
       <c r="B17" t="n">
         <v>0.5756115541552026</v>
       </c>
+      <c r="C17" t="n">
+        <v>0.6078572521223664</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -576,6 +627,9 @@
       <c r="B18" t="n">
         <v>0.0592059676680943</v>
       </c>
+      <c r="C18" t="n">
+        <v>0.04397870436778223</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -584,6 +638,9 @@
       <c r="B19" t="n">
         <v>0.38105546834259</v>
       </c>
+      <c r="C19" t="n">
+        <v>0.3958728056978645</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -592,6 +649,9 @@
       <c r="B20" t="n">
         <v>0.2419921713542693</v>
       </c>
+      <c r="C20" t="n">
+        <v>0.300740655271819</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -600,6 +660,9 @@
       <c r="B21" t="n">
         <v>0.4634244444961451</v>
       </c>
+      <c r="C21" t="n">
+        <v>0.5214496565927098</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -608,6 +671,9 @@
       <c r="B22" t="n">
         <v>0.3481002522237359</v>
       </c>
+      <c r="C22" t="n">
+        <v>0.3841829489732212</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -616,6 +682,9 @@
       <c r="B23" t="n">
         <v>-0.0900324180873277</v>
       </c>
+      <c r="C23" t="n">
+        <v>-0.05869284080786842</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -624,6 +693,9 @@
       <c r="B24" t="n">
         <v>4.641078204006591</v>
       </c>
+      <c r="C24" t="n">
+        <v>4.665750928632196</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -632,6 +704,9 @@
       <c r="B25" t="n">
         <v>0.5009123848056879</v>
       </c>
+      <c r="C25" t="n">
+        <v>0.4849463578012833</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -640,6 +715,9 @@
       <c r="B26" t="n">
         <v>0.3873942341786615</v>
       </c>
+      <c r="C26" t="n">
+        <v>0.350824450870297</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -648,6 +726,9 @@
       <c r="B27" t="n">
         <v>0.3524642354648459</v>
       </c>
+      <c r="C27" t="n">
+        <v>0.3138938702931852</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -656,6 +737,9 @@
       <c r="B28" t="n">
         <v>1.12890646694507</v>
       </c>
+      <c r="C28" t="n">
+        <v>1.070662419979307</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -664,6 +748,9 @@
       <c r="B29" t="n">
         <v>6.018652345223289</v>
       </c>
+      <c r="C29" t="n">
+        <v>5.574278794849055</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -672,6 +759,9 @@
       <c r="B30" t="n">
         <v>1.033529866331698</v>
       </c>
+      <c r="C30" t="n">
+        <v>0.966865972865717</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -680,6 +770,9 @@
       <c r="B31" t="n">
         <v>-0.154799951766776</v>
       </c>
+      <c r="C31" t="n">
+        <v>-0.2292867079862062</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -688,6 +781,9 @@
       <c r="B32" t="n">
         <v>0.7756995235920929</v>
       </c>
+      <c r="C32" t="n">
+        <v>0.7479107775663506</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -696,6 +792,9 @@
       <c r="B33" t="n">
         <v>0.9162461804338236</v>
       </c>
+      <c r="C33" t="n">
+        <v>0.9003047990728774</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -704,6 +803,9 @@
       <c r="B34" t="n">
         <v>-0.6550935842494154</v>
       </c>
+      <c r="C34" t="n">
+        <v>-0.6658797984632877</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -712,6 +814,9 @@
       <c r="B35" t="n">
         <v>0.8219364119905066</v>
       </c>
+      <c r="C35" t="n">
+        <v>0.8127559622786243</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -720,6 +825,9 @@
       <c r="B36" t="n">
         <v>0.7842834391820365</v>
       </c>
+      <c r="C36" t="n">
+        <v>0.766512505617556</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -728,6 +836,9 @@
       <c r="B37" t="n">
         <v>0.7601684644865452</v>
       </c>
+      <c r="C37" t="n">
+        <v>0.7406859788249792</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -736,6 +847,9 @@
       <c r="B38" t="n">
         <v>0.7382220033203516</v>
       </c>
+      <c r="C38" t="n">
+        <v>0.7182226127897761</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -744,6 +858,9 @@
       <c r="B39" t="n">
         <v>0.5825960925661953</v>
       </c>
+      <c r="C39" t="n">
+        <v>0.578948007004125</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -752,6 +869,9 @@
       <c r="B40" t="n">
         <v>0.7513578368536218</v>
       </c>
+      <c r="C40" t="n">
+        <v>0.7494737534757424</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -760,6 +880,9 @@
       <c r="B41" t="n">
         <v>0.5631537273031965</v>
       </c>
+      <c r="C41" t="n">
+        <v>0.5542754904747991</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -768,6 +891,9 @@
       <c r="B42" t="n">
         <v>0.7179397393862778</v>
       </c>
+      <c r="C42" t="n">
+        <v>0.68939041516987</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -776,6 +902,9 @@
       <c r="B43" t="n">
         <v>0.7244730836392259</v>
       </c>
+      <c r="C43" t="n">
+        <v>0.7091450079664641</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -784,6 +913,9 @@
       <c r="B44" t="n">
         <v>0.680406968940486</v>
       </c>
+      <c r="C44" t="n">
+        <v>0.672344541967933</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -792,6 +924,9 @@
       <c r="B45" t="n">
         <v>0.672662189527016</v>
       </c>
+      <c r="C45" t="n">
+        <v>0.6545477212786104</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -800,6 +935,9 @@
       <c r="B46" t="n">
         <v>-1.266442066389313</v>
       </c>
+      <c r="C46" t="n">
+        <v>-1.270032221533199</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -808,6 +946,9 @@
       <c r="B47" t="n">
         <v>-0.9802214546329604</v>
       </c>
+      <c r="C47" t="n">
+        <v>-0.9848447405348487</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -816,6 +957,9 @@
       <c r="B48" t="n">
         <v>-0.8742256456236115</v>
       </c>
+      <c r="C48" t="n">
+        <v>-0.8797462642448685</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -824,6 +968,9 @@
       <c r="B49" t="n">
         <v>-0.6446067009915347</v>
       </c>
+      <c r="C49" t="n">
+        <v>-0.6475236969116793</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -832,6 +979,9 @@
       <c r="B50" t="n">
         <v>-0.05071653555803813</v>
       </c>
+      <c r="C50" t="n">
+        <v>-0.05199289028252003</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -840,6 +990,9 @@
       <c r="B51" t="n">
         <v>-0.8663287312007221</v>
       </c>
+      <c r="C51" t="n">
+        <v>-0.8705702310432394</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -848,6 +1001,9 @@
       <c r="B52" t="n">
         <v>-0.8663287312007221</v>
       </c>
+      <c r="C52" t="n">
+        <v>-0.8705702310432394</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -856,6 +1012,9 @@
       <c r="B53" t="n">
         <v>-1.090594527858412</v>
       </c>
+      <c r="C53" t="n">
+        <v>-1.103339595476464</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -864,6 +1023,9 @@
       <c r="B54" t="n">
         <v>-0.1919080813551201</v>
       </c>
+      <c r="C54" t="n">
+        <v>-0.1907592818839397</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -872,6 +1034,9 @@
       <c r="B55" t="n">
         <v>-1.001773315998872</v>
       </c>
+      <c r="C55" t="n">
+        <v>-1.00555449839707</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -880,6 +1045,9 @@
       <c r="B56" t="n">
         <v>-0.8944351431311341</v>
       </c>
+      <c r="C56" t="n">
+        <v>-0.8900221331924624</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -888,6 +1056,9 @@
       <c r="B57" t="n">
         <v>-0.9512315283883667</v>
       </c>
+      <c r="C57" t="n">
+        <v>-0.937466809221166</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -896,6 +1067,9 @@
       <c r="B58" t="n">
         <v>-1.157898408136979</v>
       </c>
+      <c r="C58" t="n">
+        <v>-1.133109247004779</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -904,6 +1078,9 @@
       <c r="B59" t="n">
         <v>-0.8657258021339564</v>
       </c>
+      <c r="C59" t="n">
+        <v>-0.852590359020692</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -912,6 +1089,9 @@
       <c r="B60" t="n">
         <v>-0.5227209645818337</v>
       </c>
+      <c r="C60" t="n">
+        <v>-0.5008670399630072</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -920,6 +1100,9 @@
       <c r="B61" t="n">
         <v>0.3674037677542816</v>
       </c>
+      <c r="C61" t="n">
+        <v>0.3699171247469289</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -928,6 +1111,9 @@
       <c r="B62" t="n">
         <v>-1.23693731724293</v>
       </c>
+      <c r="C62" t="n">
+        <v>-1.215902901274585</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -936,6 +1122,9 @@
       <c r="B63" t="n">
         <v>-0.7727467809697305</v>
       </c>
+      <c r="C63" t="n">
+        <v>-0.743966285811586</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -944,6 +1133,9 @@
       <c r="B64" t="n">
         <v>-0.9132005957652777</v>
       </c>
+      <c r="C64" t="n">
+        <v>-0.9061324817214416</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -952,6 +1144,9 @@
       <c r="B65" t="n">
         <v>-0.1348743924113562</v>
       </c>
+      <c r="C65" t="n">
+        <v>-0.114355218372612</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -960,6 +1155,9 @@
       <c r="B66" t="n">
         <v>-0.821441419724717</v>
       </c>
+      <c r="C66" t="n">
+        <v>-0.7953524061942528</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -967,6 +1165,9 @@
       </c>
       <c r="B67" t="n">
         <v>-0.8020534589983982</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-0.7678066512038981</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -449,10 +449,10 @@
         <v>-0.3140135697527972</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.325855809859301</v>
+        <v>-0.2998608192475538</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3126074021475208</v>
+        <v>-0.2844306209533958</v>
       </c>
     </row>
     <row r="3">
@@ -460,10 +460,10 @@
         <v>0.2156474484748018</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1980466130065022</v>
+        <v>0.2222994047451824</v>
       </c>
       <c r="C3" t="n">
-        <v>0.207418428702304</v>
+        <v>0.2323567825548751</v>
       </c>
     </row>
     <row r="4">
@@ -471,10 +471,10 @@
         <v>0.1501439283859047</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1274204912641633</v>
+        <v>0.1596690214676689</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1397699872622917</v>
+        <v>0.1730073447847666</v>
       </c>
     </row>
     <row r="5">
@@ -482,10 +482,10 @@
         <v>-0.05797921045916028</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.08768491371053436</v>
+        <v>-0.05157580157622221</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.07744184877066863</v>
+        <v>-0.04133725088963019</v>
       </c>
     </row>
     <row r="6">
@@ -493,10 +493,10 @@
         <v>0.1244747309714689</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1248329979603581</v>
+        <v>0.1524653381963466</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1404438641221932</v>
+        <v>0.1693687572142441</v>
       </c>
     </row>
     <row r="7">
@@ -504,10 +504,10 @@
         <v>-0.4403246410658452</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4661835612668545</v>
+        <v>-0.4397818082765901</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4560208425961351</v>
+        <v>-0.4288345250936945</v>
       </c>
     </row>
     <row r="8">
@@ -515,10 +515,10 @@
         <v>-0.3103308849438261</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2781174898209858</v>
+        <v>-0.2891752268856903</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2643008771758987</v>
+        <v>-0.2655955976075189</v>
       </c>
     </row>
     <row r="9">
@@ -526,10 +526,10 @@
         <v>-0.4053535421255747</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4214736441918441</v>
+        <v>-0.4046922839984844</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.4111385904835828</v>
+        <v>-0.3945937732805802</v>
       </c>
     </row>
     <row r="10">
@@ -537,10 +537,10 @@
         <v>0.3077863685140212</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3419617491862589</v>
+        <v>0.3269025025094837</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3571834378931258</v>
+        <v>0.3446233488301431</v>
       </c>
     </row>
     <row r="11">
@@ -548,10 +548,10 @@
         <v>-0.2198632596458272</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2523839996266436</v>
+        <v>-0.2058413461554524</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.2431705533576028</v>
+        <v>-0.1976879972501496</v>
       </c>
     </row>
     <row r="12">
@@ -559,10 +559,10 @@
         <v>-0.1103124218275768</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1101101101107061</v>
+        <v>-0.08305774230531343</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.08717066279005641</v>
+        <v>-0.05729188132265255</v>
       </c>
     </row>
     <row r="13">
@@ -570,10 +570,10 @@
         <v>-0.004022845607394114</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.01543321063959337</v>
+        <v>-0.001980202257975946</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.01378700768231838</v>
+        <v>0.0006439044102356604</v>
       </c>
     </row>
     <row r="14">
@@ -581,10 +581,10 @@
         <v>-0.007810175607406114</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01304800678538062</v>
+        <v>0.03918117179674931</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05318596187994578</v>
+        <v>0.07951650193235101</v>
       </c>
     </row>
     <row r="15">
@@ -592,10 +592,10 @@
         <v>-0.1324754430102111</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.05536046364716403</v>
+        <v>-0.07737564180358925</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.01069839903220687</v>
+        <v>-0.02761333128479813</v>
       </c>
     </row>
     <row r="16">
@@ -603,10 +603,10 @@
         <v>0.2094277682760297</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2922303273140344</v>
+        <v>0.2727842049609036</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3540856688049244</v>
+        <v>0.3387468086258007</v>
       </c>
     </row>
     <row r="17">
@@ -614,10 +614,10 @@
         <v>0.5479266027025382</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5756115541552026</v>
+        <v>0.5925036014333478</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6078572521223664</v>
+        <v>0.6211163730947561</v>
       </c>
     </row>
     <row r="18">
@@ -625,10 +625,10 @@
         <v>0.07105425029831516</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0592059676680943</v>
+        <v>0.0640445261876246</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04397870436778223</v>
+        <v>0.04370221162946492</v>
       </c>
     </row>
     <row r="19">
@@ -636,10 +636,10 @@
         <v>0.3710936843533268</v>
       </c>
       <c r="B19" t="n">
-        <v>0.38105546834259</v>
+        <v>0.3982653262601039</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3958728056978645</v>
+        <v>0.4078726304003948</v>
       </c>
     </row>
     <row r="20">
@@ -647,10 +647,10 @@
         <v>0.194473076098636</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2419921713542693</v>
+        <v>0.2487168247563672</v>
       </c>
       <c r="C20" t="n">
-        <v>0.300740655271819</v>
+        <v>0.3079483271226175</v>
       </c>
     </row>
     <row r="21">
@@ -658,10 +658,10 @@
         <v>0.3690207680348336</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4634244444961451</v>
+        <v>0.4435913990058672</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5214496565927098</v>
+        <v>0.5110900338356539</v>
       </c>
     </row>
     <row r="22">
@@ -669,10 +669,10 @@
         <v>0.3141030493544485</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3481002522237359</v>
+        <v>0.3552801054998972</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3841829489732212</v>
+        <v>0.3917780878624746</v>
       </c>
     </row>
     <row r="23">
@@ -680,10 +680,10 @@
         <v>-0.1138472822146566</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.0900324180873277</v>
+        <v>-0.06598158323609662</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.05869284080786842</v>
+        <v>-0.03362055528175069</v>
       </c>
     </row>
     <row r="24">
@@ -691,10 +691,10 @@
         <v>4.556862130786088</v>
       </c>
       <c r="B24" t="n">
-        <v>4.641078204006591</v>
+        <v>4.64652098450761</v>
       </c>
       <c r="C24" t="n">
-        <v>4.665750928632196</v>
+        <v>4.657238259679452</v>
       </c>
     </row>
     <row r="25">
@@ -702,10 +702,10 @@
         <v>0.6433239894217659</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5009123848056879</v>
+        <v>0.4943215704727376</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4849463578012833</v>
+        <v>0.4815387829650647</v>
       </c>
     </row>
     <row r="26">
@@ -713,10 +713,10 @@
         <v>0.2103950017929433</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3873942341786615</v>
+        <v>0.3944919096527825</v>
       </c>
       <c r="C26" t="n">
-        <v>0.350824450870297</v>
+        <v>0.36244794794862</v>
       </c>
     </row>
     <row r="27">
@@ -724,10 +724,10 @@
         <v>0.3471548948143966</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3524642354648459</v>
+        <v>0.3478665255842199</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3138938702931852</v>
+        <v>0.3125625161631608</v>
       </c>
     </row>
     <row r="28">
@@ -735,10 +735,10 @@
         <v>1.046020504602608</v>
       </c>
       <c r="B28" t="n">
-        <v>1.12890646694507</v>
+        <v>1.131311382761552</v>
       </c>
       <c r="C28" t="n">
-        <v>1.070662419979307</v>
+        <v>1.073841271021365</v>
       </c>
     </row>
     <row r="29">
@@ -746,10 +746,10 @@
         <v>6.386249319401767</v>
       </c>
       <c r="B29" t="n">
-        <v>6.018652345223289</v>
+        <v>5.989697285148654</v>
       </c>
       <c r="C29" t="n">
-        <v>5.574278794849055</v>
+        <v>5.507915010888566</v>
       </c>
     </row>
     <row r="30">
@@ -757,10 +757,10 @@
         <v>1.140721739063586</v>
       </c>
       <c r="B30" t="n">
-        <v>1.033529866331698</v>
+        <v>1.040980659047581</v>
       </c>
       <c r="C30" t="n">
-        <v>0.966865972865717</v>
+        <v>0.976185683296799</v>
       </c>
     </row>
     <row r="31">
@@ -768,10 +768,10 @@
         <v>-0.2493538576499659</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.154799951766776</v>
+        <v>-0.146546836024889</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.2292867079862062</v>
+        <v>-0.2171781629357534</v>
       </c>
     </row>
     <row r="32">
@@ -779,10 +779,10 @@
         <v>0.786520083157729</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7756995235920929</v>
+        <v>0.7828745218074415</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7479107775663506</v>
+        <v>0.7576030272578753</v>
       </c>
     </row>
     <row r="33">
@@ -790,10 +790,10 @@
         <v>1.006735987623924</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9162461804338236</v>
+        <v>0.9086159910027884</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9003047990728774</v>
+        <v>0.893840682684764</v>
       </c>
     </row>
     <row r="34">
@@ -801,10 +801,10 @@
         <v>-0.4975381834063161</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.6550935842494154</v>
+        <v>-0.6322938977899302</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.6658797984632877</v>
+        <v>-0.6424596611186806</v>
       </c>
     </row>
     <row r="35">
@@ -812,10 +812,10 @@
         <v>0.8412842265605643</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8219364119905066</v>
+        <v>0.8308202261936922</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8127559622786243</v>
+        <v>0.8211784480373452</v>
       </c>
     </row>
     <row r="36">
@@ -823,10 +823,10 @@
         <v>0.8028692356988336</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7842834391820365</v>
+        <v>0.7845997278769563</v>
       </c>
       <c r="C36" t="n">
-        <v>0.766512505617556</v>
+        <v>0.7682661920851495</v>
       </c>
     </row>
     <row r="37">
@@ -834,10 +834,10 @@
         <v>0.7935295434520913</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7601684644865452</v>
+        <v>0.7673247537313208</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7406859788249792</v>
+        <v>0.7468983712376456</v>
       </c>
     </row>
     <row r="38">
@@ -845,10 +845,10 @@
         <v>0.7820668989009839</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7382220033203516</v>
+        <v>0.7614248359261103</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7182226127897761</v>
+        <v>0.7381370088434778</v>
       </c>
     </row>
     <row r="39">
@@ -856,10 +856,10 @@
         <v>0.5844703980617519</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5825960925661953</v>
+        <v>0.5801498560662414</v>
       </c>
       <c r="C39" t="n">
-        <v>0.578948007004125</v>
+        <v>0.5785019198624513</v>
       </c>
     </row>
     <row r="40">
@@ -867,10 +867,10 @@
         <v>0.7512834992005526</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7513578368536218</v>
+        <v>0.7500862168053677</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7494737534757424</v>
+        <v>0.7503044209841752</v>
       </c>
     </row>
     <row r="41">
@@ -878,10 +878,10 @@
         <v>0.5805925943547264</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5631537273031965</v>
+        <v>0.5740292953606498</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5542754904747991</v>
+        <v>0.5657034547119154</v>
       </c>
     </row>
     <row r="42">
@@ -889,10 +889,10 @@
         <v>0.7456031735833892</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7179397393862778</v>
+        <v>0.7219757400546358</v>
       </c>
       <c r="C42" t="n">
-        <v>0.68939041516987</v>
+        <v>0.6917388954469098</v>
       </c>
     </row>
     <row r="43">
@@ -900,10 +900,10 @@
         <v>0.7485116497278329</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7244730836392259</v>
+        <v>0.7344036898121714</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7091450079664641</v>
+        <v>0.7183746850466973</v>
       </c>
     </row>
     <row r="44">
@@ -911,10 +911,10 @@
         <v>0.6802059810269996</v>
       </c>
       <c r="B44" t="n">
-        <v>0.680406968940486</v>
+        <v>0.6724262516180799</v>
       </c>
       <c r="C44" t="n">
-        <v>0.672344541967933</v>
+        <v>0.6655174257823021</v>
       </c>
     </row>
     <row r="45">
@@ -922,10 +922,10 @@
         <v>0.6788495587994615</v>
       </c>
       <c r="B45" t="n">
-        <v>0.672662189527016</v>
+        <v>0.6557132659512696</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6545477212786104</v>
+        <v>0.6393301613064649</v>
       </c>
     </row>
     <row r="46">
@@ -933,10 +933,10 @@
         <v>-1.261070019130755</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.266442066389313</v>
+        <v>-1.259310717349668</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.270032221533199</v>
+        <v>-1.262619605060654</v>
       </c>
     </row>
     <row r="47">
@@ -944,10 +944,10 @@
         <v>-0.9744721436008253</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.9802214546329604</v>
+        <v>-0.9751540048435037</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.9848447405348487</v>
+        <v>-0.9794514840791761</v>
       </c>
     </row>
     <row r="48">
@@ -955,10 +955,10 @@
         <v>-0.8647221716518534</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.8742256456236115</v>
+        <v>-0.8699514465962723</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.8797462642448685</v>
+        <v>-0.8748889017938992</v>
       </c>
     </row>
     <row r="49">
@@ -966,10 +966,10 @@
         <v>-0.6350754164865442</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.6446067009915347</v>
+        <v>-0.6376377267191787</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.6475236969116793</v>
+        <v>-0.6400733031808122</v>
       </c>
     </row>
     <row r="50">
@@ -977,10 +977,10 @@
         <v>-0.05762349337085547</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.05071653555803813</v>
+        <v>-0.05228625112963124</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.05199289028252003</v>
+        <v>-0.05225096410204793</v>
       </c>
     </row>
     <row r="51">
@@ -988,10 +988,10 @@
         <v>-0.8498302047653893</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.8663287312007221</v>
+        <v>-0.8577452128631521</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.8705702310432394</v>
+        <v>-0.8604280593777454</v>
       </c>
     </row>
     <row r="52">
@@ -999,10 +999,10 @@
         <v>-0.8498302047653893</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.8663287312007221</v>
+        <v>-0.8577452128631521</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.8705702310432394</v>
+        <v>-0.8604280593777454</v>
       </c>
     </row>
     <row r="53">
@@ -1010,10 +1010,10 @@
         <v>-1.071112977664036</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.090594527858412</v>
+        <v>-1.085572194885408</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.103339595476464</v>
+        <v>-1.09905820809552</v>
       </c>
     </row>
     <row r="54">
@@ -1021,10 +1021,10 @@
         <v>-0.191750703599722</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1919080813551201</v>
+        <v>-0.191313546284351</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.1907592818839397</v>
+        <v>-0.1888775749458106</v>
       </c>
     </row>
     <row r="55">
@@ -1032,10 +1032,10 @@
         <v>-1.001581896554034</v>
       </c>
       <c r="B55" t="n">
-        <v>-1.001773315998872</v>
+        <v>-0.9973543927928555</v>
       </c>
       <c r="C55" t="n">
-        <v>-1.00555449839707</v>
+        <v>-0.9998245551834358</v>
       </c>
     </row>
     <row r="56">
@@ -1043,10 +1043,10 @@
         <v>-0.9146087909004164</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.8944351431311341</v>
+        <v>-0.8989397862939991</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.8900221331924624</v>
+        <v>-0.8919475490897619</v>
       </c>
     </row>
     <row r="57">
@@ -1054,10 +1054,10 @@
         <v>-0.990362655569784</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.9512315283883667</v>
+        <v>-0.9697356462549301</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.937466809221166</v>
+        <v>-0.9519109274952845</v>
       </c>
     </row>
     <row r="58">
@@ -1065,10 +1065,10 @@
         <v>-1.20305019036047</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.157898408136979</v>
+        <v>-1.173013568950063</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.133109247004779</v>
+        <v>-1.140645740446841</v>
       </c>
     </row>
     <row r="59">
@@ -1076,10 +1076,10 @@
         <v>-0.88874567332365</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.8657258021339564</v>
+        <v>-0.8758385668749407</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.852590359020692</v>
+        <v>-0.857186425265752</v>
       </c>
     </row>
     <row r="60">
@@ -1087,10 +1087,10 @@
         <v>-0.5466130502156099</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.5227209645818337</v>
+        <v>-0.5276024229975791</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.5008670399630072</v>
+        <v>-0.5000282140209131</v>
       </c>
     </row>
     <row r="61">
@@ -1098,10 +1098,10 @@
         <v>0.3627413646747232</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3674037677542816</v>
+        <v>0.3647378274819701</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3699171247469289</v>
+        <v>0.3684809577194981</v>
       </c>
     </row>
     <row r="62">
@@ -1109,10 +1109,10 @@
         <v>-1.299372679580961</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.23693731724293</v>
+        <v>-1.266473933546654</v>
       </c>
       <c r="C62" t="n">
-        <v>-1.215902901274585</v>
+        <v>-1.240715157239431</v>
       </c>
     </row>
     <row r="63">
@@ -1120,10 +1120,10 @@
         <v>-0.7868633011641275</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.7727467809697305</v>
+        <v>-0.7710400446527043</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.743966285811586</v>
+        <v>-0.7331895034939727</v>
       </c>
     </row>
     <row r="64">
@@ -1131,10 +1131,10 @@
         <v>-0.9069570706413685</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.9132005957652777</v>
+        <v>-0.9064267757069395</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.9061324817214416</v>
+        <v>-0.8967893644422141</v>
       </c>
     </row>
     <row r="65">
@@ -1142,10 +1142,10 @@
         <v>-0.1676005642818128</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.1348743924113562</v>
+        <v>-0.1456098824911458</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.114355218372612</v>
+        <v>-0.1189287952192628</v>
       </c>
     </row>
     <row r="66">
@@ -1153,10 +1153,10 @@
         <v>-0.8801614050208516</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.821441419724717</v>
+        <v>-0.8427701866883508</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.7953524061942528</v>
+        <v>-0.8091611560749737</v>
       </c>
     </row>
     <row r="67">
@@ -1164,10 +1164,10 @@
         <v>-0.900853687537532</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.8020534589983982</v>
+        <v>-0.8447519046281721</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.7678066512038981</v>
+        <v>-0.8005741458551142</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,16 +443,28 @@
       <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-0.3140135697527972</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.2998608192475538</v>
+        <v>-0.325855809859301</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2844306209533958</v>
+        <v>-0.3126074021475208</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.2980630667470408</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.2843177274485067</v>
       </c>
     </row>
     <row r="3">
@@ -460,10 +472,16 @@
         <v>0.2156474484748018</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2222994047451824</v>
+        <v>0.1980466130065022</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2323567825548751</v>
+        <v>0.207418428702304</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2174220641097828</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2274902435867204</v>
       </c>
     </row>
     <row r="4">
@@ -471,10 +489,16 @@
         <v>0.1501439283859047</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1596690214676689</v>
+        <v>0.1274204912641633</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1730073447847666</v>
+        <v>0.1397699872622917</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1525323929103086</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1653298369738916</v>
       </c>
     </row>
     <row r="5">
@@ -482,10 +506,16 @@
         <v>-0.05797921045916028</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.05157580157622221</v>
+        <v>-0.08768491371053436</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.04133725088963019</v>
+        <v>-0.07744184877066863</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.06832904522776394</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.0599168686939226</v>
       </c>
     </row>
     <row r="6">
@@ -493,10 +523,16 @@
         <v>0.1244747309714689</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1524653381963466</v>
+        <v>0.1248329979603581</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1693687572142441</v>
+        <v>0.1404438641221932</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1562615266224299</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1705797319568869</v>
       </c>
     </row>
     <row r="7">
@@ -504,10 +540,16 @@
         <v>-0.4403246410658452</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4397818082765901</v>
+        <v>-0.4661835612668545</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4288345250936945</v>
+        <v>-0.4560208425961351</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.4453787675095629</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.4348097557189742</v>
       </c>
     </row>
     <row r="8">
@@ -515,10 +557,16 @@
         <v>-0.3103308849438261</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2891752268856903</v>
+        <v>-0.2781174898209858</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2655955976075189</v>
+        <v>-0.2643008771758987</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.2511522026898271</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.2379673175890389</v>
       </c>
     </row>
     <row r="9">
@@ -526,10 +574,16 @@
         <v>-0.4053535421255747</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4046922839984844</v>
+        <v>-0.4214736441918441</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.3945937732805802</v>
+        <v>-0.4111385904835828</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.399138275869369</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.3857231588707519</v>
       </c>
     </row>
     <row r="10">
@@ -537,10 +591,16 @@
         <v>0.3077863685140212</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3269025025094837</v>
+        <v>0.3419617491862589</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3446233488301431</v>
+        <v>0.3571834378931258</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3712457805733914</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.3838352396423196</v>
       </c>
     </row>
     <row r="11">
@@ -548,10 +608,16 @@
         <v>-0.2198632596458272</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2058413461554524</v>
+        <v>-0.2523839996266436</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1976879972501496</v>
+        <v>-0.2431705533576028</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.2335810699672107</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.2245464970384065</v>
       </c>
     </row>
     <row r="12">
@@ -559,10 +625,16 @@
         <v>-0.1103124218275768</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.08305774230531343</v>
+        <v>-0.1101101101107061</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.05729188132265255</v>
+        <v>-0.08717066279005641</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.0666998360689437</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.04882593627448303</v>
       </c>
     </row>
     <row r="13">
@@ -570,10 +642,16 @@
         <v>-0.004022845607394114</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.001980202257975946</v>
+        <v>-0.01543321063959337</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0006439044102356604</v>
+        <v>-0.01378700768231838</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.01286638361967966</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.01202736684492865</v>
       </c>
     </row>
     <row r="14">
@@ -581,10 +659,16 @@
         <v>-0.007810175607406114</v>
       </c>
       <c r="B14" t="n">
-        <v>0.03918117179674931</v>
+        <v>0.01304800678538062</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07951650193235101</v>
+        <v>0.05318596187994578</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.09027444230885712</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1227705510554498</v>
       </c>
     </row>
     <row r="15">
@@ -592,10 +676,16 @@
         <v>-0.1324754430102111</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.07737564180358925</v>
+        <v>-0.05536046364716403</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.02761333128479813</v>
+        <v>-0.01069839903220687</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.02931819476764254</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.06330465735884182</v>
       </c>
     </row>
     <row r="16">
@@ -603,10 +693,16 @@
         <v>0.2094277682760297</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2727842049609036</v>
+        <v>0.2922303273140344</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3387468086258007</v>
+        <v>0.3540856688049244</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.4090445185905391</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.4567961253479446</v>
       </c>
     </row>
     <row r="17">
@@ -614,10 +710,16 @@
         <v>0.5479266027025382</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5925036014333478</v>
+        <v>0.5756115541552026</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6211163730947561</v>
+        <v>0.6078572521223664</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6371014838166121</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.660710131241996</v>
       </c>
     </row>
     <row r="18">
@@ -625,10 +727,16 @@
         <v>0.07105425029831516</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0640445261876246</v>
+        <v>0.0592059676680943</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04370221162946492</v>
+        <v>0.04397870436778223</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.03260118588391128</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.02213374282961747</v>
       </c>
     </row>
     <row r="19">
@@ -636,10 +744,16 @@
         <v>0.3710936843533268</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3982653262601039</v>
+        <v>0.38105546834259</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4078726304003948</v>
+        <v>0.3958728056978645</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.410394712163325</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.4222564360028664</v>
       </c>
     </row>
     <row r="20">
@@ -647,10 +761,16 @@
         <v>0.194473076098636</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2487168247563672</v>
+        <v>0.2419921713542693</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3079483271226175</v>
+        <v>0.300740655271819</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.3518105621616733</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.3955134729079876</v>
       </c>
     </row>
     <row r="21">
@@ -658,10 +778,16 @@
         <v>0.3690207680348336</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4435913990058672</v>
+        <v>0.4634244444961451</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5110900338356539</v>
+        <v>0.5214496565927098</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5707076536579666</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.6117356048302647</v>
       </c>
     </row>
     <row r="22">
@@ -669,10 +795,16 @@
         <v>0.3141030493544485</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3552801054998972</v>
+        <v>0.3481002522237359</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3917780878624746</v>
+        <v>0.3841829489732212</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.4152544724174362</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.4409891121093622</v>
       </c>
     </row>
     <row r="23">
@@ -680,10 +812,16 @@
         <v>-0.1138472822146566</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.06598158323609662</v>
+        <v>-0.0900324180873277</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.03362055528175069</v>
+        <v>-0.05869284080786842</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.0312697810142205</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.009082390422290587</v>
       </c>
     </row>
     <row r="24">
@@ -691,10 +829,16 @@
         <v>4.556862130786088</v>
       </c>
       <c r="B24" t="n">
-        <v>4.64652098450761</v>
+        <v>4.641078204006591</v>
       </c>
       <c r="C24" t="n">
-        <v>4.657238259679452</v>
+        <v>4.665750928632196</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4.608715299317954</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4.489691171225057</v>
       </c>
     </row>
     <row r="25">
@@ -702,10 +846,16 @@
         <v>0.6433239894217659</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4943215704727376</v>
+        <v>0.5009123848056879</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4815387829650647</v>
+        <v>0.4849463578012833</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.4525917190461215</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.4248050150355296</v>
       </c>
     </row>
     <row r="26">
@@ -713,10 +863,16 @@
         <v>0.2103950017929433</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3944919096527825</v>
+        <v>0.3873942341786615</v>
       </c>
       <c r="C26" t="n">
-        <v>0.36244794794862</v>
+        <v>0.350824450870297</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.3335940951200702</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.3137860505303135</v>
       </c>
     </row>
     <row r="27">
@@ -724,10 +880,16 @@
         <v>0.3471548948143966</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3478665255842199</v>
+        <v>0.3524642354648459</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3125625161631608</v>
+        <v>0.3138938702931852</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.2844993405140518</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.2541090719352715</v>
       </c>
     </row>
     <row r="28">
@@ -735,10 +897,16 @@
         <v>1.046020504602608</v>
       </c>
       <c r="B28" t="n">
-        <v>1.131311382761552</v>
+        <v>1.12890646694507</v>
       </c>
       <c r="C28" t="n">
-        <v>1.073841271021365</v>
+        <v>1.070662419979307</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.039230865553925</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.007680676990161</v>
       </c>
     </row>
     <row r="29">
@@ -746,10 +914,16 @@
         <v>6.386249319401767</v>
       </c>
       <c r="B29" t="n">
-        <v>5.989697285148654</v>
+        <v>6.018652345223289</v>
       </c>
       <c r="C29" t="n">
-        <v>5.507915010888566</v>
+        <v>5.574278794849055</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5.148629597558656</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.73779105543719</v>
       </c>
     </row>
     <row r="30">
@@ -757,10 +931,16 @@
         <v>1.140721739063586</v>
       </c>
       <c r="B30" t="n">
-        <v>1.040980659047581</v>
+        <v>1.033529866331698</v>
       </c>
       <c r="C30" t="n">
-        <v>0.976185683296799</v>
+        <v>0.966865972865717</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9249882214941453</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.881650982266408</v>
       </c>
     </row>
     <row r="31">
@@ -768,10 +948,16 @@
         <v>-0.2493538576499659</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.146546836024889</v>
+        <v>-0.154799951766776</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.2171781629357534</v>
+        <v>-0.2292867079862062</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.2713583108464936</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.3157076731458657</v>
       </c>
     </row>
     <row r="32">
@@ -779,10 +965,16 @@
         <v>0.786520083157729</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7828745218074415</v>
+        <v>0.7756995235920929</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7576030272578753</v>
+        <v>0.7479107775663506</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.7258912633211649</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.7025005228129911</v>
       </c>
     </row>
     <row r="33">
@@ -790,10 +982,16 @@
         <v>1.006735987623924</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9086159910027884</v>
+        <v>0.9162461804338236</v>
       </c>
       <c r="C33" t="n">
-        <v>0.893840682684764</v>
+        <v>0.9003047990728774</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.8800943442816913</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.8599622678288648</v>
       </c>
     </row>
     <row r="34">
@@ -801,10 +999,16 @@
         <v>-0.4975381834063161</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.6322938977899302</v>
+        <v>-0.6550935842494154</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.6424596611186806</v>
+        <v>-0.6658797984632877</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.6927828861456549</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-0.7171625754163419</v>
       </c>
     </row>
     <row r="35">
@@ -812,10 +1016,16 @@
         <v>0.8412842265605643</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8308202261936922</v>
+        <v>0.8219364119905066</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8211784480373452</v>
+        <v>0.8127559622786243</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.8047129003570844</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.7973055744432822</v>
       </c>
     </row>
     <row r="36">
@@ -823,10 +1033,16 @@
         <v>0.8028692356988336</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7845997278769563</v>
+        <v>0.7842834391820365</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7682661920851495</v>
+        <v>0.766512505617556</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.7512879944461233</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.738148296390382</v>
       </c>
     </row>
     <row r="37">
@@ -834,10 +1050,16 @@
         <v>0.7935295434520913</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7673247537313208</v>
+        <v>0.7601684644865452</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7468983712376456</v>
+        <v>0.7406859788249792</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.7234973185378065</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.7085135808979263</v>
       </c>
     </row>
     <row r="38">
@@ -845,10 +1067,16 @@
         <v>0.7820668989009839</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7614248359261103</v>
+        <v>0.7382220033203516</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7381370088434778</v>
+        <v>0.7182226127897761</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.701287494099793</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.6861469047154207</v>
       </c>
     </row>
     <row r="39">
@@ -856,10 +1084,16 @@
         <v>0.5844703980617519</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5801498560662414</v>
+        <v>0.5825960925661953</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5785019198624513</v>
+        <v>0.578948007004125</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.5757789249263706</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.5730701903155013</v>
       </c>
     </row>
     <row r="40">
@@ -867,10 +1101,16 @@
         <v>0.7512834992005526</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7500862168053677</v>
+        <v>0.7513578368536218</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7503044209841752</v>
+        <v>0.7494737534757424</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.7470967384942351</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.744496939910536</v>
       </c>
     </row>
     <row r="41">
@@ -878,10 +1118,16 @@
         <v>0.5805925943547264</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5740292953606498</v>
+        <v>0.5631537273031965</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5657034547119154</v>
+        <v>0.5542754904747991</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.5480889840555826</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.5433917181990013</v>
       </c>
     </row>
     <row r="42">
@@ -889,10 +1135,16 @@
         <v>0.7456031735833892</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7219757400546358</v>
+        <v>0.7179397393862778</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6917388954469098</v>
+        <v>0.68939041516987</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.6649865885878431</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.6432707631954585</v>
       </c>
     </row>
     <row r="43">
@@ -900,10 +1152,16 @@
         <v>0.7485116497278329</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7344036898121714</v>
+        <v>0.7244730836392259</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7183746850466973</v>
+        <v>0.7091450079664641</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.6963223356878759</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.6851206857672326</v>
       </c>
     </row>
     <row r="44">
@@ -911,10 +1169,16 @@
         <v>0.6802059810269996</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6724262516180799</v>
+        <v>0.680406968940486</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6655174257823021</v>
+        <v>0.672344541967933</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.6660330696978196</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.6608349980299094</v>
       </c>
     </row>
     <row r="45">
@@ -922,10 +1186,16 @@
         <v>0.6788495587994615</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6557132659512696</v>
+        <v>0.672662189527016</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6393301613064649</v>
+        <v>0.6545477212786104</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.6387727608519012</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.6255846684915779</v>
       </c>
     </row>
     <row r="46">
@@ -933,10 +1203,16 @@
         <v>-1.261070019130755</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.259310717349668</v>
+        <v>-1.266442066389313</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.262619605060654</v>
+        <v>-1.270032221533199</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-1.272663896825482</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-1.275024392540528</v>
       </c>
     </row>
     <row r="47">
@@ -944,10 +1220,16 @@
         <v>-0.9744721436008253</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.9751540048435037</v>
+        <v>-0.9802214546329604</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.9794514840791761</v>
+        <v>-0.9848447405348487</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0.9883738911812509</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-0.9915364809575606</v>
       </c>
     </row>
     <row r="48">
@@ -955,10 +1237,16 @@
         <v>-0.8647221716518534</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.8699514465962723</v>
+        <v>-0.8742256456236115</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.8748889017938992</v>
+        <v>-0.8797462642448685</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.8836234785353263</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0.8864138730706321</v>
       </c>
     </row>
     <row r="49">
@@ -966,10 +1254,16 @@
         <v>-0.6350754164865442</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.6376377267191787</v>
+        <v>-0.6446067009915347</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.6400733031808122</v>
+        <v>-0.6475236969116793</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-0.6492678017445718</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-0.6503290601908682</v>
       </c>
     </row>
     <row r="50">
@@ -977,10 +1271,16 @@
         <v>-0.05762349337085547</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.05228625112963124</v>
+        <v>-0.05071653555803813</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.05225096410204793</v>
+        <v>-0.05199289028252003</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-0.05233015104437163</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-0.05285255828036198</v>
       </c>
     </row>
     <row r="51">
@@ -988,10 +1288,16 @@
         <v>-0.8498302047653893</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.8577452128631521</v>
+        <v>-0.8663287312007221</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.8604280593777454</v>
+        <v>-0.8705702310432394</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-0.8741376547705487</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-0.876667354408395</v>
       </c>
     </row>
     <row r="52">
@@ -999,10 +1305,16 @@
         <v>-0.8498302047653893</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.8577452128631521</v>
+        <v>-0.8663287312007221</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.8604280593777454</v>
+        <v>-0.8705702310432394</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-0.8741376547705487</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-0.876667354408395</v>
       </c>
     </row>
     <row r="53">
@@ -1010,10 +1322,16 @@
         <v>-1.071112977664036</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.085572194885408</v>
+        <v>-1.090594527858412</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.09905820809552</v>
+        <v>-1.103339595476464</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-1.113550389871973</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-1.121874574810753</v>
       </c>
     </row>
     <row r="54">
@@ -1021,10 +1339,16 @@
         <v>-0.191750703599722</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.191313546284351</v>
+        <v>-0.1919080813551201</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.1888775749458106</v>
+        <v>-0.1907592818839397</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-0.189236277544871</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-0.1876592955219717</v>
       </c>
     </row>
     <row r="55">
@@ -1032,10 +1356,16 @@
         <v>-1.001581896554034</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.9973543927928555</v>
+        <v>-1.001773315998872</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.9998245551834358</v>
+        <v>-1.00555449839707</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-1.008265427645194</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-1.010778402406241</v>
       </c>
     </row>
     <row r="56">
@@ -1043,10 +1373,16 @@
         <v>-0.9146087909004164</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.8989397862939991</v>
+        <v>-0.8944351431311341</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.8919475490897619</v>
+        <v>-0.8900221331924624</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-0.8864013004751327</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-0.8840843348189817</v>
       </c>
     </row>
     <row r="57">
@@ -1054,10 +1390,16 @@
         <v>-0.990362655569784</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.9697356462549301</v>
+        <v>-0.9512315283883667</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.9519109274952845</v>
+        <v>-0.937466809221166</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-0.9252114399487608</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-0.9146887535763757</v>
       </c>
     </row>
     <row r="58">
@@ -1065,10 +1407,16 @@
         <v>-1.20305019036047</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.173013568950063</v>
+        <v>-1.157898408136979</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.140645740446841</v>
+        <v>-1.133109247004779</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-1.111970839411597</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-1.093731514432581</v>
       </c>
     </row>
     <row r="59">
@@ -1076,10 +1424,16 @@
         <v>-0.88874567332365</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.8758385668749407</v>
+        <v>-0.8657258021339564</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.857186425265752</v>
+        <v>-0.852590359020692</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-0.8409080563186417</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-0.8300670001774987</v>
       </c>
     </row>
     <row r="60">
@@ -1087,10 +1441,16 @@
         <v>-0.5466130502156099</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.5276024229975791</v>
+        <v>-0.5227209645818337</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.5000282140209131</v>
+        <v>-0.5008670399630072</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-0.4820963311713522</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-0.4652346456209743</v>
       </c>
     </row>
     <row r="61">
@@ -1098,10 +1458,16 @@
         <v>0.3627413646747232</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3647378274819701</v>
+        <v>0.3674037677542816</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3684809577194981</v>
+        <v>0.3699171247469289</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.3726978265504701</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.3753032647788074</v>
       </c>
     </row>
     <row r="62">
@@ -1109,10 +1475,16 @@
         <v>-1.299372679580961</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.266473933546654</v>
+        <v>-1.23693731724293</v>
       </c>
       <c r="C62" t="n">
-        <v>-1.240715157239431</v>
+        <v>-1.215902901274585</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-1.197224495892342</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-1.181215981706907</v>
       </c>
     </row>
     <row r="63">
@@ -1120,10 +1492,16 @@
         <v>-0.7868633011641275</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.7710400446527043</v>
+        <v>-0.7727467809697305</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.7331895034939727</v>
+        <v>-0.743966285811586</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-0.719380959269023</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-0.6959706659486077</v>
       </c>
     </row>
     <row r="64">
@@ -1131,10 +1509,16 @@
         <v>-0.9069570706413685</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.9064267757069395</v>
+        <v>-0.9132005957652777</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.8967893644422141</v>
+        <v>-0.9061324817214416</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-0.8985728031111383</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-0.8902361113166195</v>
       </c>
     </row>
     <row r="65">
@@ -1142,10 +1526,16 @@
         <v>-0.1676005642818128</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.1456098824911458</v>
+        <v>-0.1348743924113562</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.1189287952192628</v>
+        <v>-0.114355218372612</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-0.0965653958409185</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-0.08075474491819057</v>
       </c>
     </row>
     <row r="66">
@@ -1153,10 +1543,16 @@
         <v>-0.8801614050208516</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.8427701866883508</v>
+        <v>-0.821441419724717</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.8091611560749737</v>
+        <v>-0.7953524061942528</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-0.7740188565629722</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-0.7562617150811822</v>
       </c>
     </row>
     <row r="67">
@@ -1164,10 +1560,16 @@
         <v>-0.900853687537532</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.8447519046281721</v>
+        <v>-0.8020534589983982</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.8005741458551142</v>
+        <v>-0.7678066512038981</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-0.7396616165767446</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-0.7172320144029851</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,9 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +469,9 @@
       <c r="E2" t="n">
         <v>-0.2843177274485067</v>
       </c>
+      <c r="F2" t="n">
+        <v>-0.2715821913918268</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +489,9 @@
       <c r="E3" t="n">
         <v>0.2274902435867204</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.2371783269710829</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +509,9 @@
       <c r="E4" t="n">
         <v>0.1653298369738916</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.1777000928947239</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +529,9 @@
       <c r="E5" t="n">
         <v>-0.0599168686939226</v>
       </c>
+      <c r="F5" t="n">
+        <v>-0.05251803080922353</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +549,9 @@
       <c r="E6" t="n">
         <v>0.1705797319568869</v>
       </c>
+      <c r="F6" t="n">
+        <v>0.1833729744074463</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +569,9 @@
       <c r="E7" t="n">
         <v>-0.4348097557189742</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.4245960712068298</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +589,9 @@
       <c r="E8" t="n">
         <v>-0.2379673175890389</v>
       </c>
+      <c r="F8" t="n">
+        <v>-0.2250720382424384</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +609,9 @@
       <c r="E9" t="n">
         <v>-0.3857231588707519</v>
       </c>
+      <c r="F9" t="n">
+        <v>-0.3717986493772271</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -602,6 +629,9 @@
       <c r="E10" t="n">
         <v>0.3838352396423196</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.3948440773624874</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -619,6 +649,9 @@
       <c r="E11" t="n">
         <v>-0.2245464970384065</v>
       </c>
+      <c r="F11" t="n">
+        <v>-0.2161331025748526</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -636,6 +669,9 @@
       <c r="E12" t="n">
         <v>-0.04882593627448303</v>
       </c>
+      <c r="F12" t="n">
+        <v>-0.03369800239101414</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -653,6 +689,9 @@
       <c r="E13" t="n">
         <v>-0.01202736684492865</v>
       </c>
+      <c r="F13" t="n">
+        <v>-0.01141211646484687</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -670,6 +709,9 @@
       <c r="E14" t="n">
         <v>0.1227705510554498</v>
       </c>
+      <c r="F14" t="n">
+        <v>0.1505697836338021</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -687,6 +729,9 @@
       <c r="E15" t="n">
         <v>0.06330465735884182</v>
       </c>
+      <c r="F15" t="n">
+        <v>0.09131452982133623</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -704,6 +749,9 @@
       <c r="E16" t="n">
         <v>0.4567961253479446</v>
       </c>
+      <c r="F16" t="n">
+        <v>0.4970891125598905</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -721,6 +769,9 @@
       <c r="E17" t="n">
         <v>0.660710131241996</v>
       </c>
+      <c r="F17" t="n">
+        <v>0.6786814168743678</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -738,6 +789,9 @@
       <c r="E18" t="n">
         <v>0.02213374282961747</v>
       </c>
+      <c r="F18" t="n">
+        <v>0.01244156698739854</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -755,6 +809,9 @@
       <c r="E19" t="n">
         <v>0.4222564360028664</v>
       </c>
+      <c r="F19" t="n">
+        <v>0.4314367886473196</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -772,6 +829,9 @@
       <c r="E20" t="n">
         <v>0.3955134729079876</v>
       </c>
+      <c r="F20" t="n">
+        <v>0.4315436571207222</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -789,6 +849,9 @@
       <c r="E21" t="n">
         <v>0.6117356048302647</v>
       </c>
+      <c r="F21" t="n">
+        <v>0.6448254235227905</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -806,6 +869,9 @@
       <c r="E22" t="n">
         <v>0.4409891121093622</v>
       </c>
+      <c r="F22" t="n">
+        <v>0.4611896646487312</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -823,6 +889,9 @@
       <c r="E23" t="n">
         <v>-0.009082390422290587</v>
       </c>
+      <c r="F23" t="n">
+        <v>0.008157737935753417</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -840,6 +909,9 @@
       <c r="E24" t="n">
         <v>4.489691171225057</v>
       </c>
+      <c r="F24" t="n">
+        <v>4.320516707667864</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -857,6 +929,9 @@
       <c r="E25" t="n">
         <v>0.4248050150355296</v>
       </c>
+      <c r="F25" t="n">
+        <v>0.3989924141465856</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -874,6 +949,9 @@
       <c r="E26" t="n">
         <v>0.3137860505303135</v>
       </c>
+      <c r="F26" t="n">
+        <v>0.2931997585303253</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -891,6 +969,9 @@
       <c r="E27" t="n">
         <v>0.2541090719352715</v>
       </c>
+      <c r="F27" t="n">
+        <v>0.2242274613561573</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -908,6 +989,9 @@
       <c r="E28" t="n">
         <v>1.007680676990161</v>
       </c>
+      <c r="F28" t="n">
+        <v>0.9767472669094529</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -925,6 +1009,9 @@
       <c r="E29" t="n">
         <v>4.73779105543719</v>
       </c>
+      <c r="F29" t="n">
+        <v>4.345507514918131</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -942,6 +1029,9 @@
       <c r="E30" t="n">
         <v>0.881650982266408</v>
       </c>
+      <c r="F30" t="n">
+        <v>0.8414023197636116</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -959,6 +1049,9 @@
       <c r="E31" t="n">
         <v>-0.3157076731458657</v>
       </c>
+      <c r="F31" t="n">
+        <v>-0.3536874900386226</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -976,6 +1069,9 @@
       <c r="E32" t="n">
         <v>0.7025005228129911</v>
       </c>
+      <c r="F32" t="n">
+        <v>0.6790965671125007</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -993,6 +1089,9 @@
       <c r="E33" t="n">
         <v>0.8599622678288648</v>
       </c>
+      <c r="F33" t="n">
+        <v>0.8408322297495325</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1010,6 +1109,9 @@
       <c r="E34" t="n">
         <v>-0.7171625754163419</v>
       </c>
+      <c r="F34" t="n">
+        <v>-0.7406606302416708</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1027,6 +1129,9 @@
       <c r="E35" t="n">
         <v>0.7973055744432822</v>
       </c>
+      <c r="F35" t="n">
+        <v>0.7906652056406425</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1044,6 +1149,9 @@
       <c r="E36" t="n">
         <v>0.738148296390382</v>
       </c>
+      <c r="F36" t="n">
+        <v>0.72708981456708</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1061,6 +1169,9 @@
       <c r="E37" t="n">
         <v>0.7085135808979263</v>
       </c>
+      <c r="F37" t="n">
+        <v>0.6958694648845275</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1078,6 +1189,9 @@
       <c r="E38" t="n">
         <v>0.6861469047154207</v>
       </c>
+      <c r="F38" t="n">
+        <v>0.6728142575603817</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1095,6 +1209,9 @@
       <c r="E39" t="n">
         <v>0.5730701903155013</v>
       </c>
+      <c r="F39" t="n">
+        <v>0.5708655791425093</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1112,6 +1229,9 @@
       <c r="E40" t="n">
         <v>0.744496939910536</v>
       </c>
+      <c r="F40" t="n">
+        <v>0.7419195741271774</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1129,6 +1249,9 @@
       <c r="E41" t="n">
         <v>0.5433917181990013</v>
       </c>
+      <c r="F41" t="n">
+        <v>0.5400270045044976</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1146,6 +1269,9 @@
       <c r="E42" t="n">
         <v>0.6432707631954585</v>
       </c>
+      <c r="F42" t="n">
+        <v>0.624376350206503</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1163,6 +1289,9 @@
       <c r="E43" t="n">
         <v>0.6851206857672326</v>
       </c>
+      <c r="F43" t="n">
+        <v>0.6755392874731727</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1180,6 +1309,9 @@
       <c r="E44" t="n">
         <v>0.6608349980299094</v>
       </c>
+      <c r="F44" t="n">
+        <v>0.6568329012902567</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1197,6 +1329,9 @@
       <c r="E45" t="n">
         <v>0.6255846684915779</v>
       </c>
+      <c r="F45" t="n">
+        <v>0.6149962559872798</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1214,6 +1349,9 @@
       <c r="E46" t="n">
         <v>-1.275024392540528</v>
       </c>
+      <c r="F46" t="n">
+        <v>-1.277019083867472</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1231,6 +1369,9 @@
       <c r="E47" t="n">
         <v>-0.9915364809575606</v>
       </c>
+      <c r="F47" t="n">
+        <v>-0.9942135803525617</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1248,6 +1389,9 @@
       <c r="E48" t="n">
         <v>-0.8864138730706321</v>
       </c>
+      <c r="F48" t="n">
+        <v>-0.8881861024980651</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1265,6 +1409,9 @@
       <c r="E49" t="n">
         <v>-0.6503290601908682</v>
       </c>
+      <c r="F49" t="n">
+        <v>-0.6507847536304113</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1282,6 +1429,9 @@
       <c r="E50" t="n">
         <v>-0.05285255828036198</v>
       </c>
+      <c r="F50" t="n">
+        <v>-0.053442335770324</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1299,6 +1449,9 @@
       <c r="E51" t="n">
         <v>-0.876667354408395</v>
       </c>
+      <c r="F51" t="n">
+        <v>-0.8782971351056303</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1316,6 +1469,9 @@
       <c r="E52" t="n">
         <v>-0.876667354408395</v>
       </c>
+      <c r="F52" t="n">
+        <v>-0.8782971351056303</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1333,6 +1489,9 @@
       <c r="E53" t="n">
         <v>-1.121874574810753</v>
       </c>
+      <c r="F53" t="n">
+        <v>-1.128462877312155</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1350,6 +1509,9 @@
       <c r="E54" t="n">
         <v>-0.1876592955219717</v>
       </c>
+      <c r="F54" t="n">
+        <v>-0.186084424007269</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1367,6 +1529,9 @@
       <c r="E55" t="n">
         <v>-1.010778402406241</v>
       </c>
+      <c r="F55" t="n">
+        <v>-1.012977016334376</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1384,6 +1549,9 @@
       <c r="E56" t="n">
         <v>-0.8840843348189817</v>
       </c>
+      <c r="F56" t="n">
+        <v>-0.882691034866425</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1401,6 +1569,9 @@
       <c r="E57" t="n">
         <v>-0.9146887535763757</v>
       </c>
+      <c r="F57" t="n">
+        <v>-0.9059843415741236</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1418,6 +1589,9 @@
       <c r="E58" t="n">
         <v>-1.093731514432581</v>
       </c>
+      <c r="F58" t="n">
+        <v>-1.078353109999882</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1435,6 +1609,9 @@
       <c r="E59" t="n">
         <v>-0.8300670001774987</v>
       </c>
+      <c r="F59" t="n">
+        <v>-0.8202878950804757</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1452,6 +1629,9 @@
       <c r="E60" t="n">
         <v>-0.4652346456209743</v>
       </c>
+      <c r="F60" t="n">
+        <v>-0.4505705410039147</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1469,6 +1649,9 @@
       <c r="E61" t="n">
         <v>0.3753032647788074</v>
       </c>
+      <c r="F61" t="n">
+        <v>0.3776991076972478</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1486,6 +1669,9 @@
       <c r="E62" t="n">
         <v>-1.181215981706907</v>
       </c>
+      <c r="F62" t="n">
+        <v>-1.16791885744874</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1503,6 +1689,9 @@
       <c r="E63" t="n">
         <v>-0.6959706659486077</v>
       </c>
+      <c r="F63" t="n">
+        <v>-0.6743595563574327</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1520,6 +1709,9 @@
       <c r="E64" t="n">
         <v>-0.8902361113166195</v>
       </c>
+      <c r="F64" t="n">
+        <v>-0.8818467423322823</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1537,6 +1729,9 @@
       <c r="E65" t="n">
         <v>-0.08075474491819057</v>
       </c>
+      <c r="F65" t="n">
+        <v>-0.06709394858763942</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1554,6 +1749,9 @@
       <c r="E66" t="n">
         <v>-0.7562617150811822</v>
       </c>
+      <c r="F66" t="n">
+        <v>-0.7420191581364592</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1570,6 +1768,9 @@
       </c>
       <c r="E67" t="n">
         <v>-0.7172320144029851</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.6999128418453304</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,6 +452,9 @@
       <c r="F1" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -472,6 +475,9 @@
       <c r="F2" t="n">
         <v>-0.2715821913918268</v>
       </c>
+      <c r="G2" t="n">
+        <v>-0.2600273687876995</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -492,6 +498,9 @@
       <c r="F3" t="n">
         <v>0.2371783269710829</v>
       </c>
+      <c r="G3" t="n">
+        <v>0.2462018935346756</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -512,6 +521,9 @@
       <c r="F4" t="n">
         <v>0.1777000928947239</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.1894342629546181</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -532,6 +544,9 @@
       <c r="F5" t="n">
         <v>-0.05251803080922353</v>
       </c>
+      <c r="G5" t="n">
+        <v>-0.04616156200383323</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -552,6 +567,9 @@
       <c r="F6" t="n">
         <v>0.1833729744074463</v>
       </c>
+      <c r="G6" t="n">
+        <v>0.19454990349282</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -572,6 +590,9 @@
       <c r="F7" t="n">
         <v>-0.4245960712068298</v>
       </c>
+      <c r="G7" t="n">
+        <v>-0.4149807274851984</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -592,6 +613,9 @@
       <c r="F8" t="n">
         <v>-0.2250720382424384</v>
       </c>
+      <c r="G8" t="n">
+        <v>-0.2126332435288</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -612,6 +636,9 @@
       <c r="F9" t="n">
         <v>-0.3717986493772271</v>
       </c>
+      <c r="G9" t="n">
+        <v>-0.3578926149072347</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -632,6 +659,9 @@
       <c r="F10" t="n">
         <v>0.3948440773624874</v>
       </c>
+      <c r="G10" t="n">
+        <v>0.4042645764960944</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -652,6 +682,9 @@
       <c r="F11" t="n">
         <v>-0.2161331025748526</v>
       </c>
+      <c r="G11" t="n">
+        <v>-0.2084748665617553</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -672,6 +705,9 @@
       <c r="F12" t="n">
         <v>-0.03369800239101414</v>
       </c>
+      <c r="G12" t="n">
+        <v>-0.02134424140000838</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -692,6 +728,9 @@
       <c r="F13" t="n">
         <v>-0.01141211646484687</v>
       </c>
+      <c r="G13" t="n">
+        <v>-0.01106461769067505</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -712,6 +751,9 @@
       <c r="F14" t="n">
         <v>0.1505697836338021</v>
       </c>
+      <c r="G14" t="n">
+        <v>0.1735543588053401</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -732,6 +774,9 @@
       <c r="F15" t="n">
         <v>0.09131452982133623</v>
       </c>
+      <c r="G15" t="n">
+        <v>0.1133342203294673</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -752,6 +797,9 @@
       <c r="F16" t="n">
         <v>0.4970891125598905</v>
       </c>
+      <c r="G16" t="n">
+        <v>0.5298494924801411</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -772,6 +820,9 @@
       <c r="F17" t="n">
         <v>0.6786814168743678</v>
       </c>
+      <c r="G17" t="n">
+        <v>0.6911550425031103</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -792,6 +843,9 @@
       <c r="F18" t="n">
         <v>0.01244156698739854</v>
       </c>
+      <c r="G18" t="n">
+        <v>0.003215591870020143</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -812,6 +866,9 @@
       <c r="F19" t="n">
         <v>0.4314367886473196</v>
       </c>
+      <c r="G19" t="n">
+        <v>0.4379516309275797</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -832,6 +889,9 @@
       <c r="F20" t="n">
         <v>0.4315436571207222</v>
       </c>
+      <c r="G20" t="n">
+        <v>0.4599656059950215</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -852,6 +912,9 @@
       <c r="F21" t="n">
         <v>0.6448254235227905</v>
       </c>
+      <c r="G21" t="n">
+        <v>0.6703987565738307</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -872,6 +935,9 @@
       <c r="F22" t="n">
         <v>0.4611896646487312</v>
       </c>
+      <c r="G22" t="n">
+        <v>0.4760437582044552</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -892,6 +958,9 @@
       <c r="F23" t="n">
         <v>0.008157737935753417</v>
       </c>
+      <c r="G23" t="n">
+        <v>0.02062209703272702</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -912,6 +981,9 @@
       <c r="F24" t="n">
         <v>4.320516707667864</v>
       </c>
+      <c r="G24" t="n">
+        <v>4.113497906075921</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -932,6 +1004,9 @@
       <c r="F25" t="n">
         <v>0.3989924141465856</v>
       </c>
+      <c r="G25" t="n">
+        <v>0.3765913123872451</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -952,6 +1027,9 @@
       <c r="F26" t="n">
         <v>0.2931997585303253</v>
       </c>
+      <c r="G26" t="n">
+        <v>0.2728274321454877</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -972,6 +1050,9 @@
       <c r="F27" t="n">
         <v>0.2242274613561573</v>
       </c>
+      <c r="G27" t="n">
+        <v>0.1960283735965612</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -992,6 +1073,9 @@
       <c r="F28" t="n">
         <v>0.9767472669094529</v>
       </c>
+      <c r="G28" t="n">
+        <v>0.9472013802230284</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1012,6 +1096,9 @@
       <c r="F29" t="n">
         <v>4.345507514918131</v>
       </c>
+      <c r="G29" t="n">
+        <v>3.974714230796735</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1032,6 +1119,9 @@
       <c r="F30" t="n">
         <v>0.8414023197636116</v>
       </c>
+      <c r="G30" t="n">
+        <v>0.8047901479623099</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1052,6 +1142,9 @@
       <c r="F31" t="n">
         <v>-0.3536874900386226</v>
       </c>
+      <c r="G31" t="n">
+        <v>-0.3863799722393338</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1072,6 +1165,9 @@
       <c r="F32" t="n">
         <v>0.6790965671125007</v>
       </c>
+      <c r="G32" t="n">
+        <v>0.6567451731001742</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1092,6 +1188,9 @@
       <c r="F33" t="n">
         <v>0.8408322297495325</v>
       </c>
+      <c r="G33" t="n">
+        <v>0.8233983248186845</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1112,6 +1211,9 @@
       <c r="F34" t="n">
         <v>-0.7406606302416708</v>
       </c>
+      <c r="G34" t="n">
+        <v>-0.7618632295746823</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1132,6 +1234,9 @@
       <c r="F35" t="n">
         <v>0.7906652056406425</v>
       </c>
+      <c r="G35" t="n">
+        <v>0.7849322914041875</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1152,6 +1257,9 @@
       <c r="F36" t="n">
         <v>0.72708981456708</v>
       </c>
+      <c r="G36" t="n">
+        <v>0.7181604686316378</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1172,6 +1280,9 @@
       <c r="F37" t="n">
         <v>0.6958694648845275</v>
       </c>
+      <c r="G37" t="n">
+        <v>0.6855824989340141</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1192,6 +1303,9 @@
       <c r="F38" t="n">
         <v>0.6728142575603817</v>
       </c>
+      <c r="G38" t="n">
+        <v>0.6612795280656835</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1212,6 +1326,9 @@
       <c r="F39" t="n">
         <v>0.5708655791425093</v>
       </c>
+      <c r="G39" t="n">
+        <v>0.5692367005923661</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1232,6 +1349,9 @@
       <c r="F40" t="n">
         <v>0.7419195741271774</v>
       </c>
+      <c r="G40" t="n">
+        <v>0.7395771559770907</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1252,6 +1372,9 @@
       <c r="F41" t="n">
         <v>0.5400270045044976</v>
       </c>
+      <c r="G41" t="n">
+        <v>0.5378776834515451</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1272,6 +1395,9 @@
       <c r="F42" t="n">
         <v>0.624376350206503</v>
       </c>
+      <c r="G42" t="n">
+        <v>0.608331705148522</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1292,6 +1418,9 @@
       <c r="F43" t="n">
         <v>0.6755392874731727</v>
       </c>
+      <c r="G43" t="n">
+        <v>0.6675470826381434</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1312,6 +1441,9 @@
       <c r="F44" t="n">
         <v>0.6568329012902567</v>
       </c>
+      <c r="G44" t="n">
+        <v>0.6539995832195434</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1332,6 +1464,9 @@
       <c r="F45" t="n">
         <v>0.6149962559872798</v>
       </c>
+      <c r="G45" t="n">
+        <v>0.6070299604834366</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1352,6 +1487,9 @@
       <c r="F46" t="n">
         <v>-1.277019083867472</v>
       </c>
+      <c r="G46" t="n">
+        <v>-1.278787377247709</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1372,6 +1510,9 @@
       <c r="F47" t="n">
         <v>-0.9942135803525617</v>
       </c>
+      <c r="G47" t="n">
+        <v>-0.9965387061363808</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1392,6 +1533,9 @@
       <c r="F48" t="n">
         <v>-0.8881861024980651</v>
       </c>
+      <c r="G48" t="n">
+        <v>-0.8891443524333409</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1412,6 +1556,9 @@
       <c r="F49" t="n">
         <v>-0.6507847536304113</v>
       </c>
+      <c r="G49" t="n">
+        <v>-0.6507735254197212</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1432,6 +1579,9 @@
       <c r="F50" t="n">
         <v>-0.053442335770324</v>
       </c>
+      <c r="G50" t="n">
+        <v>-0.05413063322922387</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1452,6 +1602,9 @@
       <c r="F51" t="n">
         <v>-0.8782971351056303</v>
       </c>
+      <c r="G51" t="n">
+        <v>-0.8791541719314722</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1472,6 +1625,9 @@
       <c r="F52" t="n">
         <v>-0.8782971351056303</v>
       </c>
+      <c r="G52" t="n">
+        <v>-0.8791541719314722</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1492,6 +1648,9 @@
       <c r="F53" t="n">
         <v>-1.128462877312155</v>
       </c>
+      <c r="G53" t="n">
+        <v>-1.133597183118982</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1512,6 +1671,9 @@
       <c r="F54" t="n">
         <v>-0.186084424007269</v>
       </c>
+      <c r="G54" t="n">
+        <v>-0.1845572501063039</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1532,6 +1694,9 @@
       <c r="F55" t="n">
         <v>-1.012977016334376</v>
       </c>
+      <c r="G55" t="n">
+        <v>-1.014966592406485</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1552,6 +1717,9 @@
       <c r="F56" t="n">
         <v>-0.882691034866425</v>
       </c>
+      <c r="G56" t="n">
+        <v>-0.8821504461713289</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1572,6 +1740,9 @@
       <c r="F57" t="n">
         <v>-0.9059843415741236</v>
       </c>
+      <c r="G57" t="n">
+        <v>-0.8991575300853077</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1592,6 +1763,9 @@
       <c r="F58" t="n">
         <v>-1.078353109999882</v>
       </c>
+      <c r="G58" t="n">
+        <v>-1.065803484255461</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1612,6 +1786,9 @@
       <c r="F59" t="n">
         <v>-0.8202878950804757</v>
       </c>
+      <c r="G59" t="n">
+        <v>-0.8116262643906836</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1632,6 +1809,9 @@
       <c r="F60" t="n">
         <v>-0.4505705410039147</v>
       </c>
+      <c r="G60" t="n">
+        <v>-0.4380505113489813</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1652,6 +1832,9 @@
       <c r="F61" t="n">
         <v>0.3776991076972478</v>
       </c>
+      <c r="G61" t="n">
+        <v>0.3798524122775832</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1672,6 +1855,9 @@
       <c r="F62" t="n">
         <v>-1.16791885744874</v>
       </c>
+      <c r="G62" t="n">
+        <v>-1.157332784484434</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1692,6 +1878,9 @@
       <c r="F63" t="n">
         <v>-0.6743595563574327</v>
       </c>
+      <c r="G63" t="n">
+        <v>-0.6545987193625764</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1712,6 +1901,9 @@
       <c r="F64" t="n">
         <v>-0.8818467423322823</v>
       </c>
+      <c r="G64" t="n">
+        <v>-0.8737236167302582</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1732,6 +1924,9 @@
       <c r="F65" t="n">
         <v>-0.06709394858763942</v>
       </c>
+      <c r="G65" t="n">
+        <v>-0.05548480107346453</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1752,6 +1947,9 @@
       <c r="F66" t="n">
         <v>-0.7420191581364592</v>
       </c>
+      <c r="G66" t="n">
+        <v>-0.7310732143684056</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1771,6 +1969,9 @@
       </c>
       <c r="F67" t="n">
         <v>-0.6999128418453304</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-0.687270206762578</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,9 @@
       <c r="G1" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -478,6 +481,9 @@
       <c r="G2" t="n">
         <v>-0.2600273687876995</v>
       </c>
+      <c r="H2" t="n">
+        <v>-0.2497331853157088</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -501,6 +507,9 @@
       <c r="G3" t="n">
         <v>0.2462018935346756</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.2543508898249011</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -524,6 +533,9 @@
       <c r="G4" t="n">
         <v>0.1894342629546181</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.2003280491189859</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -547,6 +559,9 @@
       <c r="G5" t="n">
         <v>-0.04616156200383323</v>
       </c>
+      <c r="H5" t="n">
+        <v>-0.0408815873723869</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -570,6 +585,9 @@
       <c r="G6" t="n">
         <v>0.19454990349282</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.2040998216679853</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -593,6 +611,9 @@
       <c r="G7" t="n">
         <v>-0.4149807274851984</v>
       </c>
+      <c r="H7" t="n">
+        <v>-0.4061329101963885</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -616,6 +637,9 @@
       <c r="G8" t="n">
         <v>-0.2126332435288</v>
       </c>
+      <c r="H8" t="n">
+        <v>-0.2008279390918389</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -639,6 +663,9 @@
       <c r="G9" t="n">
         <v>-0.3578926149072347</v>
       </c>
+      <c r="H9" t="n">
+        <v>-0.3444664751425891</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -662,6 +689,9 @@
       <c r="G10" t="n">
         <v>0.4042645764960944</v>
       </c>
+      <c r="H10" t="n">
+        <v>0.412120564159311</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -685,6 +715,9 @@
       <c r="G11" t="n">
         <v>-0.2084748665617553</v>
       </c>
+      <c r="H11" t="n">
+        <v>-0.2016432276776496</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -708,6 +741,9 @@
       <c r="G12" t="n">
         <v>-0.02134424140000838</v>
       </c>
+      <c r="H12" t="n">
+        <v>-0.01170657422792002</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -731,6 +767,9 @@
       <c r="G13" t="n">
         <v>-0.01106461769067505</v>
       </c>
+      <c r="H13" t="n">
+        <v>-0.01103522966155149</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -754,6 +793,9 @@
       <c r="G14" t="n">
         <v>0.1735543588053401</v>
       </c>
+      <c r="H14" t="n">
+        <v>0.1917810544048939</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -777,6 +819,9 @@
       <c r="G15" t="n">
         <v>0.1133342203294673</v>
       </c>
+      <c r="H15" t="n">
+        <v>0.1295497406489369</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -800,6 +845,9 @@
       <c r="G16" t="n">
         <v>0.5298494924801411</v>
       </c>
+      <c r="H16" t="n">
+        <v>0.5552215920175615</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -823,6 +871,9 @@
       <c r="G17" t="n">
         <v>0.6911550425031103</v>
       </c>
+      <c r="H17" t="n">
+        <v>0.6984326988596326</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -846,6 +897,9 @@
       <c r="G18" t="n">
         <v>0.003215591870020143</v>
       </c>
+      <c r="H18" t="n">
+        <v>-0.005714622671272956</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -869,6 +923,9 @@
       <c r="G19" t="n">
         <v>0.4379516309275797</v>
       </c>
+      <c r="H19" t="n">
+        <v>0.4419063536177737</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -892,6 +949,9 @@
       <c r="G20" t="n">
         <v>0.4599656059950215</v>
       </c>
+      <c r="H20" t="n">
+        <v>0.4810173520606967</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -915,6 +975,9 @@
       <c r="G21" t="n">
         <v>0.6703987565738307</v>
       </c>
+      <c r="H21" t="n">
+        <v>0.6889956671764358</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -938,6 +1001,9 @@
       <c r="G22" t="n">
         <v>0.4760437582044552</v>
       </c>
+      <c r="H22" t="n">
+        <v>0.4858164543773891</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -961,6 +1027,9 @@
       <c r="G23" t="n">
         <v>0.02062209703272702</v>
       </c>
+      <c r="H23" t="n">
+        <v>0.02862186828205163</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -984,6 +1053,9 @@
       <c r="G24" t="n">
         <v>4.113497906075921</v>
       </c>
+      <c r="H24" t="n">
+        <v>3.87963407957898</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1007,6 +1079,9 @@
       <c r="G25" t="n">
         <v>0.3765913123872451</v>
       </c>
+      <c r="H25" t="n">
+        <v>0.3572499986544079</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1030,6 +1105,9 @@
       <c r="G26" t="n">
         <v>0.2728274321454877</v>
       </c>
+      <c r="H26" t="n">
+        <v>0.2531647903062814</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1053,6 +1131,9 @@
       <c r="G27" t="n">
         <v>0.1960283735965612</v>
       </c>
+      <c r="H27" t="n">
+        <v>0.1697213778855617</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1076,6 +1157,9 @@
       <c r="G28" t="n">
         <v>0.9472013802230284</v>
       </c>
+      <c r="H28" t="n">
+        <v>0.9196110616116285</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1099,6 +1183,9 @@
       <c r="G29" t="n">
         <v>3.974714230796735</v>
       </c>
+      <c r="H29" t="n">
+        <v>3.627972052432964</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1122,6 +1209,9 @@
       <c r="G30" t="n">
         <v>0.8047901479623099</v>
       </c>
+      <c r="H30" t="n">
+        <v>0.7720055612140734</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1145,6 +1235,9 @@
       <c r="G31" t="n">
         <v>-0.3863799722393338</v>
       </c>
+      <c r="H31" t="n">
+        <v>-0.4137683310337025</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1168,6 +1261,9 @@
       <c r="G32" t="n">
         <v>0.6567451731001742</v>
       </c>
+      <c r="H32" t="n">
+        <v>0.6357790583209579</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1191,6 +1287,9 @@
       <c r="G33" t="n">
         <v>0.8233983248186845</v>
       </c>
+      <c r="H33" t="n">
+        <v>0.8076478944362043</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1214,6 +1313,9 @@
       <c r="G34" t="n">
         <v>-0.7618632295746823</v>
       </c>
+      <c r="H34" t="n">
+        <v>-0.7809062142476214</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1237,6 +1339,9 @@
       <c r="G35" t="n">
         <v>0.7849322914041875</v>
       </c>
+      <c r="H35" t="n">
+        <v>0.7801793226967021</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1260,6 +1365,9 @@
       <c r="G36" t="n">
         <v>0.7181604686316378</v>
       </c>
+      <c r="H36" t="n">
+        <v>0.7113172026787161</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1283,6 +1391,9 @@
       <c r="G37" t="n">
         <v>0.6855824989340141</v>
       </c>
+      <c r="H37" t="n">
+        <v>0.6775980166662355</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1306,6 +1417,9 @@
       <c r="G38" t="n">
         <v>0.6612795280656835</v>
       </c>
+      <c r="H38" t="n">
+        <v>0.6515004941441379</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1329,6 +1443,9 @@
       <c r="G39" t="n">
         <v>0.5692367005923661</v>
       </c>
+      <c r="H39" t="n">
+        <v>0.56820448800782</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1352,6 +1469,9 @@
       <c r="G40" t="n">
         <v>0.7395771559770907</v>
       </c>
+      <c r="H40" t="n">
+        <v>0.7376094957086474</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1375,6 +1495,9 @@
       <c r="G41" t="n">
         <v>0.5378776834515451</v>
       </c>
+      <c r="H41" t="n">
+        <v>0.536812090267391</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1398,6 +1521,9 @@
       <c r="G42" t="n">
         <v>0.608331705148522</v>
       </c>
+      <c r="H42" t="n">
+        <v>0.59510366614774</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1421,6 +1547,9 @@
       <c r="G43" t="n">
         <v>0.6675470826381434</v>
       </c>
+      <c r="H43" t="n">
+        <v>0.6610784803156542</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1444,6 +1573,9 @@
       <c r="G44" t="n">
         <v>0.6539995832195434</v>
       </c>
+      <c r="H44" t="n">
+        <v>0.6522827877831289</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1467,6 +1599,9 @@
       <c r="G45" t="n">
         <v>0.6070299604834366</v>
       </c>
+      <c r="H45" t="n">
+        <v>0.601600759919783</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1490,6 +1625,9 @@
       <c r="G46" t="n">
         <v>-1.278787377247709</v>
       </c>
+      <c r="H46" t="n">
+        <v>-1.280405889601802</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1513,6 +1651,9 @@
       <c r="G47" t="n">
         <v>-0.9965387061363808</v>
       </c>
+      <c r="H47" t="n">
+        <v>-0.9985782830217064</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1536,6 +1677,9 @@
       <c r="G48" t="n">
         <v>-0.8891443524333409</v>
       </c>
+      <c r="H48" t="n">
+        <v>-0.8894530829357429</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1559,6 +1703,9 @@
       <c r="G49" t="n">
         <v>-0.6507735254197212</v>
       </c>
+      <c r="H49" t="n">
+        <v>-0.6504143090328098</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1582,6 +1729,9 @@
       <c r="G50" t="n">
         <v>-0.05413063322922387</v>
       </c>
+      <c r="H50" t="n">
+        <v>-0.05491212756160532</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1605,6 +1755,9 @@
       <c r="G51" t="n">
         <v>-0.8791541719314722</v>
       </c>
+      <c r="H51" t="n">
+        <v>-0.8793680190184805</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1628,6 +1781,9 @@
       <c r="G52" t="n">
         <v>-0.8791541719314722</v>
       </c>
+      <c r="H52" t="n">
+        <v>-0.8793680190184805</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1651,6 +1807,9 @@
       <c r="G53" t="n">
         <v>-1.133597183118982</v>
       </c>
+      <c r="H53" t="n">
+        <v>-1.137510648609745</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1674,6 +1833,9 @@
       <c r="G54" t="n">
         <v>-0.1845572501063039</v>
       </c>
+      <c r="H54" t="n">
+        <v>-0.1831230158209777</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1697,6 +1859,9 @@
       <c r="G55" t="n">
         <v>-1.014966592406485</v>
       </c>
+      <c r="H55" t="n">
+        <v>-1.016797432953771</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1720,6 +1885,9 @@
       <c r="G56" t="n">
         <v>-0.8821504461713289</v>
       </c>
+      <c r="H56" t="n">
+        <v>-0.8823448862383558</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1743,6 +1911,9 @@
       <c r="G57" t="n">
         <v>-0.8991575300853077</v>
       </c>
+      <c r="H57" t="n">
+        <v>-0.8941994672799698</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1766,6 +1937,9 @@
       <c r="G58" t="n">
         <v>-1.065803484255461</v>
       </c>
+      <c r="H58" t="n">
+        <v>-1.055979451319524</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1789,6 +1963,9 @@
       <c r="G59" t="n">
         <v>-0.8116262643906836</v>
       </c>
+      <c r="H59" t="n">
+        <v>-0.8041302435513703</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1812,6 +1989,9 @@
       <c r="G60" t="n">
         <v>-0.4380505113489813</v>
       </c>
+      <c r="H60" t="n">
+        <v>-0.4276392678334875</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1835,6 +2015,9 @@
       <c r="G61" t="n">
         <v>0.3798524122775832</v>
       </c>
+      <c r="H61" t="n">
+        <v>0.3817401191946818</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1858,6 +2041,9 @@
       <c r="G62" t="n">
         <v>-1.157332784484434</v>
       </c>
+      <c r="H62" t="n">
+        <v>-1.149384411601188</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1881,6 +2067,9 @@
       <c r="G63" t="n">
         <v>-0.6545987193625764</v>
       </c>
+      <c r="H63" t="n">
+        <v>-0.636780898745799</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1904,6 +2093,9 @@
       <c r="G64" t="n">
         <v>-0.8737236167302582</v>
       </c>
+      <c r="H64" t="n">
+        <v>-0.8661518359536773</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1927,6 +2119,9 @@
       <c r="G65" t="n">
         <v>-0.05548480107346453</v>
       </c>
+      <c r="H65" t="n">
+        <v>-0.04584815727691942</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1950,6 +2145,9 @@
       <c r="G66" t="n">
         <v>-0.7310732143684056</v>
       </c>
+      <c r="H66" t="n">
+        <v>-0.7231987414380074</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1972,6 +2170,9 @@
       </c>
       <c r="G67" t="n">
         <v>-0.687270206762578</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-0.6788325338904695</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,9 @@
       <c r="H1" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -484,6 +487,9 @@
       <c r="H2" t="n">
         <v>-0.2497331853157088</v>
       </c>
+      <c r="I2" t="n">
+        <v>-0.2407447850270883</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -510,6 +516,9 @@
       <c r="H3" t="n">
         <v>0.2543508898249011</v>
       </c>
+      <c r="I3" t="n">
+        <v>0.2614868270276309</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -536,6 +545,9 @@
       <c r="H4" t="n">
         <v>0.2003280491189859</v>
       </c>
+      <c r="I4" t="n">
+        <v>0.2102402562543837</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -562,6 +574,9 @@
       <c r="H5" t="n">
         <v>-0.0408815873723869</v>
       </c>
+      <c r="I5" t="n">
+        <v>-0.0366687827352986</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -588,6 +603,9 @@
       <c r="H6" t="n">
         <v>0.2040998216679853</v>
       </c>
+      <c r="I6" t="n">
+        <v>0.2120416358703358</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -614,6 +632,9 @@
       <c r="H7" t="n">
         <v>-0.4061329101963885</v>
       </c>
+      <c r="I7" t="n">
+        <v>-0.3981724808679958</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -640,6 +661,9 @@
       <c r="H8" t="n">
         <v>-0.2008279390918389</v>
       </c>
+      <c r="I8" t="n">
+        <v>-0.1897835523348942</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -666,6 +690,9 @@
       <c r="H9" t="n">
         <v>-0.3444664751425891</v>
       </c>
+      <c r="I9" t="n">
+        <v>-0.3318680789402671</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -692,6 +719,9 @@
       <c r="H10" t="n">
         <v>0.412120564159311</v>
       </c>
+      <c r="I10" t="n">
+        <v>0.4184696930822437</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -718,6 +748,9 @@
       <c r="H11" t="n">
         <v>-0.2016432276776496</v>
       </c>
+      <c r="I11" t="n">
+        <v>-0.1956845635903883</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -744,6 +777,9 @@
       <c r="H12" t="n">
         <v>-0.01170657422792002</v>
       </c>
+      <c r="I12" t="n">
+        <v>-0.004662070492153184</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -770,6 +806,9 @@
       <c r="H13" t="n">
         <v>-0.01103522966155149</v>
       </c>
+      <c r="I13" t="n">
+        <v>-0.01134738604734055</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -796,6 +835,9 @@
       <c r="H14" t="n">
         <v>0.1917810544048939</v>
       </c>
+      <c r="I14" t="n">
+        <v>0.2054177509645277</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -822,6 +864,9 @@
       <c r="H15" t="n">
         <v>0.1295497406489369</v>
       </c>
+      <c r="I15" t="n">
+        <v>0.1402691902643559</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -848,6 +893,9 @@
       <c r="H16" t="n">
         <v>0.5552215920175615</v>
       </c>
+      <c r="I16" t="n">
+        <v>0.5735355672536893</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -874,6 +922,9 @@
       <c r="H17" t="n">
         <v>0.6984326988596326</v>
       </c>
+      <c r="I17" t="n">
+        <v>0.7009089129861752</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -900,6 +951,9 @@
       <c r="H18" t="n">
         <v>-0.005714622671272956</v>
       </c>
+      <c r="I18" t="n">
+        <v>-0.01448743138519289</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -926,6 +980,9 @@
       <c r="H19" t="n">
         <v>0.4419063536177737</v>
       </c>
+      <c r="I19" t="n">
+        <v>0.4434493198282868</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -952,6 +1009,9 @@
       <c r="H20" t="n">
         <v>0.4810173520606967</v>
       </c>
+      <c r="I20" t="n">
+        <v>0.4951140855765697</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -978,6 +1038,9 @@
       <c r="H21" t="n">
         <v>0.6889956671764358</v>
       </c>
+      <c r="I21" t="n">
+        <v>0.7012389316017573</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1004,6 +1067,9 @@
       <c r="H22" t="n">
         <v>0.4858164543773891</v>
       </c>
+      <c r="I22" t="n">
+        <v>0.490879472560994</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1030,6 +1096,9 @@
       <c r="H23" t="n">
         <v>0.02862186828205163</v>
       </c>
+      <c r="I23" t="n">
+        <v>0.03252276011285435</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1056,6 +1125,9 @@
       <c r="H24" t="n">
         <v>3.87963407957898</v>
       </c>
+      <c r="I24" t="n">
+        <v>3.628730805091709</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1082,6 +1154,9 @@
       <c r="H25" t="n">
         <v>0.3572499986544079</v>
       </c>
+      <c r="I25" t="n">
+        <v>0.3408435384739704</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1108,6 +1183,9 @@
       <c r="H26" t="n">
         <v>0.2531647903062814</v>
       </c>
+      <c r="I26" t="n">
+        <v>0.234519735149483</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1134,6 +1212,9 @@
       <c r="H27" t="n">
         <v>0.1697213778855617</v>
       </c>
+      <c r="I27" t="n">
+        <v>0.1455206129019119</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1160,6 +1241,9 @@
       <c r="H28" t="n">
         <v>0.9196110616116285</v>
       </c>
+      <c r="I28" t="n">
+        <v>0.8942876082759965</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1186,6 +1270,9 @@
       <c r="H29" t="n">
         <v>3.627972052432964</v>
       </c>
+      <c r="I29" t="n">
+        <v>3.307115436874821</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1212,6 +1299,9 @@
       <c r="H30" t="n">
         <v>0.7720055612140734</v>
       </c>
+      <c r="I30" t="n">
+        <v>0.7430130253079508</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1238,6 +1328,9 @@
       <c r="H31" t="n">
         <v>-0.4137683310337025</v>
       </c>
+      <c r="I31" t="n">
+        <v>-0.436273243977888</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1264,6 +1357,9 @@
       <c r="H32" t="n">
         <v>0.6357790583209579</v>
       </c>
+      <c r="I32" t="n">
+        <v>0.6164622972486916</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1290,6 +1386,9 @@
       <c r="H33" t="n">
         <v>0.8076478944362043</v>
       </c>
+      <c r="I33" t="n">
+        <v>0.7936516938407748</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1316,6 +1415,9 @@
       <c r="H34" t="n">
         <v>-0.7809062142476214</v>
       </c>
+      <c r="I34" t="n">
+        <v>-0.7977162087276045</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1342,6 +1444,9 @@
       <c r="H35" t="n">
         <v>0.7801793226967021</v>
       </c>
+      <c r="I35" t="n">
+        <v>0.7764367530842008</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1368,6 +1473,9 @@
       <c r="H36" t="n">
         <v>0.7113172026787161</v>
       </c>
+      <c r="I36" t="n">
+        <v>0.7064707420618066</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1394,6 +1502,9 @@
       <c r="H37" t="n">
         <v>0.6775980166662355</v>
       </c>
+      <c r="I37" t="n">
+        <v>0.6718109892886719</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1420,6 +1531,9 @@
       <c r="H38" t="n">
         <v>0.6515004941441379</v>
       </c>
+      <c r="I38" t="n">
+        <v>0.6434010053612272</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1446,6 +1560,9 @@
       <c r="H39" t="n">
         <v>0.56820448800782</v>
       </c>
+      <c r="I39" t="n">
+        <v>0.5677682501732993</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1472,6 +1589,9 @@
       <c r="H40" t="n">
         <v>0.7376094957086474</v>
       </c>
+      <c r="I40" t="n">
+        <v>0.7361163213797653</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1498,6 +1618,9 @@
       <c r="H41" t="n">
         <v>0.536812090267391</v>
       </c>
+      <c r="I41" t="n">
+        <v>0.53669286950173</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1524,6 +1647,9 @@
       <c r="H42" t="n">
         <v>0.59510366614774</v>
       </c>
+      <c r="I42" t="n">
+        <v>0.5845870233172863</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1550,6 +1676,9 @@
       <c r="H43" t="n">
         <v>0.6610784803156542</v>
       </c>
+      <c r="I43" t="n">
+        <v>0.656042866393323</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1576,6 +1705,9 @@
       <c r="H44" t="n">
         <v>0.6522827877831289</v>
       </c>
+      <c r="I44" t="n">
+        <v>0.651605520307891</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1602,6 +1734,9 @@
       <c r="H45" t="n">
         <v>0.601600759919783</v>
       </c>
+      <c r="I45" t="n">
+        <v>0.5985689373477647</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1628,6 +1763,9 @@
       <c r="H46" t="n">
         <v>-1.280405889601802</v>
       </c>
+      <c r="I46" t="n">
+        <v>-1.281952956918219</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1654,6 +1792,9 @@
       <c r="H47" t="n">
         <v>-0.9985782830217064</v>
       </c>
+      <c r="I47" t="n">
+        <v>-1.00040509317435</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1680,6 +1821,9 @@
       <c r="H48" t="n">
         <v>-0.8894530829357429</v>
       </c>
+      <c r="I48" t="n">
+        <v>-0.8892718716398841</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1706,6 +1850,9 @@
       <c r="H49" t="n">
         <v>-0.6504143090328098</v>
       </c>
+      <c r="I49" t="n">
+        <v>-0.6498191300499937</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1732,6 +1879,9 @@
       <c r="H50" t="n">
         <v>-0.05491212756160532</v>
       </c>
+      <c r="I50" t="n">
+        <v>-0.05578891819596994</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1758,6 +1908,9 @@
       <c r="H51" t="n">
         <v>-0.8793680190184805</v>
       </c>
+      <c r="I51" t="n">
+        <v>-0.8790636655351497</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1784,6 +1937,9 @@
       <c r="H52" t="n">
         <v>-0.8793680190184805</v>
       </c>
+      <c r="I52" t="n">
+        <v>-0.8790636655351497</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1810,6 +1966,9 @@
       <c r="H53" t="n">
         <v>-1.137510648609745</v>
       </c>
+      <c r="I53" t="n">
+        <v>-1.14042863050653</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1836,6 +1995,9 @@
       <c r="H54" t="n">
         <v>-0.1831230158209777</v>
       </c>
+      <c r="I54" t="n">
+        <v>-0.1818199383931058</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1862,6 +2024,9 @@
       <c r="H55" t="n">
         <v>-1.016797432953771</v>
       </c>
+      <c r="I55" t="n">
+        <v>-1.018527780013475</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1888,6 +2053,9 @@
       <c r="H56" t="n">
         <v>-0.8823448862383558</v>
       </c>
+      <c r="I56" t="n">
+        <v>-0.8831767838369805</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1914,6 +2082,9 @@
       <c r="H57" t="n">
         <v>-0.8941994672799698</v>
       </c>
+      <c r="I57" t="n">
+        <v>-0.8910535431598565</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1940,6 +2111,9 @@
       <c r="H58" t="n">
         <v>-1.055979451319524</v>
       </c>
+      <c r="I58" t="n">
+        <v>-1.048730023055218</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1966,6 +2140,9 @@
       <c r="H59" t="n">
         <v>-0.8041302435513703</v>
       </c>
+      <c r="I59" t="n">
+        <v>-0.7978097385976846</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1992,6 +2169,9 @@
       <c r="H60" t="n">
         <v>-0.4276392678334875</v>
       </c>
+      <c r="I60" t="n">
+        <v>-0.419246576525514</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2018,6 +2198,9 @@
       <c r="H61" t="n">
         <v>0.3817401191946818</v>
       </c>
+      <c r="I61" t="n">
+        <v>0.3833503588443303</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2044,6 +2227,9 @@
       <c r="H62" t="n">
         <v>-1.149384411601188</v>
       </c>
+      <c r="I62" t="n">
+        <v>-1.143952622132173</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2070,6 +2256,9 @@
       <c r="H63" t="n">
         <v>-0.636780898745799</v>
       </c>
+      <c r="I63" t="n">
+        <v>-0.6209224226135401</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2096,6 +2285,9 @@
       <c r="H64" t="n">
         <v>-0.8661518359536773</v>
       </c>
+      <c r="I64" t="n">
+        <v>-0.8593369690134398</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2122,6 +2314,9 @@
       <c r="H65" t="n">
         <v>-0.04584815727691942</v>
       </c>
+      <c r="I65" t="n">
+        <v>-0.03806650798993427</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2148,6 +2343,9 @@
       <c r="H66" t="n">
         <v>-0.7231987414380074</v>
       </c>
+      <c r="I66" t="n">
+        <v>-0.718130824678466</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2173,6 +2371,9 @@
       </c>
       <c r="H67" t="n">
         <v>-0.6788325338904695</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-0.6741216931034747</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,9 @@
       <c r="I1" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -490,6 +493,9 @@
       <c r="I2" t="n">
         <v>-0.2407447850270883</v>
       </c>
+      <c r="J2" t="n">
+        <v>-0.2330693975773008</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -519,6 +525,9 @@
       <c r="I3" t="n">
         <v>0.2614868270276309</v>
       </c>
+      <c r="J3" t="n">
+        <v>0.2675269627808793</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -548,6 +557,9 @@
       <c r="I4" t="n">
         <v>0.2102402562543837</v>
       </c>
+      <c r="J4" t="n">
+        <v>0.2190749341248129</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -577,6 +589,9 @@
       <c r="I5" t="n">
         <v>-0.0366687827352986</v>
       </c>
+      <c r="J5" t="n">
+        <v>-0.03349029283621748</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -606,6 +621,9 @@
       <c r="I6" t="n">
         <v>0.2120416358703358</v>
       </c>
+      <c r="J6" t="n">
+        <v>0.218430460480292</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -635,6 +653,9 @@
       <c r="I7" t="n">
         <v>-0.3981724808679958</v>
       </c>
+      <c r="J7" t="n">
+        <v>-0.391177432093039</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -664,6 +685,9 @@
       <c r="I8" t="n">
         <v>-0.1897835523348942</v>
       </c>
+      <c r="J8" t="n">
+        <v>-0.179597558534984</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -693,6 +717,9 @@
       <c r="I9" t="n">
         <v>-0.3318680789402671</v>
       </c>
+      <c r="J9" t="n">
+        <v>-0.3203587230564647</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -722,6 +749,9 @@
       <c r="I10" t="n">
         <v>0.4184696930822437</v>
       </c>
+      <c r="J10" t="n">
+        <v>0.4233947339047729</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -751,6 +781,9 @@
       <c r="I11" t="n">
         <v>-0.1956845635903883</v>
       </c>
+      <c r="J11" t="n">
+        <v>-0.1906179982570776</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -780,6 +813,9 @@
       <c r="I12" t="n">
         <v>-0.004662070492153184</v>
       </c>
+      <c r="J12" t="n">
+        <v>-4.125332401094806e-05</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -809,6 +845,9 @@
       <c r="I13" t="n">
         <v>-0.01134738604734055</v>
       </c>
+      <c r="J13" t="n">
+        <v>-0.01200826319450551</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -838,6 +877,9 @@
       <c r="I14" t="n">
         <v>0.2054177509645277</v>
       </c>
+      <c r="J14" t="n">
+        <v>0.2147299528493011</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -867,6 +909,9 @@
       <c r="I15" t="n">
         <v>0.1402691902643559</v>
       </c>
+      <c r="J15" t="n">
+        <v>0.1459035762698254</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -896,6 +941,9 @@
       <c r="I16" t="n">
         <v>0.5735355672536893</v>
       </c>
+      <c r="J16" t="n">
+        <v>0.5852597228114862</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -925,6 +973,9 @@
       <c r="I17" t="n">
         <v>0.7009089129861752</v>
       </c>
+      <c r="J17" t="n">
+        <v>0.6990555604989156</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -954,6 +1005,9 @@
       <c r="I18" t="n">
         <v>-0.01448743138519289</v>
       </c>
+      <c r="J18" t="n">
+        <v>-0.02318686606459013</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -983,6 +1037,9 @@
       <c r="I19" t="n">
         <v>0.4434493198282868</v>
       </c>
+      <c r="J19" t="n">
+        <v>0.4427768486303389</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1012,6 +1069,9 @@
       <c r="I20" t="n">
         <v>0.4951140855765697</v>
       </c>
+      <c r="J20" t="n">
+        <v>0.5027918916200099</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1041,6 +1101,9 @@
       <c r="I21" t="n">
         <v>0.7012389316017573</v>
       </c>
+      <c r="J21" t="n">
+        <v>0.7078006249451846</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1070,6 +1133,9 @@
       <c r="I22" t="n">
         <v>0.490879472560994</v>
       </c>
+      <c r="J22" t="n">
+        <v>0.4916737516388061</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1099,6 +1165,9 @@
       <c r="I23" t="n">
         <v>0.03252276011285435</v>
       </c>
+      <c r="J23" t="n">
+        <v>0.03274216673346247</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1128,6 +1197,9 @@
       <c r="I24" t="n">
         <v>3.628730805091709</v>
       </c>
+      <c r="J24" t="n">
+        <v>3.369313976223176</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1157,6 +1229,9 @@
       <c r="I25" t="n">
         <v>0.3408435384739704</v>
       </c>
+      <c r="J25" t="n">
+        <v>0.3271600433877301</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1186,6 +1261,9 @@
       <c r="I26" t="n">
         <v>0.234519735149483</v>
       </c>
+      <c r="J26" t="n">
+        <v>0.2171173127119377</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1215,6 +1293,9 @@
       <c r="I27" t="n">
         <v>0.1455206129019119</v>
       </c>
+      <c r="J27" t="n">
+        <v>0.1235365995779604</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1244,6 +1325,9 @@
       <c r="I28" t="n">
         <v>0.8942876082759965</v>
       </c>
+      <c r="J28" t="n">
+        <v>0.8714492193064982</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1273,6 +1357,9 @@
       <c r="I29" t="n">
         <v>3.307115436874821</v>
       </c>
+      <c r="J29" t="n">
+        <v>3.013345782673742</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1302,6 +1389,9 @@
       <c r="I30" t="n">
         <v>0.7430130253079508</v>
       </c>
+      <c r="J30" t="n">
+        <v>0.717730837877995</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1331,6 +1421,9 @@
       <c r="I31" t="n">
         <v>-0.436273243977888</v>
       </c>
+      <c r="J31" t="n">
+        <v>-0.4542963448818442</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1360,6 +1453,9 @@
       <c r="I32" t="n">
         <v>0.6164622972486916</v>
       </c>
+      <c r="J32" t="n">
+        <v>0.5989569266694914</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1389,6 +1485,9 @@
       <c r="I33" t="n">
         <v>0.7936516938407748</v>
       </c>
+      <c r="J33" t="n">
+        <v>0.7814131139075721</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1418,6 +1517,9 @@
       <c r="I34" t="n">
         <v>-0.7977162087276045</v>
       </c>
+      <c r="J34" t="n">
+        <v>-0.812331700224238</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1447,6 +1549,9 @@
       <c r="I35" t="n">
         <v>0.7764367530842008</v>
       </c>
+      <c r="J35" t="n">
+        <v>0.7736977407545136</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1476,6 +1581,9 @@
       <c r="I36" t="n">
         <v>0.7064707420618066</v>
       </c>
+      <c r="J36" t="n">
+        <v>0.7034903164730383</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1505,6 +1613,9 @@
       <c r="I37" t="n">
         <v>0.6718109892886719</v>
       </c>
+      <c r="J37" t="n">
+        <v>0.6680743657665765</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1534,6 +1645,9 @@
       <c r="I38" t="n">
         <v>0.6434010053612272</v>
       </c>
+      <c r="J38" t="n">
+        <v>0.6368815073029871</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1563,6 +1677,9 @@
       <c r="I39" t="n">
         <v>0.5677682501732993</v>
       </c>
+      <c r="J39" t="n">
+        <v>0.5679043629631612</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1592,6 +1709,9 @@
       <c r="I40" t="n">
         <v>0.7361163213797653</v>
       </c>
+      <c r="J40" t="n">
+        <v>0.7351560963868633</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1621,6 +1741,9 @@
       <c r="I41" t="n">
         <v>0.53669286950173</v>
       </c>
+      <c r="J41" t="n">
+        <v>0.5373828901135306</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1650,6 +1773,9 @@
       <c r="I42" t="n">
         <v>0.5845870233172863</v>
       </c>
+      <c r="J42" t="n">
+        <v>0.5766269906637566</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1679,6 +1805,9 @@
       <c r="I43" t="n">
         <v>0.656042866393323</v>
       </c>
+      <c r="J43" t="n">
+        <v>0.6523313227944925</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1708,6 +1837,9 @@
       <c r="I44" t="n">
         <v>0.651605520307891</v>
       </c>
+      <c r="J44" t="n">
+        <v>0.6518730422270186</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1737,6 +1869,9 @@
       <c r="I45" t="n">
         <v>0.5985689373477647</v>
       </c>
+      <c r="J45" t="n">
+        <v>0.5977454898153218</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1766,6 +1901,9 @@
       <c r="I46" t="n">
         <v>-1.281952956918219</v>
       </c>
+      <c r="J46" t="n">
+        <v>-1.283492577009933</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1795,6 +1933,9 @@
       <c r="I47" t="n">
         <v>-1.00040509317435</v>
       </c>
+      <c r="J47" t="n">
+        <v>-1.002082029453975</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1824,6 +1965,9 @@
       <c r="I48" t="n">
         <v>-0.8892718716398841</v>
       </c>
+      <c r="J48" t="n">
+        <v>-0.8887445984933708</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1853,6 +1997,9 @@
       <c r="I49" t="n">
         <v>-0.6498191300499937</v>
       </c>
+      <c r="J49" t="n">
+        <v>-0.6490873833403559</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1882,6 +2029,9 @@
       <c r="I50" t="n">
         <v>-0.05578891819596994</v>
       </c>
+      <c r="J50" t="n">
+        <v>-0.05675939380081015</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1911,6 +2061,9 @@
       <c r="I51" t="n">
         <v>-0.8790636655351497</v>
       </c>
+      <c r="J51" t="n">
+        <v>-0.8783611686946732</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1940,6 +2093,9 @@
       <c r="I52" t="n">
         <v>-0.8790636655351497</v>
       </c>
+      <c r="J52" t="n">
+        <v>-0.8783611686946732</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1969,6 +2125,9 @@
       <c r="I53" t="n">
         <v>-1.14042863050653</v>
       </c>
+      <c r="J53" t="n">
+        <v>-1.142556212488585</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1998,6 +2157,9 @@
       <c r="I54" t="n">
         <v>-0.1818199383931058</v>
       </c>
+      <c r="J54" t="n">
+        <v>-0.1806793062173642</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2027,6 +2189,9 @@
       <c r="I55" t="n">
         <v>-1.018527780013475</v>
       </c>
+      <c r="J55" t="n">
+        <v>-1.020206617764469</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2056,6 +2221,9 @@
       <c r="I56" t="n">
         <v>-0.8831767838369805</v>
       </c>
+      <c r="J56" t="n">
+        <v>-0.8845526736140561</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2085,6 +2253,9 @@
       <c r="I57" t="n">
         <v>-0.8910535431598565</v>
       </c>
+      <c r="J57" t="n">
+        <v>-0.8896230444322052</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2114,6 +2285,9 @@
       <c r="I58" t="n">
         <v>-1.048730023055218</v>
       </c>
+      <c r="J58" t="n">
+        <v>-1.043869826136388</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2143,6 +2317,9 @@
       <c r="I59" t="n">
         <v>-0.7978097385976846</v>
       </c>
+      <c r="J59" t="n">
+        <v>-0.7926501736550414</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2172,6 +2349,9 @@
       <c r="I60" t="n">
         <v>-0.419246576525514</v>
       </c>
+      <c r="J60" t="n">
+        <v>-0.4127562635979945</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2201,6 +2381,9 @@
       <c r="I61" t="n">
         <v>0.3833503588443303</v>
       </c>
+      <c r="J61" t="n">
+        <v>0.3846793646275199</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2230,6 +2413,9 @@
       <c r="I62" t="n">
         <v>-1.143952622132173</v>
       </c>
+      <c r="J62" t="n">
+        <v>-1.140873726731551</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2259,6 +2445,9 @@
       <c r="I63" t="n">
         <v>-0.6209224226135401</v>
       </c>
+      <c r="J63" t="n">
+        <v>-0.6070087273480531</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2288,6 +2477,9 @@
       <c r="I64" t="n">
         <v>-0.8593369690134398</v>
       </c>
+      <c r="J64" t="n">
+        <v>-0.8534277394428407</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2317,6 +2509,9 @@
       <c r="I65" t="n">
         <v>-0.03806650798993427</v>
       </c>
+      <c r="J65" t="n">
+        <v>-0.03200692838867757</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2346,6 +2541,9 @@
       <c r="I66" t="n">
         <v>-0.718130824678466</v>
       </c>
+      <c r="J66" t="n">
+        <v>-0.7155867404527736</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2374,6 +2572,9 @@
       </c>
       <c r="I67" t="n">
         <v>-0.6741216931034747</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.6726592857431239</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,9 @@
       <c r="J1" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -496,6 +499,9 @@
       <c r="J2" t="n">
         <v>-0.2330693975773008</v>
       </c>
+      <c r="K2" t="n">
+        <v>-0.2266846578820318</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -528,6 +534,9 @@
       <c r="J3" t="n">
         <v>0.2675269627808793</v>
       </c>
+      <c r="K3" t="n">
+        <v>0.2724366451402624</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -560,6 +569,9 @@
       <c r="J4" t="n">
         <v>0.2190749341248129</v>
       </c>
+      <c r="K4" t="n">
+        <v>0.2267787048385569</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -592,6 +604,9 @@
       <c r="J5" t="n">
         <v>-0.03349029283621748</v>
       </c>
+      <c r="K5" t="n">
+        <v>-0.03129208197013025</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -624,6 +639,9 @@
       <c r="J6" t="n">
         <v>0.218430460480292</v>
       </c>
+      <c r="K6" t="n">
+        <v>0.2233494769371958</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -656,6 +674,9 @@
       <c r="J7" t="n">
         <v>-0.391177432093039</v>
       </c>
+      <c r="K7" t="n">
+        <v>-0.3851897205979797</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -688,6 +709,9 @@
       <c r="J8" t="n">
         <v>-0.179597558534984</v>
       </c>
+      <c r="K8" t="n">
+        <v>-0.1703365251608346</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -720,6 +744,9 @@
       <c r="J9" t="n">
         <v>-0.3203587230564647</v>
       </c>
+      <c r="K9" t="n">
+        <v>-0.3101200641982153</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -752,6 +779,9 @@
       <c r="J10" t="n">
         <v>0.4233947339047729</v>
       </c>
+      <c r="K10" t="n">
+        <v>0.4269979207889105</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -784,6 +814,9 @@
       <c r="J11" t="n">
         <v>-0.1906179982570776</v>
       </c>
+      <c r="K11" t="n">
+        <v>-0.1864398676853049</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -816,6 +849,9 @@
       <c r="J12" t="n">
         <v>-4.125332401094806e-05</v>
       </c>
+      <c r="K12" t="n">
+        <v>0.002359814247710063</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -848,6 +884,9 @@
       <c r="J13" t="n">
         <v>-0.01200826319450551</v>
       </c>
+      <c r="K13" t="n">
+        <v>-0.01301027655518999</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -880,6 +919,9 @@
       <c r="J14" t="n">
         <v>0.2147299528493011</v>
       </c>
+      <c r="K14" t="n">
+        <v>0.2200550663105226</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -912,6 +954,9 @@
       <c r="J15" t="n">
         <v>0.1459035762698254</v>
       </c>
+      <c r="K15" t="n">
+        <v>0.1469352674828469</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -944,6 +989,9 @@
       <c r="J16" t="n">
         <v>0.5852597228114862</v>
       </c>
+      <c r="K16" t="n">
+        <v>0.5909634540981221</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -976,6 +1024,9 @@
       <c r="J17" t="n">
         <v>0.6990555604989156</v>
       </c>
+      <c r="K17" t="n">
+        <v>0.6933922718507471</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1008,6 +1059,9 @@
       <c r="J18" t="n">
         <v>-0.02318686606459013</v>
       </c>
+      <c r="K18" t="n">
+        <v>-0.03185731555319048</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1040,6 +1094,9 @@
       <c r="J19" t="n">
         <v>0.4427768486303389</v>
       </c>
+      <c r="K19" t="n">
+        <v>0.4401180526497591</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1072,6 +1129,9 @@
       <c r="J20" t="n">
         <v>0.5027918916200099</v>
       </c>
+      <c r="K20" t="n">
+        <v>0.5046733179519701</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1104,6 +1164,9 @@
       <c r="J21" t="n">
         <v>0.7078006249451846</v>
       </c>
+      <c r="K21" t="n">
+        <v>0.7093778679177294</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1136,6 +1199,9 @@
       <c r="J22" t="n">
         <v>0.4916737516388061</v>
       </c>
+      <c r="K22" t="n">
+        <v>0.4886872823953461</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1168,6 +1234,9 @@
       <c r="J23" t="n">
         <v>0.03274216673346247</v>
       </c>
+      <c r="K23" t="n">
+        <v>0.02972708150720396</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1200,6 +1269,9 @@
       <c r="J24" t="n">
         <v>3.369313976223176</v>
       </c>
+      <c r="K24" t="n">
+        <v>3.108651591777846</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1232,6 +1304,9 @@
       <c r="J25" t="n">
         <v>0.3271600433877301</v>
       </c>
+      <c r="K25" t="n">
+        <v>0.3159831250388431</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1264,6 +1339,9 @@
       <c r="J26" t="n">
         <v>0.2171173127119377</v>
       </c>
+      <c r="K26" t="n">
+        <v>0.2011165762396186</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1296,6 +1374,9 @@
       <c r="J27" t="n">
         <v>0.1235365995779604</v>
       </c>
+      <c r="K27" t="n">
+        <v>0.1038252413403406</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1328,6 +1409,9 @@
       <c r="J28" t="n">
         <v>0.8714492193064982</v>
       </c>
+      <c r="K28" t="n">
+        <v>0.8512195002369697</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1360,6 +1444,9 @@
       <c r="J29" t="n">
         <v>3.013345782673742</v>
       </c>
+      <c r="K29" t="n">
+        <v>2.74726576745588</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1392,6 +1479,9 @@
       <c r="J30" t="n">
         <v>0.717730837877995</v>
       </c>
+      <c r="K30" t="n">
+        <v>0.696017229737977</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1424,6 +1514,9 @@
       <c r="J31" t="n">
         <v>-0.4542963448818442</v>
       </c>
+      <c r="K31" t="n">
+        <v>-0.4682746283404358</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1456,6 +1549,9 @@
       <c r="J32" t="n">
         <v>0.5989569266694914</v>
       </c>
+      <c r="K32" t="n">
+        <v>0.5833580013500372</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1488,6 +1584,9 @@
       <c r="J33" t="n">
         <v>0.7814131139075721</v>
       </c>
+      <c r="K33" t="n">
+        <v>0.7709018114691277</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1520,6 +1619,9 @@
       <c r="J34" t="n">
         <v>-0.812331700224238</v>
       </c>
+      <c r="K34" t="n">
+        <v>-0.8248233851863943</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1552,6 +1654,9 @@
       <c r="J35" t="n">
         <v>0.7736977407545136</v>
       </c>
+      <c r="K35" t="n">
+        <v>0.7719262004191021</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1584,6 +1689,9 @@
       <c r="J36" t="n">
         <v>0.7034903164730383</v>
       </c>
+      <c r="K36" t="n">
+        <v>0.702215796426884</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1616,6 +1724,9 @@
       <c r="J37" t="n">
         <v>0.6680743657665765</v>
       </c>
+      <c r="K37" t="n">
+        <v>0.6662107553822598</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1648,6 +1759,9 @@
       <c r="J38" t="n">
         <v>0.6368815073029871</v>
       </c>
+      <c r="K38" t="n">
+        <v>0.6318247557712013</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1680,6 +1794,9 @@
       <c r="J39" t="n">
         <v>0.5679043629631612</v>
       </c>
+      <c r="K39" t="n">
+        <v>0.5685726241157166</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1712,6 +1829,9 @@
       <c r="J40" t="n">
         <v>0.7351560963868633</v>
       </c>
+      <c r="K40" t="n">
+        <v>0.7347543063450299</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1744,6 +1864,9 @@
       <c r="J41" t="n">
         <v>0.5373828901135306</v>
       </c>
+      <c r="K41" t="n">
+        <v>0.5387487127703892</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1776,6 +1899,9 @@
       <c r="J42" t="n">
         <v>0.5766269906637566</v>
       </c>
+      <c r="K42" t="n">
+        <v>0.5710308842953151</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1808,6 +1934,9 @@
       <c r="J43" t="n">
         <v>0.6523313227944925</v>
       </c>
+      <c r="K43" t="n">
+        <v>0.6498223569960314</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1840,6 +1969,9 @@
       <c r="J44" t="n">
         <v>0.6518730422270186</v>
       </c>
+      <c r="K44" t="n">
+        <v>0.6529785107194904</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1872,6 +2004,9 @@
       <c r="J45" t="n">
         <v>0.5977454898153218</v>
       </c>
+      <c r="K45" t="n">
+        <v>0.5989078688195726</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1904,6 +2039,9 @@
       <c r="J46" t="n">
         <v>-1.283492577009933</v>
       </c>
+      <c r="K46" t="n">
+        <v>-1.285077665647243</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1936,6 +2074,9 @@
       <c r="J47" t="n">
         <v>-1.002082029453975</v>
       </c>
+      <c r="K47" t="n">
+        <v>-1.003664842014566</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1968,6 +2109,9 @@
       <c r="J48" t="n">
         <v>-0.8887445984933708</v>
       </c>
+      <c r="K48" t="n">
+        <v>-0.8879998493814113</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2000,6 +2144,9 @@
       <c r="J49" t="n">
         <v>-0.6490873833403559</v>
       </c>
+      <c r="K49" t="n">
+        <v>-0.6483058859282269</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2032,6 +2179,9 @@
       <c r="J50" t="n">
         <v>-0.05675939380081015</v>
       </c>
+      <c r="K50" t="n">
+        <v>-0.05782036102298309</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2064,6 +2214,9 @@
       <c r="J51" t="n">
         <v>-0.8783611686946732</v>
       </c>
+      <c r="K51" t="n">
+        <v>-0.8773729143160234</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2096,6 +2249,9 @@
       <c r="J52" t="n">
         <v>-0.8783611686946732</v>
       </c>
+      <c r="K52" t="n">
+        <v>-0.8773729143160234</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2128,6 +2284,9 @@
       <c r="J53" t="n">
         <v>-1.142556212488585</v>
       </c>
+      <c r="K53" t="n">
+        <v>-1.14407877636186</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2160,6 +2319,9 @@
       <c r="J54" t="n">
         <v>-0.1806793062173642</v>
       </c>
+      <c r="K54" t="n">
+        <v>-0.1797253861537841</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2192,6 +2354,9 @@
       <c r="J55" t="n">
         <v>-1.020206617764469</v>
       </c>
+      <c r="K55" t="n">
+        <v>-1.021876122661085</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2224,6 +2389,9 @@
       <c r="J56" t="n">
         <v>-0.8845526736140561</v>
       </c>
+      <c r="K56" t="n">
+        <v>-0.8863863288685531</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2256,6 +2424,9 @@
       <c r="J57" t="n">
         <v>-0.8896230444322052</v>
       </c>
+      <c r="K57" t="n">
+        <v>-0.8897812819819835</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2288,6 +2459,9 @@
       <c r="J58" t="n">
         <v>-1.043869826136388</v>
       </c>
+      <c r="K58" t="n">
+        <v>-1.041189320113702</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2320,6 +2494,9 @@
       <c r="J59" t="n">
         <v>-0.7926501736550414</v>
       </c>
+      <c r="K59" t="n">
+        <v>-0.7886154239211961</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2352,6 +2529,9 @@
       <c r="J60" t="n">
         <v>-0.4127562635979945</v>
       </c>
+      <c r="K60" t="n">
+        <v>-0.4080296525782379</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2384,6 +2564,9 @@
       <c r="J61" t="n">
         <v>0.3846793646275199</v>
       </c>
+      <c r="K61" t="n">
+        <v>0.3857304864242204</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2416,6 +2599,9 @@
       <c r="J62" t="n">
         <v>-1.140873726731551</v>
       </c>
+      <c r="K62" t="n">
+        <v>-1.139952783704005</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2448,6 +2634,9 @@
       <c r="J63" t="n">
         <v>-0.6070087273480531</v>
       </c>
+      <c r="K63" t="n">
+        <v>-0.594993230075872</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2480,6 +2669,9 @@
       <c r="J64" t="n">
         <v>-0.8534277394428407</v>
       </c>
+      <c r="K64" t="n">
+        <v>-0.8485203164516786</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2512,6 +2704,9 @@
       <c r="J65" t="n">
         <v>-0.03200692838867757</v>
       </c>
+      <c r="K65" t="n">
+        <v>-0.02752348665312115</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2544,6 +2739,9 @@
       <c r="J66" t="n">
         <v>-0.7155867404527736</v>
       </c>
+      <c r="K66" t="n">
+        <v>-0.7152729762786775</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2575,6 +2773,9 @@
       </c>
       <c r="J67" t="n">
         <v>-0.6726592857431239</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-0.6739776352441536</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,9 @@
       <c r="K1" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -502,6 +505,9 @@
       <c r="K2" t="n">
         <v>-0.2266846578820318</v>
       </c>
+      <c r="L2" t="n">
+        <v>-0.2215435489736757</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -537,6 +543,9 @@
       <c r="K3" t="n">
         <v>0.2724366451402624</v>
       </c>
+      <c r="L3" t="n">
+        <v>0.276220873540436</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -572,6 +581,9 @@
       <c r="K4" t="n">
         <v>0.2267787048385569</v>
       </c>
+      <c r="L4" t="n">
+        <v>0.2333343344634525</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -607,6 +619,9 @@
       <c r="K5" t="n">
         <v>-0.03129208197013025</v>
       </c>
+      <c r="L5" t="n">
+        <v>-0.03000452520110829</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -642,6 +657,9 @@
       <c r="K6" t="n">
         <v>0.2233494769371958</v>
       </c>
+      <c r="L6" t="n">
+        <v>0.226903552785904</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -677,6 +695,9 @@
       <c r="K7" t="n">
         <v>-0.3851897205979797</v>
       </c>
+      <c r="L7" t="n">
+        <v>-0.380220334962186</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -712,6 +733,9 @@
       <c r="K8" t="n">
         <v>-0.1703365251608346</v>
       </c>
+      <c r="L8" t="n">
+        <v>-0.1620395176296586</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -747,6 +771,9 @@
       <c r="K9" t="n">
         <v>-0.3101200641982153</v>
       </c>
+      <c r="L9" t="n">
+        <v>-0.3012649650780132</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -782,6 +809,9 @@
       <c r="K10" t="n">
         <v>0.4269979207889105</v>
       </c>
+      <c r="L10" t="n">
+        <v>0.4293952233081393</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -817,6 +847,9 @@
       <c r="K11" t="n">
         <v>-0.1864398676853049</v>
       </c>
+      <c r="L11" t="n">
+        <v>-0.1831272347612465</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -852,6 +885,9 @@
       <c r="K12" t="n">
         <v>0.002359814247710063</v>
       </c>
+      <c r="L12" t="n">
+        <v>0.002768106197065683</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -887,6 +923,9 @@
       <c r="K13" t="n">
         <v>-0.01301027655518999</v>
       </c>
+      <c r="L13" t="n">
+        <v>-0.01433454284000537</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -922,6 +961,9 @@
       <c r="K14" t="n">
         <v>0.2200550663105226</v>
       </c>
+      <c r="L14" t="n">
+        <v>0.2217809719795719</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -957,6 +999,9 @@
       <c r="K15" t="n">
         <v>0.1469352674828469</v>
       </c>
+      <c r="L15" t="n">
+        <v>0.1438925513065604</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -992,6 +1037,9 @@
       <c r="K16" t="n">
         <v>0.5909634540981221</v>
       </c>
+      <c r="L16" t="n">
+        <v>0.5912836983206513</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1027,6 +1075,9 @@
       <c r="K17" t="n">
         <v>0.6933922718507471</v>
       </c>
+      <c r="L17" t="n">
+        <v>0.6844634162833712</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1062,6 +1113,9 @@
       <c r="K18" t="n">
         <v>-0.03185731555319048</v>
       </c>
+      <c r="L18" t="n">
+        <v>-0.04051147236443312</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1097,6 +1151,9 @@
       <c r="K19" t="n">
         <v>0.4401180526497591</v>
       </c>
+      <c r="L19" t="n">
+        <v>0.4357227637194695</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1132,6 +1189,9 @@
       <c r="K20" t="n">
         <v>0.5046733179519701</v>
       </c>
+      <c r="L20" t="n">
+        <v>0.5014346508778402</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1167,6 +1227,9 @@
       <c r="K21" t="n">
         <v>0.7093778679177294</v>
       </c>
+      <c r="L21" t="n">
+        <v>0.7066714932156442</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1202,6 +1265,9 @@
       <c r="K22" t="n">
         <v>0.4886872823953461</v>
       </c>
+      <c r="L22" t="n">
+        <v>0.4824327600927978</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1237,6 +1303,9 @@
       <c r="K23" t="n">
         <v>0.02972708150720396</v>
       </c>
+      <c r="L23" t="n">
+        <v>0.02393756586209783</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1272,6 +1341,9 @@
       <c r="K24" t="n">
         <v>3.108651591777846</v>
       </c>
+      <c r="L24" t="n">
+        <v>2.85279332852032</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1307,6 +1379,9 @@
       <c r="K25" t="n">
         <v>0.3159831250388431</v>
       </c>
+      <c r="L25" t="n">
+        <v>0.3070840006467844</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1342,6 +1417,9 @@
       <c r="K26" t="n">
         <v>0.2011165762396186</v>
       </c>
+      <c r="L26" t="n">
+        <v>0.1866195443293642</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1377,6 +1455,9 @@
       <c r="K27" t="n">
         <v>0.1038252413403406</v>
       </c>
+      <c r="L27" t="n">
+        <v>0.08638899614141424</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1412,6 +1493,9 @@
       <c r="K28" t="n">
         <v>0.8512195002369697</v>
       </c>
+      <c r="L28" t="n">
+        <v>0.8336431081569703</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1447,6 +1531,9 @@
       <c r="K29" t="n">
         <v>2.74726576745588</v>
       </c>
+      <c r="L29" t="n">
+        <v>2.508938051209136</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1482,6 +1569,9 @@
       <c r="K30" t="n">
         <v>0.696017229737977</v>
       </c>
+      <c r="L30" t="n">
+        <v>0.6776867308139923</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1517,6 +1607,9 @@
       <c r="K31" t="n">
         <v>-0.4682746283404358</v>
       </c>
+      <c r="L31" t="n">
+        <v>-0.4786495962995321</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1552,6 +1645,9 @@
       <c r="K32" t="n">
         <v>0.5833580013500372</v>
       </c>
+      <c r="L32" t="n">
+        <v>0.5697002217048884</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1587,6 +1683,9 @@
       <c r="K33" t="n">
         <v>0.7709018114691277</v>
       </c>
+      <c r="L33" t="n">
+        <v>0.762054993938893</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1622,6 +1721,9 @@
       <c r="K34" t="n">
         <v>-0.8248233851863943</v>
       </c>
+      <c r="L34" t="n">
+        <v>-0.8352991096646599</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1657,6 +1759,9 @@
       <c r="K35" t="n">
         <v>0.7719262004191021</v>
       </c>
+      <c r="L35" t="n">
+        <v>0.7710632783786329</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1692,6 +1797,9 @@
       <c r="K36" t="n">
         <v>0.702215796426884</v>
       </c>
+      <c r="L36" t="n">
+        <v>0.7024670765621628</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1727,6 +1835,9 @@
       <c r="K37" t="n">
         <v>0.6662107553822598</v>
       </c>
+      <c r="L37" t="n">
+        <v>0.6660224946750092</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1762,6 +1873,9 @@
       <c r="K38" t="n">
         <v>0.6318247557712013</v>
       </c>
+      <c r="L38" t="n">
+        <v>0.6281013270500294</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1797,6 +1911,9 @@
       <c r="K39" t="n">
         <v>0.5685726241157166</v>
       </c>
+      <c r="L39" t="n">
+        <v>0.5697206697725478</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1832,6 +1949,9 @@
       <c r="K40" t="n">
         <v>0.7347543063450299</v>
       </c>
+      <c r="L40" t="n">
+        <v>0.7349094797139494</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1867,6 +1987,9 @@
       <c r="K41" t="n">
         <v>0.5387487127703892</v>
       </c>
+      <c r="L41" t="n">
+        <v>0.5406631858088456</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1902,6 +2025,9 @@
       <c r="K42" t="n">
         <v>0.5710308842953151</v>
       </c>
+      <c r="L42" t="n">
+        <v>0.5675797304296281</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1937,6 +2063,9 @@
       <c r="K43" t="n">
         <v>0.6498223569960314</v>
       </c>
+      <c r="L43" t="n">
+        <v>0.6483868792035804</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1972,6 +2101,9 @@
       <c r="K44" t="n">
         <v>0.6529785107194904</v>
       </c>
+      <c r="L44" t="n">
+        <v>0.6548083146782188</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2007,6 +2139,9 @@
       <c r="K45" t="n">
         <v>0.5989078688195726</v>
       </c>
+      <c r="L45" t="n">
+        <v>0.6018122156301092</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2042,6 +2177,9 @@
       <c r="K46" t="n">
         <v>-1.285077665647243</v>
       </c>
+      <c r="L46" t="n">
+        <v>-1.286750121704418</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2077,6 +2215,9 @@
       <c r="K47" t="n">
         <v>-1.003664842014566</v>
       </c>
+      <c r="L47" t="n">
+        <v>-1.005201425712782</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2112,6 +2253,9 @@
       <c r="K48" t="n">
         <v>-0.8879998493814113</v>
       </c>
+      <c r="L48" t="n">
+        <v>-0.8871499801079999</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2147,6 +2291,9 @@
       <c r="K49" t="n">
         <v>-0.6483058859282269</v>
       </c>
+      <c r="L49" t="n">
+        <v>-0.6475486234806986</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2182,6 +2329,9 @@
       <c r="K50" t="n">
         <v>-0.05782036102298309</v>
       </c>
+      <c r="L50" t="n">
+        <v>-0.05896693742741016</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2217,6 +2367,9 @@
       <c r="K51" t="n">
         <v>-0.8773729143160234</v>
       </c>
+      <c r="L51" t="n">
+        <v>-0.8762018654148507</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2252,6 +2405,9 @@
       <c r="K52" t="n">
         <v>-0.8773729143160234</v>
       </c>
+      <c r="L52" t="n">
+        <v>-0.8762018654148507</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2287,6 +2443,9 @@
       <c r="K53" t="n">
         <v>-1.14407877636186</v>
       </c>
+      <c r="L53" t="n">
+        <v>-1.145160957281868</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2322,6 +2481,9 @@
       <c r="K54" t="n">
         <v>-0.1797253861537841</v>
       </c>
+      <c r="L54" t="n">
+        <v>-0.178975748765042</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2357,6 +2519,9 @@
       <c r="K55" t="n">
         <v>-1.021876122661085</v>
       </c>
+      <c r="L55" t="n">
+        <v>-1.023571187263829</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2392,6 +2557,9 @@
       <c r="K56" t="n">
         <v>-0.8863863288685531</v>
       </c>
+      <c r="L56" t="n">
+        <v>-0.8885984558235742</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2427,6 +2595,9 @@
       <c r="K57" t="n">
         <v>-0.8897812819819835</v>
       </c>
+      <c r="L57" t="n">
+        <v>-0.89138018147253</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2462,6 +2633,9 @@
       <c r="K58" t="n">
         <v>-1.041189320113702</v>
       </c>
+      <c r="L58" t="n">
+        <v>-1.04046364010946</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2497,6 +2671,9 @@
       <c r="K59" t="n">
         <v>-0.7886154239211961</v>
       </c>
+      <c r="L59" t="n">
+        <v>-0.7856521186145508</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2532,6 +2709,9 @@
       <c r="K60" t="n">
         <v>-0.4080296525782379</v>
       </c>
+      <c r="L60" t="n">
+        <v>-0.4049129387051875</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2567,6 +2747,9 @@
       <c r="K61" t="n">
         <v>0.3857304864242204</v>
       </c>
+      <c r="L61" t="n">
+        <v>0.3865129296754359</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2602,6 +2785,9 @@
       <c r="K62" t="n">
         <v>-1.139952783704005</v>
       </c>
+      <c r="L62" t="n">
+        <v>-1.140973650986229</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2637,6 +2823,9 @@
       <c r="K63" t="n">
         <v>-0.594993230075872</v>
       </c>
+      <c r="L63" t="n">
+        <v>-0.5848036027515744</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2672,6 +2861,9 @@
       <c r="K64" t="n">
         <v>-0.8485203164516786</v>
       </c>
+      <c r="L64" t="n">
+        <v>-0.8446660980336137</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2707,6 +2899,9 @@
       <c r="K65" t="n">
         <v>-0.02752348665312115</v>
       </c>
+      <c r="L65" t="n">
+        <v>-0.02446277974574521</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2742,6 +2937,9 @@
       <c r="K66" t="n">
         <v>-0.7152729762786775</v>
       </c>
+      <c r="L66" t="n">
+        <v>-0.7168941571936222</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2776,6 +2974,9 @@
       </c>
       <c r="K67" t="n">
         <v>-0.6739776352441536</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-0.6776279752714639</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,9 @@
       <c r="L1" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -508,6 +511,9 @@
       <c r="L2" t="n">
         <v>-0.2215435489736757</v>
       </c>
+      <c r="M2" t="n">
+        <v>-0.2175795837482475</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -546,6 +552,9 @@
       <c r="L3" t="n">
         <v>0.276220873540436</v>
       </c>
+      <c r="M3" t="n">
+        <v>0.2789165852928078</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -584,6 +593,9 @@
       <c r="L4" t="n">
         <v>0.2333343344634525</v>
       </c>
+      <c r="M4" t="n">
+        <v>0.2387550305153797</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -622,6 +634,9 @@
       <c r="L5" t="n">
         <v>-0.03000452520110829</v>
       </c>
+      <c r="M5" t="n">
+        <v>-0.02954681255469891</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -660,6 +675,9 @@
       <c r="L6" t="n">
         <v>0.226903552785904</v>
       </c>
+      <c r="M6" t="n">
+        <v>0.2292128606064611</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -698,6 +716,9 @@
       <c r="L7" t="n">
         <v>-0.380220334962186</v>
       </c>
+      <c r="M7" t="n">
+        <v>-0.3762543468796232</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -736,6 +757,9 @@
       <c r="L8" t="n">
         <v>-0.1620395176296586</v>
       </c>
+      <c r="M8" t="n">
+        <v>-0.1547210824871248</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -774,6 +798,9 @@
       <c r="L9" t="n">
         <v>-0.3012649650780132</v>
       </c>
+      <c r="M9" t="n">
+        <v>-0.2938474154099748</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -812,6 +839,9 @@
       <c r="L10" t="n">
         <v>0.4293952233081393</v>
       </c>
+      <c r="M10" t="n">
+        <v>0.4307112763384501</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -850,6 +880,9 @@
       <c r="L11" t="n">
         <v>-0.1831272347612465</v>
       </c>
+      <c r="M11" t="n">
+        <v>-0.180641619839278</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -888,6 +921,9 @@
       <c r="L12" t="n">
         <v>0.002768106197065683</v>
       </c>
+      <c r="M12" t="n">
+        <v>0.001423695765111879</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -926,6 +962,9 @@
       <c r="L13" t="n">
         <v>-0.01433454284000537</v>
       </c>
+      <c r="M13" t="n">
+        <v>-0.01595371791366498</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -964,6 +1003,9 @@
       <c r="L14" t="n">
         <v>0.2217809719795719</v>
       </c>
+      <c r="M14" t="n">
+        <v>0.2203264965497768</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1002,6 +1044,9 @@
       <c r="L15" t="n">
         <v>0.1438925513065604</v>
       </c>
+      <c r="M15" t="n">
+        <v>0.1373268796792961</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1040,6 +1085,9 @@
       <c r="L16" t="n">
         <v>0.5912836983206513</v>
       </c>
+      <c r="M16" t="n">
+        <v>0.5868956338950146</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1078,6 +1126,9 @@
       <c r="L17" t="n">
         <v>0.6844634162833712</v>
       </c>
+      <c r="M17" t="n">
+        <v>0.6728181043232651</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1116,6 +1167,9 @@
       <c r="L18" t="n">
         <v>-0.04051147236443312</v>
       </c>
+      <c r="M18" t="n">
+        <v>-0.0491385636544476</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1154,6 +1208,9 @@
       <c r="L19" t="n">
         <v>0.4357227637194695</v>
       </c>
+      <c r="M19" t="n">
+        <v>0.4298505033566479</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1192,6 +1249,9 @@
       <c r="L20" t="n">
         <v>0.5014346508778402</v>
       </c>
+      <c r="M20" t="n">
+        <v>0.4937780361873223</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1230,6 +1290,9 @@
       <c r="L21" t="n">
         <v>0.7066714932156442</v>
       </c>
+      <c r="M21" t="n">
+        <v>0.7003682386288429</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1268,6 +1331,9 @@
       <c r="L22" t="n">
         <v>0.4824327600927978</v>
       </c>
+      <c r="M22" t="n">
+        <v>0.4734290891894991</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1306,6 +1372,9 @@
       <c r="L23" t="n">
         <v>0.02393756586209783</v>
       </c>
+      <c r="M23" t="n">
+        <v>0.01583199733704113</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1344,6 +1413,9 @@
       <c r="L24" t="n">
         <v>2.85279332852032</v>
       </c>
+      <c r="M24" t="n">
+        <v>2.606637089267634</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1382,6 +1454,9 @@
       <c r="L25" t="n">
         <v>0.3070840006467844</v>
       </c>
+      <c r="M25" t="n">
+        <v>0.3002307504233078</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1420,6 +1495,9 @@
       <c r="L26" t="n">
         <v>0.1866195443293642</v>
       </c>
+      <c r="M26" t="n">
+        <v>0.1736784699663838</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1458,6 +1536,9 @@
       <c r="L27" t="n">
         <v>0.08638899614141424</v>
       </c>
+      <c r="M27" t="n">
+        <v>0.07118640218310504</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1496,6 +1577,9 @@
       <c r="L28" t="n">
         <v>0.8336431081569703</v>
       </c>
+      <c r="M28" t="n">
+        <v>0.8186972916628427</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1534,6 +1618,9 @@
       <c r="L29" t="n">
         <v>2.508938051209136</v>
       </c>
+      <c r="M29" t="n">
+        <v>2.297950060062537</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1572,6 +1659,9 @@
       <c r="L30" t="n">
         <v>0.6776867308139923</v>
       </c>
+      <c r="M30" t="n">
+        <v>0.6625196926023594</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1610,6 +1700,9 @@
       <c r="L31" t="n">
         <v>-0.4786495962995321</v>
       </c>
+      <c r="M31" t="n">
+        <v>-0.4858602569524381</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1648,6 +1741,9 @@
       <c r="L32" t="n">
         <v>0.5697002217048884</v>
       </c>
+      <c r="M32" t="n">
+        <v>0.5579683702070193</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1686,6 +1782,9 @@
       <c r="L33" t="n">
         <v>0.762054993938893</v>
       </c>
+      <c r="M33" t="n">
+        <v>0.7547852848558103</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1724,6 +1823,9 @@
       <c r="L34" t="n">
         <v>-0.8352991096646599</v>
       </c>
+      <c r="M34" t="n">
+        <v>-0.8438923568685894</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1762,6 +1864,9 @@
       <c r="L35" t="n">
         <v>0.7710632783786329</v>
       </c>
+      <c r="M35" t="n">
+        <v>0.7710333980683114</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1800,6 +1905,9 @@
       <c r="L36" t="n">
         <v>0.7024670765621628</v>
       </c>
+      <c r="M36" t="n">
+        <v>0.7040526446087104</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1838,6 +1946,9 @@
       <c r="L37" t="n">
         <v>0.6660224946750092</v>
       </c>
+      <c r="M37" t="n">
+        <v>0.6673005699631303</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1876,6 +1987,9 @@
       <c r="L38" t="n">
         <v>0.6281013270500294</v>
       </c>
+      <c r="M38" t="n">
+        <v>0.6255744802510322</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1914,6 +2028,9 @@
       <c r="L39" t="n">
         <v>0.5697206697725478</v>
       </c>
+      <c r="M39" t="n">
+        <v>0.5712881112298768</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1952,6 +2069,9 @@
       <c r="L40" t="n">
         <v>0.7349094797139494</v>
       </c>
+      <c r="M40" t="n">
+        <v>0.735599014430808</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1990,6 +2110,9 @@
       <c r="L41" t="n">
         <v>0.5406631858088456</v>
       </c>
+      <c r="M41" t="n">
+        <v>0.543007445988323</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2028,6 +2151,9 @@
       <c r="L42" t="n">
         <v>0.5675797304296281</v>
       </c>
+      <c r="M42" t="n">
+        <v>0.5660383186133563</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2066,6 +2192,9 @@
       <c r="L43" t="n">
         <v>0.6483868792035804</v>
       </c>
+      <c r="M43" t="n">
+        <v>0.6478925607263843</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2104,6 +2233,9 @@
       <c r="L44" t="n">
         <v>0.6548083146782188</v>
       </c>
+      <c r="M44" t="n">
+        <v>0.6572465380355772</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2142,6 +2274,9 @@
       <c r="L45" t="n">
         <v>0.6018122156301092</v>
       </c>
+      <c r="M45" t="n">
+        <v>0.6062043201330627</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2180,6 +2315,9 @@
       <c r="L46" t="n">
         <v>-1.286750121704418</v>
       </c>
+      <c r="M46" t="n">
+        <v>-1.288541883127902</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2218,6 +2356,9 @@
       <c r="L47" t="n">
         <v>-1.005201425712782</v>
       </c>
+      <c r="M47" t="n">
+        <v>-1.006732168919114</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2256,6 +2397,9 @@
       <c r="L48" t="n">
         <v>-0.8871499801079999</v>
       </c>
+      <c r="M48" t="n">
+        <v>-0.8862911819502752</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2294,6 +2438,9 @@
       <c r="L49" t="n">
         <v>-0.6475486234806986</v>
       </c>
+      <c r="M49" t="n">
+        <v>-0.6468770863156994</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2332,6 +2479,9 @@
       <c r="L50" t="n">
         <v>-0.05896693742741016</v>
       </c>
+      <c r="M50" t="n">
+        <v>-0.06019301176409236</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2370,6 +2520,9 @@
       <c r="L51" t="n">
         <v>-0.8762018654148507</v>
       </c>
+      <c r="M51" t="n">
+        <v>-0.8749403365392996</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2408,6 +2561,9 @@
       <c r="L52" t="n">
         <v>-0.8762018654148507</v>
       </c>
+      <c r="M52" t="n">
+        <v>-0.8749403365392996</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2446,6 +2602,9 @@
       <c r="L53" t="n">
         <v>-1.145160957281868</v>
       </c>
+      <c r="M53" t="n">
+        <v>-1.145946720715698</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2484,6 +2643,9 @@
       <c r="L54" t="n">
         <v>-0.178975748765042</v>
       </c>
+      <c r="M54" t="n">
+        <v>-0.178441744575229</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2522,6 +2684,9 @@
       <c r="L55" t="n">
         <v>-1.023571187263829</v>
       </c>
+      <c r="M55" t="n">
+        <v>-1.025319929949027</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2560,6 +2725,9 @@
       <c r="L56" t="n">
         <v>-0.8885984558235742</v>
       </c>
+      <c r="M56" t="n">
+        <v>-0.8911170844663999</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2598,6 +2766,9 @@
       <c r="L57" t="n">
         <v>-0.89138018147253</v>
       </c>
+      <c r="M57" t="n">
+        <v>-0.8942580846873169</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2636,6 +2807,9 @@
       <c r="L58" t="n">
         <v>-1.04046364010946</v>
       </c>
+      <c r="M58" t="n">
+        <v>-1.041460477746505</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2674,6 +2848,9 @@
       <c r="L59" t="n">
         <v>-0.7856521186145508</v>
       </c>
+      <c r="M59" t="n">
+        <v>-0.7836934078316301</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2712,6 +2889,9 @@
       <c r="L60" t="n">
         <v>-0.4049129387051875</v>
       </c>
+      <c r="M60" t="n">
+        <v>-0.4032429317319646</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2750,6 +2930,9 @@
       <c r="L61" t="n">
         <v>0.3865129296754359</v>
       </c>
+      <c r="M61" t="n">
+        <v>0.3870405706766023</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2788,6 +2971,9 @@
       <c r="L62" t="n">
         <v>-1.140973650986229</v>
       </c>
+      <c r="M62" t="n">
+        <v>-1.143708119325207</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2826,6 +3012,9 @@
       <c r="L63" t="n">
         <v>-0.5848036027515744</v>
       </c>
+      <c r="M63" t="n">
+        <v>-0.5763463505411164</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2864,6 +3053,9 @@
       <c r="L64" t="n">
         <v>-0.8446660980336137</v>
       </c>
+      <c r="M64" t="n">
+        <v>-0.8418785954281295</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2902,6 +3094,9 @@
       <c r="L65" t="n">
         <v>-0.02446277974574521</v>
       </c>
+      <c r="M65" t="n">
+        <v>-0.02266814892541499</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2940,6 +3135,9 @@
       <c r="L66" t="n">
         <v>-0.7168941571936222</v>
       </c>
+      <c r="M66" t="n">
+        <v>-0.7201601543628047</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2977,6 +3175,9 @@
       </c>
       <c r="L67" t="n">
         <v>-0.6776279752714639</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.6831872635023702</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,9 @@
       <c r="M1" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -514,6 +517,9 @@
       <c r="M2" t="n">
         <v>-0.2175795837482475</v>
       </c>
+      <c r="N2" t="n">
+        <v>-0.2147115323215077</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -555,6 +561,9 @@
       <c r="M3" t="n">
         <v>0.2789165852928078</v>
       </c>
+      <c r="N3" t="n">
+        <v>0.2805854774793285</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -596,6 +605,9 @@
       <c r="M4" t="n">
         <v>0.2387550305153797</v>
       </c>
+      <c r="N4" t="n">
+        <v>0.2430787707704899</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -637,6 +649,9 @@
       <c r="M5" t="n">
         <v>-0.02954681255469891</v>
       </c>
+      <c r="N5" t="n">
+        <v>-0.0298310199689335</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -678,6 +693,9 @@
       <c r="M6" t="n">
         <v>0.2292128606064611</v>
       </c>
+      <c r="N6" t="n">
+        <v>0.2304072522084524</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -719,6 +737,9 @@
       <c r="M7" t="n">
         <v>-0.3762543468796232</v>
       </c>
+      <c r="N7" t="n">
+        <v>-0.3732557585910186</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -760,6 +781,9 @@
       <c r="M8" t="n">
         <v>-0.1547210824871248</v>
       </c>
+      <c r="N8" t="n">
+        <v>-0.1483746048297882</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -801,6 +825,9 @@
       <c r="M9" t="n">
         <v>-0.2938474154099748</v>
       </c>
+      <c r="N9" t="n">
+        <v>-0.2878723168483356</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -842,6 +869,9 @@
       <c r="M10" t="n">
         <v>0.4307112763384501</v>
       </c>
+      <c r="N10" t="n">
+        <v>0.4310748965358681</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -883,6 +913,9 @@
       <c r="M11" t="n">
         <v>-0.180641619839278</v>
       </c>
+      <c r="N11" t="n">
+        <v>-0.1789324831106132</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -924,6 +957,9 @@
       <c r="M12" t="n">
         <v>0.001423695765111879</v>
       </c>
+      <c r="N12" t="n">
+        <v>-0.001428810008283446</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -965,6 +1001,9 @@
       <c r="M13" t="n">
         <v>-0.01595371791366498</v>
       </c>
+      <c r="N13" t="n">
+        <v>-0.01783459793866294</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1006,6 +1045,9 @@
       <c r="M14" t="n">
         <v>0.2203264965497768</v>
       </c>
+      <c r="N14" t="n">
+        <v>0.2161246267329406</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1047,6 +1089,9 @@
       <c r="M15" t="n">
         <v>0.1373268796792961</v>
       </c>
+      <c r="N15" t="n">
+        <v>0.1277936965612357</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1088,6 +1133,9 @@
       <c r="M16" t="n">
         <v>0.5868956338950146</v>
       </c>
+      <c r="N16" t="n">
+        <v>0.5784875716617578</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1129,6 +1177,9 @@
       <c r="M17" t="n">
         <v>0.6728181043232651</v>
       </c>
+      <c r="N17" t="n">
+        <v>0.6589938596370364</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1170,6 +1221,9 @@
       <c r="M18" t="n">
         <v>-0.0491385636544476</v>
       </c>
+      <c r="N18" t="n">
+        <v>-0.05771118125900838</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1211,6 +1265,9 @@
       <c r="M19" t="n">
         <v>0.4298505033566479</v>
       </c>
+      <c r="N19" t="n">
+        <v>0.4227613071752523</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1252,6 +1309,9 @@
       <c r="M20" t="n">
         <v>0.4937780361873223</v>
       </c>
+      <c r="N20" t="n">
+        <v>0.4824078082050208</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1293,6 +1353,9 @@
       <c r="M21" t="n">
         <v>0.7003682386288429</v>
       </c>
+      <c r="N21" t="n">
+        <v>0.6911262838362131</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1334,6 +1397,9 @@
       <c r="M22" t="n">
         <v>0.4734290891894991</v>
       </c>
+      <c r="N22" t="n">
+        <v>0.4621859565479181</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1375,6 +1441,9 @@
       <c r="M23" t="n">
         <v>0.01583199733704113</v>
       </c>
+      <c r="N23" t="n">
+        <v>0.005855129852687185</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1416,6 +1485,9 @@
       <c r="M24" t="n">
         <v>2.606637089267634</v>
       </c>
+      <c r="N24" t="n">
+        <v>2.374013105901009</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1457,6 +1529,9 @@
       <c r="M25" t="n">
         <v>0.3002307504233078</v>
       </c>
+      <c r="N25" t="n">
+        <v>0.2951925643307866</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1498,6 +1573,9 @@
       <c r="M26" t="n">
         <v>0.1736784699663838</v>
       </c>
+      <c r="N26" t="n">
+        <v>0.1623030321360282</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1539,6 +1617,9 @@
       <c r="M27" t="n">
         <v>0.07118640218310504</v>
       </c>
+      <c r="N27" t="n">
+        <v>0.05813933089070963</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1580,6 +1661,9 @@
       <c r="M28" t="n">
         <v>0.8186972916628427</v>
       </c>
+      <c r="N28" t="n">
+        <v>0.8063040206187764</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1621,6 +1705,9 @@
       <c r="M29" t="n">
         <v>2.297950060062537</v>
       </c>
+      <c r="N29" t="n">
+        <v>2.113484169219412</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1662,6 +1749,9 @@
       <c r="M30" t="n">
         <v>0.6625196926023594</v>
       </c>
+      <c r="N30" t="n">
+        <v>0.6502720957344179</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1703,6 +1793,9 @@
       <c r="M31" t="n">
         <v>-0.4858602569524381</v>
       </c>
+      <c r="N31" t="n">
+        <v>-0.4903338076650849</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1744,6 +1837,9 @@
       <c r="M32" t="n">
         <v>0.5579683702070193</v>
       </c>
+      <c r="N32" t="n">
+        <v>0.5481060889767042</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1785,6 +1881,9 @@
       <c r="M33" t="n">
         <v>0.7547852848558103</v>
       </c>
+      <c r="N33" t="n">
+        <v>0.7489864203910184</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1826,6 +1925,9 @@
       <c r="M34" t="n">
         <v>-0.8438923568685894</v>
       </c>
+      <c r="N34" t="n">
+        <v>-0.8507554598944342</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1867,6 +1969,9 @@
       <c r="M35" t="n">
         <v>0.7710333980683114</v>
       </c>
+      <c r="N35" t="n">
+        <v>0.7717495820472758</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1908,6 +2013,9 @@
       <c r="M36" t="n">
         <v>0.7040526446087104</v>
       </c>
+      <c r="N36" t="n">
+        <v>0.7067768352537229</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1949,6 +2057,9 @@
       <c r="M37" t="n">
         <v>0.6673005699631303</v>
       </c>
+      <c r="N37" t="n">
+        <v>0.6698322163721662</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1990,6 +2101,9 @@
       <c r="M38" t="n">
         <v>0.6255744802510322</v>
       </c>
+      <c r="N38" t="n">
+        <v>0.6241044482541108</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2031,6 +2145,9 @@
       <c r="M39" t="n">
         <v>0.5712881112298768</v>
       </c>
+      <c r="N39" t="n">
+        <v>0.5732100202802798</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2072,6 +2189,9 @@
       <c r="M40" t="n">
         <v>0.735599014430808</v>
       </c>
+      <c r="N40" t="n">
+        <v>0.7367843397845922</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2113,6 +2233,9 @@
       <c r="M41" t="n">
         <v>0.543007445988323</v>
       </c>
+      <c r="N41" t="n">
+        <v>0.5456723610359514</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2154,6 +2277,9 @@
       <c r="M42" t="n">
         <v>0.5660383186133563</v>
       </c>
+      <c r="N42" t="n">
+        <v>0.5661639955885477</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2195,6 +2321,9 @@
       <c r="M43" t="n">
         <v>0.6478925607263843</v>
       </c>
+      <c r="N43" t="n">
+        <v>0.6482075400909787</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2236,6 +2365,9 @@
       <c r="M44" t="n">
         <v>0.6572465380355772</v>
       </c>
+      <c r="N44" t="n">
+        <v>0.660178660718858</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2277,6 +2409,9 @@
       <c r="M45" t="n">
         <v>0.6062043201330627</v>
       </c>
+      <c r="N45" t="n">
+        <v>0.6118287417175144</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2318,6 +2453,9 @@
       <c r="M46" t="n">
         <v>-1.288541883127902</v>
       </c>
+      <c r="N46" t="n">
+        <v>-1.290475908432081</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2359,6 +2497,9 @@
       <c r="M47" t="n">
         <v>-1.006732168919114</v>
       </c>
+      <c r="N47" t="n">
+        <v>-1.008290278175782</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2400,6 +2541,9 @@
       <c r="M48" t="n">
         <v>-0.8862911819502752</v>
       </c>
+      <c r="N48" t="n">
+        <v>-0.8855038804015558</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2441,6 +2585,9 @@
       <c r="M49" t="n">
         <v>-0.6468770863156994</v>
       </c>
+      <c r="N49" t="n">
+        <v>-0.6463408523737177</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2482,6 +2629,9 @@
       <c r="M50" t="n">
         <v>-0.06019301176409236</v>
       </c>
+      <c r="N50" t="n">
+        <v>-0.0614915737997565</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2523,6 +2673,9 @@
       <c r="M51" t="n">
         <v>-0.8749403365392996</v>
       </c>
+      <c r="N51" t="n">
+        <v>-0.8736693023769028</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2564,6 +2717,9 @@
       <c r="M52" t="n">
         <v>-0.8749403365392996</v>
       </c>
+      <c r="N52" t="n">
+        <v>-0.8736693023769028</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2605,6 +2761,9 @@
       <c r="M53" t="n">
         <v>-1.145946720715698</v>
       </c>
+      <c r="N53" t="n">
+        <v>-1.146559804432204</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2646,6 +2805,9 @@
       <c r="M54" t="n">
         <v>-0.178441744575229</v>
       </c>
+      <c r="N54" t="n">
+        <v>-0.1781291062210919</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2687,6 +2849,9 @@
       <c r="M55" t="n">
         <v>-1.025319929949027</v>
       </c>
+      <c r="N55" t="n">
+        <v>-1.027144157663037</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2728,6 +2893,9 @@
       <c r="M56" t="n">
         <v>-0.8911170844663999</v>
       </c>
+      <c r="N56" t="n">
+        <v>-0.8938776283849684</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2769,6 +2937,9 @@
       <c r="M57" t="n">
         <v>-0.8942580846873169</v>
       </c>
+      <c r="N57" t="n">
+        <v>-0.8982464945900426</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2810,6 +2981,9 @@
       <c r="M58" t="n">
         <v>-1.041460477746505</v>
       </c>
+      <c r="N58" t="n">
+        <v>-1.043946842762194</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2851,6 +3025,9 @@
       <c r="M59" t="n">
         <v>-0.7836934078316301</v>
       </c>
+      <c r="N59" t="n">
+        <v>-0.7826625630749537</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2892,6 +3069,9 @@
       <c r="M60" t="n">
         <v>-0.4032429317319646</v>
       </c>
+      <c r="N60" t="n">
+        <v>-0.4028523143990638</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2933,6 +3113,9 @@
       <c r="M61" t="n">
         <v>0.3870405706766023</v>
       </c>
+      <c r="N61" t="n">
+        <v>0.3873308246913036</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2974,6 +3157,9 @@
       <c r="M62" t="n">
         <v>-1.143708119325207</v>
       </c>
+      <c r="N62" t="n">
+        <v>-1.147923765947755</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3015,6 +3201,9 @@
       <c r="M63" t="n">
         <v>-0.5763463505411164</v>
       </c>
+      <c r="N63" t="n">
+        <v>-0.5695116342616492</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3056,6 +3245,9 @@
       <c r="M64" t="n">
         <v>-0.8418785954281295</v>
       </c>
+      <c r="N64" t="n">
+        <v>-0.8401401875399637</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3097,6 +3289,9 @@
       <c r="M65" t="n">
         <v>-0.02266814892541499</v>
       </c>
+      <c r="N65" t="n">
+        <v>-0.02198350904456219</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3138,6 +3333,9 @@
       <c r="M66" t="n">
         <v>-0.7201601543628047</v>
       </c>
+      <c r="N66" t="n">
+        <v>-0.7247920187986965</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3178,6 +3376,9 @@
       </c>
       <c r="M67" t="n">
         <v>-0.6831872635023702</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.6902632662961985</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,12 @@
       <c r="N1" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -520,6 +526,12 @@
       <c r="N2" t="n">
         <v>-0.2147115323215077</v>
       </c>
+      <c r="O2" t="n">
+        <v>-0.2128477638078029</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.2118901065629061</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -564,6 +576,12 @@
       <c r="N3" t="n">
         <v>0.2805854774793285</v>
       </c>
+      <c r="O3" t="n">
+        <v>0.2813075268075425</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.2811752558168016</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -608,6 +626,12 @@
       <c r="N4" t="n">
         <v>0.2430787707704899</v>
       </c>
+      <c r="O4" t="n">
+        <v>0.2463629988121556</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2486797524839374</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -652,6 +676,12 @@
       <c r="N5" t="n">
         <v>-0.0298310199689335</v>
       </c>
+      <c r="O5" t="n">
+        <v>-0.0307656133348515</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.03225841381480378</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -696,6 +726,12 @@
       <c r="N6" t="n">
         <v>0.2304072522084524</v>
       </c>
+      <c r="O6" t="n">
+        <v>0.2306213330448918</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.2299902910042842</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -740,6 +776,12 @@
       <c r="N7" t="n">
         <v>-0.3732557585910186</v>
       </c>
+      <c r="O7" t="n">
+        <v>-0.371172054729902</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.3699383689509853</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -784,6 +826,12 @@
       <c r="N8" t="n">
         <v>-0.1483746048297882</v>
       </c>
+      <c r="O8" t="n">
+        <v>-0.1429756724898395</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.1384853716517394</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -828,6 +876,12 @@
       <c r="N9" t="n">
         <v>-0.2878723168483356</v>
       </c>
+      <c r="O9" t="n">
+        <v>-0.2833047036358718</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.2800782769518634</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -872,6 +926,12 @@
       <c r="N10" t="n">
         <v>0.4310748965358681</v>
       </c>
+      <c r="O10" t="n">
+        <v>0.4306152552986454</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.4294587097203348</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -916,6 +976,12 @@
       <c r="N11" t="n">
         <v>-0.1789324831106132</v>
       </c>
+      <c r="O11" t="n">
+        <v>-0.1779404439221652</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.1776001658684229</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -960,6 +1026,12 @@
       <c r="N12" t="n">
         <v>-0.001428810008283446</v>
       </c>
+      <c r="O12" t="n">
+        <v>-0.00554741234322996</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.01069848376877072</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1004,6 +1076,12 @@
       <c r="N13" t="n">
         <v>-0.01783459793866294</v>
       </c>
+      <c r="O13" t="n">
+        <v>-0.01994034920993558</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-0.02223238652636863</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1048,6 +1126,12 @@
       <c r="N14" t="n">
         <v>0.2161246267329406</v>
       </c>
+      <c r="O14" t="n">
+        <v>0.2096083778699824</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.2011992897294233</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1092,6 +1176,12 @@
       <c r="N15" t="n">
         <v>0.1277936965612357</v>
       </c>
+      <c r="O15" t="n">
+        <v>0.1158366582466219</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.1019751367546734</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1136,6 +1226,12 @@
       <c r="N16" t="n">
         <v>0.5784875716617578</v>
       </c>
+      <c r="O16" t="n">
+        <v>0.5667400886097449</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.5523092529592173</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1180,6 +1276,12 @@
       <c r="N17" t="n">
         <v>0.6589938596370364</v>
       </c>
+      <c r="O17" t="n">
+        <v>0.6435036435735713</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.626826037000103</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1224,6 +1326,12 @@
       <c r="N18" t="n">
         <v>-0.05771118125900838</v>
       </c>
+      <c r="O18" t="n">
+        <v>-0.06619109519494865</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.07453402987895902</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1268,6 +1376,12 @@
       <c r="N19" t="n">
         <v>0.4227613071752523</v>
       </c>
+      <c r="O19" t="n">
+        <v>0.4147082358362778</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.4059315240000756</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1312,6 +1426,12 @@
       <c r="N20" t="n">
         <v>0.4824078082050208</v>
       </c>
+      <c r="O20" t="n">
+        <v>0.4680111208729821</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.4512426545136669</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1356,6 +1476,12 @@
       <c r="N21" t="n">
         <v>0.6911262838362131</v>
       </c>
+      <c r="O21" t="n">
+        <v>0.6795640375324163</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.6662519438824651</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1400,6 +1526,12 @@
       <c r="N22" t="n">
         <v>0.4621859565479181</v>
       </c>
+      <c r="O22" t="n">
+        <v>0.4491915327500307</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.4349030728676286</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1444,6 +1576,12 @@
       <c r="N23" t="n">
         <v>0.005855129852687185</v>
       </c>
+      <c r="O23" t="n">
+        <v>-0.005571332609762891</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.01805577677420292</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1488,6 +1626,12 @@
       <c r="N24" t="n">
         <v>2.374013105901009</v>
       </c>
+      <c r="O24" t="n">
+        <v>2.157780851749858</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.959933607157823</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1532,6 +1676,12 @@
       <c r="N25" t="n">
         <v>0.2951925643307866</v>
       </c>
+      <c r="O25" t="n">
+        <v>0.2917440745863075</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.2896687705687532</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1576,6 +1726,12 @@
       <c r="N26" t="n">
         <v>0.1623030321360282</v>
       </c>
+      <c r="O26" t="n">
+        <v>0.152467296036162</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.1441163917052351</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1620,6 +1776,12 @@
       <c r="N27" t="n">
         <v>0.05813933089070963</v>
       </c>
+      <c r="O27" t="n">
+        <v>0.04714036940376232</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.03805970042251687</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1664,6 +1826,12 @@
       <c r="N28" t="n">
         <v>0.8063040206187764</v>
       </c>
+      <c r="O28" t="n">
+        <v>0.7963412485181309</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.7886533795173142</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1708,6 +1876,12 @@
       <c r="N29" t="n">
         <v>2.113484169219412</v>
       </c>
+      <c r="O29" t="n">
+        <v>1.954389059321646</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.819249605817164</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1752,6 +1926,12 @@
       <c r="N30" t="n">
         <v>0.6502720957344179</v>
       </c>
+      <c r="O30" t="n">
+        <v>0.640684197316871</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.6334882871403437</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1796,6 +1976,12 @@
       <c r="N31" t="n">
         <v>-0.4903338076650849</v>
       </c>
+      <c r="O31" t="n">
+        <v>-0.4924788820920559</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-0.4926801269012133</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1840,6 +2026,12 @@
       <c r="N32" t="n">
         <v>0.5481060889767042</v>
       </c>
+      <c r="O32" t="n">
+        <v>0.5400243399792264</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.5336091816930694</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1884,6 +2076,12 @@
       <c r="N33" t="n">
         <v>0.7489864203910184</v>
       </c>
+      <c r="O33" t="n">
+        <v>0.7445387718341611</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.7413142241910726</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1928,6 +2126,12 @@
       <c r="N34" t="n">
         <v>-0.8507554598944342</v>
       </c>
+      <c r="O34" t="n">
+        <v>-0.8560527810546902</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-0.8599548809714945</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1972,6 +2176,12 @@
       <c r="N35" t="n">
         <v>0.7717495820472758</v>
       </c>
+      <c r="O35" t="n">
+        <v>0.7731180761019696</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.7750422638657158</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2016,6 +2226,12 @@
       <c r="N36" t="n">
         <v>0.7067768352537229</v>
       </c>
+      <c r="O36" t="n">
+        <v>0.710445870074472</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.7148727103196514</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2060,6 +2276,12 @@
       <c r="N37" t="n">
         <v>0.6698322163721662</v>
       </c>
+      <c r="O37" t="n">
+        <v>0.6734072349369168</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.6778230668963577</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2104,6 +2326,12 @@
       <c r="N38" t="n">
         <v>0.6241044482541108</v>
       </c>
+      <c r="O38" t="n">
+        <v>0.6235520964690628</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.6237819527619272</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2148,6 +2376,12 @@
       <c r="N39" t="n">
         <v>0.5732100202802798</v>
       </c>
+      <c r="O39" t="n">
+        <v>0.5754198577815065</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.5778518553257703</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2192,6 +2426,12 @@
       <c r="N40" t="n">
         <v>0.7367843397845922</v>
       </c>
+      <c r="O40" t="n">
+        <v>0.7384154861031726</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.7404350324146238</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2236,6 +2476,12 @@
       <c r="N41" t="n">
         <v>0.5456723610359514</v>
       </c>
+      <c r="O41" t="n">
+        <v>0.5485594665135802</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.5515814593899226</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2280,6 +2526,12 @@
       <c r="N42" t="n">
         <v>0.5661639955885477</v>
       </c>
+      <c r="O42" t="n">
+        <v>0.5677140889241663</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.5704519990425972</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2324,6 +2576,12 @@
       <c r="N43" t="n">
         <v>0.6482075400909787</v>
       </c>
+      <c r="O43" t="n">
+        <v>0.6492034822425543</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.6507580129854277</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2368,6 +2626,12 @@
       <c r="N44" t="n">
         <v>0.660178660718858</v>
       </c>
+      <c r="O44" t="n">
+        <v>0.6634945156418861</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.6670905577338264</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2412,6 +2676,12 @@
       <c r="N45" t="n">
         <v>0.6118287417175144</v>
       </c>
+      <c r="O45" t="n">
+        <v>0.6184362577945474</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.6257897093034609</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2456,6 +2726,12 @@
       <c r="N46" t="n">
         <v>-1.290475908432081</v>
       </c>
+      <c r="O46" t="n">
+        <v>-1.292567223126907</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-1.29482394536213</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2500,6 +2776,12 @@
       <c r="N47" t="n">
         <v>-1.008290278175782</v>
       </c>
+      <c r="O47" t="n">
+        <v>-1.009902242279011</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-1.01158835404017</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2544,6 +2826,12 @@
       <c r="N48" t="n">
         <v>-0.8855038804015558</v>
       </c>
+      <c r="O48" t="n">
+        <v>-0.884853480017777</v>
+      </c>
+      <c r="P48" t="n">
+        <v>-0.8843913445364918</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2588,6 +2876,12 @@
       <c r="N49" t="n">
         <v>-0.6463408523737177</v>
       </c>
+      <c r="O49" t="n">
+        <v>-0.6459783835648634</v>
+      </c>
+      <c r="P49" t="n">
+        <v>-0.6458179574229141</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2632,6 +2926,12 @@
       <c r="N50" t="n">
         <v>-0.0614915737997565</v>
       </c>
+      <c r="O50" t="n">
+        <v>-0.0628550302052869</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-0.06427546707599818</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2676,6 +2976,12 @@
       <c r="N51" t="n">
         <v>-0.8736693023769028</v>
       </c>
+      <c r="O51" t="n">
+        <v>-0.8724581358318191</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-0.8713647033370471</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2720,6 +3026,12 @@
       <c r="N52" t="n">
         <v>-0.8736693023769028</v>
       </c>
+      <c r="O52" t="n">
+        <v>-0.8724581358318191</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-0.8713647033370471</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2764,6 +3076,12 @@
       <c r="N53" t="n">
         <v>-1.146559804432204</v>
       </c>
+      <c r="O53" t="n">
+        <v>-1.147104558077292</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-1.147667061955454</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2808,6 +3126,12 @@
       <c r="N54" t="n">
         <v>-0.1781291062210919</v>
       </c>
+      <c r="O54" t="n">
+        <v>-0.1780386108715763</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-0.1781667638844488</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2852,6 +3176,12 @@
       <c r="N55" t="n">
         <v>-1.027144157663037</v>
       </c>
+      <c r="O55" t="n">
+        <v>-1.029059925247228</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-1.031078113966504</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2896,6 +3226,12 @@
       <c r="N56" t="n">
         <v>-0.8938776283849684</v>
       </c>
+      <c r="O56" t="n">
+        <v>-0.8968228105385498</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-0.8999024290092584</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2940,6 +3276,12 @@
       <c r="N57" t="n">
         <v>-0.8982464945900426</v>
       </c>
+      <c r="O57" t="n">
+        <v>-0.9031757676071503</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-0.9088797600531041</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2984,6 +3326,12 @@
       <c r="N58" t="n">
         <v>-1.043946842762194</v>
       </c>
+      <c r="O58" t="n">
+        <v>-1.047694685311832</v>
+      </c>
+      <c r="P58" t="n">
+        <v>-1.052485398801365</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3028,6 +3376,12 @@
       <c r="N59" t="n">
         <v>-0.7826625630749537</v>
       </c>
+      <c r="O59" t="n">
+        <v>-0.7824762314578961</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-0.7830473127192779</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3072,6 +3426,12 @@
       <c r="N60" t="n">
         <v>-0.4028523143990638</v>
       </c>
+      <c r="O60" t="n">
+        <v>-0.403574102318818</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-0.4052453470076435</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3116,6 +3476,12 @@
       <c r="N61" t="n">
         <v>0.3873308246913036</v>
       </c>
+      <c r="O61" t="n">
+        <v>0.3874036144745389</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.3872804548219493</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3160,6 +3526,12 @@
       <c r="N62" t="n">
         <v>-1.147923765947755</v>
       </c>
+      <c r="O62" t="n">
+        <v>-1.153390528667371</v>
+      </c>
+      <c r="P62" t="n">
+        <v>-1.159886010957426</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3204,6 +3576,12 @@
       <c r="N63" t="n">
         <v>-0.5695116342616492</v>
       </c>
+      <c r="O63" t="n">
+        <v>-0.5641777544994385</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-0.5602152825374364</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3248,6 +3626,12 @@
       <c r="N64" t="n">
         <v>-0.8401401875399637</v>
       </c>
+      <c r="O64" t="n">
+        <v>-0.8394084087706666</v>
+      </c>
+      <c r="P64" t="n">
+        <v>-0.8396217037502596</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3292,6 +3676,12 @@
       <c r="N65" t="n">
         <v>-0.02198350904456219</v>
       </c>
+      <c r="O65" t="n">
+        <v>-0.02225654199021455</v>
+      </c>
+      <c r="P65" t="n">
+        <v>-0.02334129164106661</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3336,6 +3726,12 @@
       <c r="N66" t="n">
         <v>-0.7247920187986965</v>
       </c>
+      <c r="O66" t="n">
+        <v>-0.7305266003811319</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-0.7371199583381679</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3379,6 +3775,12 @@
       </c>
       <c r="N67" t="n">
         <v>-0.6902632662961985</v>
+      </c>
+      <c r="O67" t="n">
+        <v>-0.6984980672173858</v>
+      </c>
+      <c r="P67" t="n">
+        <v>-0.7075701313924574</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P67"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,9 @@
       <c r="P1" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -532,6 +535,9 @@
       <c r="P2" t="n">
         <v>-0.2118901065629061</v>
       </c>
+      <c r="Q2" t="n">
+        <v>-0.211737198514324</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -582,6 +588,9 @@
       <c r="P3" t="n">
         <v>0.2811752558168016</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0.2802887764818393</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -632,6 +641,9 @@
       <c r="P4" t="n">
         <v>0.2486797524839374</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0.2501113028508516</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -682,6 +694,9 @@
       <c r="P5" t="n">
         <v>-0.03225841381480378</v>
       </c>
+      <c r="Q5" t="n">
+        <v>-0.03421902505959844</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -732,6 +747,9 @@
       <c r="P6" t="n">
         <v>0.2299902910042842</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0.2286464667215566</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -782,6 +800,9 @@
       <c r="P7" t="n">
         <v>-0.3699383689509853</v>
       </c>
+      <c r="Q7" t="n">
+        <v>-0.3694812097978253</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -832,6 +853,9 @@
       <c r="P8" t="n">
         <v>-0.1384853716517394</v>
       </c>
+      <c r="Q8" t="n">
+        <v>-0.1348534099454115</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -882,6 +906,9 @@
       <c r="P9" t="n">
         <v>-0.2800782769518634</v>
       </c>
+      <c r="Q9" t="n">
+        <v>-0.2781031259417973</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -932,6 +959,9 @@
       <c r="P10" t="n">
         <v>0.4294587097203348</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0.427726274131615</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -982,6 +1012,9 @@
       <c r="P11" t="n">
         <v>-0.1776001658684229</v>
       </c>
+      <c r="Q11" t="n">
+        <v>-0.1778428798070649</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1032,6 +1065,9 @@
       <c r="P12" t="n">
         <v>-0.01069848376877072</v>
       </c>
+      <c r="Q12" t="n">
+        <v>-0.01666122902755744</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1082,6 +1118,9 @@
       <c r="P13" t="n">
         <v>-0.02223238652636863</v>
       </c>
+      <c r="Q13" t="n">
+        <v>-0.02467190788927056</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1132,6 +1171,9 @@
       <c r="P14" t="n">
         <v>0.2011992897294233</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0.1912984037896934</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1182,6 +1224,9 @@
       <c r="P15" t="n">
         <v>0.1019751367546734</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0.08669476468851375</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1232,6 +1277,9 @@
       <c r="P16" t="n">
         <v>0.5523092529592173</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0.535813686997048</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1282,6 +1330,9 @@
       <c r="P17" t="n">
         <v>0.626826037000103</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0.6093982743910276</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1332,6 +1383,9 @@
       <c r="P18" t="n">
         <v>-0.07453402987895902</v>
       </c>
+      <c r="Q18" t="n">
+        <v>-0.08269349765196018</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1382,6 +1436,9 @@
       <c r="P19" t="n">
         <v>0.4059315240000756</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0.3966542311985374</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1432,6 +1489,9 @@
       <c r="P20" t="n">
         <v>0.4512426545136669</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0.4327131068286132</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1482,6 +1542,9 @@
       <c r="P21" t="n">
         <v>0.6662519438824651</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0.6517070188386224</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1532,6 +1595,9 @@
       <c r="P22" t="n">
         <v>0.4349030728676286</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0.4197401645389522</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1582,6 +1648,9 @@
       <c r="P23" t="n">
         <v>-0.01805577677420292</v>
       </c>
+      <c r="Q23" t="n">
+        <v>-0.03124157212234813</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1632,6 +1701,9 @@
       <c r="P24" t="n">
         <v>1.959933607157823</v>
       </c>
+      <c r="Q24" t="n">
+        <v>1.781706297629536</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1682,6 +1754,9 @@
       <c r="P25" t="n">
         <v>0.2896687705687532</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0.2887617295970882</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1732,6 +1807,9 @@
       <c r="P26" t="n">
         <v>0.1441163917052351</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0.1371727664072763</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1782,6 +1860,9 @@
       <c r="P27" t="n">
         <v>0.03805970042251687</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0.03075144570348697</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1832,6 +1913,9 @@
       <c r="P28" t="n">
         <v>0.7886533795173142</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0.7830607306334585</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1882,6 +1966,9 @@
       <c r="P29" t="n">
         <v>1.819249605817164</v>
       </c>
+      <c r="Q29" t="n">
+        <v>1.706453092068045</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1932,6 +2019,9 @@
       <c r="P30" t="n">
         <v>0.6334882871403437</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0.6284154027372975</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1982,6 +2072,9 @@
       <c r="P31" t="n">
         <v>-0.4926801269012133</v>
       </c>
+      <c r="Q31" t="n">
+        <v>-0.4912942501732517</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2032,6 +2125,9 @@
       <c r="P32" t="n">
         <v>0.5336091816930694</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0.5287288141769302</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2082,6 +2178,9 @@
       <c r="P33" t="n">
         <v>0.7413142241910726</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0.739180452409635</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2132,6 +2231,9 @@
       <c r="P34" t="n">
         <v>-0.8599548809714945</v>
       </c>
+      <c r="Q34" t="n">
+        <v>-0.8626335000175135</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2182,6 +2284,9 @@
       <c r="P35" t="n">
         <v>0.7750422638657158</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0.7774258956836608</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2232,6 +2337,9 @@
       <c r="P36" t="n">
         <v>0.7148727103196514</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0.7198808048809261</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2282,6 +2390,9 @@
       <c r="P37" t="n">
         <v>0.6778230668963577</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0.6828887068225316</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2332,6 +2443,9 @@
       <c r="P38" t="n">
         <v>0.6237819527619272</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0.6246646265094751</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2382,6 +2496,9 @@
       <c r="P39" t="n">
         <v>0.5778518553257703</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0.5804428920364528</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2432,6 +2549,9 @@
       <c r="P40" t="n">
         <v>0.7404350324146238</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0.7427814469521431</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2482,6 +2602,9 @@
       <c r="P41" t="n">
         <v>0.5515814593899226</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0.5546623143537718</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2532,6 +2655,9 @@
       <c r="P42" t="n">
         <v>0.5704519990425972</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0.5741520178942927</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2582,6 +2708,9 @@
       <c r="P43" t="n">
         <v>0.6507580129854277</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0.6527565686506596</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2632,6 +2761,9 @@
       <c r="P44" t="n">
         <v>0.6670905577338264</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0.6708715091381532</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2682,6 +2814,9 @@
       <c r="P45" t="n">
         <v>0.6257897093034609</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0.6336683787968435</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2732,6 +2867,9 @@
       <c r="P46" t="n">
         <v>-1.29482394536213</v>
       </c>
+      <c r="Q46" t="n">
+        <v>-1.297248272908962</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2782,6 +2920,9 @@
       <c r="P47" t="n">
         <v>-1.01158835404017</v>
       </c>
+      <c r="Q47" t="n">
+        <v>-1.013363272708608</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2832,6 +2973,9 @@
       <c r="P48" t="n">
         <v>-0.8843913445364918</v>
       </c>
+      <c r="Q48" t="n">
+        <v>-0.8841559442812467</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2882,6 +3026,9 @@
       <c r="P49" t="n">
         <v>-0.6458179574229141</v>
       </c>
+      <c r="Q49" t="n">
+        <v>-0.6458786819016177</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2932,6 +3079,9 @@
       <c r="P50" t="n">
         <v>-0.06427546707599818</v>
       </c>
+      <c r="Q50" t="n">
+        <v>-0.06574486350073253</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2982,6 +3132,9 @@
       <c r="P51" t="n">
         <v>-0.8713647033370471</v>
       </c>
+      <c r="Q51" t="n">
+        <v>-0.8704357457766317</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3032,6 +3185,9 @@
       <c r="P52" t="n">
         <v>-0.8713647033370471</v>
       </c>
+      <c r="Q52" t="n">
+        <v>-0.8704357457766317</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3082,6 +3238,9 @@
       <c r="P53" t="n">
         <v>-1.147667061955454</v>
       </c>
+      <c r="Q53" t="n">
+        <v>-1.148316453059387</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3132,6 +3291,9 @@
       <c r="P54" t="n">
         <v>-0.1781667638844488</v>
       </c>
+      <c r="Q54" t="n">
+        <v>-0.1785064739494164</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3182,6 +3344,9 @@
       <c r="P55" t="n">
         <v>-1.031078113966504</v>
       </c>
+      <c r="Q55" t="n">
+        <v>-1.033205015660625</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3232,6 +3397,9 @@
       <c r="P56" t="n">
         <v>-0.8999024290092584</v>
       </c>
+      <c r="Q56" t="n">
+        <v>-0.9030729993411727</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3282,6 +3450,9 @@
       <c r="P57" t="n">
         <v>-0.9088797600531041</v>
       </c>
+      <c r="Q57" t="n">
+        <v>-0.915199484166255</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3332,6 +3503,9 @@
       <c r="P58" t="n">
         <v>-1.052485398801365</v>
       </c>
+      <c r="Q58" t="n">
+        <v>-1.058113265947279</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3382,6 +3556,9 @@
       <c r="P59" t="n">
         <v>-0.7830473127192779</v>
       </c>
+      <c r="Q59" t="n">
+        <v>-0.784287430460839</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3432,6 +3609,9 @@
       <c r="P60" t="n">
         <v>-0.4052453470076435</v>
       </c>
+      <c r="Q60" t="n">
+        <v>-0.4077100894007756</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3482,6 +3662,9 @@
       <c r="P61" t="n">
         <v>0.3872804548219493</v>
       </c>
+      <c r="Q61" t="n">
+        <v>0.3869836634059048</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3532,6 +3715,9 @@
       <c r="P62" t="n">
         <v>-1.159886010957426</v>
       </c>
+      <c r="Q62" t="n">
+        <v>-1.167199589428569</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3582,6 +3768,9 @@
       <c r="P63" t="n">
         <v>-0.5602152825374364</v>
       </c>
+      <c r="Q63" t="n">
+        <v>-0.5574907427320736</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3632,6 +3821,9 @@
       <c r="P64" t="n">
         <v>-0.8396217037502596</v>
       </c>
+      <c r="Q64" t="n">
+        <v>-0.8407045720733579</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3682,6 +3874,9 @@
       <c r="P65" t="n">
         <v>-0.02334129164106661</v>
       </c>
+      <c r="Q65" t="n">
+        <v>-0.02510017015647736</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3732,6 +3927,9 @@
       <c r="P66" t="n">
         <v>-0.7371199583381679</v>
       </c>
+      <c r="Q66" t="n">
+        <v>-0.7443496654308114</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3781,6 +3979,9 @@
       </c>
       <c r="P67" t="n">
         <v>-0.7075701313924574</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>-0.7171951101604085</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,9 @@
       <c r="Q1" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -538,6 +541,9 @@
       <c r="Q2" t="n">
         <v>-0.211737198514324</v>
       </c>
+      <c r="R2" t="n">
+        <v>-0.2122873176975561</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -591,6 +597,9 @@
       <c r="Q3" t="n">
         <v>0.2802887764818393</v>
       </c>
+      <c r="R3" t="n">
+        <v>0.2787516069115304</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -644,6 +653,9 @@
       <c r="Q4" t="n">
         <v>0.2501113028508516</v>
       </c>
+      <c r="R4" t="n">
+        <v>0.2507463382600518</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -697,6 +709,9 @@
       <c r="Q5" t="n">
         <v>-0.03421902505959844</v>
       </c>
+      <c r="R5" t="n">
+        <v>-0.03656075233884954</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -750,6 +765,9 @@
       <c r="Q6" t="n">
         <v>0.2286464667215566</v>
       </c>
+      <c r="R6" t="n">
+        <v>0.2267166328260729</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -803,6 +821,9 @@
       <c r="Q7" t="n">
         <v>-0.3694812097978253</v>
       </c>
+      <c r="R7" t="n">
+        <v>-0.3697217169324734</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -856,6 +877,9 @@
       <c r="Q8" t="n">
         <v>-0.1348534099454115</v>
       </c>
+      <c r="R8" t="n">
+        <v>-0.1320210007581047</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -909,6 +933,9 @@
       <c r="Q9" t="n">
         <v>-0.2781031259417973</v>
       </c>
+      <c r="R9" t="n">
+        <v>-0.2772725691332023</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -962,6 +989,9 @@
       <c r="Q10" t="n">
         <v>0.427726274131615</v>
       </c>
+      <c r="R10" t="n">
+        <v>0.4255316920061231</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1015,6 +1045,9 @@
       <c r="Q11" t="n">
         <v>-0.1778428798070649</v>
       </c>
+      <c r="R11" t="n">
+        <v>-0.1785985344262816</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1068,6 +1101,9 @@
       <c r="Q12" t="n">
         <v>-0.01666122902755744</v>
       </c>
+      <c r="R12" t="n">
+        <v>-0.02323095554039858</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1121,6 +1157,9 @@
       <c r="Q13" t="n">
         <v>-0.02467190788927056</v>
       </c>
+      <c r="R13" t="n">
+        <v>-0.02722110986665824</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1174,6 +1213,9 @@
       <c r="Q14" t="n">
         <v>0.1912984037896934</v>
       </c>
+      <c r="R14" t="n">
+        <v>0.1802795223729024</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1227,6 +1269,9 @@
       <c r="Q15" t="n">
         <v>0.08669476468851375</v>
       </c>
+      <c r="R15" t="n">
+        <v>0.07044072571340043</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1280,6 +1325,9 @@
       <c r="Q16" t="n">
         <v>0.535813686997048</v>
       </c>
+      <c r="R16" t="n">
+        <v>0.5178251257353121</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1333,6 +1381,9 @@
       <c r="Q17" t="n">
         <v>0.6093982743910276</v>
       </c>
+      <c r="R17" t="n">
+        <v>0.5916117912367248</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1386,6 +1437,9 @@
       <c r="Q18" t="n">
         <v>-0.08269349765196018</v>
       </c>
+      <c r="R18" t="n">
+        <v>-0.09062377895235837</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1439,6 +1493,9 @@
       <c r="Q19" t="n">
         <v>0.3966542311985374</v>
       </c>
+      <c r="R19" t="n">
+        <v>0.3870792362274644</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1492,6 +1549,9 @@
       <c r="Q20" t="n">
         <v>0.4327131068286132</v>
       </c>
+      <c r="R20" t="n">
+        <v>0.4129810919002381</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1545,6 +1605,9 @@
       <c r="Q21" t="n">
         <v>0.6517070188386224</v>
       </c>
+      <c r="R21" t="n">
+        <v>0.6363897796198004</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1598,6 +1661,9 @@
       <c r="Q22" t="n">
         <v>0.4197401645389522</v>
       </c>
+      <c r="R22" t="n">
+        <v>0.4040803183216852</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1651,6 +1717,9 @@
       <c r="Q23" t="n">
         <v>-0.03124157212234813</v>
       </c>
+      <c r="R23" t="n">
+        <v>-0.04481007391578683</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1704,6 +1773,9 @@
       <c r="Q24" t="n">
         <v>1.781706297629536</v>
       </c>
+      <c r="R24" t="n">
+        <v>1.623682855468669</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1757,6 +1829,9 @@
       <c r="Q25" t="n">
         <v>0.2887617295970882</v>
       </c>
+      <c r="R25" t="n">
+        <v>0.2888316518070349</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1810,6 +1885,9 @@
       <c r="Q26" t="n">
         <v>0.1371727664072763</v>
       </c>
+      <c r="R26" t="n">
+        <v>0.1315419053021651</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1863,6 +1941,9 @@
       <c r="Q27" t="n">
         <v>0.03075144570348697</v>
       </c>
+      <c r="R27" t="n">
+        <v>0.02505935125311932</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1916,6 +1997,9 @@
       <c r="Q28" t="n">
         <v>0.7830607306334585</v>
       </c>
+      <c r="R28" t="n">
+        <v>0.7793679035992437</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1969,6 +2053,9 @@
       <c r="Q29" t="n">
         <v>1.706453092068045</v>
       </c>
+      <c r="R29" t="n">
+        <v>1.614250168312841</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2022,6 +2109,9 @@
       <c r="Q30" t="n">
         <v>0.6284154027372975</v>
       </c>
+      <c r="R30" t="n">
+        <v>0.6252009885360459</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2075,6 +2165,9 @@
       <c r="Q31" t="n">
         <v>-0.4912942501732517</v>
       </c>
+      <c r="R31" t="n">
+        <v>-0.4886473668530645</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2128,6 +2221,9 @@
       <c r="Q32" t="n">
         <v>0.5287288141769302</v>
       </c>
+      <c r="R32" t="n">
+        <v>0.5252398105795846</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2181,6 +2277,9 @@
       <c r="Q33" t="n">
         <v>0.739180452409635</v>
       </c>
+      <c r="R33" t="n">
+        <v>0.7380045607089729</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2234,6 +2333,9 @@
       <c r="Q34" t="n">
         <v>-0.8626335000175135</v>
       </c>
+      <c r="R34" t="n">
+        <v>-0.8642573962307303</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2287,6 +2389,9 @@
       <c r="Q35" t="n">
         <v>0.7774258956836608</v>
       </c>
+      <c r="R35" t="n">
+        <v>0.7801756706897319</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2340,6 +2445,9 @@
       <c r="Q36" t="n">
         <v>0.7198808048809261</v>
       </c>
+      <c r="R36" t="n">
+        <v>0.7253068333432999</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2393,6 +2501,9 @@
       <c r="Q37" t="n">
         <v>0.6828887068225316</v>
       </c>
+      <c r="R37" t="n">
+        <v>0.688427559179257</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2446,6 +2557,9 @@
       <c r="Q38" t="n">
         <v>0.6246646265094751</v>
       </c>
+      <c r="R38" t="n">
+        <v>0.626078654455247</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2499,6 +2613,9 @@
       <c r="Q39" t="n">
         <v>0.5804428920364528</v>
       </c>
+      <c r="R39" t="n">
+        <v>0.5831339122356263</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2552,6 +2669,9 @@
       <c r="Q40" t="n">
         <v>0.7427814469521431</v>
       </c>
+      <c r="R40" t="n">
+        <v>0.7453918462893763</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2605,6 +2725,9 @@
       <c r="Q41" t="n">
         <v>0.5546623143537718</v>
       </c>
+      <c r="R41" t="n">
+        <v>0.5577370896852865</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2658,6 +2781,9 @@
       <c r="Q42" t="n">
         <v>0.5741520178942927</v>
       </c>
+      <c r="R42" t="n">
+        <v>0.5786029690812541</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2711,6 +2837,9 @@
       <c r="Q43" t="n">
         <v>0.6527565686506596</v>
       </c>
+      <c r="R43" t="n">
+        <v>0.6550937136444269</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2764,6 +2893,9 @@
       <c r="Q44" t="n">
         <v>0.6708715091381532</v>
       </c>
+      <c r="R44" t="n">
+        <v>0.6747514539708275</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2817,6 +2949,9 @@
       <c r="Q45" t="n">
         <v>0.6336683787968435</v>
       </c>
+      <c r="R45" t="n">
+        <v>0.6418710548361906</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2870,6 +3005,9 @@
       <c r="Q46" t="n">
         <v>-1.297248272908962</v>
       </c>
+      <c r="R46" t="n">
+        <v>-1.299837413083858</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2923,6 +3061,9 @@
       <c r="Q47" t="n">
         <v>-1.013363272708608</v>
       </c>
+      <c r="R47" t="n">
+        <v>-1.015236605411304</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2976,6 +3117,9 @@
       <c r="Q48" t="n">
         <v>-0.8841559442812467</v>
       </c>
+      <c r="R48" t="n">
+        <v>-0.8841741081488517</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3029,6 +3173,9 @@
       <c r="Q49" t="n">
         <v>-0.6458786819016177</v>
       </c>
+      <c r="R49" t="n">
+        <v>-0.6461715491584128</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3082,6 +3229,9 @@
       <c r="Q50" t="n">
         <v>-0.06574486350073253</v>
       </c>
+      <c r="R50" t="n">
+        <v>-0.06725525800096821</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3135,6 +3285,9 @@
       <c r="Q51" t="n">
         <v>-0.8704357457766317</v>
       </c>
+      <c r="R51" t="n">
+        <v>-0.8697074812829438</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3188,6 +3341,9 @@
       <c r="Q52" t="n">
         <v>-0.8704357457766317</v>
       </c>
+      <c r="R52" t="n">
+        <v>-0.8697074812829438</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3241,6 +3397,9 @@
       <c r="Q53" t="n">
         <v>-1.148316453059387</v>
       </c>
+      <c r="R53" t="n">
+        <v>-1.149106389465709</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3294,6 +3453,9 @@
       <c r="Q54" t="n">
         <v>-0.1785064739494164</v>
       </c>
+      <c r="R54" t="n">
+        <v>-0.1790476997042434</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3347,6 +3509,9 @@
       <c r="Q55" t="n">
         <v>-1.033205015660625</v>
       </c>
+      <c r="R55" t="n">
+        <v>-1.035442906344139</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3400,6 +3565,9 @@
       <c r="Q56" t="n">
         <v>-0.9030729993411727</v>
       </c>
+      <c r="R56" t="n">
+        <v>-0.9062973029887171</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3453,6 +3621,9 @@
       <c r="Q57" t="n">
         <v>-0.915199484166255</v>
       </c>
+      <c r="R57" t="n">
+        <v>-0.9219858550724299</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3506,6 +3677,9 @@
       <c r="Q58" t="n">
         <v>-1.058113265947279</v>
       </c>
+      <c r="R58" t="n">
+        <v>-1.064387939824807</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3559,6 +3733,9 @@
       <c r="Q59" t="n">
         <v>-0.784287430460839</v>
       </c>
+      <c r="R59" t="n">
+        <v>-0.7861089971875567</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3612,6 +3789,9 @@
       <c r="Q60" t="n">
         <v>-0.4077100894007756</v>
       </c>
+      <c r="R60" t="n">
+        <v>-0.4108216118050125</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3665,6 +3845,9 @@
       <c r="Q61" t="n">
         <v>0.3869836634059048</v>
       </c>
+      <c r="R61" t="n">
+        <v>0.3865356993588662</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3718,6 +3901,9 @@
       <c r="Q62" t="n">
         <v>-1.167199589428569</v>
       </c>
+      <c r="R62" t="n">
+        <v>-1.175135426876067</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3771,6 +3957,9 @@
       <c r="Q63" t="n">
         <v>-0.5574907427320736</v>
       </c>
+      <c r="R63" t="n">
+        <v>-0.5558698092531353</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3824,6 +4013,9 @@
       <c r="Q64" t="n">
         <v>-0.8407045720733579</v>
       </c>
+      <c r="R64" t="n">
+        <v>-0.8425720729840726</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3877,6 +4069,9 @@
       <c r="Q65" t="n">
         <v>-0.02510017015647736</v>
       </c>
+      <c r="R65" t="n">
+        <v>-0.02740541805921489</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3930,6 +4125,9 @@
       <c r="Q66" t="n">
         <v>-0.7443496654308114</v>
       </c>
+      <c r="R66" t="n">
+        <v>-0.7520161400726837</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3982,6 +4180,9 @@
       </c>
       <c r="Q67" t="n">
         <v>-0.7171951101604085</v>
+      </c>
+      <c r="R67" t="n">
+        <v>-0.7271255840723233</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R67"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,6 +488,9 @@
       <c r="R1" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -544,6 +547,9 @@
       <c r="R2" t="n">
         <v>-0.2122873176975561</v>
       </c>
+      <c r="S2" t="n">
+        <v>-0.2134407066447654</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -600,6 +606,9 @@
       <c r="R3" t="n">
         <v>0.2787516069115304</v>
       </c>
+      <c r="S3" t="n">
+        <v>0.2766672314807001</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -656,6 +665,9 @@
       <c r="R4" t="n">
         <v>0.2507463382600518</v>
       </c>
+      <c r="S4" t="n">
+        <v>0.2506767026588045</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -712,6 +724,9 @@
       <c r="R5" t="n">
         <v>-0.03656075233884954</v>
       </c>
+      <c r="S5" t="n">
+        <v>-0.03920205484992471</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -768,6 +783,9 @@
       <c r="R6" t="n">
         <v>0.2267166328260729</v>
       </c>
+      <c r="S6" t="n">
+        <v>0.2243199284908573</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -824,6 +842,9 @@
       <c r="R7" t="n">
         <v>-0.3697217169324734</v>
       </c>
+      <c r="S7" t="n">
+        <v>-0.3705784425593072</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -880,6 +901,9 @@
       <c r="R8" t="n">
         <v>-0.1320210007581047</v>
       </c>
+      <c r="S8" t="n">
+        <v>-0.12992346354221</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -936,6 +960,9 @@
       <c r="R9" t="n">
         <v>-0.2772725691332023</v>
       </c>
+      <c r="S9" t="n">
+        <v>-0.2774690906643162</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -992,6 +1019,9 @@
       <c r="R10" t="n">
         <v>0.4255316920061231</v>
       </c>
+      <c r="S10" t="n">
+        <v>0.4229800532313024</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1048,6 +1078,9 @@
       <c r="R11" t="n">
         <v>-0.1785985344262816</v>
       </c>
+      <c r="S11" t="n">
+        <v>-0.1797975816702734</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1104,6 +1137,9 @@
       <c r="R12" t="n">
         <v>-0.02323095554039858</v>
       </c>
+      <c r="S12" t="n">
+        <v>-0.03022128641168612</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1160,6 +1196,9 @@
       <c r="R13" t="n">
         <v>-0.02722110986665824</v>
       </c>
+      <c r="S13" t="n">
+        <v>-0.02984411388069605</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1216,6 +1255,9 @@
       <c r="R14" t="n">
         <v>0.1802795223729024</v>
       </c>
+      <c r="S14" t="n">
+        <v>0.1684845066879528</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1272,6 +1314,9 @@
       <c r="R15" t="n">
         <v>0.07044072571340043</v>
       </c>
+      <c r="S15" t="n">
+        <v>0.05361345371026364</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1328,6 +1373,9 @@
       <c r="R16" t="n">
         <v>0.5178251257353121</v>
       </c>
+      <c r="S16" t="n">
+        <v>0.498862073248718</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1384,6 +1432,9 @@
       <c r="R17" t="n">
         <v>0.5916117912367248</v>
       </c>
+      <c r="S17" t="n">
+        <v>0.5738099225275998</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1440,6 +1491,9 @@
       <c r="R18" t="n">
         <v>-0.09062377895235837</v>
       </c>
+      <c r="S18" t="n">
+        <v>-0.09828215068176864</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1496,6 +1550,9 @@
       <c r="R19" t="n">
         <v>0.3870792362274644</v>
       </c>
+      <c r="S19" t="n">
+        <v>0.3773873978791705</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1552,6 +1609,9 @@
       <c r="R20" t="n">
         <v>0.4129810919002381</v>
       </c>
+      <c r="S20" t="n">
+        <v>0.3925480253304749</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1608,6 +1668,9 @@
       <c r="R21" t="n">
         <v>0.6363897796198004</v>
       </c>
+      <c r="S21" t="n">
+        <v>0.6207032085889397</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1664,6 +1727,9 @@
       <c r="R22" t="n">
         <v>0.4040803183216852</v>
       </c>
+      <c r="S22" t="n">
+        <v>0.3882565740145814</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1720,6 +1786,9 @@
       <c r="R23" t="n">
         <v>-0.04481007391578683</v>
       </c>
+      <c r="S23" t="n">
+        <v>-0.05848201565437257</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1776,6 +1845,9 @@
       <c r="R24" t="n">
         <v>1.623682855468669</v>
       </c>
+      <c r="S24" t="n">
+        <v>1.485900081167662</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1832,6 +1904,9 @@
       <c r="R25" t="n">
         <v>0.2888316518070349</v>
       </c>
+      <c r="S25" t="n">
+        <v>0.2897022646114589</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1888,6 +1963,9 @@
       <c r="R26" t="n">
         <v>0.1315419053021651</v>
       </c>
+      <c r="S26" t="n">
+        <v>0.1271174491342092</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1944,6 +2022,9 @@
       <c r="R27" t="n">
         <v>0.02505935125311932</v>
       </c>
+      <c r="S27" t="n">
+        <v>0.02082176297006314</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2000,6 +2081,9 @@
       <c r="R28" t="n">
         <v>0.7793679035992437</v>
       </c>
+      <c r="S28" t="n">
+        <v>0.7773710236808341</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2056,6 +2140,9 @@
       <c r="R29" t="n">
         <v>1.614250168312841</v>
       </c>
+      <c r="S29" t="n">
+        <v>1.540809510279542</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2112,6 +2199,9 @@
       <c r="R30" t="n">
         <v>0.6252009885360459</v>
       </c>
+      <c r="S30" t="n">
+        <v>0.6235895114186427</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2168,6 +2258,9 @@
       <c r="R31" t="n">
         <v>-0.4886473668530645</v>
       </c>
+      <c r="S31" t="n">
+        <v>-0.4850335044083614</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2224,6 +2317,9 @@
       <c r="R32" t="n">
         <v>0.5252398105795846</v>
       </c>
+      <c r="S32" t="n">
+        <v>0.5229925071326571</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2280,6 +2376,9 @@
       <c r="R33" t="n">
         <v>0.7380045607089729</v>
       </c>
+      <c r="S33" t="n">
+        <v>0.7376560979213711</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2336,6 +2435,9 @@
       <c r="R34" t="n">
         <v>-0.8642573962307303</v>
       </c>
+      <c r="S34" t="n">
+        <v>-0.8649889998124383</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2392,6 +2494,9 @@
       <c r="R35" t="n">
         <v>0.7801756706897319</v>
       </c>
+      <c r="S35" t="n">
+        <v>0.7832032252873049</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2448,6 +2553,9 @@
       <c r="R36" t="n">
         <v>0.7253068333432999</v>
       </c>
+      <c r="S36" t="n">
+        <v>0.7310025598448919</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2504,6 +2612,9 @@
       <c r="R37" t="n">
         <v>0.688427559179257</v>
       </c>
+      <c r="S37" t="n">
+        <v>0.6942793593660224</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2560,6 +2671,9 @@
       <c r="R38" t="n">
         <v>0.626078654455247</v>
       </c>
+      <c r="S38" t="n">
+        <v>0.6279118240841245</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2616,6 +2730,9 @@
       <c r="R39" t="n">
         <v>0.5831339122356263</v>
       </c>
+      <c r="S39" t="n">
+        <v>0.5858709359180608</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2672,6 +2789,9 @@
       <c r="R40" t="n">
         <v>0.7453918462893763</v>
       </c>
+      <c r="S40" t="n">
+        <v>0.7482042128784123</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2728,6 +2848,9 @@
       <c r="R41" t="n">
         <v>0.5577370896852865</v>
       </c>
+      <c r="S41" t="n">
+        <v>0.560751487439353</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2784,6 +2907,9 @@
       <c r="R42" t="n">
         <v>0.5786029690812541</v>
       </c>
+      <c r="S42" t="n">
+        <v>0.5836107862289658</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2840,6 +2966,9 @@
       <c r="R43" t="n">
         <v>0.6550937136444269</v>
       </c>
+      <c r="S43" t="n">
+        <v>0.6576739870288032</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2896,6 +3025,9 @@
       <c r="R44" t="n">
         <v>0.6747514539708275</v>
       </c>
+      <c r="S44" t="n">
+        <v>0.6786544597474656</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2952,6 +3084,9 @@
       <c r="R45" t="n">
         <v>0.6418710548361906</v>
       </c>
+      <c r="S45" t="n">
+        <v>0.650217951987069</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3008,6 +3143,9 @@
       <c r="R46" t="n">
         <v>-1.299837413083858</v>
       </c>
+      <c r="S46" t="n">
+        <v>-1.302584446897282</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3064,6 +3202,9 @@
       <c r="R47" t="n">
         <v>-1.015236605411304</v>
       </c>
+      <c r="S47" t="n">
+        <v>-1.017213493388566</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3120,6 +3261,9 @@
       <c r="R48" t="n">
         <v>-0.8841741081488517</v>
       </c>
+      <c r="S48" t="n">
+        <v>-0.884462329098581</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3176,6 +3320,9 @@
       <c r="R49" t="n">
         <v>-0.6461715491584128</v>
       </c>
+      <c r="S49" t="n">
+        <v>-0.6467004937867472</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3232,6 +3379,9 @@
       <c r="R50" t="n">
         <v>-0.06725525800096821</v>
       </c>
+      <c r="S50" t="n">
+        <v>-0.06879887404811838</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3288,6 +3438,9 @@
       <c r="R51" t="n">
         <v>-0.8697074812829438</v>
       </c>
+      <c r="S51" t="n">
+        <v>-0.8692063725558664</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3344,6 +3497,9 @@
       <c r="R52" t="n">
         <v>-0.8697074812829438</v>
       </c>
+      <c r="S52" t="n">
+        <v>-0.8692063725558664</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3400,6 +3556,9 @@
       <c r="R53" t="n">
         <v>-1.149106389465709</v>
       </c>
+      <c r="S53" t="n">
+        <v>-1.150076595328849</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3456,6 +3615,9 @@
       <c r="R54" t="n">
         <v>-0.1790476997042434</v>
       </c>
+      <c r="S54" t="n">
+        <v>-0.1797780547668924</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3512,6 +3674,9 @@
       <c r="R55" t="n">
         <v>-1.035442906344139</v>
       </c>
+      <c r="S55" t="n">
+        <v>-1.03779060067629</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3568,6 +3733,9 @@
       <c r="R56" t="n">
         <v>-0.9062973029887171</v>
       </c>
+      <c r="S56" t="n">
+        <v>-0.9095438737535668</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3624,6 +3792,9 @@
       <c r="R57" t="n">
         <v>-0.9219858550724299</v>
       </c>
+      <c r="S57" t="n">
+        <v>-0.9291016284114122</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3680,6 +3851,9 @@
       <c r="R58" t="n">
         <v>-1.064387939824807</v>
       </c>
+      <c r="S58" t="n">
+        <v>-1.071136070848985</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3736,6 +3910,9 @@
       <c r="R59" t="n">
         <v>-0.7861089971875567</v>
       </c>
+      <c r="S59" t="n">
+        <v>-0.7884268889232531</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3792,6 +3969,9 @@
       <c r="R60" t="n">
         <v>-0.4108216118050125</v>
       </c>
+      <c r="S60" t="n">
+        <v>-0.414444051776777</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3848,6 +4028,9 @@
       <c r="R61" t="n">
         <v>0.3865356993588662</v>
       </c>
+      <c r="S61" t="n">
+        <v>0.3859586251804976</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3904,6 +4087,9 @@
       <c r="R62" t="n">
         <v>-1.175135426876067</v>
       </c>
+      <c r="S62" t="n">
+        <v>-1.183514515935657</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3960,6 +4146,9 @@
       <c r="R63" t="n">
         <v>-0.5558698092531353</v>
       </c>
+      <c r="S63" t="n">
+        <v>-0.5552200037564755</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4016,6 +4205,9 @@
       <c r="R64" t="n">
         <v>-0.8425720729840726</v>
       </c>
+      <c r="S64" t="n">
+        <v>-0.8451336875559403</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4072,6 +4264,9 @@
       <c r="R65" t="n">
         <v>-0.02740541805921489</v>
       </c>
+      <c r="S65" t="n">
+        <v>-0.03014007263561565</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4128,6 +4323,9 @@
       <c r="R66" t="n">
         <v>-0.7520161400726837</v>
       </c>
+      <c r="S66" t="n">
+        <v>-0.7599431505656447</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4183,6 +4381,9 @@
       </c>
       <c r="R67" t="n">
         <v>-0.7271255840723233</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-0.7371499467560734</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S67"/>
+  <dimension ref="A1:T67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,9 @@
       <c r="S1" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -550,6 +553,9 @@
       <c r="S2" t="n">
         <v>-0.2134407066447654</v>
       </c>
+      <c r="T2" t="n">
+        <v>-0.2151014203135094</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -609,6 +615,9 @@
       <c r="S3" t="n">
         <v>0.2766672314807001</v>
       </c>
+      <c r="T3" t="n">
+        <v>0.2741363546596283</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -668,6 +677,9 @@
       <c r="S4" t="n">
         <v>0.2506767026588045</v>
       </c>
+      <c r="T4" t="n">
+        <v>0.2499946746558706</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -727,6 +739,9 @@
       <c r="S5" t="n">
         <v>-0.03920205484992471</v>
       </c>
+      <c r="T5" t="n">
+        <v>-0.04206758168757672</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -786,6 +801,9 @@
       <c r="S6" t="n">
         <v>0.2243199284908573</v>
       </c>
+      <c r="T6" t="n">
+        <v>0.2215663827633269</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -845,6 +863,9 @@
       <c r="S7" t="n">
         <v>-0.3705784425593072</v>
       </c>
+      <c r="T7" t="n">
+        <v>-0.3719696713840123</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -904,6 +925,9 @@
       <c r="S8" t="n">
         <v>-0.12992346354221</v>
       </c>
+      <c r="T8" t="n">
+        <v>-0.1284925157697178</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -963,6 +987,9 @@
       <c r="S9" t="n">
         <v>-0.2774690906643162</v>
       </c>
+      <c r="T9" t="n">
+        <v>-0.2785693823562983</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1022,6 +1049,9 @@
       <c r="S10" t="n">
         <v>0.4229800532313024</v>
       </c>
+      <c r="T10" t="n">
+        <v>0.4201668922319315</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1081,6 +1111,9 @@
       <c r="S11" t="n">
         <v>-0.1797975816702734</v>
       </c>
+      <c r="T11" t="n">
+        <v>-0.1813724166767837</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1140,6 +1173,9 @@
       <c r="S12" t="n">
         <v>-0.03022128641168612</v>
       </c>
+      <c r="T12" t="n">
+        <v>-0.03746546047286631</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1199,6 +1235,9 @@
       <c r="S13" t="n">
         <v>-0.02984411388069605</v>
       </c>
+      <c r="T13" t="n">
+        <v>-0.03250763802070863</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1258,6 +1297,9 @@
       <c r="S14" t="n">
         <v>0.1684845066879528</v>
       </c>
+      <c r="T14" t="n">
+        <v>0.156220347846427</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1317,6 +1359,9 @@
       <c r="S15" t="n">
         <v>0.05361345371026364</v>
       </c>
+      <c r="T15" t="n">
+        <v>0.03656638679108185</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1376,6 +1421,9 @@
       <c r="S16" t="n">
         <v>0.498862073248718</v>
       </c>
+      <c r="T16" t="n">
+        <v>0.4793861291485803</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1435,6 +1483,9 @@
       <c r="S17" t="n">
         <v>0.5738099225275998</v>
       </c>
+      <c r="T17" t="n">
+        <v>0.5562873881432384</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1494,6 +1545,9 @@
       <c r="S18" t="n">
         <v>-0.09828215068176864</v>
       </c>
+      <c r="T18" t="n">
+        <v>-0.1056304661912161</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1553,6 +1607,9 @@
       <c r="S19" t="n">
         <v>0.3773873978791705</v>
       </c>
+      <c r="T19" t="n">
+        <v>0.3677366994844117</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1612,6 +1669,9 @@
       <c r="S20" t="n">
         <v>0.3925480253304749</v>
       </c>
+      <c r="T20" t="n">
+        <v>0.371855552660967</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1671,6 +1731,9 @@
       <c r="S21" t="n">
         <v>0.6207032085889397</v>
       </c>
+      <c r="T21" t="n">
+        <v>0.604993390242397</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1730,6 +1793,9 @@
       <c r="S22" t="n">
         <v>0.3882565740145814</v>
       </c>
+      <c r="T22" t="n">
+        <v>0.3725567910721144</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1789,6 +1855,9 @@
       <c r="S23" t="n">
         <v>-0.05848201565437257</v>
       </c>
+      <c r="T23" t="n">
+        <v>-0.07201757009960451</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1848,6 +1917,9 @@
       <c r="S24" t="n">
         <v>1.485900081167662</v>
       </c>
+      <c r="T24" t="n">
+        <v>1.367945691836304</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1907,6 +1979,9 @@
       <c r="S25" t="n">
         <v>0.2897022646114589</v>
       </c>
+      <c r="T25" t="n">
+        <v>0.2912131637051413</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1966,6 +2041,9 @@
       <c r="S26" t="n">
         <v>0.1271174491342092</v>
       </c>
+      <c r="T26" t="n">
+        <v>0.1237856731776045</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2025,6 +2103,9 @@
       <c r="S27" t="n">
         <v>0.02082176297006314</v>
       </c>
+      <c r="T27" t="n">
+        <v>0.01787587358001689</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2084,6 +2165,9 @@
       <c r="S28" t="n">
         <v>0.7773710236808341</v>
       </c>
+      <c r="T28" t="n">
+        <v>0.7768638537895495</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2143,6 +2227,9 @@
       <c r="S29" t="n">
         <v>1.540809510279542</v>
       </c>
+      <c r="T29" t="n">
+        <v>1.484265604324132</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2202,6 +2289,9 @@
       <c r="S30" t="n">
         <v>0.6235895114186427</v>
       </c>
+      <c r="T30" t="n">
+        <v>0.6233380852877815</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2261,6 +2351,9 @@
       <c r="S31" t="n">
         <v>-0.4850335044083614</v>
       </c>
+      <c r="T31" t="n">
+        <v>-0.4807141038785454</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2320,6 +2413,9 @@
       <c r="S32" t="n">
         <v>0.5229925071326571</v>
       </c>
+      <c r="T32" t="n">
+        <v>0.521835555109165</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2379,6 +2475,9 @@
       <c r="S33" t="n">
         <v>0.7376560979213711</v>
       </c>
+      <c r="T33" t="n">
+        <v>0.7380094769319231</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2438,6 +2537,9 @@
       <c r="S34" t="n">
         <v>-0.8649889998124383</v>
       </c>
+      <c r="T34" t="n">
+        <v>-0.8649818325540657</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2497,6 +2599,9 @@
       <c r="S35" t="n">
         <v>0.7832032252873049</v>
       </c>
+      <c r="T35" t="n">
+        <v>0.7864265901895262</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2556,6 +2661,9 @@
       <c r="S36" t="n">
         <v>0.7310025598448919</v>
       </c>
+      <c r="T36" t="n">
+        <v>0.7368359205375803</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2615,6 +2723,9 @@
       <c r="S37" t="n">
         <v>0.6942793593660224</v>
       </c>
+      <c r="T37" t="n">
+        <v>0.7003012883033296</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2674,6 +2785,9 @@
       <c r="S38" t="n">
         <v>0.6279118240841245</v>
       </c>
+      <c r="T38" t="n">
+        <v>0.630062033969191</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2733,6 +2847,9 @@
       <c r="S39" t="n">
         <v>0.5858709359180608</v>
       </c>
+      <c r="T39" t="n">
+        <v>0.5886057163183243</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2792,6 +2909,9 @@
       <c r="S40" t="n">
         <v>0.7482042128784123</v>
       </c>
+      <c r="T40" t="n">
+        <v>0.7511591197493361</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2851,6 +2971,9 @@
       <c r="S41" t="n">
         <v>0.560751487439353</v>
       </c>
+      <c r="T41" t="n">
+        <v>0.5636612283102598</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2910,6 +3033,9 @@
       <c r="S42" t="n">
         <v>0.5836107862289658</v>
       </c>
+      <c r="T42" t="n">
+        <v>0.5890001604733712</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2969,6 +3095,9 @@
       <c r="S43" t="n">
         <v>0.6576739870288032</v>
       </c>
+      <c r="T43" t="n">
+        <v>0.660412343611627</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3028,6 +3157,9 @@
       <c r="S44" t="n">
         <v>0.6786544597474656</v>
       </c>
+      <c r="T44" t="n">
+        <v>0.6825148028716391</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3087,6 +3219,9 @@
       <c r="S45" t="n">
         <v>0.650217951987069</v>
       </c>
+      <c r="T45" t="n">
+        <v>0.6585516602803478</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3146,6 +3281,9 @@
       <c r="S46" t="n">
         <v>-1.302584446897282</v>
       </c>
+      <c r="T46" t="n">
+        <v>-1.30547912297581</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3205,6 +3343,9 @@
       <c r="S47" t="n">
         <v>-1.017213493388566</v>
       </c>
+      <c r="T47" t="n">
+        <v>-1.019295191601392</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3264,6 +3405,9 @@
       <c r="S48" t="n">
         <v>-0.884462329098581</v>
       </c>
+      <c r="T48" t="n">
+        <v>-0.8850280809082314</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3323,6 +3467,9 @@
       <c r="S49" t="n">
         <v>-0.6467004937867472</v>
       </c>
+      <c r="T49" t="n">
+        <v>-0.6474634284293843</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3382,6 +3529,9 @@
       <c r="S50" t="n">
         <v>-0.06879887404811838</v>
       </c>
+      <c r="T50" t="n">
+        <v>-0.07036821164769816</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3441,6 +3591,9 @@
       <c r="S51" t="n">
         <v>-0.8692063725558664</v>
       </c>
+      <c r="T51" t="n">
+        <v>-0.8689500079845731</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3500,6 +3653,9 @@
       <c r="S52" t="n">
         <v>-0.8692063725558664</v>
       </c>
+      <c r="T52" t="n">
+        <v>-0.8689500079845731</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3559,6 +3715,9 @@
       <c r="S53" t="n">
         <v>-1.150076595328849</v>
       </c>
+      <c r="T53" t="n">
+        <v>-1.151254437161863</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3618,6 +3777,9 @@
       <c r="S54" t="n">
         <v>-0.1797780547668924</v>
       </c>
+      <c r="T54" t="n">
+        <v>-0.1806833634155824</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3677,6 +3839,9 @@
       <c r="S55" t="n">
         <v>-1.03779060067629</v>
       </c>
+      <c r="T55" t="n">
+        <v>-1.040243981449166</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3736,6 +3901,9 @@
       <c r="S56" t="n">
         <v>-0.9095438737535668</v>
       </c>
+      <c r="T56" t="n">
+        <v>-0.9127864508590817</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3795,6 +3963,9 @@
       <c r="S57" t="n">
         <v>-0.9291016284114122</v>
       </c>
+      <c r="T57" t="n">
+        <v>-0.9364226374477941</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3854,6 +4025,9 @@
       <c r="S58" t="n">
         <v>-1.071136070848985</v>
       </c>
+      <c r="T58" t="n">
+        <v>-1.078202200064123</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3913,6 +4087,9 @@
       <c r="S59" t="n">
         <v>-0.7884268889232531</v>
       </c>
+      <c r="T59" t="n">
+        <v>-0.7911597575403461</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3972,6 +4149,9 @@
       <c r="S60" t="n">
         <v>-0.414444051776777</v>
       </c>
+      <c r="T60" t="n">
+        <v>-0.4184534534638776</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4031,6 +4211,9 @@
       <c r="S61" t="n">
         <v>0.3859586251804976</v>
       </c>
+      <c r="T61" t="n">
+        <v>0.3852736832325205</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4090,6 +4273,9 @@
       <c r="S62" t="n">
         <v>-1.183514515935657</v>
       </c>
+      <c r="T62" t="n">
+        <v>-1.192175888695425</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4149,6 +4335,9 @@
       <c r="S63" t="n">
         <v>-0.5552200037564755</v>
       </c>
+      <c r="T63" t="n">
+        <v>-0.5554129044727352</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4208,6 +4397,9 @@
       <c r="S64" t="n">
         <v>-0.8451336875559403</v>
       </c>
+      <c r="T64" t="n">
+        <v>-0.8482965596854521</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4267,6 +4459,9 @@
       <c r="S65" t="n">
         <v>-0.03014007263561565</v>
       </c>
+      <c r="T65" t="n">
+        <v>-0.03319850818121815</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4326,6 +4521,9 @@
       <c r="S66" t="n">
         <v>-0.7599431505656447</v>
       </c>
+      <c r="T66" t="n">
+        <v>-0.7679776381491706</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4384,6 +4582,9 @@
       </c>
       <c r="S67" t="n">
         <v>-0.7371499467560734</v>
+      </c>
+      <c r="T67" t="n">
+        <v>-0.7470906247580829</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T67"/>
+  <dimension ref="A1:U67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,9 @@
       <c r="T1" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -556,6 +559,9 @@
       <c r="T2" t="n">
         <v>-0.2151014203135094</v>
       </c>
+      <c r="U2" t="n">
+        <v>-0.2171787386105213</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -618,6 +624,9 @@
       <c r="T3" t="n">
         <v>0.2741363546596283</v>
       </c>
+      <c r="U3" t="n">
+        <v>0.2712547851251346</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -680,6 +689,9 @@
       <c r="T4" t="n">
         <v>0.2499946746558706</v>
       </c>
+      <c r="U4" t="n">
+        <v>0.2487907572137494</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -742,6 +754,9 @@
       <c r="T5" t="n">
         <v>-0.04206758168757672</v>
       </c>
+      <c r="U5" t="n">
+        <v>-0.04508884629959257</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -804,6 +819,9 @@
       <c r="T6" t="n">
         <v>0.2215663827633269</v>
       </c>
+      <c r="U6" t="n">
+        <v>0.2185559526346853</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -866,6 +884,9 @@
       <c r="T7" t="n">
         <v>-0.3719696713840123</v>
       </c>
+      <c r="U7" t="n">
+        <v>-0.3738153061545897</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -928,6 +949,9 @@
       <c r="T8" t="n">
         <v>-0.1284925157697178</v>
       </c>
+      <c r="U8" t="n">
+        <v>-0.1276582488288499</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -990,6 +1014,9 @@
       <c r="T9" t="n">
         <v>-0.2785693823562983</v>
       </c>
+      <c r="U9" t="n">
+        <v>-0.2804485307801037</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1052,6 +1079,9 @@
       <c r="T10" t="n">
         <v>0.4201668922319315</v>
       </c>
+      <c r="U10" t="n">
+        <v>0.4171776980619553</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1114,6 +1144,9 @@
       <c r="T11" t="n">
         <v>-0.1813724166767837</v>
       </c>
+      <c r="U11" t="n">
+        <v>-0.1832585004914398</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1176,6 +1209,9 @@
       <c r="T12" t="n">
         <v>-0.03746546047286631</v>
       </c>
+      <c r="U12" t="n">
+        <v>-0.04481686638722726</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1238,6 +1274,9 @@
       <c r="T13" t="n">
         <v>-0.03250763802070863</v>
       </c>
+      <c r="U13" t="n">
+        <v>-0.03518145043552229</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1300,6 +1339,9 @@
       <c r="T14" t="n">
         <v>0.156220347846427</v>
       </c>
+      <c r="U14" t="n">
+        <v>0.1437577376129562</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1362,6 +1404,9 @@
       <c r="T15" t="n">
         <v>0.03656638679108185</v>
       </c>
+      <c r="U15" t="n">
+        <v>0.0196054236397628</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1424,6 +1469,9 @@
       <c r="T16" t="n">
         <v>0.4793861291485803</v>
       </c>
+      <c r="U16" t="n">
+        <v>0.4598005524328374</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1486,6 +1534,9 @@
       <c r="T17" t="n">
         <v>0.5562873881432384</v>
       </c>
+      <c r="U17" t="n">
+        <v>0.5392912142442797</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1548,6 +1599,9 @@
       <c r="T18" t="n">
         <v>-0.1056304661912161</v>
       </c>
+      <c r="U18" t="n">
+        <v>-0.1126361888750686</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1610,6 +1664,9 @@
       <c r="T19" t="n">
         <v>0.3677366994844117</v>
       </c>
+      <c r="U19" t="n">
+        <v>0.3582621981363014</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1672,6 +1729,9 @@
       <c r="T20" t="n">
         <v>0.371855552660967</v>
       </c>
+      <c r="U20" t="n">
+        <v>0.3512850807175505</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1734,6 +1794,9 @@
       <c r="T21" t="n">
         <v>0.604993390242397</v>
       </c>
+      <c r="U21" t="n">
+        <v>0.5895514739867153</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1796,6 +1859,9 @@
       <c r="T22" t="n">
         <v>0.3725567910721144</v>
       </c>
+      <c r="U22" t="n">
+        <v>0.3572243011944523</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1858,6 +1924,9 @@
       <c r="T23" t="n">
         <v>-0.07201757009960451</v>
       </c>
+      <c r="U23" t="n">
+        <v>-0.08521534705900861</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1920,6 +1989,9 @@
       <c r="T24" t="n">
         <v>1.367945691836304</v>
       </c>
+      <c r="U24" t="n">
+        <v>1.269048914426055</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1982,6 +2054,9 @@
       <c r="T25" t="n">
         <v>0.2912131637051413</v>
       </c>
+      <c r="U25" t="n">
+        <v>0.2932201678042997</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2044,6 +2119,9 @@
       <c r="T26" t="n">
         <v>0.1237856731776045</v>
       </c>
+      <c r="U26" t="n">
+        <v>0.12142932138195</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2106,6 +2184,9 @@
       <c r="T27" t="n">
         <v>0.01787587358001689</v>
       </c>
+      <c r="U27" t="n">
+        <v>0.01606125387309131</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2168,6 +2249,9 @@
       <c r="T28" t="n">
         <v>0.7768638537895495</v>
       </c>
+      <c r="U28" t="n">
+        <v>0.7776428293181674</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2230,6 +2314,9 @@
       <c r="T29" t="n">
         <v>1.484265604324132</v>
       </c>
+      <c r="U29" t="n">
+        <v>1.442759477095992</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2292,6 +2379,9 @@
       <c r="T30" t="n">
         <v>0.6233380852877815</v>
       </c>
+      <c r="U30" t="n">
+        <v>0.6242191827062746</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2354,6 +2444,9 @@
       <c r="T31" t="n">
         <v>-0.4807141038785454</v>
       </c>
+      <c r="U31" t="n">
+        <v>-0.4759183498350237</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2416,6 +2509,9 @@
       <c r="T32" t="n">
         <v>0.521835555109165</v>
       </c>
+      <c r="U32" t="n">
+        <v>0.5216196669966284</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2478,6 +2574,9 @@
       <c r="T33" t="n">
         <v>0.7380094769319231</v>
       </c>
+      <c r="U33" t="n">
+        <v>0.7389458423384985</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2540,6 +2639,9 @@
       <c r="T34" t="n">
         <v>-0.8649818325540657</v>
       </c>
+      <c r="U34" t="n">
+        <v>-0.8643786212751948</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2602,6 +2704,9 @@
       <c r="T35" t="n">
         <v>0.7864265901895262</v>
       </c>
+      <c r="U35" t="n">
+        <v>0.7897711830784471</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2664,6 +2769,9 @@
       <c r="T36" t="n">
         <v>0.7368359205375803</v>
       </c>
+      <c r="U36" t="n">
+        <v>0.7426914683333818</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2726,6 +2834,9 @@
       <c r="T37" t="n">
         <v>0.7003012883033296</v>
       </c>
+      <c r="U37" t="n">
+        <v>0.7063684107786147</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2788,6 +2899,9 @@
       <c r="T38" t="n">
         <v>0.630062033969191</v>
       </c>
+      <c r="U38" t="n">
+        <v>0.6324377548808975</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2850,6 +2964,9 @@
       <c r="T39" t="n">
         <v>0.5886057163183243</v>
       </c>
+      <c r="U39" t="n">
+        <v>0.5912960990373191</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2912,6 +3029,9 @@
       <c r="T40" t="n">
         <v>0.7511591197493361</v>
       </c>
+      <c r="U40" t="n">
+        <v>0.7542010168947284</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2974,6 +3094,9 @@
       <c r="T41" t="n">
         <v>0.5636612283102598</v>
       </c>
+      <c r="U41" t="n">
+        <v>0.5664312955140165</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3036,6 +3159,9 @@
       <c r="T42" t="n">
         <v>0.5890001604733712</v>
       </c>
+      <c r="U42" t="n">
+        <v>0.5946153935319078</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3098,6 +3224,9 @@
       <c r="T43" t="n">
         <v>0.660412343611627</v>
       </c>
+      <c r="U43" t="n">
+        <v>0.663234255761046</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3160,6 +3289,9 @@
       <c r="T44" t="n">
         <v>0.6825148028716391</v>
       </c>
+      <c r="U44" t="n">
+        <v>0.6862768727360371</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3222,6 +3354,9 @@
       <c r="T45" t="n">
         <v>0.6585516602803478</v>
       </c>
+      <c r="U45" t="n">
+        <v>0.6667372950279071</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3284,6 +3419,9 @@
       <c r="T46" t="n">
         <v>-1.30547912297581</v>
       </c>
+      <c r="U46" t="n">
+        <v>-1.308508579932728</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3346,6 +3484,9 @@
       <c r="T47" t="n">
         <v>-1.019295191601392</v>
       </c>
+      <c r="U47" t="n">
+        <v>-1.021479632708367</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3408,6 +3549,9 @@
       <c r="T48" t="n">
         <v>-0.8850280809082314</v>
       </c>
+      <c r="U48" t="n">
+        <v>-0.8858711121911828</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3470,6 +3614,9 @@
       <c r="T49" t="n">
         <v>-0.6474634284293843</v>
       </c>
+      <c r="U49" t="n">
+        <v>-0.6484532361390327</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3532,6 +3679,9 @@
       <c r="T50" t="n">
         <v>-0.07036821164769816</v>
       </c>
+      <c r="U50" t="n">
+        <v>-0.07195611206780475</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3594,6 +3744,9 @@
       <c r="T51" t="n">
         <v>-0.8689500079845731</v>
       </c>
+      <c r="U51" t="n">
+        <v>-0.8689480523974038</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3656,6 +3809,9 @@
       <c r="T52" t="n">
         <v>-0.8689500079845731</v>
       </c>
+      <c r="U52" t="n">
+        <v>-0.8689480523974038</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3718,6 +3874,9 @@
       <c r="T53" t="n">
         <v>-1.151254437161863</v>
       </c>
+      <c r="U53" t="n">
+        <v>-1.15265649037454</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3780,6 +3939,9 @@
       <c r="T54" t="n">
         <v>-0.1806833634155824</v>
       </c>
+      <c r="U54" t="n">
+        <v>-0.1817481629499271</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3842,6 +4004,9 @@
       <c r="T55" t="n">
         <v>-1.040243981449166</v>
       </c>
+      <c r="U55" t="n">
+        <v>-1.04279650024435</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3904,6 +4069,9 @@
       <c r="T56" t="n">
         <v>-0.9127864508590817</v>
       </c>
+      <c r="U56" t="n">
+        <v>-0.9160034231345765</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3966,6 +4134,9 @@
       <c r="T57" t="n">
         <v>-0.9364226374477941</v>
       </c>
+      <c r="U57" t="n">
+        <v>-0.9438384404280222</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4028,6 +4199,9 @@
       <c r="T58" t="n">
         <v>-1.078202200064123</v>
       </c>
+      <c r="U58" t="n">
+        <v>-1.085449040651328</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4090,6 +4264,9 @@
       <c r="T59" t="n">
         <v>-0.7911597575403461</v>
       </c>
+      <c r="U59" t="n">
+        <v>-0.794231016449603</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4152,6 +4329,9 @@
       <c r="T60" t="n">
         <v>-0.4184534534638776</v>
       </c>
+      <c r="U60" t="n">
+        <v>-0.4227383369530854</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4214,6 +4394,9 @@
       <c r="T61" t="n">
         <v>0.3852736832325205</v>
       </c>
+      <c r="U61" t="n">
+        <v>0.3845009754134682</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4276,6 +4459,9 @@
       <c r="T62" t="n">
         <v>-1.192175888695425</v>
       </c>
+      <c r="U62" t="n">
+        <v>-1.200977129163876</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4338,6 +4524,9 @@
       <c r="T63" t="n">
         <v>-0.5554129044727352</v>
       </c>
+      <c r="U63" t="n">
+        <v>-0.5563258937648774</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4400,6 +4589,9 @@
       <c r="T64" t="n">
         <v>-0.8482965596854521</v>
       </c>
+      <c r="U64" t="n">
+        <v>-0.8519681540527621</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4462,6 +4654,9 @@
       <c r="T65" t="n">
         <v>-0.03319850818121815</v>
       </c>
+      <c r="U65" t="n">
+        <v>-0.03648661480548491</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4524,6 +4719,9 @@
       <c r="T66" t="n">
         <v>-0.7679776381491706</v>
       </c>
+      <c r="U66" t="n">
+        <v>-0.7759890000346303</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4585,6 +4783,9 @@
       </c>
       <c r="T67" t="n">
         <v>-0.7470906247580829</v>
+      </c>
+      <c r="U67" t="n">
+        <v>-0.7568018133294867</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U67"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,9 @@
       <c r="U1" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -562,6 +565,9 @@
       <c r="U2" t="n">
         <v>-0.2171787386105213</v>
       </c>
+      <c r="V2" t="n">
+        <v>-0.2195881912811159</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -627,6 +633,9 @@
       <c r="U3" t="n">
         <v>0.2712547851251346</v>
       </c>
+      <c r="V3" t="n">
+        <v>0.268111878688171</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -692,6 +701,9 @@
       <c r="U4" t="n">
         <v>0.2487907572137494</v>
       </c>
+      <c r="V4" t="n">
+        <v>0.2471519363069035</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -757,6 +769,9 @@
       <c r="U5" t="n">
         <v>-0.04508884629959257</v>
       </c>
+      <c r="V5" t="n">
+        <v>-0.04820459518914071</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -822,6 +837,9 @@
       <c r="U6" t="n">
         <v>0.2185559526346853</v>
       </c>
+      <c r="V6" t="n">
+        <v>0.215377999295969</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -887,6 +905,9 @@
       <c r="U7" t="n">
         <v>-0.3738153061545897</v>
       </c>
+      <c r="V7" t="n">
+        <v>-0.3760383550793602</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -952,6 +973,9 @@
       <c r="U8" t="n">
         <v>-0.1276582488288499</v>
       </c>
+      <c r="V8" t="n">
+        <v>-0.127350793332049</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1017,6 +1041,9 @@
       <c r="U9" t="n">
         <v>-0.2804485307801037</v>
       </c>
+      <c r="V9" t="n">
+        <v>-0.2829834089990068</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1082,6 +1109,9 @@
       <c r="U10" t="n">
         <v>0.4171776980619553</v>
       </c>
+      <c r="V10" t="n">
+        <v>0.4140877673632857</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1147,6 +1177,9 @@
       <c r="U11" t="n">
         <v>-0.1832585004914398</v>
       </c>
+      <c r="V11" t="n">
+        <v>-0.1853951989565221</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1212,6 +1245,9 @@
       <c r="U12" t="n">
         <v>-0.04481686638722726</v>
       </c>
+      <c r="V12" t="n">
+        <v>-0.05214895328973256</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1277,6 +1313,9 @@
       <c r="U13" t="n">
         <v>-0.03518145043552229</v>
       </c>
+      <c r="V13" t="n">
+        <v>-0.03783863985552008</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1342,6 +1381,9 @@
       <c r="U14" t="n">
         <v>0.1437577376129562</v>
       </c>
+      <c r="V14" t="n">
+        <v>0.1313308716929529</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1407,6 +1449,9 @@
       <c r="U15" t="n">
         <v>0.0196054236397628</v>
       </c>
+      <c r="V15" t="n">
+        <v>0.002989745822324377</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1472,6 +1517,9 @@
       <c r="U16" t="n">
         <v>0.4598005524328374</v>
       </c>
+      <c r="V16" t="n">
+        <v>0.4404506442496966</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1537,6 +1585,9 @@
       <c r="U17" t="n">
         <v>0.5392912142442797</v>
       </c>
+      <c r="V17" t="n">
+        <v>0.5230227650651397</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1602,6 +1653,9 @@
       <c r="U18" t="n">
         <v>-0.1126361888750686</v>
       </c>
+      <c r="V18" t="n">
+        <v>-0.1192729761465476</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1667,6 +1721,9 @@
       <c r="U19" t="n">
         <v>0.3582621981363014</v>
       </c>
+      <c r="V19" t="n">
+        <v>0.3490766100470357</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1732,6 +1789,9 @@
       <c r="U20" t="n">
         <v>0.3512850807175505</v>
       </c>
+      <c r="V20" t="n">
+        <v>0.3311589921980442</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1797,6 +1857,9 @@
       <c r="U21" t="n">
         <v>0.5895514739867153</v>
       </c>
+      <c r="V21" t="n">
+        <v>0.5746166415525621</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1862,6 +1925,9 @@
       <c r="U22" t="n">
         <v>0.3572243011944523</v>
       </c>
+      <c r="V22" t="n">
+        <v>0.3424596225429268</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1927,6 +1993,9 @@
       <c r="U23" t="n">
         <v>-0.08521534705900861</v>
       </c>
+      <c r="V23" t="n">
+        <v>-0.09791057592626815</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1992,6 +2061,9 @@
       <c r="U24" t="n">
         <v>1.269048914426055</v>
       </c>
+      <c r="V24" t="n">
+        <v>1.188162580260842</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2057,6 +2129,9 @@
       <c r="U25" t="n">
         <v>0.2932201678042997</v>
       </c>
+      <c r="V25" t="n">
+        <v>0.2955952660024851</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2122,6 +2197,9 @@
       <c r="U26" t="n">
         <v>0.12142932138195</v>
       </c>
+      <c r="V26" t="n">
+        <v>0.1199308135673919</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2187,6 +2265,9 @@
       <c r="U27" t="n">
         <v>0.01606125387309131</v>
       </c>
+      <c r="V27" t="n">
+        <v>0.01522270444810991</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2252,6 +2333,9 @@
       <c r="U28" t="n">
         <v>0.7776428293181674</v>
       </c>
+      <c r="V28" t="n">
+        <v>0.7795110869210886</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2317,6 +2401,9 @@
       <c r="U29" t="n">
         <v>1.442759477095992</v>
       </c>
+      <c r="V29" t="n">
+        <v>1.414472496509308</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2382,6 +2469,9 @@
       <c r="U30" t="n">
         <v>0.6242191827062746</v>
       </c>
+      <c r="V30" t="n">
+        <v>0.6260225288291783</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2447,6 +2537,9 @@
       <c r="U31" t="n">
         <v>-0.4759183498350237</v>
       </c>
+      <c r="V31" t="n">
+        <v>-0.470844166117749</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2512,6 +2605,9 @@
       <c r="U32" t="n">
         <v>0.5216196669966284</v>
       </c>
+      <c r="V32" t="n">
+        <v>0.5222006100357154</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2577,6 +2673,9 @@
       <c r="U33" t="n">
         <v>0.7389458423384985</v>
       </c>
+      <c r="V33" t="n">
+        <v>0.7403544402965968</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2642,6 +2741,9 @@
       <c r="U34" t="n">
         <v>-0.8643786212751948</v>
       </c>
+      <c r="V34" t="n">
+        <v>-0.863310024646722</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2707,6 +2809,9 @@
       <c r="U35" t="n">
         <v>0.7897711830784471</v>
       </c>
+      <c r="V35" t="n">
+        <v>0.793170405130437</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2772,6 +2877,9 @@
       <c r="U36" t="n">
         <v>0.7426914683333818</v>
       </c>
+      <c r="V36" t="n">
+        <v>0.7484702941994155</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2837,6 +2945,9 @@
       <c r="U37" t="n">
         <v>0.7063684107786147</v>
       </c>
+      <c r="V37" t="n">
+        <v>0.7123735632696768</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2902,6 +3013,9 @@
       <c r="U38" t="n">
         <v>0.6324377548808975</v>
       </c>
+      <c r="V38" t="n">
+        <v>0.6349581561368242</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2967,6 +3081,9 @@
       <c r="U39" t="n">
         <v>0.5912960990373191</v>
       </c>
+      <c r="V39" t="n">
+        <v>0.5939061352854302</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3032,6 +3149,9 @@
       <c r="U40" t="n">
         <v>0.7542010168947284</v>
       </c>
+      <c r="V40" t="n">
+        <v>0.7572791363541261</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3097,6 +3217,9 @@
       <c r="U41" t="n">
         <v>0.5664312955140165</v>
       </c>
+      <c r="V41" t="n">
+        <v>0.5690350950076785</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3162,6 +3285,9 @@
       <c r="U42" t="n">
         <v>0.5946153935319078</v>
       </c>
+      <c r="V42" t="n">
+        <v>0.6003205915675668</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3227,6 +3353,9 @@
       <c r="U43" t="n">
         <v>0.663234255761046</v>
       </c>
+      <c r="V43" t="n">
+        <v>0.6660755399751082</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3292,6 +3421,9 @@
       <c r="U44" t="n">
         <v>0.6862768727360371</v>
       </c>
+      <c r="V44" t="n">
+        <v>0.6898948238089777</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3357,6 +3489,9 @@
       <c r="U45" t="n">
         <v>0.6667372950279071</v>
       </c>
+      <c r="V45" t="n">
+        <v>0.67466200855278</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3422,6 +3557,9 @@
       <c r="U46" t="n">
         <v>-1.308508579932728</v>
       </c>
+      <c r="V46" t="n">
+        <v>-1.311657997677162</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3487,6 +3625,9 @@
       <c r="U47" t="n">
         <v>-1.021479632708367</v>
       </c>
+      <c r="V47" t="n">
+        <v>-1.023761968076526</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3552,6 +3693,9 @@
       <c r="U48" t="n">
         <v>-0.8858711121911828</v>
       </c>
+      <c r="V48" t="n">
+        <v>-0.8869846909574609</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3617,6 +3761,9 @@
       <c r="U49" t="n">
         <v>-0.6484532361390327</v>
       </c>
+      <c r="V49" t="n">
+        <v>-0.6496587042561831</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3682,6 +3829,9 @@
       <c r="U50" t="n">
         <v>-0.07195611206780475</v>
       </c>
+      <c r="V50" t="n">
+        <v>-0.07355580209451183</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3747,6 +3897,9 @@
       <c r="U51" t="n">
         <v>-0.8689480523974038</v>
       </c>
+      <c r="V51" t="n">
+        <v>-0.8692032297728713</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3812,6 +3965,9 @@
       <c r="U52" t="n">
         <v>-0.8689480523974038</v>
       </c>
+      <c r="V52" t="n">
+        <v>-0.8692032297728713</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3877,6 +4033,9 @@
       <c r="U53" t="n">
         <v>-1.15265649037454</v>
       </c>
+      <c r="V53" t="n">
+        <v>-1.154290062695639</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3942,6 +4101,9 @@
       <c r="U54" t="n">
         <v>-0.1817481629499271</v>
       </c>
+      <c r="V54" t="n">
+        <v>-0.1829561514469475</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4007,6 +4169,9 @@
       <c r="U55" t="n">
         <v>-1.04279650024435</v>
       </c>
+      <c r="V55" t="n">
+        <v>-1.045439646476005</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4072,6 +4237,9 @@
       <c r="U56" t="n">
         <v>-0.9160034231345765</v>
       </c>
+      <c r="V56" t="n">
+        <v>-0.919177283780625</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4137,6 +4305,9 @@
       <c r="U57" t="n">
         <v>-0.9438384404280222</v>
       </c>
+      <c r="V57" t="n">
+        <v>-0.9512524852534021</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4202,6 +4373,9 @@
       <c r="U58" t="n">
         <v>-1.085449040651328</v>
       </c>
+      <c r="V58" t="n">
+        <v>-1.092757264989806</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4267,6 +4441,9 @@
       <c r="U59" t="n">
         <v>-0.794231016449603</v>
       </c>
+      <c r="V59" t="n">
+        <v>-0.7975695391314783</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4332,6 +4509,9 @@
       <c r="U60" t="n">
         <v>-0.4227383369530854</v>
       </c>
+      <c r="V60" t="n">
+        <v>-0.4271998663051889</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4397,6 +4577,9 @@
       <c r="U61" t="n">
         <v>0.3845009754134682</v>
       </c>
+      <c r="V61" t="n">
+        <v>0.383659233241306</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4462,6 +4645,9 @@
       <c r="U62" t="n">
         <v>-1.200977129163876</v>
       </c>
+      <c r="V62" t="n">
+        <v>-1.209794320214609</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4527,6 +4713,9 @@
       <c r="U63" t="n">
         <v>-0.5563258937648774</v>
       </c>
+      <c r="V63" t="n">
+        <v>-0.5578434826542447</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4592,6 +4781,9 @@
       <c r="U64" t="n">
         <v>-0.8519681540527621</v>
       </c>
+      <c r="V64" t="n">
+        <v>-0.8560583804682114</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4657,6 +4849,9 @@
       <c r="U65" t="n">
         <v>-0.03648661480548491</v>
       </c>
+      <c r="V65" t="n">
+        <v>-0.03992168174133925</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4722,6 +4917,9 @@
       <c r="U66" t="n">
         <v>-0.7759890000346303</v>
       </c>
+      <c r="V66" t="n">
+        <v>-0.7838679627320383</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4786,6 +4984,9 @@
       </c>
       <c r="U67" t="n">
         <v>-0.7568018133294867</v>
+      </c>
+      <c r="V67" t="n">
+        <v>-0.7661668877579482</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:W67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +500,9 @@
       <c r="V1" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -568,6 +571,9 @@
       <c r="V2" t="n">
         <v>-0.2195881912811159</v>
       </c>
+      <c r="W2" t="n">
+        <v>-0.2222522458724394</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -636,6 +642,9 @@
       <c r="V3" t="n">
         <v>0.268111878688171</v>
       </c>
+      <c r="W3" t="n">
+        <v>0.2647894654004131</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -704,6 +713,9 @@
       <c r="V4" t="n">
         <v>0.2471519363069035</v>
       </c>
+      <c r="W4" t="n">
+        <v>0.2451603599274569</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -772,6 +784,9 @@
       <c r="V5" t="n">
         <v>-0.04820459518914071</v>
       </c>
+      <c r="W5" t="n">
+        <v>-0.05136092479909098</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -840,6 +855,9 @@
       <c r="V6" t="n">
         <v>0.215377999295969</v>
       </c>
+      <c r="W6" t="n">
+        <v>0.2121111274595054</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -908,6 +926,9 @@
       <c r="V7" t="n">
         <v>-0.3760383550793602</v>
       </c>
+      <c r="W7" t="n">
+        <v>-0.3785660628296936</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -976,6 +997,9 @@
       <c r="V8" t="n">
         <v>-0.127350793332049</v>
       </c>
+      <c r="W8" t="n">
+        <v>-0.1275016890250025</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1044,6 +1068,9 @@
       <c r="V9" t="n">
         <v>-0.2829834089990068</v>
       </c>
+      <c r="W9" t="n">
+        <v>-0.2860553460434688</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1112,6 +1139,9 @@
       <c r="V10" t="n">
         <v>0.4140877673632857</v>
       </c>
+      <c r="W10" t="n">
+        <v>0.410962334085559</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1180,6 +1210,9 @@
       <c r="V11" t="n">
         <v>-0.1853951989565221</v>
       </c>
+      <c r="W11" t="n">
+        <v>-0.1877263734925343</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1248,6 +1281,9 @@
       <c r="V12" t="n">
         <v>-0.05214895328973256</v>
       </c>
+      <c r="W12" t="n">
+        <v>-0.05935465065192688</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1316,6 +1352,9 @@
       <c r="V13" t="n">
         <v>-0.03783863985552008</v>
       </c>
+      <c r="W13" t="n">
+        <v>-0.04045573679409901</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1384,6 +1423,9 @@
       <c r="V14" t="n">
         <v>0.1313308716929529</v>
       </c>
+      <c r="W14" t="n">
+        <v>0.1191382344491234</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1452,6 +1494,9 @@
       <c r="V15" t="n">
         <v>0.002989745822324377</v>
       </c>
+      <c r="W15" t="n">
+        <v>-0.01306630341049312</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1520,6 +1565,9 @@
       <c r="V16" t="n">
         <v>0.4404506442496966</v>
       </c>
+      <c r="W16" t="n">
+        <v>0.4216255600260929</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1588,6 +1636,9 @@
       <c r="V17" t="n">
         <v>0.5230227650651397</v>
       </c>
+      <c r="W17" t="n">
+        <v>0.5076405928576204</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1656,6 +1707,9 @@
       <c r="V18" t="n">
         <v>-0.1192729761465476</v>
       </c>
+      <c r="W18" t="n">
+        <v>-0.1255209028254141</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1724,6 +1778,9 @@
       <c r="V19" t="n">
         <v>0.3490766100470357</v>
       </c>
+      <c r="W19" t="n">
+        <v>0.340271378958065</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1792,6 +1849,9 @@
       <c r="V20" t="n">
         <v>0.3311589921980442</v>
       </c>
+      <c r="W20" t="n">
+        <v>0.311743157769474</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1860,6 +1920,9 @@
       <c r="V21" t="n">
         <v>0.5746166415525621</v>
       </c>
+      <c r="W21" t="n">
+        <v>0.5603797922064057</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1928,6 +1991,9 @@
       <c r="V22" t="n">
         <v>0.3424596225429268</v>
       </c>
+      <c r="W22" t="n">
+        <v>0.3284229643624184</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1996,6 +2062,9 @@
       <c r="V23" t="n">
         <v>-0.09791057592626815</v>
       </c>
+      <c r="W23" t="n">
+        <v>-0.1099726947354145</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2064,6 +2133,9 @@
       <c r="V24" t="n">
         <v>1.188162580260842</v>
       </c>
+      <c r="W24" t="n">
+        <v>1.124036187886536</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2132,6 +2204,9 @@
       <c r="V25" t="n">
         <v>0.2955952660024851</v>
       </c>
+      <c r="W25" t="n">
+        <v>0.2982262348011582</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2200,6 +2275,9 @@
       <c r="V26" t="n">
         <v>0.1199308135673919</v>
       </c>
+      <c r="W26" t="n">
+        <v>0.1191748613563114</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2268,6 +2346,9 @@
       <c r="V27" t="n">
         <v>0.01522270444810991</v>
       </c>
+      <c r="W27" t="n">
+        <v>0.01521248064675978</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2336,6 +2417,9 @@
       <c r="V28" t="n">
         <v>0.7795110869210886</v>
       </c>
+      <c r="W28" t="n">
+        <v>0.7822815787409836</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2404,6 +2488,9 @@
       <c r="V29" t="n">
         <v>1.414472496509308</v>
       </c>
+      <c r="W29" t="n">
+        <v>1.397653599606244</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2472,6 +2559,9 @@
       <c r="V30" t="n">
         <v>0.6260225288291783</v>
       </c>
+      <c r="W30" t="n">
+        <v>0.6285562816125938</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2540,6 +2630,9 @@
       <c r="V31" t="n">
         <v>-0.470844166117749</v>
       </c>
+      <c r="W31" t="n">
+        <v>-0.465659724744471</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2608,6 +2701,9 @@
       <c r="V32" t="n">
         <v>0.5222006100357154</v>
       </c>
+      <c r="W32" t="n">
+        <v>0.523441514586872</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2676,6 +2772,9 @@
       <c r="V33" t="n">
         <v>0.7403544402965968</v>
       </c>
+      <c r="W33" t="n">
+        <v>0.7421335501708496</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2744,6 +2843,9 @@
       <c r="V34" t="n">
         <v>-0.863310024646722</v>
       </c>
+      <c r="W34" t="n">
+        <v>-0.8618938881596984</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2812,6 +2914,9 @@
       <c r="V35" t="n">
         <v>0.793170405130437</v>
       </c>
+      <c r="W35" t="n">
+        <v>0.7965659078555682</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2880,6 +2985,9 @@
       <c r="V36" t="n">
         <v>0.7484702941994155</v>
       </c>
+      <c r="W36" t="n">
+        <v>0.754089535923237</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2948,6 +3056,9 @@
       <c r="V37" t="n">
         <v>0.7123735632696768</v>
       </c>
+      <c r="W37" t="n">
+        <v>0.7182268082422676</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3016,6 +3127,9 @@
       <c r="V38" t="n">
         <v>0.6349581561368242</v>
       </c>
+      <c r="W38" t="n">
+        <v>0.6375529594436442</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3084,6 +3198,9 @@
       <c r="V39" t="n">
         <v>0.5939061352854302</v>
       </c>
+      <c r="W39" t="n">
+        <v>0.5964059983239602</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3152,6 +3269,9 @@
       <c r="V40" t="n">
         <v>0.7572791363541261</v>
       </c>
+      <c r="W40" t="n">
+        <v>0.7603480727961751</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3220,6 +3340,9 @@
       <c r="V41" t="n">
         <v>0.5690350950076785</v>
       </c>
+      <c r="W41" t="n">
+        <v>0.5714535719475559</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3288,6 +3411,9 @@
       <c r="V42" t="n">
         <v>0.6003205915675668</v>
       </c>
+      <c r="W42" t="n">
+        <v>0.6059993283849791</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3356,6 +3482,9 @@
       <c r="V43" t="n">
         <v>0.6660755399751082</v>
       </c>
+      <c r="W43" t="n">
+        <v>0.6688819678623324</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3424,6 +3553,9 @@
       <c r="V44" t="n">
         <v>0.6898948238089777</v>
       </c>
+      <c r="W44" t="n">
+        <v>0.6933320382769291</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3492,6 +3624,9 @@
       <c r="V45" t="n">
         <v>0.67466200855278</v>
       </c>
+      <c r="W45" t="n">
+        <v>0.6822340115591548</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3560,6 +3695,9 @@
       <c r="V46" t="n">
         <v>-1.311657997677162</v>
       </c>
+      <c r="W46" t="n">
+        <v>-1.314911179261152</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3628,6 +3766,9 @@
       <c r="V47" t="n">
         <v>-1.023761968076526</v>
       </c>
+      <c r="W47" t="n">
+        <v>-1.026135079858414</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3696,6 +3837,9 @@
       <c r="V48" t="n">
         <v>-0.8869846909574609</v>
       </c>
+      <c r="W48" t="n">
+        <v>-0.8883567795004472</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3764,6 +3908,9 @@
       <c r="V49" t="n">
         <v>-0.6496587042561831</v>
       </c>
+      <c r="W49" t="n">
+        <v>-0.6510653891375153</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3832,6 +3979,9 @@
       <c r="V50" t="n">
         <v>-0.07355580209451183</v>
       </c>
+      <c r="W50" t="n">
+        <v>-0.07516092316738654</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3900,6 +4050,9 @@
       <c r="V51" t="n">
         <v>-0.8692032297728713</v>
       </c>
+      <c r="W51" t="n">
+        <v>-0.8697123066001733</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3968,6 +4121,9 @@
       <c r="V52" t="n">
         <v>-0.8692032297728713</v>
       </c>
+      <c r="W52" t="n">
+        <v>-0.8697123066001733</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4036,6 +4192,9 @@
       <c r="V53" t="n">
         <v>-1.154290062695639</v>
       </c>
+      <c r="W53" t="n">
+        <v>-1.156154648230103</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4104,6 +4263,9 @@
       <c r="V54" t="n">
         <v>-0.1829561514469475</v>
       </c>
+      <c r="W54" t="n">
+        <v>-0.1842905814642337</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4172,6 +4334,9 @@
       <c r="V55" t="n">
         <v>-1.045439646476005</v>
       </c>
+      <c r="W55" t="n">
+        <v>-1.0481633827102</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4240,6 +4405,9 @@
       <c r="V56" t="n">
         <v>-0.919177283780625</v>
       </c>
+      <c r="W56" t="n">
+        <v>-0.9222941101776645</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4308,6 +4476,9 @@
       <c r="V57" t="n">
         <v>-0.9512524852534021</v>
       </c>
+      <c r="W57" t="n">
+        <v>-0.9585818908697468</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4376,6 +4547,9 @@
       <c r="V58" t="n">
         <v>-1.092757264989806</v>
       </c>
+      <c r="W58" t="n">
+        <v>-1.100024905727457</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4444,6 +4618,9 @@
       <c r="V59" t="n">
         <v>-0.7975695391314783</v>
       </c>
+      <c r="W59" t="n">
+        <v>-0.8011101109158217</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4512,6 +4689,9 @@
       <c r="V60" t="n">
         <v>-0.4271998663051889</v>
       </c>
+      <c r="W60" t="n">
+        <v>-0.4317516932801951</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4580,6 +4760,9 @@
       <c r="V61" t="n">
         <v>0.383659233241306</v>
       </c>
+      <c r="W61" t="n">
+        <v>0.3827656652364455</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4648,6 +4831,9 @@
       <c r="V62" t="n">
         <v>-1.209794320214609</v>
       </c>
+      <c r="W62" t="n">
+        <v>-1.218521546578896</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4716,6 +4902,9 @@
       <c r="V63" t="n">
         <v>-0.5578434826542447</v>
       </c>
+      <c r="W63" t="n">
+        <v>-0.5598582575562416</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4784,6 +4973,9 @@
       <c r="V64" t="n">
         <v>-0.8560583804682114</v>
       </c>
+      <c r="W64" t="n">
+        <v>-0.8604812404049875</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4852,6 +5044,9 @@
       <c r="V65" t="n">
         <v>-0.03992168174133925</v>
       </c>
+      <c r="W65" t="n">
+        <v>-0.04343204730957534</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4920,6 +5115,9 @@
       <c r="V66" t="n">
         <v>-0.7838679627320383</v>
       </c>
+      <c r="W66" t="n">
+        <v>-0.7915251616259449</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4987,6 +5185,9 @@
       </c>
       <c r="V67" t="n">
         <v>-0.7661668877579482</v>
+      </c>
+      <c r="W67" t="n">
+        <v>-0.7750956267755271</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W67"/>
+  <dimension ref="A1:X67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,6 +503,9 @@
       <c r="W1" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -574,6 +577,9 @@
       <c r="W2" t="n">
         <v>-0.2222522458724394</v>
       </c>
+      <c r="X2" t="n">
+        <v>-0.2251007094302101</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -645,6 +651,9 @@
       <c r="W3" t="n">
         <v>0.2647894654004131</v>
       </c>
+      <c r="X3" t="n">
+        <v>0.2613611869293171</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -716,6 +725,9 @@
       <c r="W4" t="n">
         <v>0.2451603599274569</v>
       </c>
+      <c r="X4" t="n">
+        <v>0.2428923856724025</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -787,6 +799,9 @@
       <c r="W5" t="n">
         <v>-0.05136092479909098</v>
       </c>
+      <c r="X5" t="n">
+        <v>-0.05451119675210669</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -858,6 +873,9 @@
       <c r="W6" t="n">
         <v>0.2121111274595054</v>
       </c>
+      <c r="X6" t="n">
+        <v>0.2088233169965934</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -929,6 +947,9 @@
       <c r="W7" t="n">
         <v>-0.3785660628296936</v>
       </c>
+      <c r="X7" t="n">
+        <v>-0.3813307291097088</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1000,6 +1021,9 @@
       <c r="W8" t="n">
         <v>-0.1275016890250025</v>
       </c>
+      <c r="X8" t="n">
+        <v>-0.1280449811479715</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1071,6 +1095,9 @@
       <c r="W9" t="n">
         <v>-0.2860553460434688</v>
       </c>
+      <c r="X9" t="n">
+        <v>-0.2895521543913873</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1142,6 +1169,9 @@
       <c r="W10" t="n">
         <v>0.410962334085559</v>
       </c>
+      <c r="X10" t="n">
+        <v>0.4078569151046167</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1213,6 +1243,9 @@
       <c r="W11" t="n">
         <v>-0.1877263734925343</v>
       </c>
+      <c r="X11" t="n">
+        <v>-0.1902007596188794</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1284,6 +1317,9 @@
       <c r="W12" t="n">
         <v>-0.05935465065192688</v>
       </c>
+      <c r="X12" t="n">
+        <v>-0.06634541684262711</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1355,6 +1391,9 @@
       <c r="W13" t="n">
         <v>-0.04045573679409901</v>
       </c>
+      <c r="X13" t="n">
+        <v>-0.04301271600004192</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1426,6 +1465,9 @@
       <c r="W14" t="n">
         <v>0.1191382344491234</v>
       </c>
+      <c r="X14" t="n">
+        <v>0.10734413692768</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1497,6 +1539,9 @@
       <c r="W15" t="n">
         <v>-0.01306630341049312</v>
       </c>
+      <c r="X15" t="n">
+        <v>-0.02839055959683099</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1568,6 +1613,9 @@
       <c r="W16" t="n">
         <v>0.4216255600260929</v>
       </c>
+      <c r="X16" t="n">
+        <v>0.4035612000716463</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1639,6 +1687,9 @@
       <c r="W17" t="n">
         <v>0.5076405928576204</v>
       </c>
+      <c r="X17" t="n">
+        <v>0.4932638515982346</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1710,6 +1761,9 @@
       <c r="W18" t="n">
         <v>-0.1255209028254141</v>
       </c>
+      <c r="X18" t="n">
+        <v>-0.1313664035691442</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1781,6 +1835,9 @@
       <c r="W19" t="n">
         <v>0.340271378958065</v>
       </c>
+      <c r="X19" t="n">
+        <v>0.3319180929123307</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1852,6 +1909,9 @@
       <c r="W20" t="n">
         <v>0.311743157769474</v>
       </c>
+      <c r="X20" t="n">
+        <v>0.2932504023001614</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1923,6 +1983,9 @@
       <c r="W21" t="n">
         <v>0.5603797922064057</v>
       </c>
+      <c r="X21" t="n">
+        <v>0.5469876976200806</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1994,6 +2057,9 @@
       <c r="W22" t="n">
         <v>0.3284229643624184</v>
       </c>
+      <c r="X22" t="n">
+        <v>0.3152372847152714</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2065,6 +2131,9 @@
       <c r="W23" t="n">
         <v>-0.1099726947354145</v>
       </c>
+      <c r="X23" t="n">
+        <v>-0.1213025379727471</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2136,6 +2205,9 @@
       <c r="W24" t="n">
         <v>1.124036187886536</v>
       </c>
+      <c r="X24" t="n">
+        <v>1.075279816359225</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2207,6 +2279,9 @@
       <c r="W25" t="n">
         <v>0.2982262348011582</v>
       </c>
+      <c r="X25" t="n">
+        <v>0.3010159968528403</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2278,6 +2353,9 @@
       <c r="W26" t="n">
         <v>0.1191748613563114</v>
       </c>
+      <c r="X26" t="n">
+        <v>0.1190505407402206</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2349,6 +2427,9 @@
       <c r="W27" t="n">
         <v>0.01521248064675978</v>
       </c>
+      <c r="X27" t="n">
+        <v>0.01589195352176252</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2420,6 +2501,9 @@
       <c r="W28" t="n">
         <v>0.7822815787409836</v>
       </c>
+      <c r="X28" t="n">
+        <v>0.7857793737905018</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2491,6 +2575,9 @@
       <c r="W29" t="n">
         <v>1.397653599606244</v>
       </c>
+      <c r="X29" t="n">
+        <v>1.390640459369149</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2562,6 +2649,9 @@
       <c r="W30" t="n">
         <v>0.6285562816125938</v>
       </c>
+      <c r="X30" t="n">
+        <v>0.6316476044139094</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2633,6 +2723,9 @@
       <c r="W31" t="n">
         <v>-0.465659724744471</v>
       </c>
+      <c r="X31" t="n">
+        <v>-0.4605053301217271</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2704,6 +2797,9 @@
       <c r="W32" t="n">
         <v>0.523441514586872</v>
       </c>
+      <c r="X32" t="n">
+        <v>0.5252145730092991</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2775,6 +2871,9 @@
       <c r="W33" t="n">
         <v>0.7421335501708496</v>
       </c>
+      <c r="X33" t="n">
+        <v>0.7441910394437977</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2846,6 +2945,9 @@
       <c r="W34" t="n">
         <v>-0.8618938881596984</v>
       </c>
+      <c r="X34" t="n">
+        <v>-0.8602349422527736</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2917,6 +3019,9 @@
       <c r="W35" t="n">
         <v>0.7965659078555682</v>
       </c>
+      <c r="X35" t="n">
+        <v>0.7999075926461052</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2988,6 +3093,9 @@
       <c r="W36" t="n">
         <v>0.754089535923237</v>
       </c>
+      <c r="X36" t="n">
+        <v>0.7594815742969909</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3059,6 +3167,9 @@
       <c r="W37" t="n">
         <v>0.7182268082422676</v>
       </c>
+      <c r="X37" t="n">
+        <v>0.7238545603731139</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3130,6 +3241,9 @@
       <c r="W38" t="n">
         <v>0.6375529594436442</v>
       </c>
+      <c r="X38" t="n">
+        <v>0.6401620781313726</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3201,6 +3315,9 @@
       <c r="W39" t="n">
         <v>0.5964059983239602</v>
       </c>
+      <c r="X39" t="n">
+        <v>0.5987717476108254</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3272,6 +3389,9 @@
       <c r="W40" t="n">
         <v>0.7603480727961751</v>
       </c>
+      <c r="X40" t="n">
+        <v>0.7633680940301364</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3343,6 +3463,9 @@
       <c r="W41" t="n">
         <v>0.5714535719475559</v>
       </c>
+      <c r="X41" t="n">
+        <v>0.5736743159471346</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3414,6 +3537,9 @@
       <c r="W42" t="n">
         <v>0.6059993283849791</v>
       </c>
+      <c r="X42" t="n">
+        <v>0.6115538959911301</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3485,6 +3611,9 @@
       <c r="W43" t="n">
         <v>0.6688819678623324</v>
       </c>
+      <c r="X43" t="n">
+        <v>0.6716087153442144</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3556,6 +3685,9 @@
       <c r="W44" t="n">
         <v>0.6933320382769291</v>
       </c>
+      <c r="X44" t="n">
+        <v>0.6965604540793235</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3627,6 +3759,9 @@
       <c r="W45" t="n">
         <v>0.6822340115591548</v>
       </c>
+      <c r="X45" t="n">
+        <v>0.6893812351975528</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3698,6 +3833,9 @@
       <c r="W46" t="n">
         <v>-1.314911179261152</v>
       </c>
+      <c r="X46" t="n">
+        <v>-1.318251065540565</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3769,6 +3907,9 @@
       <c r="W47" t="n">
         <v>-1.026135079858414</v>
       </c>
+      <c r="X47" t="n">
+        <v>-1.028590059371768</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3840,6 +3981,9 @@
       <c r="W48" t="n">
         <v>-0.8883567795004472</v>
       </c>
+      <c r="X48" t="n">
+        <v>-0.8899711251047113</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3911,6 +4055,9 @@
       <c r="W49" t="n">
         <v>-0.6510653891375153</v>
       </c>
+      <c r="X49" t="n">
+        <v>-0.6526564048945034</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3982,6 +4129,9 @@
       <c r="W50" t="n">
         <v>-0.07516092316738654</v>
       </c>
+      <c r="X50" t="n">
+        <v>-0.07676554960685363</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4053,6 +4203,9 @@
       <c r="W51" t="n">
         <v>-0.8697123066001733</v>
       </c>
+      <c r="X51" t="n">
+        <v>-0.870467050650349</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4124,6 +4277,9 @@
       <c r="W52" t="n">
         <v>-0.8697123066001733</v>
       </c>
+      <c r="X52" t="n">
+        <v>-0.870467050650349</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4195,6 +4351,9 @@
       <c r="W53" t="n">
         <v>-1.156154648230103</v>
       </c>
+      <c r="X53" t="n">
+        <v>-1.158243292413114</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4266,6 +4425,9 @@
       <c r="W54" t="n">
         <v>-0.1842905814642337</v>
       </c>
+      <c r="X54" t="n">
+        <v>-0.1857346014716137</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4337,6 +4499,9 @@
       <c r="W55" t="n">
         <v>-1.0481633827102</v>
       </c>
+      <c r="X55" t="n">
+        <v>-1.05095654463745</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4408,6 +4573,9 @@
       <c r="W56" t="n">
         <v>-0.9222941101776645</v>
       </c>
+      <c r="X56" t="n">
+        <v>-0.9253430785873917</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4479,6 +4647,9 @@
       <c r="W57" t="n">
         <v>-0.9585818908697468</v>
       </c>
+      <c r="X57" t="n">
+        <v>-0.9657569345939507</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4550,6 +4721,9 @@
       <c r="W58" t="n">
         <v>-1.100024905727457</v>
       </c>
+      <c r="X58" t="n">
+        <v>-1.107166467750087</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4621,6 +4795,9 @@
       <c r="W59" t="n">
         <v>-0.8011101109158217</v>
       </c>
+      <c r="X59" t="n">
+        <v>-0.8047936732345702</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4692,6 +4869,9 @@
       <c r="W60" t="n">
         <v>-0.4317516932801951</v>
       </c>
+      <c r="X60" t="n">
+        <v>-0.4363195474934143</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4763,6 +4943,9 @@
       <c r="W61" t="n">
         <v>0.3827656652364455</v>
       </c>
+      <c r="X61" t="n">
+        <v>0.3818358689075099</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4834,6 +5017,9 @@
       <c r="W62" t="n">
         <v>-1.218521546578896</v>
       </c>
+      <c r="X62" t="n">
+        <v>-1.22707006245231</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4905,6 +5091,9 @@
       <c r="W63" t="n">
         <v>-0.5598582575562416</v>
       </c>
+      <c r="X63" t="n">
+        <v>-0.5622714974484644</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4976,6 +5165,9 @@
       <c r="W64" t="n">
         <v>-0.8604812404049875</v>
       </c>
+      <c r="X64" t="n">
+        <v>-0.8651560539802384</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5047,6 +5239,9 @@
       <c r="W65" t="n">
         <v>-0.04343204730957534</v>
       </c>
+      <c r="X65" t="n">
+        <v>-0.04695657191745475</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5118,6 +5313,9 @@
       <c r="W66" t="n">
         <v>-0.7915251616259449</v>
       </c>
+      <c r="X66" t="n">
+        <v>-0.7988895266557263</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5188,6 +5386,9 @@
       </c>
       <c r="W67" t="n">
         <v>-0.7750956267755271</v>
+      </c>
+      <c r="X67" t="n">
+        <v>-0.7835213608109843</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X67"/>
+  <dimension ref="A1:Y67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,6 +506,9 @@
       <c r="X1" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -580,6 +583,9 @@
       <c r="X2" t="n">
         <v>-0.2251007094302101</v>
       </c>
+      <c r="Y2" t="n">
+        <v>-0.2280708923574264</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -654,6 +660,9 @@
       <c r="X3" t="n">
         <v>0.2613611869293171</v>
       </c>
+      <c r="Y3" t="n">
+        <v>0.2578921739206251</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -728,6 +737,9 @@
       <c r="X4" t="n">
         <v>0.2428923856724025</v>
       </c>
+      <c r="Y4" t="n">
+        <v>0.2404179449926337</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -802,6 +814,9 @@
       <c r="X5" t="n">
         <v>-0.05451119675210669</v>
       </c>
+      <c r="Y5" t="n">
+        <v>-0.05761579663154003</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -876,6 +891,9 @@
       <c r="X6" t="n">
         <v>0.2088233169965934</v>
       </c>
+      <c r="Y6" t="n">
+        <v>0.2055722824801253</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -950,6 +968,9 @@
       <c r="X7" t="n">
         <v>-0.3813307291097088</v>
       </c>
+      <c r="Y7" t="n">
+        <v>-0.3842702586278787</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1024,6 +1045,9 @@
       <c r="X8" t="n">
         <v>-0.1280449811479715</v>
       </c>
+      <c r="Y8" t="n">
+        <v>-0.1289180691529034</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1098,6 +1122,9 @@
       <c r="X9" t="n">
         <v>-0.2895521543913873</v>
       </c>
+      <c r="Y9" t="n">
+        <v>-0.293369597915184</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1172,6 +1199,9 @@
       <c r="X10" t="n">
         <v>0.4078569151046167</v>
       </c>
+      <c r="Y10" t="n">
+        <v>0.4048178175006502</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1246,6 +1276,9 @@
       <c r="X11" t="n">
         <v>-0.1902007596188794</v>
       </c>
+      <c r="Y11" t="n">
+        <v>-0.1927721675973161</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1320,6 +1353,9 @@
       <c r="X12" t="n">
         <v>-0.06634541684262711</v>
       </c>
+      <c r="Y12" t="n">
+        <v>-0.07305002077923606</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1394,6 +1430,9 @@
       <c r="X13" t="n">
         <v>-0.04301271600004192</v>
       </c>
+      <c r="Y13" t="n">
+        <v>-0.04549290720456885</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1468,6 +1507,9 @@
       <c r="X14" t="n">
         <v>0.10734413692768</v>
       </c>
+      <c r="Y14" t="n">
+        <v>0.09608080707172628</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1542,6 +1584,9 @@
       <c r="X15" t="n">
         <v>-0.02839055959683099</v>
       </c>
+      <c r="Y15" t="n">
+        <v>-0.04284983548723512</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1616,6 +1661,9 @@
       <c r="X16" t="n">
         <v>0.4035612000716463</v>
       </c>
+      <c r="Y16" t="n">
+        <v>0.3864438717911223</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1690,6 +1738,9 @@
       <c r="X17" t="n">
         <v>0.4932638515982346</v>
       </c>
+      <c r="Y17" t="n">
+        <v>0.4799760593920404</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1764,6 +1815,9 @@
       <c r="X18" t="n">
         <v>-0.1313664035691442</v>
       </c>
+      <c r="Y18" t="n">
+        <v>-0.1368020037755916</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1838,6 +1892,9 @@
       <c r="X19" t="n">
         <v>0.3319180929123307</v>
       </c>
+      <c r="Y19" t="n">
+        <v>0.3240701342877862</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1912,6 +1969,9 @@
       <c r="X20" t="n">
         <v>0.2932504023001614</v>
       </c>
+      <c r="Y20" t="n">
+        <v>0.2758446283637512</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1986,6 +2046,9 @@
       <c r="X21" t="n">
         <v>0.5469876976200806</v>
       </c>
+      <c r="Y21" t="n">
+        <v>0.5345474182035401</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2060,6 +2123,9 @@
       <c r="X22" t="n">
         <v>0.3152372847152714</v>
       </c>
+      <c r="Y22" t="n">
+        <v>0.3029916996772811</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2134,6 +2200,9 @@
       <c r="X23" t="n">
         <v>-0.1213025379727471</v>
       </c>
+      <c r="Y23" t="n">
+        <v>-0.1318292849550761</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2208,6 +2277,9 @@
       <c r="X24" t="n">
         <v>1.075279816359225</v>
       </c>
+      <c r="Y24" t="n">
+        <v>1.040419092059789</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2282,6 +2354,9 @@
       <c r="X25" t="n">
         <v>0.3010159968528403</v>
       </c>
+      <c r="Y25" t="n">
+        <v>0.3038817864847354</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2356,6 +2431,9 @@
       <c r="X26" t="n">
         <v>0.1190505407402206</v>
       </c>
+      <c r="Y26" t="n">
+        <v>0.1194528764622239</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2430,6 +2508,9 @@
       <c r="X27" t="n">
         <v>0.01589195352176252</v>
       </c>
+      <c r="Y27" t="n">
+        <v>0.01713277464099515</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2504,6 +2585,9 @@
       <c r="X28" t="n">
         <v>0.7857793737905018</v>
       </c>
+      <c r="Y28" t="n">
+        <v>0.789843251739841</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2578,6 +2662,9 @@
       <c r="X29" t="n">
         <v>1.390640459369149</v>
       </c>
+      <c r="Y29" t="n">
+        <v>1.391875197005285</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2652,6 +2739,9 @@
       <c r="X30" t="n">
         <v>0.6316476044139094</v>
       </c>
+      <c r="Y30" t="n">
+        <v>0.6351427341024978</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2726,6 +2816,9 @@
       <c r="X31" t="n">
         <v>-0.4605053301217271</v>
       </c>
+      <c r="Y31" t="n">
+        <v>-0.4554955579397454</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2800,6 +2893,9 @@
       <c r="X32" t="n">
         <v>0.5252145730092991</v>
       </c>
+      <c r="Y32" t="n">
+        <v>0.5274022078969237</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2874,6 +2970,9 @@
       <c r="X33" t="n">
         <v>0.7441910394437977</v>
       </c>
+      <c r="Y33" t="n">
+        <v>0.7464446021918446</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2948,6 +3047,9 @@
       <c r="X34" t="n">
         <v>-0.8602349422527736</v>
       </c>
+      <c r="Y34" t="n">
+        <v>-0.8584248624276366</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3022,6 +3124,9 @@
       <c r="X35" t="n">
         <v>0.7999075926461052</v>
       </c>
+      <c r="Y35" t="n">
+        <v>0.8031533998527937</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3096,6 +3201,9 @@
       <c r="X36" t="n">
         <v>0.7594815742969909</v>
       </c>
+      <c r="Y36" t="n">
+        <v>0.764593004247516</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3170,6 +3278,9 @@
       <c r="X37" t="n">
         <v>0.7238545603731139</v>
       </c>
+      <c r="Y37" t="n">
+        <v>0.7291984770453627</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3244,6 +3355,9 @@
       <c r="X38" t="n">
         <v>0.6401620781313726</v>
       </c>
+      <c r="Y38" t="n">
+        <v>0.6427350939444796</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3318,6 +3432,9 @@
       <c r="X39" t="n">
         <v>0.5987717476108254</v>
       </c>
+      <c r="Y39" t="n">
+        <v>0.600984979939247</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3392,6 +3509,9 @@
       <c r="X40" t="n">
         <v>0.7633680940301364</v>
       </c>
+      <c r="Y40" t="n">
+        <v>0.7663052319645866</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3466,6 +3586,9 @@
       <c r="X41" t="n">
         <v>0.5736743159471346</v>
       </c>
+      <c r="Y41" t="n">
+        <v>0.5756906807883762</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3540,6 +3663,9 @@
       <c r="X42" t="n">
         <v>0.6115538959911301</v>
       </c>
+      <c r="Y42" t="n">
+        <v>0.6169042476664539</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3614,6 +3740,9 @@
       <c r="X43" t="n">
         <v>0.6716087153442144</v>
       </c>
+      <c r="Y43" t="n">
+        <v>0.6742196972255037</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3688,6 +3817,9 @@
       <c r="X44" t="n">
         <v>0.6965604540793235</v>
       </c>
+      <c r="Y44" t="n">
+        <v>0.699559805100144</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3762,6 +3894,9 @@
       <c r="X45" t="n">
         <v>0.6893812351975528</v>
       </c>
+      <c r="Y45" t="n">
+        <v>0.6960497468804158</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3836,6 +3971,9 @@
       <c r="X46" t="n">
         <v>-1.318251065540565</v>
       </c>
+      <c r="Y46" t="n">
+        <v>-1.321660185373069</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3910,6 +4048,9 @@
       <c r="X47" t="n">
         <v>-1.028590059371768</v>
       </c>
+      <c r="Y47" t="n">
+        <v>-1.031116648151073</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3984,6 +4125,9 @@
       <c r="X48" t="n">
         <v>-0.8899711251047113</v>
       </c>
+      <c r="Y48" t="n">
+        <v>-0.891808257015287</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4058,6 +4202,9 @@
       <c r="X49" t="n">
         <v>-0.6526564048945034</v>
       </c>
+      <c r="Y49" t="n">
+        <v>-0.654413132476475</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4132,6 +4279,9 @@
       <c r="X50" t="n">
         <v>-0.07676554960685363</v>
       </c>
+      <c r="Y50" t="n">
+        <v>-0.07836419905877846</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4206,6 +4356,9 @@
       <c r="X51" t="n">
         <v>-0.870467050650349</v>
       </c>
+      <c r="Y51" t="n">
+        <v>-0.8714551455699622</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4280,6 +4433,9 @@
       <c r="X52" t="n">
         <v>-0.870467050650349</v>
       </c>
+      <c r="Y52" t="n">
+        <v>-0.8714551455699622</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4354,6 +4510,9 @@
       <c r="X53" t="n">
         <v>-1.158243292413114</v>
       </c>
+      <c r="Y53" t="n">
+        <v>-1.160543853956699</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4428,6 +4587,9 @@
       <c r="X54" t="n">
         <v>-0.1857346014716137</v>
       </c>
+      <c r="Y54" t="n">
+        <v>-0.1872715475889918</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4502,6 +4664,9 @@
       <c r="X55" t="n">
         <v>-1.05095654463745</v>
       </c>
+      <c r="Y55" t="n">
+        <v>-1.053807204522613</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4576,6 +4741,9 @@
       <c r="X56" t="n">
         <v>-0.9253430785873917</v>
       </c>
+      <c r="Y56" t="n">
+        <v>-0.9283160196405336</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4650,6 +4818,9 @@
       <c r="X57" t="n">
         <v>-0.9657569345939507</v>
       </c>
+      <c r="Y57" t="n">
+        <v>-0.972720323150597</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4724,6 +4895,9 @@
       <c r="X58" t="n">
         <v>-1.107166467750087</v>
       </c>
+      <c r="Y58" t="n">
+        <v>-1.114111835053963</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4798,6 +4972,9 @@
       <c r="X59" t="n">
         <v>-0.8047936732345702</v>
       </c>
+      <c r="Y59" t="n">
+        <v>-0.8085673969684584</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4872,6 +5049,9 @@
       <c r="X60" t="n">
         <v>-0.4363195474934143</v>
       </c>
+      <c r="Y60" t="n">
+        <v>-0.4408406359350423</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4946,6 +5126,9 @@
       <c r="X61" t="n">
         <v>0.3818358689075099</v>
       </c>
+      <c r="Y61" t="n">
+        <v>0.380883795548652</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5020,6 +5203,9 @@
       <c r="X62" t="n">
         <v>-1.22707006245231</v>
       </c>
+      <c r="Y62" t="n">
+        <v>-1.235367217848702</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5094,6 +5280,9 @@
       <c r="X63" t="n">
         <v>-0.5622714974484644</v>
       </c>
+      <c r="Y63" t="n">
+        <v>-0.564993509773396</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5168,6 +5357,9 @@
       <c r="X64" t="n">
         <v>-0.8651560539802384</v>
       </c>
+      <c r="Y64" t="n">
+        <v>-0.8700083251078576</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5242,6 +5434,9 @@
       <c r="X65" t="n">
         <v>-0.04695657191745475</v>
       </c>
+      <c r="Y65" t="n">
+        <v>-0.05044398359231463</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5316,6 +5511,9 @@
       <c r="X66" t="n">
         <v>-0.7988895266557263</v>
       </c>
+      <c r="Y66" t="n">
+        <v>-0.805906557472854</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5389,6 +5587,9 @@
       </c>
       <c r="X67" t="n">
         <v>-0.7835213608109843</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>-0.7913981349415475</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y67"/>
+  <dimension ref="A1:Z67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,9 @@
       <c r="Y1" s="1" t="n">
         <v>24</v>
       </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -586,6 +589,9 @@
       <c r="Y2" t="n">
         <v>-0.2280708923574264</v>
       </c>
+      <c r="Z2" t="n">
+        <v>-0.2311075791696514</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -663,6 +669,9 @@
       <c r="Y3" t="n">
         <v>0.2578921739206251</v>
       </c>
+      <c r="Z3" t="n">
+        <v>0.254438998659988</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -740,6 +749,9 @@
       <c r="Y4" t="n">
         <v>0.2404179449926337</v>
       </c>
+      <c r="Z4" t="n">
+        <v>0.2378001742259726</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -817,6 +829,9 @@
       <c r="Y5" t="n">
         <v>-0.05761579663154003</v>
       </c>
+      <c r="Z5" t="n">
+        <v>-0.06064177587697434</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -894,6 +909,9 @@
       <c r="Y6" t="n">
         <v>0.2055722824801253</v>
       </c>
+      <c r="Z6" t="n">
+        <v>0.2024060036734371</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -971,6 +989,9 @@
       <c r="Y7" t="n">
         <v>-0.3842702586278787</v>
       </c>
+      <c r="Z7" t="n">
+        <v>-0.3873284844087366</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1048,6 +1069,9 @@
       <c r="Y8" t="n">
         <v>-0.1289180691529034</v>
       </c>
+      <c r="Z8" t="n">
+        <v>-0.130062335621767</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1125,6 +1149,9 @@
       <c r="Y9" t="n">
         <v>-0.293369597915184</v>
       </c>
+      <c r="Z9" t="n">
+        <v>-0.2974123810989542</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1202,6 +1229,9 @@
       <c r="Y10" t="n">
         <v>0.4048178175006502</v>
       </c>
+      <c r="Z10" t="n">
+        <v>0.4018827605270659</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1279,6 +1309,9 @@
       <c r="Y11" t="n">
         <v>-0.1927721675973161</v>
       </c>
+      <c r="Z11" t="n">
+        <v>-0.1953995370592734</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1356,6 +1389,9 @@
       <c r="Y12" t="n">
         <v>-0.07305002077923606</v>
       </c>
+      <c r="Z12" t="n">
+        <v>-0.07941314542490453</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1433,6 +1469,9 @@
       <c r="Y13" t="n">
         <v>-0.04549290720456885</v>
       </c>
+      <c r="Z13" t="n">
+        <v>-0.04788283747725423</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1510,6 +1549,9 @@
       <c r="Y14" t="n">
         <v>0.09608080707172628</v>
       </c>
+      <c r="Z14" t="n">
+        <v>0.08545085957126813</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1587,6 +1629,9 @@
       <c r="Y15" t="n">
         <v>-0.04284983548723512</v>
       </c>
+      <c r="Z15" t="n">
+        <v>-0.05634637840864233</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1664,6 +1709,9 @@
       <c r="Y16" t="n">
         <v>0.3864438717911223</v>
       </c>
+      <c r="Z16" t="n">
+        <v>0.3704144623702814</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1741,6 +1789,9 @@
       <c r="Y17" t="n">
         <v>0.4799760593920404</v>
       </c>
+      <c r="Z17" t="n">
+        <v>0.4678290328884717</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1818,6 +1869,9 @@
       <c r="Y18" t="n">
         <v>-0.1368020037755916</v>
       </c>
+      <c r="Z18" t="n">
+        <v>-0.141825898068476</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1895,6 +1949,9 @@
       <c r="Y19" t="n">
         <v>0.3240701342877862</v>
       </c>
+      <c r="Z19" t="n">
+        <v>0.3167644674345825</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1972,6 +2029,9 @@
       <c r="Y20" t="n">
         <v>0.2758446283637512</v>
       </c>
+      <c r="Z20" t="n">
+        <v>0.2596453473362418</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2049,6 +2109,9 @@
       <c r="Y21" t="n">
         <v>0.5345474182035401</v>
       </c>
+      <c r="Z21" t="n">
+        <v>0.5231308114629986</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2126,6 +2189,9 @@
       <c r="Y22" t="n">
         <v>0.3029916996772811</v>
       </c>
+      <c r="Z22" t="n">
+        <v>0.2917450774336659</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2203,6 +2269,9 @@
       <c r="Y23" t="n">
         <v>-0.1318292849550761</v>
       </c>
+      <c r="Z23" t="n">
+        <v>-0.1415073010477002</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2280,6 +2349,9 @@
       <c r="Y24" t="n">
         <v>1.040419092059789</v>
       </c>
+      <c r="Z24" t="n">
+        <v>1.017941646155854</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2357,6 +2429,9 @@
       <c r="Y25" t="n">
         <v>0.3038817864847354</v>
       </c>
+      <c r="Z25" t="n">
+        <v>0.3067541790234563</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2434,6 +2509,9 @@
       <c r="Y26" t="n">
         <v>0.1194528764622239</v>
       </c>
+      <c r="Z26" t="n">
+        <v>0.1202839966103965</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2511,6 +2589,9 @@
       <c r="Y27" t="n">
         <v>0.01713277464099515</v>
       </c>
+      <c r="Z27" t="n">
+        <v>0.01881761337016329</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2588,6 +2669,9 @@
       <c r="Y28" t="n">
         <v>0.789843251739841</v>
       </c>
+      <c r="Z28" t="n">
+        <v>0.7943266927682691</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2665,6 +2749,9 @@
       <c r="Y29" t="n">
         <v>1.391875197005285</v>
       </c>
+      <c r="Z29" t="n">
+        <v>1.399915290334747</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2742,6 +2829,9 @@
       <c r="Y30" t="n">
         <v>0.6351427341024978</v>
       </c>
+      <c r="Z30" t="n">
+        <v>0.6389066411863185</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2819,6 +2909,9 @@
       <c r="Y31" t="n">
         <v>-0.4554955579397454</v>
       </c>
+      <c r="Z31" t="n">
+        <v>-0.4507215462982052</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2896,6 +2989,9 @@
       <c r="Y32" t="n">
         <v>0.5274022078969237</v>
       </c>
+      <c r="Z32" t="n">
+        <v>0.5298977876918152</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2973,6 +3069,9 @@
       <c r="Y33" t="n">
         <v>0.7464446021918446</v>
       </c>
+      <c r="Z33" t="n">
+        <v>0.7488217381078768</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3050,6 +3149,9 @@
       <c r="Y34" t="n">
         <v>-0.8584248624276366</v>
       </c>
+      <c r="Z34" t="n">
+        <v>-0.8565426164985971</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3127,6 +3229,9 @@
       <c r="Y35" t="n">
         <v>0.8031533998527937</v>
       </c>
+      <c r="Z35" t="n">
+        <v>0.8062689377593057</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3204,6 +3309,9 @@
       <c r="Y36" t="n">
         <v>0.764593004247516</v>
       </c>
+      <c r="Z36" t="n">
+        <v>0.7693834555587769</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3281,6 +3389,9 @@
       <c r="Y37" t="n">
         <v>0.7291984770453627</v>
       </c>
+      <c r="Z37" t="n">
+        <v>0.7342141918579427</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3358,6 +3469,9 @@
       <c r="Y38" t="n">
         <v>0.6427350939444796</v>
       </c>
+      <c r="Z38" t="n">
+        <v>0.6452306170833949</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3435,6 +3549,9 @@
       <c r="Y39" t="n">
         <v>0.600984979939247</v>
       </c>
+      <c r="Z39" t="n">
+        <v>0.6030324013958076</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3512,6 +3629,9 @@
       <c r="Y40" t="n">
         <v>0.7663052319645866</v>
       </c>
+      <c r="Z40" t="n">
+        <v>0.7691311996297341</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3589,6 +3709,9 @@
       <c r="Y41" t="n">
         <v>0.5756906807883762</v>
       </c>
+      <c r="Z41" t="n">
+        <v>0.5775009380066953</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3666,6 +3789,9 @@
       <c r="Y42" t="n">
         <v>0.6169042476664539</v>
       </c>
+      <c r="Z42" t="n">
+        <v>0.6219867246846469</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3743,6 +3869,9 @@
       <c r="Y43" t="n">
         <v>0.6742196972255037</v>
       </c>
+      <c r="Z43" t="n">
+        <v>0.6766868273373048</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3820,6 +3949,9 @@
       <c r="Y44" t="n">
         <v>0.699559805100144</v>
       </c>
+      <c r="Z44" t="n">
+        <v>0.7023168123490534</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3897,6 +4029,9 @@
       <c r="Y45" t="n">
         <v>0.6960497468804158</v>
       </c>
+      <c r="Z45" t="n">
+        <v>0.7022020148027444</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3974,6 +4109,9 @@
       <c r="Y46" t="n">
         <v>-1.321660185373069</v>
       </c>
+      <c r="Z46" t="n">
+        <v>-1.325121044405042</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4051,6 +4189,9 @@
       <c r="Y47" t="n">
         <v>-1.031116648151073</v>
       </c>
+      <c r="Z47" t="n">
+        <v>-1.033703639125867</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4128,6 +4269,9 @@
       <c r="Y48" t="n">
         <v>-0.891808257015287</v>
       </c>
+      <c r="Z48" t="n">
+        <v>-0.8938463842979427</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4205,6 +4349,9 @@
       <c r="Y49" t="n">
         <v>-0.654413132476475</v>
       </c>
+      <c r="Z49" t="n">
+        <v>-0.6563158480223632</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4282,6 +4429,9 @@
       <c r="Y50" t="n">
         <v>-0.07836419905877846</v>
       </c>
+      <c r="Z50" t="n">
+        <v>-0.0799518373417268</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4359,6 +4509,9 @@
       <c r="Y51" t="n">
         <v>-0.8714551455699622</v>
       </c>
+      <c r="Z51" t="n">
+        <v>-0.8726610468206295</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4436,6 +4589,9 @@
       <c r="Y52" t="n">
         <v>-0.8714551455699622</v>
       </c>
+      <c r="Z52" t="n">
+        <v>-0.8726610468206295</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4513,6 +4669,9 @@
       <c r="Y53" t="n">
         <v>-1.160543853956699</v>
       </c>
+      <c r="Z53" t="n">
+        <v>-1.163040154983908</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4590,6 +4749,9 @@
       <c r="Y54" t="n">
         <v>-0.1872715475889918</v>
       </c>
+      <c r="Z54" t="n">
+        <v>-0.1888851887017219</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4667,6 +4829,9 @@
       <c r="Y55" t="n">
         <v>-1.053807204522613</v>
       </c>
+      <c r="Z55" t="n">
+        <v>-1.056702997421931</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4744,6 +4909,9 @@
       <c r="Y56" t="n">
         <v>-0.9283160196405336</v>
       </c>
+      <c r="Z56" t="n">
+        <v>-0.9312070173102309</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4821,6 +4989,9 @@
       <c r="Y57" t="n">
         <v>-0.972720323150597</v>
       </c>
+      <c r="Z57" t="n">
+        <v>-0.9794263134563057</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4898,6 +5069,9 @@
       <c r="Y58" t="n">
         <v>-1.114111835053963</v>
       </c>
+      <c r="Z58" t="n">
+        <v>-1.12080504339723</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4975,6 +5149,9 @@
       <c r="Y59" t="n">
         <v>-0.8085673969684584</v>
       </c>
+      <c r="Z59" t="n">
+        <v>-0.8123846180557363</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5052,6 +5229,9 @@
       <c r="Y60" t="n">
         <v>-0.4408406359350423</v>
       </c>
+      <c r="Z60" t="n">
+        <v>-0.4452629062922502</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5129,6 +5309,9 @@
       <c r="Y61" t="n">
         <v>0.380883795548652</v>
       </c>
+      <c r="Z61" t="n">
+        <v>0.3799217572532597</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5206,6 +5389,9 @@
       <c r="Y62" t="n">
         <v>-1.235367217848702</v>
       </c>
+      <c r="Z62" t="n">
+        <v>-1.243355223166563</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5283,6 +5469,9 @@
       <c r="Y63" t="n">
         <v>-0.564993509773396</v>
       </c>
+      <c r="Z63" t="n">
+        <v>-0.5679437313704052</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5360,6 +5549,9 @@
       <c r="Y64" t="n">
         <v>-0.8700083251078576</v>
       </c>
+      <c r="Z64" t="n">
+        <v>-0.8749702998625773</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5437,6 +5629,9 @@
       <c r="Y65" t="n">
         <v>-0.05044398359231463</v>
       </c>
+      <c r="Z65" t="n">
+        <v>-0.05385213826903216</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5514,6 +5709,9 @@
       <c r="Y66" t="n">
         <v>-0.805906557472854</v>
       </c>
+      <c r="Z66" t="n">
+        <v>-0.8125365556055872</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5590,6 +5788,9 @@
       </c>
       <c r="Y67" t="n">
         <v>-0.7913981349415475</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>-0.798697955390214</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z67"/>
+  <dimension ref="A1:AA67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,6 +512,9 @@
       <c r="Z1" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -592,6 +595,9 @@
       <c r="Z2" t="n">
         <v>-0.2311075791696514</v>
       </c>
+      <c r="AA2" t="n">
+        <v>-0.2341628463348356</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -672,6 +678,9 @@
       <c r="Z3" t="n">
         <v>0.254438998659988</v>
       </c>
+      <c r="AA3" t="n">
+        <v>0.2510498450852772</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -752,6 +761,9 @@
       <c r="Z4" t="n">
         <v>0.2378001742259726</v>
       </c>
+      <c r="AA4" t="n">
+        <v>0.2350952660576419</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -832,6 +844,9 @@
       <c r="Z5" t="n">
         <v>-0.06064177587697434</v>
       </c>
+      <c r="AA5" t="n">
+        <v>-0.06356241060819075</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -912,6 +927,9 @@
       <c r="Z6" t="n">
         <v>0.2024060036734371</v>
       </c>
+      <c r="AA6" t="n">
+        <v>0.199363377878597</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -992,6 +1010,9 @@
       <c r="Z7" t="n">
         <v>-0.3873284844087366</v>
       </c>
+      <c r="AA7" t="n">
+        <v>-0.3904553033277086</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1072,6 +1093,9 @@
       <c r="Z8" t="n">
         <v>-0.130062335621767</v>
       </c>
+      <c r="AA8" t="n">
+        <v>-0.1314235835522452</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1152,6 +1176,9 @@
       <c r="Z9" t="n">
         <v>-0.2974123810989542</v>
       </c>
+      <c r="AA9" t="n">
+        <v>-0.3015947359358965</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1232,6 +1259,9 @@
       <c r="Z10" t="n">
         <v>0.4018827605270659</v>
       </c>
+      <c r="AA10" t="n">
+        <v>0.3990815726464318</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1312,6 +1342,9 @@
       <c r="Z11" t="n">
         <v>-0.1953995370592734</v>
       </c>
+      <c r="AA11" t="n">
+        <v>-0.1980468743381305</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1392,6 +1425,9 @@
       <c r="Z12" t="n">
         <v>-0.07941314542490453</v>
       </c>
+      <c r="AA12" t="n">
+        <v>-0.08539388666056008</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1472,6 +1508,9 @@
       <c r="Z13" t="n">
         <v>-0.04788283747725423</v>
       </c>
+      <c r="AA13" t="n">
+        <v>-0.05017202483244895</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1552,6 +1591,9 @@
       <c r="Z14" t="n">
         <v>0.08545085957126813</v>
       </c>
+      <c r="AA14" t="n">
+        <v>0.07553000105181946</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1632,6 +1674,9 @@
       <c r="Z15" t="n">
         <v>-0.05634637840864233</v>
       </c>
+      <c r="AA15" t="n">
+        <v>-0.06881415138814105</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1712,6 +1757,9 @@
       <c r="Z16" t="n">
         <v>0.3704144623702814</v>
       </c>
+      <c r="AA16" t="n">
+        <v>0.3555729054335538</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1792,6 +1840,9 @@
       <c r="Z17" t="n">
         <v>0.4678290328884717</v>
       </c>
+      <c r="AA17" t="n">
+        <v>0.4568468527558329</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1872,6 +1923,9 @@
       <c r="Z18" t="n">
         <v>-0.141825898068476</v>
       </c>
+      <c r="AA18" t="n">
+        <v>-0.1464414255748235</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1952,6 +2006,9 @@
       <c r="Z19" t="n">
         <v>0.3167644674345825</v>
       </c>
+      <c r="AA19" t="n">
+        <v>0.310023486576023</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2032,6 +2089,9 @@
       <c r="Z20" t="n">
         <v>0.2596453473362418</v>
       </c>
+      <c r="AA20" t="n">
+        <v>0.2447324136539657</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2112,6 +2172,9 @@
       <c r="Z21" t="n">
         <v>0.5231308114629986</v>
       </c>
+      <c r="AA21" t="n">
+        <v>0.5127789988053828</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2192,6 +2255,9 @@
       <c r="Z22" t="n">
         <v>0.2917450774336659</v>
       </c>
+      <c r="AA22" t="n">
+        <v>0.2815296835915891</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2272,6 +2338,9 @@
       <c r="Z23" t="n">
         <v>-0.1415073010477002</v>
       </c>
+      <c r="AA23" t="n">
+        <v>-0.15031297664397</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2352,6 +2421,9 @@
       <c r="Z24" t="n">
         <v>1.017941646155854</v>
       </c>
+      <c r="AA24" t="n">
+        <v>1.006335657907924</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2432,6 +2504,9 @@
       <c r="Z25" t="n">
         <v>0.3067541790234563</v>
       </c>
+      <c r="AA25" t="n">
+        <v>0.3095760325527357</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2512,6 +2587,9 @@
       <c r="Z26" t="n">
         <v>0.1202839966103965</v>
       </c>
+      <c r="AA26" t="n">
+        <v>0.1214539158685195</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2592,6 +2670,9 @@
       <c r="Z27" t="n">
         <v>0.01881761337016329</v>
       </c>
+      <c r="AA27" t="n">
+        <v>0.02084053307686758</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2672,6 +2753,9 @@
       <c r="Z28" t="n">
         <v>0.7943266927682691</v>
       </c>
+      <c r="AA28" t="n">
+        <v>0.7990983618515415</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2752,6 +2836,9 @@
       <c r="Z29" t="n">
         <v>1.399915290334747</v>
       </c>
+      <c r="AA29" t="n">
+        <v>1.413440334312942</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2832,6 +2919,9 @@
       <c r="Z30" t="n">
         <v>0.6389066411863185</v>
       </c>
+      <c r="AA30" t="n">
+        <v>0.6428223695511164</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2912,6 +3002,9 @@
       <c r="Z31" t="n">
         <v>-0.4507215462982052</v>
       </c>
+      <c r="AA31" t="n">
+        <v>-0.4462533544861406</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2992,6 +3085,9 @@
       <c r="Z32" t="n">
         <v>0.5298977876918152</v>
       </c>
+      <c r="AA32" t="n">
+        <v>0.5326059639611772</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3072,6 +3168,9 @@
       <c r="Z33" t="n">
         <v>0.7488217381078768</v>
       </c>
+      <c r="AA33" t="n">
+        <v>0.7512595242684587</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3152,6 +3251,9 @@
       <c r="Z34" t="n">
         <v>-0.8565426164985971</v>
       </c>
+      <c r="AA34" t="n">
+        <v>-0.8546550319476823</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3232,6 +3334,9 @@
       <c r="Z35" t="n">
         <v>0.8062689377593057</v>
       </c>
+      <c r="AA35" t="n">
+        <v>0.8092269950480622</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3312,6 +3417,9 @@
       <c r="Z36" t="n">
         <v>0.7693834555587769</v>
       </c>
+      <c r="AA36" t="n">
+        <v>0.7738243252582749</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3392,6 +3500,9 @@
       <c r="Z37" t="n">
         <v>0.7342141918579427</v>
       </c>
+      <c r="AA37" t="n">
+        <v>0.7388699566012152</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3472,6 +3583,9 @@
       <c r="Z38" t="n">
         <v>0.6452306170833949</v>
       </c>
+      <c r="AA38" t="n">
+        <v>0.6476155685092837</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3552,6 +3666,9 @@
       <c r="Z39" t="n">
         <v>0.6030324013958076</v>
       </c>
+      <c r="AA39" t="n">
+        <v>0.6049053485757283</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3632,6 +3749,9 @@
       <c r="Z40" t="n">
         <v>0.7691311996297341</v>
       </c>
+      <c r="AA40" t="n">
+        <v>0.7718231744769027</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3712,6 +3832,9 @@
       <c r="Z41" t="n">
         <v>0.5775009380066953</v>
       </c>
+      <c r="AA41" t="n">
+        <v>0.5791074783446997</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3792,6 +3915,9 @@
       <c r="Z42" t="n">
         <v>0.6219867246846469</v>
       </c>
+      <c r="AA42" t="n">
+        <v>0.6267526436980327</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3872,6 +3998,9 @@
       <c r="Z43" t="n">
         <v>0.6766868273373048</v>
       </c>
+      <c r="AA43" t="n">
+        <v>0.6789892376634207</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3952,6 +4081,9 @@
       <c r="Z44" t="n">
         <v>0.7023168123490534</v>
       </c>
+      <c r="AA44" t="n">
+        <v>0.7048243575229232</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4032,6 +4164,9 @@
       <c r="Z45" t="n">
         <v>0.7022020148027444</v>
       </c>
+      <c r="AA45" t="n">
+        <v>0.7078150988477001</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4112,6 +4247,9 @@
       <c r="Z46" t="n">
         <v>-1.325121044405042</v>
       </c>
+      <c r="AA46" t="n">
+        <v>-1.328616455765638</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4192,6 +4330,9 @@
       <c r="Z47" t="n">
         <v>-1.033703639125867</v>
       </c>
+      <c r="AA47" t="n">
+        <v>-1.036339236411857</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4272,6 +4413,9 @@
       <c r="Z48" t="n">
         <v>-0.8938463842979427</v>
       </c>
+      <c r="AA48" t="n">
+        <v>-0.8960621926811353</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4352,6 +4496,9 @@
       <c r="Z49" t="n">
         <v>-0.6563158480223632</v>
       </c>
+      <c r="AA49" t="n">
+        <v>-0.6583442714709644</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4432,6 +4579,9 @@
       <c r="Z50" t="n">
         <v>-0.0799518373417268</v>
       </c>
+      <c r="AA50" t="n">
+        <v>-0.08152387912909968</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4512,6 +4662,9 @@
       <c r="Z51" t="n">
         <v>-0.8726610468206295</v>
       </c>
+      <c r="AA51" t="n">
+        <v>-0.874066768979044</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4592,6 +4745,9 @@
       <c r="Z52" t="n">
         <v>-0.8726610468206295</v>
       </c>
+      <c r="AA52" t="n">
+        <v>-0.874066768979044</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4672,6 +4828,9 @@
       <c r="Z53" t="n">
         <v>-1.163040154983908</v>
       </c>
+      <c r="AA53" t="n">
+        <v>-1.16571301488204</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4752,6 +4911,9 @@
       <c r="Z54" t="n">
         <v>-0.1888851887017219</v>
       </c>
+      <c r="AA54" t="n">
+        <v>-0.1905599283086739</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4832,6 +4994,9 @@
       <c r="Z55" t="n">
         <v>-1.056702997421931</v>
       </c>
+      <c r="AA55" t="n">
+        <v>-1.059631409952725</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4912,6 +5077,9 @@
       <c r="Z56" t="n">
         <v>-0.9312070173102309</v>
       </c>
+      <c r="AA56" t="n">
+        <v>-0.9340120516389676</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4992,6 +5160,9 @@
       <c r="Z57" t="n">
         <v>-0.9794263134563057</v>
       </c>
+      <c r="AA57" t="n">
+        <v>-0.9858397378798145</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5072,6 +5243,9 @@
       <c r="Z58" t="n">
         <v>-1.12080504339723</v>
       </c>
+      <c r="AA58" t="n">
+        <v>-1.127202977011985</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5152,6 +5326,9 @@
       <c r="Z59" t="n">
         <v>-0.8123846180557363</v>
       </c>
+      <c r="AA59" t="n">
+        <v>-0.8162046646755271</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5232,6 +5409,9 @@
       <c r="Z60" t="n">
         <v>-0.4452629062922502</v>
       </c>
+      <c r="AA60" t="n">
+        <v>-0.449544219989616</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5312,6 +5492,9 @@
       <c r="Z61" t="n">
         <v>0.3799217572532597</v>
       </c>
+      <c r="AA61" t="n">
+        <v>0.3789604668734404</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5392,6 +5575,9 @@
       <c r="Z62" t="n">
         <v>-1.243355223166563</v>
       </c>
+      <c r="AA62" t="n">
+        <v>-1.250989817390898</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5472,6 +5658,9 @@
       <c r="Z63" t="n">
         <v>-0.5679437313704052</v>
       </c>
+      <c r="AA63" t="n">
+        <v>-0.5710506373448943</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5552,6 +5741,9 @@
       <c r="Z64" t="n">
         <v>-0.8749702998625773</v>
       </c>
+      <c r="AA64" t="n">
+        <v>-0.879981269008744</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5632,6 +5824,9 @@
       <c r="Z65" t="n">
         <v>-0.05385213826903216</v>
       </c>
+      <c r="AA65" t="n">
+        <v>-0.05714722988810495</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5712,6 +5907,9 @@
       <c r="Z66" t="n">
         <v>-0.8125365556055872</v>
       </c>
+      <c r="AA66" t="n">
+        <v>-0.8187528666451328</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5791,6 +5989,9 @@
       </c>
       <c r="Z67" t="n">
         <v>-0.798697955390214</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>-0.8054081699366753</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA67"/>
+  <dimension ref="A1:AB67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,9 @@
       <c r="AA1" s="1" t="n">
         <v>26</v>
       </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -598,6 +601,9 @@
       <c r="AA2" t="n">
         <v>-0.2341628463348356</v>
       </c>
+      <c r="AB2" t="n">
+        <v>-0.2371957624703108</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -681,6 +687,9 @@
       <c r="AA3" t="n">
         <v>0.2510498450852772</v>
       </c>
+      <c r="AB3" t="n">
+        <v>0.2477648454267593</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -764,6 +773,9 @@
       <c r="AA4" t="n">
         <v>0.2350952660576419</v>
       </c>
+      <c r="AB4" t="n">
+        <v>0.23235249944877</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -847,6 +859,9 @@
       <c r="AA5" t="n">
         <v>-0.06356241060819075</v>
       </c>
+      <c r="AB5" t="n">
+        <v>-0.0663567056274032</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -930,6 +945,9 @@
       <c r="AA6" t="n">
         <v>0.199363377878597</v>
       </c>
+      <c r="AB6" t="n">
+        <v>0.196474952822615</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1013,6 +1031,9 @@
       <c r="AA7" t="n">
         <v>-0.3904553033277086</v>
       </c>
+      <c r="AB7" t="n">
+        <v>-0.3936066590277496</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1096,6 +1117,9 @@
       <c r="AA8" t="n">
         <v>-0.1314235835522452</v>
       </c>
+      <c r="AB8" t="n">
+        <v>-0.1329523093239533</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1179,6 +1203,9 @@
       <c r="AA9" t="n">
         <v>-0.3015947359358965</v>
       </c>
+      <c r="AB9" t="n">
+        <v>-0.3058406767636106</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1262,6 +1289,9 @@
       <c r="AA10" t="n">
         <v>0.3990815726464318</v>
       </c>
+      <c r="AB10" t="n">
+        <v>0.3964369310187244</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1345,6 +1375,9 @@
       <c r="AA11" t="n">
         <v>-0.1980468743381305</v>
       </c>
+      <c r="AB11" t="n">
+        <v>-0.2006830978175659</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1428,6 +1461,9 @@
       <c r="AA12" t="n">
         <v>-0.08539388666056008</v>
       </c>
+      <c r="AB12" t="n">
+        <v>-0.09096420692113869</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1511,6 +1547,9 @@
       <c r="AA13" t="n">
         <v>-0.05017202483244895</v>
       </c>
+      <c r="AB13" t="n">
+        <v>-0.0523527392897137</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1594,6 +1633,9 @@
       <c r="AA14" t="n">
         <v>0.07553000105181946</v>
       </c>
+      <c r="AB14" t="n">
+        <v>0.0663698528854882</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1677,6 +1719,9 @@
       <c r="AA15" t="n">
         <v>-0.06881415138814105</v>
       </c>
+      <c r="AB15" t="n">
+        <v>-0.08021506961985901</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1760,6 +1805,9 @@
       <c r="AA16" t="n">
         <v>0.3555729054335538</v>
       </c>
+      <c r="AB16" t="n">
+        <v>0.3419827667403844</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1843,6 +1891,9 @@
       <c r="AA17" t="n">
         <v>0.4568468527558329</v>
       </c>
+      <c r="AB17" t="n">
+        <v>0.4470297512621496</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1926,6 +1977,9 @@
       <c r="AA18" t="n">
         <v>-0.1464414255748235</v>
       </c>
+      <c r="AB18" t="n">
+        <v>-0.1506564820777788</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2009,6 +2063,9 @@
       <c r="AA19" t="n">
         <v>0.310023486576023</v>
       </c>
+      <c r="AB19" t="n">
+        <v>0.303856863195358</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2092,6 +2149,9 @@
       <c r="AA20" t="n">
         <v>0.2447324136539657</v>
       </c>
+      <c r="AB20" t="n">
+        <v>0.2311507993422016</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2175,6 +2235,9 @@
       <c r="AA21" t="n">
         <v>0.5127789988053828</v>
       </c>
+      <c r="AB21" t="n">
+        <v>0.5035066891217654</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2258,6 +2321,9 @@
       <c r="AA22" t="n">
         <v>0.2815296835915891</v>
       </c>
+      <c r="AB22" t="n">
+        <v>0.2723547736366707</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2341,6 +2407,9 @@
       <c r="AA23" t="n">
         <v>-0.15031297664397</v>
       </c>
+      <c r="AB23" t="n">
+        <v>-0.1582416444502937</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2424,6 +2493,9 @@
       <c r="AA24" t="n">
         <v>1.006335657907924</v>
       </c>
+      <c r="AB24" t="n">
+        <v>1.004121173922083</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2507,6 +2579,9 @@
       <c r="AA25" t="n">
         <v>0.3095760325527357</v>
       </c>
+      <c r="AB25" t="n">
+        <v>0.3123013825437284</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2590,6 +2665,9 @@
       <c r="AA26" t="n">
         <v>0.1214539158685195</v>
       </c>
+      <c r="AB26" t="n">
+        <v>0.1228810036172027</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2673,6 +2751,9 @@
       <c r="AA27" t="n">
         <v>0.02084053307686758</v>
       </c>
+      <c r="AB27" t="n">
+        <v>0.02310706842225833</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2756,6 +2837,9 @@
       <c r="AA28" t="n">
         <v>0.7990983618515415</v>
       </c>
+      <c r="AB28" t="n">
+        <v>0.8040421781547016</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2839,6 +2923,9 @@
       <c r="AA29" t="n">
         <v>1.413440334312942</v>
       </c>
+      <c r="AB29" t="n">
+        <v>1.431255287172333</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2922,6 +3009,9 @@
       <c r="AA30" t="n">
         <v>0.6428223695511164</v>
       </c>
+      <c r="AB30" t="n">
+        <v>0.6467901333044327</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3005,6 +3095,9 @@
       <c r="AA31" t="n">
         <v>-0.4462533544861406</v>
       </c>
+      <c r="AB31" t="n">
+        <v>-0.4421423215712076</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3088,6 +3181,9 @@
       <c r="AA32" t="n">
         <v>0.5326059639611772</v>
       </c>
+      <c r="AB32" t="n">
+        <v>0.5354426989506844</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3171,6 +3267,9 @@
       <c r="AA33" t="n">
         <v>0.7512595242684587</v>
       </c>
+      <c r="AB33" t="n">
+        <v>0.7537042262410759</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3254,6 +3353,9 @@
       <c r="AA34" t="n">
         <v>-0.8546550319476823</v>
       </c>
+      <c r="AB34" t="n">
+        <v>-0.8528175248766101</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3337,6 +3439,9 @@
       <c r="AA35" t="n">
         <v>0.8092269950480622</v>
       </c>
+      <c r="AB35" t="n">
+        <v>0.8120069736634201</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3420,6 +3525,9 @@
       <c r="AA36" t="n">
         <v>0.7738243252582749</v>
       </c>
+      <c r="AB36" t="n">
+        <v>0.7778974720104535</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3503,6 +3611,9 @@
       <c r="AA37" t="n">
         <v>0.7388699566012152</v>
       </c>
+      <c r="AB37" t="n">
+        <v>0.7431452447545985</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3586,6 +3697,9 @@
       <c r="AA38" t="n">
         <v>0.6476155685092837</v>
       </c>
+      <c r="AB38" t="n">
+        <v>0.6498644170297558</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3669,6 +3783,9 @@
       <c r="AA39" t="n">
         <v>0.6049053485757283</v>
       </c>
+      <c r="AB39" t="n">
+        <v>0.6065992824124691</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3752,6 +3869,9 @@
       <c r="AA40" t="n">
         <v>0.7718231744769027</v>
       </c>
+      <c r="AB40" t="n">
+        <v>0.7743634826549053</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3835,6 +3955,9 @@
       <c r="AA41" t="n">
         <v>0.5791074783446997</v>
       </c>
+      <c r="AB41" t="n">
+        <v>0.5805160705000919</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3918,6 +4041,9 @@
       <c r="AA42" t="n">
         <v>0.6267526436980327</v>
       </c>
+      <c r="AB42" t="n">
+        <v>0.631166808310319</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4001,6 +4127,9 @@
       <c r="AA43" t="n">
         <v>0.6789892376634207</v>
       </c>
+      <c r="AB43" t="n">
+        <v>0.6811124835104384</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4084,6 +4213,9 @@
       <c r="AA44" t="n">
         <v>0.7048243575229232</v>
       </c>
+      <c r="AB44" t="n">
+        <v>0.7070806636142916</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4167,6 +4299,9 @@
       <c r="AA45" t="n">
         <v>0.7078150988477001</v>
       </c>
+      <c r="AB45" t="n">
+        <v>0.7128788297359958</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4250,6 +4385,9 @@
       <c r="AA46" t="n">
         <v>-1.328616455765638</v>
       </c>
+      <c r="AB46" t="n">
+        <v>-1.332129816211611</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4333,6 +4471,9 @@
       <c r="AA47" t="n">
         <v>-1.036339236411857</v>
       </c>
+      <c r="AB47" t="n">
+        <v>-1.03901137315625</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4416,6 +4557,9 @@
       <c r="AA48" t="n">
         <v>-0.8960621926811353</v>
       </c>
+      <c r="AB48" t="n">
+        <v>-0.8984315412480127</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4499,6 +4643,9 @@
       <c r="AA49" t="n">
         <v>-0.6583442714709644</v>
       </c>
+      <c r="AB49" t="n">
+        <v>-0.6604780380190964</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4582,6 +4729,9 @@
       <c r="AA50" t="n">
         <v>-0.08152387912909968</v>
       </c>
+      <c r="AB50" t="n">
+        <v>-0.08307618533595179</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4665,6 +4815,9 @@
       <c r="AA51" t="n">
         <v>-0.874066768979044</v>
       </c>
+      <c r="AB51" t="n">
+        <v>-0.8756525982448312</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4748,6 +4901,9 @@
       <c r="AA52" t="n">
         <v>-0.874066768979044</v>
       </c>
+      <c r="AB52" t="n">
+        <v>-0.8756525982448312</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4831,6 +4987,9 @@
       <c r="AA53" t="n">
         <v>-1.16571301488204</v>
       </c>
+      <c r="AB53" t="n">
+        <v>-1.168541166985073</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4914,6 +5073,9 @@
       <c r="AA54" t="n">
         <v>-0.1905599283086739</v>
       </c>
+      <c r="AB54" t="n">
+        <v>-0.1922809665967982</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4997,6 +5159,9 @@
       <c r="AA55" t="n">
         <v>-1.059631409952725</v>
       </c>
+      <c r="AB55" t="n">
+        <v>-1.062580031911964</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5080,6 +5245,9 @@
       <c r="AA56" t="n">
         <v>-0.9340120516389676</v>
       </c>
+      <c r="AB56" t="n">
+        <v>-0.9367286837524037</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5163,6 +5331,9 @@
       <c r="AA57" t="n">
         <v>-0.9858397378798145</v>
       </c>
+      <c r="AB57" t="n">
+        <v>-0.9919349782944388</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5246,6 +5417,9 @@
       <c r="AA58" t="n">
         <v>-1.127202977011985</v>
       </c>
+      <c r="AB58" t="n">
+        <v>-1.133274036113417</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5329,6 +5503,9 @@
       <c r="AA59" t="n">
         <v>-0.8162046646755271</v>
       </c>
+      <c r="AB59" t="n">
+        <v>-0.819992601391088</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5412,6 +5589,9 @@
       <c r="AA60" t="n">
         <v>-0.449544219989616</v>
       </c>
+      <c r="AB60" t="n">
+        <v>-0.4536514727741887</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5495,6 +5675,9 @@
       <c r="AA61" t="n">
         <v>0.3789604668734404</v>
       </c>
+      <c r="AB61" t="n">
+        <v>0.3780091029903823</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5578,6 +5761,9 @@
       <c r="AA62" t="n">
         <v>-1.250989817390898</v>
       </c>
+      <c r="AB62" t="n">
+        <v>-1.258238892500738</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5661,6 +5847,9 @@
       <c r="AA63" t="n">
         <v>-0.5710506373448943</v>
       </c>
+      <c r="AB63" t="n">
+        <v>-0.5742514965986891</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5744,6 +5933,9 @@
       <c r="AA64" t="n">
         <v>-0.879981269008744</v>
       </c>
+      <c r="AB64" t="n">
+        <v>-0.8849876607667764</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5827,6 +6019,9 @@
       <c r="AA65" t="n">
         <v>-0.05714722988810495</v>
       </c>
+      <c r="AB65" t="n">
+        <v>-0.06030297867648256</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5910,6 +6105,9 @@
       <c r="AA66" t="n">
         <v>-0.8187528666451328</v>
       </c>
+      <c r="AB66" t="n">
+        <v>-0.8245401726719627</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5992,6 +6190,9 @@
       </c>
       <c r="AA67" t="n">
         <v>-0.8054081699366753</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>-0.8115290169365078</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB67"/>
+  <dimension ref="A1:AC67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,9 @@
       <c r="AB1" s="1" t="n">
         <v>27</v>
       </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -604,6 +607,9 @@
       <c r="AB2" t="n">
         <v>-0.2371957624703108</v>
       </c>
+      <c r="AC2" t="n">
+        <v>-0.2401720012456233</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -690,6 +696,9 @@
       <c r="AB3" t="n">
         <v>0.2477648454267593</v>
       </c>
+      <c r="AC3" t="n">
+        <v>0.2446165399640128</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -776,6 +785,9 @@
       <c r="AB4" t="n">
         <v>0.23235249944877</v>
       </c>
+      <c r="AC4" t="n">
+        <v>0.2296144108687314</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -862,6 +874,9 @@
       <c r="AB5" t="n">
         <v>-0.0663567056274032</v>
       </c>
+      <c r="AC5" t="n">
+        <v>-0.06900886670999069</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -948,6 +963,9 @@
       <c r="AB6" t="n">
         <v>0.196474952822615</v>
       </c>
+      <c r="AC6" t="n">
+        <v>0.1937637060537551</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1034,6 +1052,9 @@
       <c r="AB7" t="n">
         <v>-0.3936066590277496</v>
       </c>
+      <c r="AC7" t="n">
+        <v>-0.3967444033650566</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1120,6 +1141,9 @@
       <c r="AB8" t="n">
         <v>-0.1329523093239533</v>
       </c>
+      <c r="AC8" t="n">
+        <v>-0.1346038370170251</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1206,6 +1230,9 @@
       <c r="AB9" t="n">
         <v>-0.3058406767636106</v>
       </c>
+      <c r="AC9" t="n">
+        <v>-0.3100839861843546</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1292,6 +1319,9 @@
       <c r="AB10" t="n">
         <v>0.3964369310187244</v>
       </c>
+      <c r="AC10" t="n">
+        <v>0.3939651172328251</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1378,6 +1408,9 @@
       <c r="AB11" t="n">
         <v>-0.2006830978175659</v>
       </c>
+      <c r="AC11" t="n">
+        <v>-0.2032818131831138</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1464,6 +1497,9 @@
       <c r="AB12" t="n">
         <v>-0.09096420692113869</v>
       </c>
+      <c r="AC12" t="n">
+        <v>-0.09610739033790007</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1550,6 +1586,9 @@
       <c r="AB13" t="n">
         <v>-0.0523527392897137</v>
       </c>
+      <c r="AC13" t="n">
+        <v>-0.05441974449532708</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1636,6 +1675,9 @@
       <c r="AB14" t="n">
         <v>0.0663698528854882</v>
       </c>
+      <c r="AC14" t="n">
+        <v>0.0580007979627335</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1722,6 +1764,9 @@
       <c r="AB15" t="n">
         <v>-0.08021506961985901</v>
       </c>
+      <c r="AC15" t="n">
+        <v>-0.09053529438665062</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1808,6 +1853,9 @@
       <c r="AB16" t="n">
         <v>0.3419827667403844</v>
       </c>
+      <c r="AC16" t="n">
+        <v>0.3296758112801801</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1894,6 +1942,9 @@
       <c r="AB17" t="n">
         <v>0.4470297512621496</v>
       </c>
+      <c r="AC17" t="n">
+        <v>0.4383578407425014</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1980,6 +2031,9 @@
       <c r="AB18" t="n">
         <v>-0.1506564820777788</v>
       </c>
+      <c r="AC18" t="n">
+        <v>-0.1544829009934061</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2066,6 +2120,9 @@
       <c r="AB19" t="n">
         <v>0.303856863195358</v>
       </c>
+      <c r="AC19" t="n">
+        <v>0.2982633466020733</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2152,6 +2209,9 @@
       <c r="AB20" t="n">
         <v>0.2311507993422016</v>
       </c>
+      <c r="AC20" t="n">
+        <v>0.2189152827330665</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2238,6 +2298,9 @@
       <c r="AB21" t="n">
         <v>0.5035066891217654</v>
       </c>
+      <c r="AC21" t="n">
+        <v>0.4953062849516935</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2324,6 +2387,9 @@
       <c r="AB22" t="n">
         <v>0.2723547736366707</v>
       </c>
+      <c r="AC22" t="n">
+        <v>0.2642100542519072</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2410,6 +2476,9 @@
       <c r="AB23" t="n">
         <v>-0.1582416444502937</v>
       </c>
+      <c r="AC23" t="n">
+        <v>-0.1653046345921098</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2496,6 +2565,9 @@
       <c r="AB24" t="n">
         <v>1.004121173922083</v>
       </c>
+      <c r="AC24" t="n">
+        <v>1.009874938254934</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2582,6 +2654,9 @@
       <c r="AB25" t="n">
         <v>0.3123013825437284</v>
       </c>
+      <c r="AC25" t="n">
+        <v>0.3148943221689113</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2668,6 +2743,9 @@
       <c r="AB26" t="n">
         <v>0.1228810036172027</v>
       </c>
+      <c r="AC26" t="n">
+        <v>0.1244921892802629</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2754,6 +2832,9 @@
       <c r="AB27" t="n">
         <v>0.02310706842225833</v>
       </c>
+      <c r="AC27" t="n">
+        <v>0.0255340603662727</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2840,6 +2921,9 @@
       <c r="AB28" t="n">
         <v>0.8040421781547016</v>
       </c>
+      <c r="AC28" t="n">
+        <v>0.8090570511406594</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2926,6 +3010,9 @@
       <c r="AB29" t="n">
         <v>1.431255287172333</v>
       </c>
+      <c r="AC29" t="n">
+        <v>1.452290794482584</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3012,6 +3099,9 @@
       <c r="AB30" t="n">
         <v>0.6467901333044327</v>
       </c>
+      <c r="AC30" t="n">
+        <v>0.6507262377701256</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3098,6 +3188,9 @@
       <c r="AB31" t="n">
         <v>-0.4421423215712076</v>
       </c>
+      <c r="AC31" t="n">
+        <v>-0.4384233720072805</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3184,6 +3277,9 @@
       <c r="AB32" t="n">
         <v>0.5354426989506844</v>
       </c>
+      <c r="AC32" t="n">
+        <v>0.5383350452357561</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3270,6 +3366,9 @@
       <c r="AB33" t="n">
         <v>0.7537042262410759</v>
       </c>
+      <c r="AC33" t="n">
+        <v>0.7561107892095866</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3356,6 +3455,9 @@
       <c r="AB34" t="n">
         <v>-0.8528175248766101</v>
       </c>
+      <c r="AC34" t="n">
+        <v>-0.8510749406326601</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3442,6 +3544,9 @@
       <c r="AB35" t="n">
         <v>0.8120069736634201</v>
       </c>
+      <c r="AC35" t="n">
+        <v>0.814594272677211</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3528,6 +3633,9 @@
       <c r="AB36" t="n">
         <v>0.7778974720104535</v>
       </c>
+      <c r="AC36" t="n">
+        <v>0.7815939123132128</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3614,6 +3722,9 @@
       <c r="AB37" t="n">
         <v>0.7431452447545985</v>
       </c>
+      <c r="AC37" t="n">
+        <v>0.7470293584154301</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3700,6 +3811,9 @@
       <c r="AB38" t="n">
         <v>0.6498644170297558</v>
       </c>
+      <c r="AC38" t="n">
+        <v>0.6519583976439614</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3786,6 +3900,9 @@
       <c r="AB39" t="n">
         <v>0.6065992824124691</v>
       </c>
+      <c r="AC39" t="n">
+        <v>0.6081132733588482</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3872,6 +3989,9 @@
       <c r="AB40" t="n">
         <v>0.7743634826549053</v>
       </c>
+      <c r="AC40" t="n">
+        <v>0.7767392136285879</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3958,6 +4078,9 @@
       <c r="AB41" t="n">
         <v>0.5805160705000919</v>
       </c>
+      <c r="AC41" t="n">
+        <v>0.5817351828605871</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4044,6 +4167,9 @@
       <c r="AB42" t="n">
         <v>0.631166808310319</v>
       </c>
+      <c r="AC42" t="n">
+        <v>0.6352059959816084</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4130,6 +4256,9 @@
       <c r="AB43" t="n">
         <v>0.6811124835104384</v>
       </c>
+      <c r="AC43" t="n">
+        <v>0.6830477560635041</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4216,6 +4345,9 @@
       <c r="AB44" t="n">
         <v>0.7070806636142916</v>
       </c>
+      <c r="AC44" t="n">
+        <v>0.7090885013480918</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4302,6 +4434,9 @@
       <c r="AB45" t="n">
         <v>0.7128788297359958</v>
       </c>
+      <c r="AC45" t="n">
+        <v>0.7173940242737112</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4388,6 +4523,9 @@
       <c r="AB46" t="n">
         <v>-1.332129816211611</v>
       </c>
+      <c r="AC46" t="n">
+        <v>-1.335645331454862</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4474,6 +4612,9 @@
       <c r="AB47" t="n">
         <v>-1.03901137315625</v>
       </c>
+      <c r="AC47" t="n">
+        <v>-1.041707987735478</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4560,6 +4701,9 @@
       <c r="AB48" t="n">
         <v>-0.8984315412480127</v>
       </c>
+      <c r="AC48" t="n">
+        <v>-0.9009300620019116</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4646,6 +4790,9 @@
       <c r="AB49" t="n">
         <v>-0.6604780380190964</v>
       </c>
+      <c r="AC49" t="n">
+        <v>-0.6626970962095354</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4732,6 +4879,9 @@
       <c r="AB50" t="n">
         <v>-0.08307618533595179</v>
       </c>
+      <c r="AC50" t="n">
+        <v>-0.08460505769130242</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4818,6 +4968,9 @@
       <c r="AB51" t="n">
         <v>-0.8756525982448312</v>
       </c>
+      <c r="AC51" t="n">
+        <v>-0.877397727179036</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4904,6 +5057,9 @@
       <c r="AB52" t="n">
         <v>-0.8756525982448312</v>
       </c>
+      <c r="AC52" t="n">
+        <v>-0.877397727179036</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4990,6 +5146,9 @@
       <c r="AB53" t="n">
         <v>-1.168541166985073</v>
       </c>
+      <c r="AC53" t="n">
+        <v>-1.171502060053172</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5076,6 +5235,9 @@
       <c r="AB54" t="n">
         <v>-0.1922809665967982</v>
       </c>
+      <c r="AC54" t="n">
+        <v>-0.1940344262742892</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5162,6 +5324,9 @@
       <c r="AB55" t="n">
         <v>-1.062580031911964</v>
       </c>
+      <c r="AC55" t="n">
+        <v>-1.065536771540973</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5248,6 +5413,9 @@
       <c r="AB56" t="n">
         <v>-0.9367286837524037</v>
       </c>
+      <c r="AC56" t="n">
+        <v>-0.9393557805531636</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5334,6 +5502,9 @@
       <c r="AB57" t="n">
         <v>-0.9919349782944388</v>
       </c>
+      <c r="AC57" t="n">
+        <v>-0.9976949239959664</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5420,6 +5591,9 @@
       <c r="AB58" t="n">
         <v>-1.133274036113417</v>
       </c>
+      <c r="AC58" t="n">
+        <v>-1.13899681173353</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5506,6 +5680,9 @@
       <c r="AB59" t="n">
         <v>-0.819992601391088</v>
       </c>
+      <c r="AC59" t="n">
+        <v>-0.8237189118659152</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5592,6 +5769,9 @@
       <c r="AB60" t="n">
         <v>-0.4536514727741887</v>
       </c>
+      <c r="AC60" t="n">
+        <v>-0.4575596933086279</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5678,6 +5858,9 @@
       <c r="AB61" t="n">
         <v>0.3780091029903823</v>
       </c>
+      <c r="AC61" t="n">
+        <v>0.3770753932285597</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5764,6 +5947,9 @@
       <c r="AB62" t="n">
         <v>-1.258238892500738</v>
       </c>
+      <c r="AC62" t="n">
+        <v>-1.265081115300814</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5850,6 +6036,9 @@
       <c r="AB63" t="n">
         <v>-0.5742514965986891</v>
       </c>
+      <c r="AC63" t="n">
+        <v>-0.5774920082177036</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5936,6 +6125,9 @@
       <c r="AB64" t="n">
         <v>-0.8849876607667764</v>
       </c>
+      <c r="AC64" t="n">
+        <v>-0.8899429646873334</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6022,6 +6214,9 @@
       <c r="AB65" t="n">
         <v>-0.06030297867648256</v>
       </c>
+      <c r="AC65" t="n">
+        <v>-0.0632998199910447</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6108,6 +6303,9 @@
       <c r="AB66" t="n">
         <v>-0.8245401726719627</v>
       </c>
+      <c r="AC66" t="n">
+        <v>-0.8298928642295139</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6193,6 +6391,9 @@
       </c>
       <c r="AB67" t="n">
         <v>-0.8115290169365078</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>-0.8170713647809829</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC67"/>
+  <dimension ref="A1:AD67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,6 +521,9 @@
       <c r="AC1" s="1" t="n">
         <v>28</v>
       </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -610,6 +613,9 @@
       <c r="AC2" t="n">
         <v>-0.2401720012456233</v>
       </c>
+      <c r="AD2" t="n">
+        <v>-0.2430633926551105</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -699,6 +705,9 @@
       <c r="AC3" t="n">
         <v>0.2446165399640128</v>
       </c>
+      <c r="AD3" t="n">
+        <v>0.2416304232381332</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -788,6 +797,9 @@
       <c r="AC4" t="n">
         <v>0.2296144108687314</v>
       </c>
+      <c r="AD4" t="n">
+        <v>0.226917074505318</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -877,6 +889,9 @@
       <c r="AC5" t="n">
         <v>-0.06900886670999069</v>
       </c>
+      <c r="AD5" t="n">
+        <v>-0.07150775970905002</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -966,6 +981,9 @@
       <c r="AC6" t="n">
         <v>0.1937637060537551</v>
       </c>
+      <c r="AD6" t="n">
+        <v>0.1912458434177559</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1055,6 +1073,9 @@
       <c r="AC7" t="n">
         <v>-0.3967444033650566</v>
       </c>
+      <c r="AD7" t="n">
+        <v>-0.3998360635132319</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1144,6 +1165,9 @@
       <c r="AC8" t="n">
         <v>-0.1346038370170251</v>
       </c>
+      <c r="AD8" t="n">
+        <v>-0.1363383376396143</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1233,6 +1257,9 @@
       <c r="AC9" t="n">
         <v>-0.3100839861843546</v>
       </c>
+      <c r="AD9" t="n">
+        <v>-0.3142679877687708</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1322,6 +1349,9 @@
       <c r="AC10" t="n">
         <v>0.3939651172328251</v>
       </c>
+      <c r="AD10" t="n">
+        <v>0.3916767687289216</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1411,6 +1441,9 @@
       <c r="AC11" t="n">
         <v>-0.2032818131831138</v>
       </c>
+      <c r="AD11" t="n">
+        <v>-0.2058210372011489</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1500,6 +1533,9 @@
       <c r="AC12" t="n">
         <v>-0.09610739033790007</v>
       </c>
+      <c r="AD12" t="n">
+        <v>-0.1008165351619447</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1589,6 +1625,9 @@
       <c r="AC13" t="n">
         <v>-0.05441974449532708</v>
       </c>
+      <c r="AD13" t="n">
+        <v>-0.05637003030854797</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1678,6 +1717,9 @@
       <c r="AC14" t="n">
         <v>0.0580007979627335</v>
       </c>
+      <c r="AD14" t="n">
+        <v>0.05043477884582521</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1767,6 +1809,9 @@
       <c r="AC15" t="n">
         <v>-0.09053529438665062</v>
       </c>
+      <c r="AD15" t="n">
+        <v>-0.09978166118861898</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1856,6 +1901,9 @@
       <c r="AC16" t="n">
         <v>0.3296758112801801</v>
       </c>
+      <c r="AD16" t="n">
+        <v>0.3186564465588139</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1945,6 +1993,9 @@
       <c r="AC17" t="n">
         <v>0.4383578407425014</v>
       </c>
+      <c r="AD17" t="n">
+        <v>0.4307946250811149</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2034,6 +2085,9 @@
       <c r="AC18" t="n">
         <v>-0.1544829009934061</v>
       </c>
+      <c r="AD18" t="n">
+        <v>-0.157935828068976</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2123,6 +2177,9 @@
       <c r="AC19" t="n">
         <v>0.2982633466020733</v>
       </c>
+      <c r="AD19" t="n">
+        <v>0.293232483650131</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2212,6 +2269,9 @@
       <c r="AC20" t="n">
         <v>0.2189152827330665</v>
       </c>
+      <c r="AD20" t="n">
+        <v>0.2080149569397239</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2301,6 +2361,9 @@
       <c r="AC21" t="n">
         <v>0.4953062849516935</v>
       </c>
+      <c r="AD21" t="n">
+        <v>0.4881517199877877</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2390,6 +2453,9 @@
       <c r="AC22" t="n">
         <v>0.2642100542519072</v>
       </c>
+      <c r="AD22" t="n">
+        <v>0.2570689570361552</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2479,6 +2545,9 @@
       <c r="AC23" t="n">
         <v>-0.1653046345921098</v>
       </c>
+      <c r="AD23" t="n">
+        <v>-0.1715265094339289</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2568,6 +2637,9 @@
       <c r="AC24" t="n">
         <v>1.009874938254934</v>
       </c>
+      <c r="AD24" t="n">
+        <v>1.022249475240835</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2657,6 +2729,9 @@
       <c r="AC25" t="n">
         <v>0.3148943221689113</v>
       </c>
+      <c r="AD25" t="n">
+        <v>0.3173278942646909</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2746,6 +2821,9 @@
       <c r="AC26" t="n">
         <v>0.1244921892802629</v>
       </c>
+      <c r="AD26" t="n">
+        <v>0.1262229525991306</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2835,6 +2913,9 @@
       <c r="AC27" t="n">
         <v>0.0255340603662727</v>
       </c>
+      <c r="AD27" t="n">
+        <v>0.02804929935448963</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2924,6 +3005,9 @@
       <c r="AC28" t="n">
         <v>0.8090570511406594</v>
       </c>
+      <c r="AD28" t="n">
+        <v>0.8140563554170875</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3013,6 +3097,9 @@
       <c r="AC29" t="n">
         <v>1.452290794482584</v>
       </c>
+      <c r="AD29" t="n">
+        <v>1.475601131209798</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3102,6 +3189,9 @@
       <c r="AC30" t="n">
         <v>0.6507262377701256</v>
       </c>
+      <c r="AD30" t="n">
+        <v>0.6545618815083993</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3191,6 +3281,9 @@
       <c r="AC31" t="n">
         <v>-0.4384233720072805</v>
       </c>
+      <c r="AD31" t="n">
+        <v>-0.4351172285758081</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3280,6 +3373,9 @@
       <c r="AC32" t="n">
         <v>0.5383350452357561</v>
       </c>
+      <c r="AD32" t="n">
+        <v>0.5412207320335174</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3369,6 +3465,9 @@
       <c r="AC33" t="n">
         <v>0.7561107892095866</v>
       </c>
+      <c r="AD33" t="n">
+        <v>0.7584422439415177</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3458,6 +3557,9 @@
       <c r="AC34" t="n">
         <v>-0.8510749406326601</v>
       </c>
+      <c r="AD34" t="n">
+        <v>-0.8494624643895821</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3547,6 +3649,9 @@
       <c r="AC35" t="n">
         <v>0.814594272677211</v>
       </c>
+      <c r="AD35" t="n">
+        <v>0.8169796480334797</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3636,6 +3741,9 @@
       <c r="AC36" t="n">
         <v>0.7815939123132128</v>
       </c>
+      <c r="AD36" t="n">
+        <v>0.784912549093621</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3725,6 +3833,9 @@
       <c r="AC37" t="n">
         <v>0.7470293584154301</v>
       </c>
+      <c r="AD37" t="n">
+        <v>0.7505200708480335</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3814,6 +3925,9 @@
       <c r="AC38" t="n">
         <v>0.6519583976439614</v>
       </c>
+      <c r="AD38" t="n">
+        <v>0.6538847322044016</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3903,6 +4017,9 @@
       <c r="AC39" t="n">
         <v>0.6081132733588482</v>
       </c>
+      <c r="AD39" t="n">
+        <v>0.6094494925806889</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3992,6 +4109,9 @@
       <c r="AC40" t="n">
         <v>0.7767392136285879</v>
       </c>
+      <c r="AD40" t="n">
+        <v>0.7789417895459598</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4081,6 +4201,9 @@
       <c r="AC41" t="n">
         <v>0.5817351828605871</v>
       </c>
+      <c r="AD41" t="n">
+        <v>0.5827753709597235</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4170,6 +4293,9 @@
       <c r="AC42" t="n">
         <v>0.6352059959816084</v>
       </c>
+      <c r="AD42" t="n">
+        <v>0.6388574604291567</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4259,6 +4385,9 @@
       <c r="AC43" t="n">
         <v>0.6830477560635041</v>
       </c>
+      <c r="AD43" t="n">
+        <v>0.6847911186759184</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4348,6 +4477,9 @@
       <c r="AC44" t="n">
         <v>0.7090885013480918</v>
       </c>
+      <c r="AD44" t="n">
+        <v>0.7108544352184255</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4437,6 +4569,9 @@
       <c r="AC45" t="n">
         <v>0.7173940242737112</v>
       </c>
+      <c r="AD45" t="n">
+        <v>0.7213707725129239</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4526,6 +4661,9 @@
       <c r="AC46" t="n">
         <v>-1.335645331454862</v>
       </c>
+      <c r="AD46" t="n">
+        <v>-1.339148194552278</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4615,6 +4753,9 @@
       <c r="AC47" t="n">
         <v>-1.041707987735478</v>
       </c>
+      <c r="AD47" t="n">
+        <v>-1.044417259344624</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4704,6 +4845,9 @@
       <c r="AC48" t="n">
         <v>-0.9009300620019116</v>
       </c>
+      <c r="AD48" t="n">
+        <v>-0.9035336669341339</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4793,6 +4937,9 @@
       <c r="AC49" t="n">
         <v>-0.6626970962095354</v>
       </c>
+      <c r="AD49" t="n">
+        <v>-0.6649820372752003</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4882,6 +5029,9 @@
       <c r="AC50" t="n">
         <v>-0.08460505769130242</v>
       </c>
+      <c r="AD50" t="n">
+        <v>-0.08610723073271448</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4971,6 +5121,9 @@
       <c r="AC51" t="n">
         <v>-0.877397727179036</v>
       </c>
+      <c r="AD51" t="n">
+        <v>-0.8792808112483458</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5060,6 +5213,9 @@
       <c r="AC52" t="n">
         <v>-0.877397727179036</v>
       </c>
+      <c r="AD52" t="n">
+        <v>-0.8792808112483458</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5149,6 +5305,9 @@
       <c r="AC53" t="n">
         <v>-1.171502060053172</v>
       </c>
+      <c r="AD53" t="n">
+        <v>-1.174572548715862</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5238,6 +5397,9 @@
       <c r="AC54" t="n">
         <v>-0.1940344262742892</v>
       </c>
+      <c r="AD54" t="n">
+        <v>-0.1958074456633133</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5327,6 +5489,9 @@
       <c r="AC55" t="n">
         <v>-1.065536771540973</v>
       </c>
+      <c r="AD55" t="n">
+        <v>-1.068490035699857</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5416,6 +5581,9 @@
       <c r="AC56" t="n">
         <v>-0.9393557805531636</v>
       </c>
+      <c r="AD56" t="n">
+        <v>-0.9418932758257061</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5505,6 +5673,9 @@
       <c r="AC57" t="n">
         <v>-0.9976949239959664</v>
       </c>
+      <c r="AD57" t="n">
+        <v>-1.003109940593405</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5594,6 +5765,9 @@
       <c r="AC58" t="n">
         <v>-1.13899681173353</v>
       </c>
+      <c r="AD58" t="n">
+        <v>-1.144358795647021</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5683,6 +5857,9 @@
       <c r="AC59" t="n">
         <v>-0.8237189118659152</v>
       </c>
+      <c r="AD59" t="n">
+        <v>-0.8273591382903195</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5772,6 +5949,9 @@
       <c r="AC60" t="n">
         <v>-0.4575596933086279</v>
       </c>
+      <c r="AD60" t="n">
+        <v>-0.4612511437543193</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5861,6 +6041,9 @@
       <c r="AC61" t="n">
         <v>0.3770753932285597</v>
       </c>
+      <c r="AD61" t="n">
+        <v>0.3761657103992373</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5950,6 +6133,9 @@
       <c r="AC62" t="n">
         <v>-1.265081115300814</v>
       </c>
+      <c r="AD62" t="n">
+        <v>-1.271504578163769</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6039,6 +6225,9 @@
       <c r="AC63" t="n">
         <v>-0.5774920082177036</v>
       </c>
+      <c r="AD63" t="n">
+        <v>-0.5807258483714035</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6128,6 +6317,9 @@
       <c r="AC64" t="n">
         <v>-0.8899429646873334</v>
       </c>
+      <c r="AD64" t="n">
+        <v>-0.8948075223212733</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6217,6 +6409,9 @@
       <c r="AC65" t="n">
         <v>-0.0632998199910447</v>
       </c>
+      <c r="AD65" t="n">
+        <v>-0.06612411090623597</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6306,6 +6501,9 @@
       <c r="AC66" t="n">
         <v>-0.8298928642295139</v>
       </c>
+      <c r="AD66" t="n">
+        <v>-0.8348135121158141</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6394,6 +6592,9 @@
       </c>
       <c r="AC67" t="n">
         <v>-0.8170713647809829</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>-0.822054653401488</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD67"/>
+  <dimension ref="A1:AE67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,9 @@
       <c r="AD1" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -616,6 +619,9 @@
       <c r="AD2" t="n">
         <v>-0.2430633926551105</v>
       </c>
+      <c r="AE2" t="n">
+        <v>-0.2458474340319679</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -708,6 +714,9 @@
       <c r="AD3" t="n">
         <v>0.2416304232381332</v>
       </c>
+      <c r="AE3" t="n">
+        <v>0.238825546327818</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -800,6 +809,9 @@
       <c r="AD4" t="n">
         <v>0.226917074505318</v>
       </c>
+      <c r="AE4" t="n">
+        <v>0.2242904637629517</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -892,6 +904,9 @@
       <c r="AD5" t="n">
         <v>-0.07150775970905002</v>
       </c>
+      <c r="AE5" t="n">
+        <v>-0.07384637102300562</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -984,6 +999,9 @@
       <c r="AD6" t="n">
         <v>0.1912458434177559</v>
       </c>
+      <c r="AE6" t="n">
+        <v>0.1889315949742838</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1076,6 +1094,9 @@
       <c r="AD7" t="n">
         <v>-0.3998360635132319</v>
       </c>
+      <c r="AE7" t="n">
+        <v>-0.4028545380220347</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1168,6 +1189,9 @@
       <c r="AD8" t="n">
         <v>-0.1363383376396143</v>
       </c>
+      <c r="AE8" t="n">
+        <v>-0.1381207544749465</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1260,6 +1284,9 @@
       <c r="AD9" t="n">
         <v>-0.3142679877687708</v>
       </c>
+      <c r="AE9" t="n">
+        <v>-0.3183451539031294</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1352,6 +1379,9 @@
       <c r="AD10" t="n">
         <v>0.3916767687289216</v>
       </c>
+      <c r="AE10" t="n">
+        <v>0.389577610214746</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1444,6 +1474,9 @@
       <c r="AD11" t="n">
         <v>-0.2058210372011489</v>
       </c>
+      <c r="AE11" t="n">
+        <v>-0.2082828856554915</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1536,6 +1569,9 @@
       <c r="AD12" t="n">
         <v>-0.1008165351619447</v>
       </c>
+      <c r="AE12" t="n">
+        <v>-0.1050931099831088</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1628,6 +1664,9 @@
       <c r="AD13" t="n">
         <v>-0.05637003030854797</v>
       </c>
+      <c r="AE13" t="n">
+        <v>-0.05820254445583871</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1720,6 +1759,9 @@
       <c r="AD14" t="n">
         <v>0.05043477884582521</v>
       </c>
+      <c r="AE14" t="n">
+        <v>0.04366799271193604</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1812,6 +1854,9 @@
       <c r="AD15" t="n">
         <v>-0.09978166118861898</v>
       </c>
+      <c r="AE15" t="n">
+        <v>-0.1079782975712718</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1904,6 +1949,9 @@
       <c r="AD16" t="n">
         <v>0.3186564465588139</v>
       </c>
+      <c r="AE16" t="n">
+        <v>0.3089059643356205</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1996,6 +2044,9 @@
       <c r="AD17" t="n">
         <v>0.4307946250811149</v>
       </c>
+      <c r="AE17" t="n">
+        <v>0.4242902554872715</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2088,6 +2139,9 @@
       <c r="AD18" t="n">
         <v>-0.157935828068976</v>
       </c>
+      <c r="AE18" t="n">
+        <v>-0.161033108733428</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2180,6 +2234,9 @@
       <c r="AD19" t="n">
         <v>0.293232483650131</v>
       </c>
+      <c r="AE19" t="n">
+        <v>0.2887462337319305</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2272,6 +2329,9 @@
       <c r="AD20" t="n">
         <v>0.2080149569397239</v>
       </c>
+      <c r="AE20" t="n">
+        <v>0.1984174901618882</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2364,6 +2424,9 @@
       <c r="AD21" t="n">
         <v>0.4881517199877877</v>
       </c>
+      <c r="AE21" t="n">
+        <v>0.4820019953563542</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2456,6 +2519,9 @@
       <c r="AD22" t="n">
         <v>0.2570689570361552</v>
       </c>
+      <c r="AE22" t="n">
+        <v>0.2508916861427112</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2548,6 +2614,9 @@
       <c r="AD23" t="n">
         <v>-0.1715265094339289</v>
       </c>
+      <c r="AE23" t="n">
+        <v>-0.176942505620397</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2640,6 +2709,9 @@
       <c r="AD24" t="n">
         <v>1.022249475240835</v>
       </c>
+      <c r="AE24" t="n">
+        <v>1.039987146830702</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2732,6 +2804,9 @@
       <c r="AD25" t="n">
         <v>0.3173278942646909</v>
       </c>
+      <c r="AE25" t="n">
+        <v>0.3195830149463699</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2824,6 +2899,9 @@
       <c r="AD26" t="n">
         <v>0.1262229525991306</v>
       </c>
+      <c r="AE26" t="n">
+        <v>0.1280171413860285</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2916,6 +2994,9 @@
       <c r="AD27" t="n">
         <v>0.02804929935448963</v>
       </c>
+      <c r="AE27" t="n">
+        <v>0.03059102086155688</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3008,6 +3089,9 @@
       <c r="AD28" t="n">
         <v>0.8140563554170875</v>
       </c>
+      <c r="AE28" t="n">
+        <v>0.8189672068333883</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3100,6 +3184,9 @@
       <c r="AD29" t="n">
         <v>1.475601131209798</v>
       </c>
+      <c r="AE29" t="n">
+        <v>1.500360244485163</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3192,6 +3279,9 @@
       <c r="AD30" t="n">
         <v>0.6545618815083993</v>
       </c>
+      <c r="AE30" t="n">
+        <v>0.6582418867507571</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3284,6 +3374,9 @@
       <c r="AD31" t="n">
         <v>-0.4351172285758081</v>
       </c>
+      <c r="AE31" t="n">
+        <v>-0.4322325040703058</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3376,6 +3469,9 @@
       <c r="AD32" t="n">
         <v>0.5412207320335174</v>
       </c>
+      <c r="AE32" t="n">
+        <v>0.5440476054934472</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3468,6 +3564,9 @@
       <c r="AD33" t="n">
         <v>0.7584422439415177</v>
       </c>
+      <c r="AE33" t="n">
+        <v>0.7606690568887692</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3560,6 +3659,9 @@
       <c r="AD34" t="n">
         <v>-0.8494624643895821</v>
       </c>
+      <c r="AE34" t="n">
+        <v>-0.8480065675000481</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3652,6 +3754,9 @@
       <c r="AD35" t="n">
         <v>0.8169796480334797</v>
       </c>
+      <c r="AE35" t="n">
+        <v>0.8191585679900424</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3744,6 +3849,9 @@
       <c r="AD36" t="n">
         <v>0.784912549093621</v>
       </c>
+      <c r="AE36" t="n">
+        <v>0.7878589554796241</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3836,6 +3944,9 @@
       <c r="AD37" t="n">
         <v>0.7505200708480335</v>
       </c>
+      <c r="AE37" t="n">
+        <v>0.7536223285839089</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3928,6 +4039,9 @@
       <c r="AD38" t="n">
         <v>0.6538847322044016</v>
       </c>
+      <c r="AE38" t="n">
+        <v>0.6556358687245125</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4020,6 +4134,9 @@
       <c r="AD39" t="n">
         <v>0.6094494925806889</v>
       </c>
+      <c r="AE39" t="n">
+        <v>0.6106127203183217</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4112,6 +4229,9 @@
       <c r="AD40" t="n">
         <v>0.7789417895459598</v>
       </c>
+      <c r="AE40" t="n">
+        <v>0.7809665092924855</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4204,6 +4324,9 @@
       <c r="AD41" t="n">
         <v>0.5827753709597235</v>
       </c>
+      <c r="AE41" t="n">
+        <v>0.583648731111717</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4296,6 +4419,9 @@
       <c r="AD42" t="n">
         <v>0.6388574604291567</v>
       </c>
+      <c r="AE42" t="n">
+        <v>0.6421174802096484</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4388,6 +4514,9 @@
       <c r="AD43" t="n">
         <v>0.6847911186759184</v>
       </c>
+      <c r="AE43" t="n">
+        <v>0.6863427789927949</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4480,6 +4609,9 @@
       <c r="AD44" t="n">
         <v>0.7108544352184255</v>
       </c>
+      <c r="AE44" t="n">
+        <v>0.7123881187370792</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4572,6 +4704,9 @@
       <c r="AD45" t="n">
         <v>0.7213707725129239</v>
       </c>
+      <c r="AE45" t="n">
+        <v>0.7248268225482186</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4664,6 +4799,9 @@
       <c r="AD46" t="n">
         <v>-1.339148194552278</v>
       </c>
+      <c r="AE46" t="n">
+        <v>-1.342624721339591</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4756,6 +4894,9 @@
       <c r="AD47" t="n">
         <v>-1.044417259344624</v>
       </c>
+      <c r="AE47" t="n">
+        <v>-1.047127804634322</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4848,6 +4989,9 @@
       <c r="AD48" t="n">
         <v>-0.9035336669341339</v>
       </c>
+      <c r="AE48" t="n">
+        <v>-0.9062189683575018</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4940,6 +5084,9 @@
       <c r="AD49" t="n">
         <v>-0.6649820372752003</v>
       </c>
+      <c r="AE49" t="n">
+        <v>-0.6673143609205267</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5032,6 +5179,9 @@
       <c r="AD50" t="n">
         <v>-0.08610723073271448</v>
       </c>
+      <c r="AE50" t="n">
+        <v>-0.08757986132894054</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5124,6 +5274,9 @@
       <c r="AD51" t="n">
         <v>-0.8792808112483458</v>
       </c>
+      <c r="AE51" t="n">
+        <v>-0.8812804487365964</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5216,6 +5369,9 @@
       <c r="AD52" t="n">
         <v>-0.8792808112483458</v>
       </c>
+      <c r="AE52" t="n">
+        <v>-0.8812804487365964</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5308,6 +5464,9 @@
       <c r="AD53" t="n">
         <v>-1.174572548715862</v>
       </c>
+      <c r="AE53" t="n">
+        <v>-1.177729478663577</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5400,6 +5559,9 @@
       <c r="AD54" t="n">
         <v>-0.1958074456633133</v>
       </c>
+      <c r="AE54" t="n">
+        <v>-0.1975882424742279</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5492,6 +5654,9 @@
       <c r="AD55" t="n">
         <v>-1.068490035699857</v>
       </c>
+      <c r="AE55" t="n">
+        <v>-1.071428876627398</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5584,6 +5749,9 @@
       <c r="AD56" t="n">
         <v>-0.9418932758257061</v>
       </c>
+      <c r="AE56" t="n">
+        <v>-0.9443419641863928</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5676,6 +5844,9 @@
       <c r="AD57" t="n">
         <v>-1.003109940593405</v>
       </c>
+      <c r="AE57" t="n">
+        <v>-1.008176870286435</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5768,6 +5939,9 @@
       <c r="AD58" t="n">
         <v>-1.144358795647021</v>
       </c>
+      <c r="AE58" t="n">
+        <v>-1.149355145830716</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5860,6 +6034,9 @@
       <c r="AD59" t="n">
         <v>-0.8273591382903195</v>
       </c>
+      <c r="AE59" t="n">
+        <v>-0.8308934925528525</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5952,6 +6129,9 @@
       <c r="AD60" t="n">
         <v>-0.4612511437543193</v>
       </c>
+      <c r="AE60" t="n">
+        <v>-0.4647144407751909</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6044,6 +6224,9 @@
       <c r="AD61" t="n">
         <v>0.3761657103992373</v>
       </c>
+      <c r="AE61" t="n">
+        <v>0.3752851769724175</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6136,6 +6319,9 @@
       <c r="AD62" t="n">
         <v>-1.271504578163769</v>
       </c>
+      <c r="AE62" t="n">
+        <v>-1.27750550203408</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6228,6 +6414,9 @@
       <c r="AD63" t="n">
         <v>-0.5807258483714035</v>
       </c>
+      <c r="AE63" t="n">
+        <v>-0.5839141530480744</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6320,6 +6509,9 @@
       <c r="AD64" t="n">
         <v>-0.8948075223212733</v>
       </c>
+      <c r="AE64" t="n">
+        <v>-0.8995482154447118</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6412,6 +6604,9 @@
       <c r="AD65" t="n">
         <v>-0.06612411090623597</v>
       </c>
+      <c r="AE65" t="n">
+        <v>-0.06876736734018324</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6504,6 +6699,9 @@
       <c r="AD66" t="n">
         <v>-0.8348135121158141</v>
       </c>
+      <c r="AE66" t="n">
+        <v>-0.8393114519765984</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6595,6 +6793,9 @@
       </c>
       <c r="AD67" t="n">
         <v>-0.822054653401488</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>-0.826505041539467</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE67"/>
+  <dimension ref="A1:AF67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,6 +527,9 @@
       <c r="AE1" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -622,6 +625,9 @@
       <c r="AE2" t="n">
         <v>-0.2458474340319679</v>
       </c>
+      <c r="AF2" t="n">
+        <v>-0.248506778354853</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -717,6 +723,9 @@
       <c r="AE3" t="n">
         <v>0.238825546327818</v>
       </c>
+      <c r="AF3" t="n">
+        <v>0.2362151503755189</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -812,6 +821,9 @@
       <c r="AE4" t="n">
         <v>0.2242904637629517</v>
       </c>
+      <c r="AF4" t="n">
+        <v>0.2217588706404525</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -907,6 +919,9 @@
       <c r="AE5" t="n">
         <v>-0.07384637102300562</v>
       </c>
+      <c r="AF5" t="n">
+        <v>-0.07602128060698285</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1002,6 +1017,9 @@
       <c r="AE6" t="n">
         <v>0.1889315949742838</v>
       </c>
+      <c r="AF6" t="n">
+        <v>0.186825991671545</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1097,6 +1115,9 @@
       <c r="AE7" t="n">
         <v>-0.4028545380220347</v>
       </c>
+      <c r="AF7" t="n">
+        <v>-0.4057777415956698</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1192,6 +1213,9 @@
       <c r="AE8" t="n">
         <v>-0.1381207544749465</v>
       </c>
+      <c r="AF8" t="n">
+        <v>-0.1399206533600861</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1287,6 +1311,9 @@
       <c r="AE9" t="n">
         <v>-0.3183451539031294</v>
       </c>
+      <c r="AF9" t="n">
+        <v>-0.3222765902105497</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1382,6 +1409,9 @@
       <c r="AE10" t="n">
         <v>0.389577610214746</v>
       </c>
+      <c r="AF10" t="n">
+        <v>0.3876691534470325</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1477,6 +1507,9 @@
       <c r="AE11" t="n">
         <v>-0.2082828856554915</v>
       </c>
+      <c r="AF11" t="n">
+        <v>-0.210653238401838</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1572,6 +1605,9 @@
       <c r="AE12" t="n">
         <v>-0.1050931099831088</v>
       </c>
+      <c r="AF12" t="n">
+        <v>-0.1089455926157469</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1667,6 +1703,9 @@
       <c r="AE13" t="n">
         <v>-0.05820254445583871</v>
       </c>
+      <c r="AF13" t="n">
+        <v>-0.05991792944007414</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1762,6 +1801,9 @@
       <c r="AE14" t="n">
         <v>0.04366799271193604</v>
       </c>
+      <c r="AF14" t="n">
+        <v>0.03768344348756263</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1857,6 +1899,9 @@
       <c r="AE15" t="n">
         <v>-0.1079782975712718</v>
       </c>
+      <c r="AF15" t="n">
+        <v>-0.1151634687310099</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1952,6 +1997,9 @@
       <c r="AE16" t="n">
         <v>0.3089059643356205</v>
       </c>
+      <c r="AF16" t="n">
+        <v>0.3003865257963196</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2047,6 +2095,9 @@
       <c r="AE17" t="n">
         <v>0.4242902554872715</v>
       </c>
+      <c r="AF17" t="n">
+        <v>0.4187845071782731</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2142,6 +2193,9 @@
       <c r="AE18" t="n">
         <v>-0.161033108733428</v>
       </c>
+      <c r="AF18" t="n">
+        <v>-0.1637947020851251</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2237,6 +2291,9 @@
       <c r="AE19" t="n">
         <v>0.2887462337319305</v>
       </c>
+      <c r="AF19" t="n">
+        <v>0.284780463370085</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2332,6 +2389,9 @@
       <c r="AE20" t="n">
         <v>0.1984174901618882</v>
       </c>
+      <c r="AF20" t="n">
+        <v>0.190073091590017</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2427,6 +2487,9 @@
       <c r="AE21" t="n">
         <v>0.4820019953563542</v>
       </c>
+      <c r="AF21" t="n">
+        <v>0.4768043969234861</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2522,6 +2585,9 @@
       <c r="AE22" t="n">
         <v>0.2508916861427112</v>
       </c>
+      <c r="AF22" t="n">
+        <v>0.2456280158315492</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2617,6 +2683,9 @@
       <c r="AE23" t="n">
         <v>-0.176942505620397</v>
       </c>
+      <c r="AF23" t="n">
+        <v>-0.1815961993838124</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2712,6 +2781,9 @@
       <c r="AE24" t="n">
         <v>1.039987146830702</v>
       </c>
+      <c r="AF24" t="n">
+        <v>1.061929868109094</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2807,6 +2879,9 @@
       <c r="AE25" t="n">
         <v>0.3195830149463699</v>
       </c>
+      <c r="AF25" t="n">
+        <v>0.321647443816871</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2902,6 +2977,9 @@
       <c r="AE26" t="n">
         <v>0.1280171413860285</v>
       </c>
+      <c r="AF26" t="n">
+        <v>0.1298266541185246</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2997,6 +3075,9 @@
       <c r="AE27" t="n">
         <v>0.03059102086155688</v>
       </c>
+      <c r="AF27" t="n">
+        <v>0.03310729137430696</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3092,6 +3173,9 @@
       <c r="AE28" t="n">
         <v>0.8189672068333883</v>
       </c>
+      <c r="AF28" t="n">
+        <v>0.8237295933159369</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3187,6 +3271,9 @@
       <c r="AE29" t="n">
         <v>1.500360244485163</v>
       </c>
+      <c r="AF29" t="n">
+        <v>1.525856321559134</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3282,6 +3369,9 @@
       <c r="AE30" t="n">
         <v>0.6582418867507571</v>
       </c>
+      <c r="AF30" t="n">
+        <v>0.6617233970761789</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3377,6 +3467,9 @@
       <c r="AE31" t="n">
         <v>-0.4322325040703058</v>
       </c>
+      <c r="AF31" t="n">
+        <v>-0.4297676522933824</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3472,6 +3565,9 @@
       <c r="AE32" t="n">
         <v>0.5440476054934472</v>
       </c>
+      <c r="AF32" t="n">
+        <v>0.5467729633841658</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3567,6 +3663,9 @@
       <c r="AE33" t="n">
         <v>0.7606690568887692</v>
       </c>
+      <c r="AF33" t="n">
+        <v>0.7627684486628044</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3662,6 +3761,9 @@
       <c r="AE34" t="n">
         <v>-0.8480065675000481</v>
       </c>
+      <c r="AF34" t="n">
+        <v>-0.8467259621469897</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3757,6 +3859,9 @@
       <c r="AE35" t="n">
         <v>0.8191585679900424</v>
       </c>
+      <c r="AF35" t="n">
+        <v>0.821130579710842</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3852,6 +3957,9 @@
       <c r="AE36" t="n">
         <v>0.7878589554796241</v>
       </c>
+      <c r="AF36" t="n">
+        <v>0.7904442300271393</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3947,6 +4055,9 @@
       <c r="AE37" t="n">
         <v>0.7536223285839089</v>
       </c>
+      <c r="AF37" t="n">
+        <v>0.7563470301456336</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4042,6 +4153,9 @@
       <c r="AE38" t="n">
         <v>0.6556358687245125</v>
       </c>
+      <c r="AF38" t="n">
+        <v>0.6572087516351398</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4137,6 +4251,9 @@
       <c r="AE39" t="n">
         <v>0.6106127203183217</v>
       </c>
+      <c r="AF39" t="n">
+        <v>0.6116098796219346</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4232,6 +4349,9 @@
       <c r="AE40" t="n">
         <v>0.7809665092924855</v>
       </c>
+      <c r="AF40" t="n">
+        <v>0.7828120832454561</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4327,6 +4447,9 @@
       <c r="AE41" t="n">
         <v>0.583648731111717</v>
       </c>
+      <c r="AF41" t="n">
+        <v>0.5843684189887852</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4422,6 +4545,9 @@
       <c r="AE42" t="n">
         <v>0.6421174802096484</v>
       </c>
+      <c r="AF42" t="n">
+        <v>0.6449899761784541</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4517,6 +4643,9 @@
       <c r="AE43" t="n">
         <v>0.6863427789927949</v>
       </c>
+      <c r="AF43" t="n">
+        <v>0.6877064054772906</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4612,6 +4741,9 @@
       <c r="AE44" t="n">
         <v>0.7123881187370792</v>
       </c>
+      <c r="AF44" t="n">
+        <v>0.7137016451273427</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4707,6 +4839,9 @@
       <c r="AE45" t="n">
         <v>0.7248268225482186</v>
       </c>
+      <c r="AF45" t="n">
+        <v>0.7277860804038746</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4802,6 +4937,9 @@
       <c r="AE46" t="n">
         <v>-1.342624721339591</v>
       </c>
+      <c r="AF46" t="n">
+        <v>-1.346062446944629</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4897,6 +5035,9 @@
       <c r="AE47" t="n">
         <v>-1.047127804634322</v>
       </c>
+      <c r="AF47" t="n">
+        <v>-1.049828837542077</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4992,6 +5133,9 @@
       <c r="AE48" t="n">
         <v>-0.9062189683575018</v>
       </c>
+      <c r="AF48" t="n">
+        <v>-0.9089636190129958</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5087,6 +5231,9 @@
       <c r="AE49" t="n">
         <v>-0.6673143609205267</v>
       </c>
+      <c r="AF49" t="n">
+        <v>-0.6696766830399437</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5182,6 +5329,9 @@
       <c r="AE50" t="n">
         <v>-0.08757986132894054</v>
       </c>
+      <c r="AF50" t="n">
+        <v>-0.08902051578780518</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5277,6 +5427,9 @@
       <c r="AE51" t="n">
         <v>-0.8812804487365964</v>
       </c>
+      <c r="AF51" t="n">
+        <v>-0.8833755870765082</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5372,6 +5525,9 @@
       <c r="AE52" t="n">
         <v>-0.8812804487365964</v>
       </c>
+      <c r="AF52" t="n">
+        <v>-0.8833755870765082</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5467,6 +5623,9 @@
       <c r="AE53" t="n">
         <v>-1.177729478663577</v>
       </c>
+      <c r="AF53" t="n">
+        <v>-1.180950173495974</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5562,6 +5721,9 @@
       <c r="AE54" t="n">
         <v>-0.1975882424742279</v>
       </c>
+      <c r="AF54" t="n">
+        <v>-0.1993661515712931</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5657,6 +5819,9 @@
       <c r="AE55" t="n">
         <v>-1.071428876627398</v>
       </c>
+      <c r="AF55" t="n">
+        <v>-1.074343107307315</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5752,6 +5917,9 @@
       <c r="AE56" t="n">
         <v>-0.9443419641863928</v>
       </c>
+      <c r="AF56" t="n">
+        <v>-0.9467033242787507</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5847,6 +6015,9 @@
       <c r="AE57" t="n">
         <v>-1.008176870286435</v>
       </c>
+      <c r="AF57" t="n">
+        <v>-1.012898078438966</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5942,6 +6113,9 @@
       <c r="AE58" t="n">
         <v>-1.149355145830716</v>
       </c>
+      <c r="AF58" t="n">
+        <v>-1.153987521906302</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6037,6 +6211,9 @@
       <c r="AE59" t="n">
         <v>-0.8308934925528525</v>
       </c>
+      <c r="AF59" t="n">
+        <v>-0.8343064514858521</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6132,6 +6309,9 @@
       <c r="AE60" t="n">
         <v>-0.4647144407751909</v>
       </c>
+      <c r="AF60" t="n">
+        <v>-0.4679437107470333</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6227,6 +6407,9 @@
       <c r="AE61" t="n">
         <v>0.3752851769724175</v>
       </c>
+      <c r="AF61" t="n">
+        <v>0.374437774245381</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6322,6 +6505,9 @@
       <c r="AE62" t="n">
         <v>-1.27750550203408</v>
       </c>
+      <c r="AF62" t="n">
+        <v>-1.283087008392219</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6417,6 +6603,9 @@
       <c r="AE63" t="n">
         <v>-0.5839141530480744</v>
       </c>
+      <c r="AF63" t="n">
+        <v>-0.5870249579675928</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6512,6 +6701,9 @@
       <c r="AE64" t="n">
         <v>-0.8995482154447118</v>
       </c>
+      <c r="AF64" t="n">
+        <v>-0.9041380780637847</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6607,6 +6799,9 @@
       <c r="AE65" t="n">
         <v>-0.06876736734018324</v>
       </c>
+      <c r="AF65" t="n">
+        <v>-0.07122554089764534</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6702,6 +6897,9 @@
       <c r="AE66" t="n">
         <v>-0.8393114519765984</v>
       </c>
+      <c r="AF66" t="n">
+        <v>-0.8434014889525336</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6796,6 +6994,9 @@
       </c>
       <c r="AE67" t="n">
         <v>-0.826505041539467</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>-0.8304537576230174</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF67"/>
+  <dimension ref="A1:AG67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,6 +530,9 @@
       <c r="AF1" s="1" t="n">
         <v>31</v>
       </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -628,6 +631,9 @@
       <c r="AF2" t="n">
         <v>-0.248506778354853</v>
       </c>
+      <c r="AG2" t="n">
+        <v>-0.2510287140724703</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -726,6 +732,9 @@
       <c r="AF3" t="n">
         <v>0.2362151503755189</v>
       </c>
+      <c r="AG3" t="n">
+        <v>0.2338073114006397</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -824,6 +833,9 @@
       <c r="AF4" t="n">
         <v>0.2217588706404525</v>
       </c>
+      <c r="AG4" t="n">
+        <v>0.2193413634257326</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -922,6 +934,9 @@
       <c r="AF5" t="n">
         <v>-0.07602128060698285</v>
       </c>
+      <c r="AG5" t="n">
+        <v>-0.07803215590969656</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1020,6 +1035,9 @@
       <c r="AF6" t="n">
         <v>0.186825991671545</v>
       </c>
+      <c r="AG6" t="n">
+        <v>0.1849296102548016</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1118,6 +1136,9 @@
       <c r="AF7" t="n">
         <v>-0.4057777415956698</v>
       </c>
+      <c r="AG7" t="n">
+        <v>-0.408588215186409</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1216,6 +1237,9 @@
       <c r="AF8" t="n">
         <v>-0.1399206533600861</v>
       </c>
+      <c r="AG8" t="n">
+        <v>-0.1417120143794988</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1314,6 +1338,9 @@
       <c r="AF9" t="n">
         <v>-0.3222765902105497</v>
       </c>
+      <c r="AG9" t="n">
+        <v>-0.326031431632834</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1412,6 +1439,9 @@
       <c r="AF10" t="n">
         <v>0.3876691534470325</v>
       </c>
+      <c r="AG10" t="n">
+        <v>0.3859493570893172</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1510,6 +1540,9 @@
       <c r="AF11" t="n">
         <v>-0.210653238401838</v>
       </c>
+      <c r="AG11" t="n">
+        <v>-0.2129213921708284</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1608,6 +1641,9 @@
       <c r="AF12" t="n">
         <v>-0.1089455926157469</v>
       </c>
+      <c r="AG12" t="n">
+        <v>-0.1123882043418643</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1706,6 +1742,9 @@
       <c r="AF13" t="n">
         <v>-0.05991792944007414</v>
       </c>
+      <c r="AG13" t="n">
+        <v>-0.06151826932382193</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1804,6 +1843,9 @@
       <c r="AF14" t="n">
         <v>0.03768344348756263</v>
       </c>
+      <c r="AG14" t="n">
+        <v>0.03245332382503154</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1902,6 +1944,9 @@
       <c r="AF15" t="n">
         <v>-0.1151634687310099</v>
       </c>
+      <c r="AG15" t="n">
+        <v>-0.1213866750020782</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2000,6 +2045,9 @@
       <c r="AF16" t="n">
         <v>0.3003865257963196</v>
       </c>
+      <c r="AG16" t="n">
+        <v>0.2930448535709972</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2098,6 +2146,9 @@
       <c r="AF17" t="n">
         <v>0.4187845071782731</v>
       </c>
+      <c r="AG17" t="n">
+        <v>0.4142094655845742</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2196,6 +2247,9 @@
       <c r="AF18" t="n">
         <v>-0.1637947020851251</v>
       </c>
+      <c r="AG18" t="n">
+        <v>-0.1662421314757744</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2294,6 +2348,9 @@
       <c r="AF19" t="n">
         <v>0.284780463370085</v>
       </c>
+      <c r="AG19" t="n">
+        <v>0.2813063112095541</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2392,6 +2449,9 @@
       <c r="AF20" t="n">
         <v>0.190073091590017</v>
       </c>
+      <c r="AG20" t="n">
+        <v>0.1829181540593689</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2490,6 +2550,9 @@
       <c r="AF21" t="n">
         <v>0.4768043969234861</v>
       </c>
+      <c r="AG21" t="n">
+        <v>0.4724973873416621</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2588,6 +2651,9 @@
       <c r="AF22" t="n">
         <v>0.2456280158315492</v>
       </c>
+      <c r="AG22" t="n">
+        <v>0.2412198253200356</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2686,6 +2752,9 @@
       <c r="AF23" t="n">
         <v>-0.1815961993838124</v>
       </c>
+      <c r="AG23" t="n">
+        <v>-0.1855374022417293</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2784,6 +2853,9 @@
       <c r="AF24" t="n">
         <v>1.061929868109094</v>
       </c>
+      <c r="AG24" t="n">
+        <v>1.087025115643349</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2882,6 +2954,9 @@
       <c r="AF25" t="n">
         <v>0.321647443816871</v>
       </c>
+      <c r="AG25" t="n">
+        <v>0.3235148115028211</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2980,6 +3055,9 @@
       <c r="AF26" t="n">
         <v>0.1298266541185246</v>
       </c>
+      <c r="AG26" t="n">
+        <v>0.1316110197433054</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3078,6 +3156,9 @@
       <c r="AF27" t="n">
         <v>0.03310729137430696</v>
       </c>
+      <c r="AG27" t="n">
+        <v>0.03555531722083886</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3176,6 +3257,9 @@
       <c r="AF28" t="n">
         <v>0.8237295933159369</v>
       </c>
+      <c r="AG28" t="n">
+        <v>0.8282954056417785</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3274,6 +3358,9 @@
       <c r="AF29" t="n">
         <v>1.525856321559134</v>
       </c>
+      <c r="AG29" t="n">
+        <v>1.55148525123646</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3372,6 +3459,9 @@
       <c r="AF30" t="n">
         <v>0.6617233970761789</v>
       </c>
+      <c r="AG30" t="n">
+        <v>0.6649745736185494</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3470,6 +3560,9 @@
       <c r="AF31" t="n">
         <v>-0.4297676522933824</v>
       </c>
+      <c r="AG31" t="n">
+        <v>-0.4277127663318537</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3568,6 +3661,9 @@
       <c r="AF32" t="n">
         <v>0.5467729633841658</v>
       </c>
+      <c r="AG32" t="n">
+        <v>0.5493628182407077</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3666,6 +3762,9 @@
       <c r="AF33" t="n">
         <v>0.7627684486628044</v>
       </c>
+      <c r="AG33" t="n">
+        <v>0.7647237006357054</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3764,6 +3863,9 @@
       <c r="AF34" t="n">
         <v>-0.8467259621469897</v>
       </c>
+      <c r="AG34" t="n">
+        <v>-0.8456325426517014</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3862,6 +3964,9 @@
       <c r="AF35" t="n">
         <v>0.821130579710842</v>
       </c>
+      <c r="AG35" t="n">
+        <v>0.8228986987725583</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3960,6 +4065,9 @@
       <c r="AF36" t="n">
         <v>0.7904442300271393</v>
       </c>
+      <c r="AG36" t="n">
+        <v>0.7926839343887525</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4058,6 +4166,9 @@
       <c r="AF37" t="n">
         <v>0.7563470301456336</v>
       </c>
+      <c r="AG37" t="n">
+        <v>0.7587098928835598</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4156,6 +4267,9 @@
       <c r="AF38" t="n">
         <v>0.6572087516351398</v>
       </c>
+      <c r="AG38" t="n">
+        <v>0.6586041319340832</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4254,6 +4368,9 @@
       <c r="AF39" t="n">
         <v>0.6116098796219346</v>
       </c>
+      <c r="AG39" t="n">
+        <v>0.6124496012323223</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4352,6 +4469,9 @@
       <c r="AF40" t="n">
         <v>0.7828120832454561</v>
       </c>
+      <c r="AG40" t="n">
+        <v>0.7844801713614401</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4450,6 +4570,9 @@
       <c r="AF41" t="n">
         <v>0.5843684189887852</v>
       </c>
+      <c r="AG41" t="n">
+        <v>0.5849482306875226</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4548,6 +4671,9 @@
       <c r="AF42" t="n">
         <v>0.6449899761784541</v>
       </c>
+      <c r="AG42" t="n">
+        <v>0.647485213919319</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4646,6 +4772,9 @@
       <c r="AF43" t="n">
         <v>0.6877064054772906</v>
       </c>
+      <c r="AG43" t="n">
+        <v>0.6888884940299558</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4744,6 +4873,9 @@
       <c r="AF44" t="n">
         <v>0.7137016451273427</v>
       </c>
+      <c r="AG44" t="n">
+        <v>0.7148089570093502</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4842,6 +4974,9 @@
       <c r="AF45" t="n">
         <v>0.7277860804038746</v>
       </c>
+      <c r="AG45" t="n">
+        <v>0.7302772358292211</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4940,6 +5075,9 @@
       <c r="AF46" t="n">
         <v>-1.346062446944629</v>
       </c>
+      <c r="AG46" t="n">
+        <v>-1.349450187419937</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5038,6 +5176,9 @@
       <c r="AF47" t="n">
         <v>-1.049828837542077</v>
       </c>
+      <c r="AG47" t="n">
+        <v>-1.052510294836446</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5136,6 +5277,9 @@
       <c r="AF48" t="n">
         <v>-0.9089636190129958</v>
       </c>
+      <c r="AG48" t="n">
+        <v>-0.9117465788852374</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5234,6 +5378,9 @@
       <c r="AF49" t="n">
         <v>-0.6696766830399437</v>
       </c>
+      <c r="AG49" t="n">
+        <v>-0.672052891006116</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5332,6 +5479,9 @@
       <c r="AF50" t="n">
         <v>-0.08902051578780518</v>
       </c>
+      <c r="AG50" t="n">
+        <v>-0.09042715461328626</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5430,6 +5580,9 @@
       <c r="AF51" t="n">
         <v>-0.8833755870765082</v>
       </c>
+      <c r="AG51" t="n">
+        <v>-0.8855458597268338</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5528,6 +5681,9 @@
       <c r="AF52" t="n">
         <v>-0.8833755870765082</v>
       </c>
+      <c r="AG52" t="n">
+        <v>-0.8855458597268338</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5626,6 +5782,9 @@
       <c r="AF53" t="n">
         <v>-1.180950173495974</v>
       </c>
+      <c r="AG53" t="n">
+        <v>-1.184212830850981</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5724,6 +5883,9 @@
       <c r="AF54" t="n">
         <v>-0.1993661515712931</v>
       </c>
+      <c r="AG54" t="n">
+        <v>-0.2011316399055353</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5822,6 +5984,9 @@
       <c r="AF55" t="n">
         <v>-1.074343107307315</v>
       </c>
+      <c r="AG55" t="n">
+        <v>-1.077223387734193</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5920,6 +6085,9 @@
       <c r="AF56" t="n">
         <v>-0.9467033242787507</v>
       </c>
+      <c r="AG56" t="n">
+        <v>-0.9489793677568555</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6018,6 +6186,9 @@
       <c r="AF57" t="n">
         <v>-1.012898078438966</v>
       </c>
+      <c r="AG57" t="n">
+        <v>-1.017280556914748</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6116,6 +6287,9 @@
       <c r="AF58" t="n">
         <v>-1.153987521906302</v>
       </c>
+      <c r="AG58" t="n">
+        <v>-1.158263000210614</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6214,6 +6388,9 @@
       <c r="AF59" t="n">
         <v>-0.8343064514858521</v>
       </c>
+      <c r="AG59" t="n">
+        <v>-0.8375863461993548</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6312,6 +6489,9 @@
       <c r="AF60" t="n">
         <v>-0.4679437107470333</v>
       </c>
+      <c r="AG60" t="n">
+        <v>-0.4709377891438686</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6410,6 +6590,9 @@
       <c r="AF61" t="n">
         <v>0.374437774245381</v>
       </c>
+      <c r="AG61" t="n">
+        <v>0.3736264533060314</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6508,6 +6691,9 @@
       <c r="AF62" t="n">
         <v>-1.283087008392219</v>
       </c>
+      <c r="AG62" t="n">
+        <v>-1.288257971539994</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6606,6 +6792,9 @@
       <c r="AF63" t="n">
         <v>-0.5870249579675928</v>
       </c>
+      <c r="AG63" t="n">
+        <v>-0.5900326134488572</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6704,6 +6893,9 @@
       <c r="AF64" t="n">
         <v>-0.9041380780637847</v>
       </c>
+      <c r="AG64" t="n">
+        <v>-0.908555854353347</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6802,6 +6994,9 @@
       <c r="AF65" t="n">
         <v>-0.07122554089764534</v>
       </c>
+      <c r="AG65" t="n">
+        <v>-0.07349834168847644</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6900,6 +7095,9 @@
       <c r="AF66" t="n">
         <v>-0.8434014889525336</v>
       </c>
+      <c r="AG66" t="n">
+        <v>-0.8471027252332117</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6997,6 +7195,9 @@
       </c>
       <c r="AF67" t="n">
         <v>-0.8304537576230174</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>-0.833935647862548</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG67"/>
+  <dimension ref="A1:AH67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,6 +533,9 @@
       <c r="AG1" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -634,6 +637,9 @@
       <c r="AG2" t="n">
         <v>-0.2510287140724703</v>
       </c>
+      <c r="AH2" t="n">
+        <v>-0.2534046478267714</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -735,6 +741,9 @@
       <c r="AG3" t="n">
         <v>0.2338073114006397</v>
       </c>
+      <c r="AH3" t="n">
+        <v>0.2316055805808631</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -836,6 +845,9 @@
       <c r="AG4" t="n">
         <v>0.2193413634257326</v>
       </c>
+      <c r="AH4" t="n">
+        <v>0.2170522665280873</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -937,6 +949,9 @@
       <c r="AG5" t="n">
         <v>-0.07803215590969656</v>
       </c>
+      <c r="AH5" t="n">
+        <v>-0.07988127282878603</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1038,6 +1053,9 @@
       <c r="AG6" t="n">
         <v>0.1849296102548016</v>
       </c>
+      <c r="AH6" t="n">
+        <v>0.1832392773123538</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1139,6 +1157,9 @@
       <c r="AG7" t="n">
         <v>-0.408588215186409</v>
       </c>
+      <c r="AH7" t="n">
+        <v>-0.4112727152101503</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1240,6 +1261,9 @@
       <c r="AG8" t="n">
         <v>-0.1417120143794988</v>
       </c>
+      <c r="AH8" t="n">
+        <v>-0.1434729792730988</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1341,6 +1365,9 @@
       <c r="AG9" t="n">
         <v>-0.326031431632834</v>
       </c>
+      <c r="AH9" t="n">
+        <v>-0.3295861795849396</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1442,6 +1469,9 @@
       <c r="AG10" t="n">
         <v>0.3859493570893172</v>
       </c>
+      <c r="AH10" t="n">
+        <v>0.3844132410508669</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1543,6 +1573,9 @@
       <c r="AG11" t="n">
         <v>-0.2129213921708284</v>
       </c>
+      <c r="AH11" t="n">
+        <v>-0.2150797097518251</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1644,6 +1677,9 @@
       <c r="AG12" t="n">
         <v>-0.1123882043418643</v>
       </c>
+      <c r="AH12" t="n">
+        <v>-0.1154397472914892</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1745,6 +1781,9 @@
       <c r="AG13" t="n">
         <v>-0.06151826932382193</v>
       </c>
+      <c r="AH13" t="n">
+        <v>-0.06300684974121654</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1846,6 +1885,9 @@
       <c r="AG14" t="n">
         <v>0.03245332382503154</v>
       </c>
+      <c r="AH14" t="n">
+        <v>0.02794120940364801</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1947,6 +1989,9 @@
       <c r="AG15" t="n">
         <v>-0.1213866750020782</v>
       </c>
+      <c r="AH15" t="n">
+        <v>-0.1267060143259754</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2048,6 +2093,9 @@
       <c r="AG16" t="n">
         <v>0.2930448535709972</v>
       </c>
+      <c r="AH16" t="n">
+        <v>0.2868156086717579</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2149,6 +2197,9 @@
       <c r="AG17" t="n">
         <v>0.4142094655845742</v>
       </c>
+      <c r="AH17" t="n">
+        <v>0.4104919198805389</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2250,6 +2301,9 @@
       <c r="AG18" t="n">
         <v>-0.1662421314757744</v>
       </c>
+      <c r="AH18" t="n">
+        <v>-0.1683979784216944</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2351,6 +2405,9 @@
       <c r="AG19" t="n">
         <v>0.2813063112095541</v>
       </c>
+      <c r="AH19" t="n">
+        <v>0.2782914192336845</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2452,6 +2509,9 @@
       <c r="AG20" t="n">
         <v>0.1829181540593689</v>
       </c>
+      <c r="AH20" t="n">
+        <v>0.1768785582720362</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2553,6 +2613,9 @@
       <c r="AG21" t="n">
         <v>0.4724973873416621</v>
       </c>
+      <c r="AH21" t="n">
+        <v>0.4690131752105762</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2654,6 +2717,9 @@
       <c r="AG22" t="n">
         <v>0.2412198253200356</v>
       </c>
+      <c r="AH22" t="n">
+        <v>0.2376033670934849</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2755,6 +2821,9 @@
       <c r="AG23" t="n">
         <v>-0.1855374022417293</v>
       </c>
+      <c r="AH23" t="n">
+        <v>-0.188820287420022</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2856,6 +2925,9 @@
       <c r="AG24" t="n">
         <v>1.087025115643349</v>
       </c>
+      <c r="AH24" t="n">
+        <v>1.114328808827697</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2957,6 +3029,9 @@
       <c r="AG25" t="n">
         <v>0.3235148115028211</v>
       </c>
+      <c r="AH25" t="n">
+        <v>0.3251837118174814</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3058,6 +3133,9 @@
       <c r="AG26" t="n">
         <v>0.1316110197433054</v>
       </c>
+      <c r="AH26" t="n">
+        <v>0.1333369024111383</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3159,6 +3237,9 @@
       <c r="AG27" t="n">
         <v>0.03555531722083886</v>
       </c>
+      <c r="AH27" t="n">
+        <v>0.03790070350735426</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3260,6 +3341,9 @@
       <c r="AG28" t="n">
         <v>0.8282954056417785</v>
       </c>
+      <c r="AH28" t="n">
+        <v>0.8326274059214754</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3361,6 +3445,9 @@
       <c r="AG29" t="n">
         <v>1.55148525123646</v>
       </c>
+      <c r="AH29" t="n">
+        <v>1.5767432947645</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3462,6 +3549,9 @@
       <c r="AG30" t="n">
         <v>0.6649745736185494</v>
       </c>
+      <c r="AH30" t="n">
+        <v>0.6679733145946595</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3563,6 +3653,9 @@
       <c r="AG31" t="n">
         <v>-0.4277127663318537</v>
       </c>
+      <c r="AH31" t="n">
+        <v>-0.4260512179263081</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3664,6 +3757,9 @@
       <c r="AG32" t="n">
         <v>0.5493628182407077</v>
       </c>
+      <c r="AH32" t="n">
+        <v>0.5517911173349026</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3765,6 +3861,9 @@
       <c r="AG33" t="n">
         <v>0.7647237006357054</v>
       </c>
+      <c r="AH33" t="n">
+        <v>0.7665234655097648</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3866,6 +3965,9 @@
       <c r="AG34" t="n">
         <v>-0.8456325426517014</v>
       </c>
+      <c r="AH34" t="n">
+        <v>-0.8447322967619493</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3967,6 +4069,9 @@
       <c r="AG35" t="n">
         <v>0.8228986987725583</v>
       </c>
+      <c r="AH35" t="n">
+        <v>0.8244688302779313</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4068,6 +4173,9 @@
       <c r="AG36" t="n">
         <v>0.7926839343887525</v>
       </c>
+      <c r="AH36" t="n">
+        <v>0.7945971201729722</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4169,6 +4277,9 @@
       <c r="AG37" t="n">
         <v>0.7587098928835598</v>
       </c>
+      <c r="AH37" t="n">
+        <v>0.7607304149481772</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4270,6 +4381,9 @@
       <c r="AG38" t="n">
         <v>0.6586041319340832</v>
       </c>
+      <c r="AH38" t="n">
+        <v>0.6598259234183816</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4371,6 +4485,9 @@
       <c r="AG39" t="n">
         <v>0.6124496012323223</v>
       </c>
+      <c r="AH39" t="n">
+        <v>0.613141823402237</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4472,6 +4589,9 @@
       <c r="AG40" t="n">
         <v>0.7844801713614401</v>
       </c>
+      <c r="AH40" t="n">
+        <v>0.7859749343671136</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4573,6 +4693,9 @@
       <c r="AG41" t="n">
         <v>0.5849482306875226</v>
       </c>
+      <c r="AH41" t="n">
+        <v>0.5854022429954759</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4674,6 +4797,9 @@
       <c r="AG42" t="n">
         <v>0.647485213919319</v>
       </c>
+      <c r="AH42" t="n">
+        <v>0.6496186018769547</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4775,6 +4901,9 @@
       <c r="AG43" t="n">
         <v>0.6888884940299558</v>
       </c>
+      <c r="AH43" t="n">
+        <v>0.6898977880880297</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4876,6 +5005,9 @@
       <c r="AG44" t="n">
         <v>0.7148089570093502</v>
       </c>
+      <c r="AH44" t="n">
+        <v>0.7157253165261417</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4977,6 +5109,9 @@
       <c r="AG45" t="n">
         <v>0.7302772358292211</v>
       </c>
+      <c r="AH45" t="n">
+        <v>0.7323325195904751</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5078,6 +5213,9 @@
       <c r="AG46" t="n">
         <v>-1.349450187419937</v>
       </c>
+      <c r="AH46" t="n">
+        <v>-1.352778070492</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5179,6 +5317,9 @@
       <c r="AG47" t="n">
         <v>-1.052510294836446</v>
       </c>
+      <c r="AH47" t="n">
+        <v>-1.055162930154573</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5280,6 +5421,9 @@
       <c r="AG48" t="n">
         <v>-0.9117465788852374</v>
       </c>
+      <c r="AH48" t="n">
+        <v>-0.9145483158436759</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5381,6 +5525,9 @@
       <c r="AG49" t="n">
         <v>-0.672052891006116</v>
       </c>
+      <c r="AH49" t="n">
+        <v>-0.6744282521501953</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5482,6 +5629,9 @@
       <c r="AG50" t="n">
         <v>-0.09042715461328626</v>
       </c>
+      <c r="AH50" t="n">
+        <v>-0.0917981150158797</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5583,6 +5733,9 @@
       <c r="AG51" t="n">
         <v>-0.8855458597268338</v>
       </c>
+      <c r="AH51" t="n">
+        <v>-0.8877718584476078</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5684,6 +5837,9 @@
       <c r="AG52" t="n">
         <v>-0.8855458597268338</v>
       </c>
+      <c r="AH52" t="n">
+        <v>-0.8877718584476078</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5785,6 +5941,9 @@
       <c r="AG53" t="n">
         <v>-1.184212830850981</v>
       </c>
+      <c r="AH53" t="n">
+        <v>-1.187496835826913</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5886,6 +6045,9 @@
       <c r="AG54" t="n">
         <v>-0.2011316399055353</v>
       </c>
+      <c r="AH54" t="n">
+        <v>-0.2028763016409469</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5987,6 +6149,9 @@
       <c r="AG55" t="n">
         <v>-1.077223387734193</v>
       </c>
+      <c r="AH55" t="n">
+        <v>-1.080061284571352</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6088,6 +6253,9 @@
       <c r="AG56" t="n">
         <v>-0.9489793677568555</v>
       </c>
+      <c r="AH56" t="n">
+        <v>-0.9511725108511091</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6189,6 +6357,9 @@
       <c r="AG57" t="n">
         <v>-1.017280556914748</v>
       </c>
+      <c r="AH57" t="n">
+        <v>-1.021335091109953</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6290,6 +6461,9 @@
       <c r="AG58" t="n">
         <v>-1.158263000210614</v>
       </c>
+      <c r="AH58" t="n">
+        <v>-1.162193074349239</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6391,6 +6565,9 @@
       <c r="AG59" t="n">
         <v>-0.8375863461993548</v>
       </c>
+      <c r="AH59" t="n">
+        <v>-0.8407249535633263</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6492,6 +6669,9 @@
       <c r="AG60" t="n">
         <v>-0.4709377891438686</v>
       </c>
+      <c r="AH60" t="n">
+        <v>-0.4736994709938874</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6593,6 +6773,9 @@
       <c r="AG61" t="n">
         <v>0.3736264533060314</v>
       </c>
+      <c r="AH61" t="n">
+        <v>0.3728532454932042</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6694,6 +6877,9 @@
       <c r="AG62" t="n">
         <v>-1.288257971539994</v>
       </c>
+      <c r="AH62" t="n">
+        <v>-1.293031958355661</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6795,6 +6981,9 @@
       <c r="AG63" t="n">
         <v>-0.5900326134488572</v>
       </c>
+      <c r="AH63" t="n">
+        <v>-0.5929171888825725</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6896,6 +7085,9 @@
       <c r="AG64" t="n">
         <v>-0.908555854353347</v>
       </c>
+      <c r="AH64" t="n">
+        <v>-0.9127855210966134</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6997,6 +7189,9 @@
       <c r="AG65" t="n">
         <v>-0.07349834168847644</v>
       </c>
+      <c r="AH65" t="n">
+        <v>-0.07558861106465778</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7098,6 +7293,9 @@
       <c r="AG66" t="n">
         <v>-0.8471027252332117</v>
       </c>
+      <c r="AH66" t="n">
+        <v>-0.8504375100722089</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -7198,6 +7396,9 @@
       </c>
       <c r="AG67" t="n">
         <v>-0.833935647862548</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>-0.8369879122666831</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH67"/>
+  <dimension ref="A1:AI67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,6 +536,9 @@
       <c r="AH1" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -640,6 +643,9 @@
       <c r="AH2" t="n">
         <v>-0.2534046478267714</v>
       </c>
+      <c r="AI2" t="n">
+        <v>-0.2556295990534304</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -744,6 +750,9 @@
       <c r="AH3" t="n">
         <v>0.2316055805808631</v>
       </c>
+      <c r="AI3" t="n">
+        <v>0.2296096076744699</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -848,6 +857,9 @@
       <c r="AH4" t="n">
         <v>0.2170522665280873</v>
       </c>
+      <c r="AI4" t="n">
+        <v>0.2149016491991251</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -952,6 +964,9 @@
       <c r="AH5" t="n">
         <v>-0.07988127282878603</v>
       </c>
+      <c r="AI5" t="n">
+        <v>-0.08157306792968021</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1056,6 +1071,9 @@
       <c r="AH6" t="n">
         <v>0.1832392773123538</v>
       </c>
+      <c r="AI6" t="n">
+        <v>0.1817487261491079</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1160,6 +1178,9 @@
       <c r="AH7" t="n">
         <v>-0.4112727152101503</v>
       </c>
+      <c r="AI7" t="n">
+        <v>-0.4138217932706441</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1264,6 +1285,9 @@
       <c r="AH8" t="n">
         <v>-0.1434729792730988</v>
       </c>
+      <c r="AI8" t="n">
+        <v>-0.1451855668619566</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1368,6 +1392,9 @@
       <c r="AH9" t="n">
         <v>-0.3295861795849396</v>
       </c>
+      <c r="AI9" t="n">
+        <v>-0.3329240046050624</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1472,6 +1499,9 @@
       <c r="AH10" t="n">
         <v>0.3844132410508669</v>
       </c>
+      <c r="AI10" t="n">
+        <v>0.3830534518517819</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1576,6 +1606,9 @@
       <c r="AH11" t="n">
         <v>-0.2150797097518251</v>
       </c>
+      <c r="AI11" t="n">
+        <v>-0.2171232724950448</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1680,6 +1713,9 @@
       <c r="AH12" t="n">
         <v>-0.1154397472914892</v>
       </c>
+      <c r="AI12" t="n">
+        <v>-0.1181225489000139</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1784,6 +1820,9 @@
       <c r="AH13" t="n">
         <v>-0.06300684974121654</v>
       </c>
+      <c r="AI13" t="n">
+        <v>-0.0643879334843877</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1888,6 +1927,9 @@
       <c r="AH14" t="n">
         <v>0.02794120940364801</v>
       </c>
+      <c r="AI14" t="n">
+        <v>0.02410405580858389</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1992,6 +2034,9 @@
       <c r="AH15" t="n">
         <v>-0.1267060143259754</v>
       </c>
+      <c r="AI15" t="n">
+        <v>-0.1311858142890309</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2096,6 +2141,9 @@
       <c r="AH16" t="n">
         <v>0.2868156086717579</v>
       </c>
+      <c r="AI16" t="n">
+        <v>0.2816244419086745</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2200,6 +2248,9 @@
       <c r="AH17" t="n">
         <v>0.4104919198805389</v>
       </c>
+      <c r="AI17" t="n">
+        <v>0.4075554685238039</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2304,6 +2355,9 @@
       <c r="AH18" t="n">
         <v>-0.1683979784216944</v>
       </c>
+      <c r="AI18" t="n">
+        <v>-0.1702854240197355</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2408,6 +2462,9 @@
       <c r="AH19" t="n">
         <v>0.2782914192336845</v>
       </c>
+      <c r="AI19" t="n">
+        <v>0.2757010298445305</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2512,6 +2569,9 @@
       <c r="AH20" t="n">
         <v>0.1768785582720362</v>
       </c>
+      <c r="AI20" t="n">
+        <v>0.1718726339605714</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2616,6 +2676,9 @@
       <c r="AH21" t="n">
         <v>0.4690131752105762</v>
       </c>
+      <c r="AI21" t="n">
+        <v>0.4662799700983485</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2720,6 +2783,9 @@
       <c r="AH22" t="n">
         <v>0.2376033670934849</v>
       </c>
+      <c r="AI22" t="n">
+        <v>0.2347112714579321</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2824,6 +2890,9 @@
       <c r="AH23" t="n">
         <v>-0.188820287420022</v>
       </c>
+      <c r="AI23" t="n">
+        <v>-0.1915017422907311</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2928,6 +2997,9 @@
       <c r="AH24" t="n">
         <v>1.114328808827697</v>
       </c>
+      <c r="AI24" t="n">
+        <v>1.143005588305262</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3032,6 +3104,9 @@
       <c r="AH25" t="n">
         <v>0.3251837118174814</v>
       </c>
+      <c r="AI25" t="n">
+        <v>0.3266568630906904</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3136,6 +3211,9 @@
       <c r="AH26" t="n">
         <v>0.1333369024111383</v>
       </c>
+      <c r="AI26" t="n">
+        <v>0.134977554650437</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3240,6 +3318,9 @@
       <c r="AH27" t="n">
         <v>0.03790070350735426</v>
       </c>
+      <c r="AI27" t="n">
+        <v>0.04011668585800974</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3344,6 +3425,9 @@
       <c r="AH28" t="n">
         <v>0.8326274059214754</v>
       </c>
+      <c r="AI28" t="n">
+        <v>0.8366981650224371</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3448,6 +3532,9 @@
       <c r="AH29" t="n">
         <v>1.5767432947645</v>
       </c>
+      <c r="AI29" t="n">
+        <v>1.601219234633056</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3552,6 +3639,9 @@
       <c r="AH30" t="n">
         <v>0.6679733145946595</v>
       </c>
+      <c r="AI30" t="n">
+        <v>0.6707060174219865</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3656,6 +3746,9 @@
       <c r="AH31" t="n">
         <v>-0.4260512179263081</v>
       </c>
+      <c r="AI31" t="n">
+        <v>-0.4247611362921231</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3760,6 +3853,9 @@
       <c r="AH32" t="n">
         <v>0.5517911173349026</v>
       </c>
+      <c r="AI32" t="n">
+        <v>0.5540389428121023</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3864,6 +3960,9 @@
       <c r="AH33" t="n">
         <v>0.7665234655097648</v>
       </c>
+      <c r="AI33" t="n">
+        <v>0.7681610943501344</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3968,6 +4067,9 @@
       <c r="AH34" t="n">
         <v>-0.8447322967619493</v>
       </c>
+      <c r="AI34" t="n">
+        <v>-0.8440261744041534</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4072,6 +4174,9 @@
       <c r="AH35" t="n">
         <v>0.8244688302779313</v>
       </c>
+      <c r="AI35" t="n">
+        <v>0.825849227746318</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4176,6 +4281,9 @@
       <c r="AH36" t="n">
         <v>0.7945971201729722</v>
       </c>
+      <c r="AI36" t="n">
+        <v>0.7962054484033059</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4280,6 +4388,9 @@
       <c r="AH37" t="n">
         <v>0.7607304149481772</v>
       </c>
+      <c r="AI37" t="n">
+        <v>0.7624309359041322</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4384,6 +4495,9 @@
       <c r="AH38" t="n">
         <v>0.6598259234183816</v>
       </c>
+      <c r="AI38" t="n">
+        <v>0.6608806089628315</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4488,6 +4602,9 @@
       <c r="AH39" t="n">
         <v>0.613141823402237</v>
       </c>
+      <c r="AI39" t="n">
+        <v>0.6136974288721481</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4592,6 +4709,9 @@
       <c r="AH40" t="n">
         <v>0.7859749343671136</v>
       </c>
+      <c r="AI40" t="n">
+        <v>0.7873026054305622</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4696,6 +4816,9 @@
       <c r="AH41" t="n">
         <v>0.5854022429954759</v>
       </c>
+      <c r="AI41" t="n">
+        <v>0.58574450902974</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4800,6 +4923,9 @@
       <c r="AH42" t="n">
         <v>0.6496186018769547</v>
       </c>
+      <c r="AI42" t="n">
+        <v>0.6514095916365087</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4904,6 +5030,9 @@
       <c r="AH43" t="n">
         <v>0.6898977880880297</v>
       </c>
+      <c r="AI43" t="n">
+        <v>0.6907447537766065</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5008,6 +5137,9 @@
       <c r="AH44" t="n">
         <v>0.7157253165261417</v>
       </c>
+      <c r="AI44" t="n">
+        <v>0.716466835753193</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5112,6 +5244,9 @@
       <c r="AH45" t="n">
         <v>0.7323325195904751</v>
       </c>
+      <c r="AI45" t="n">
+        <v>0.7339865937989207</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5216,6 +5351,9 @@
       <c r="AH46" t="n">
         <v>-1.352778070492</v>
       </c>
+      <c r="AI46" t="n">
+        <v>-1.356037539337905</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5320,6 +5458,9 @@
       <c r="AH47" t="n">
         <v>-1.055162930154573</v>
       </c>
+      <c r="AI47" t="n">
+        <v>-1.057778379478858</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5424,6 +5565,9 @@
       <c r="AH48" t="n">
         <v>-0.9145483158436759</v>
       </c>
+      <c r="AI48" t="n">
+        <v>-0.9173509472187247</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5528,6 +5672,9 @@
       <c r="AH49" t="n">
         <v>-0.6744282521501953</v>
       </c>
+      <c r="AI49" t="n">
+        <v>-0.6767894809387647</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5632,6 +5779,9 @@
       <c r="AH50" t="n">
         <v>-0.0917981150158797</v>
       </c>
+      <c r="AI50" t="n">
+        <v>-0.09313209133665987</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5736,6 +5886,9 @@
       <c r="AH51" t="n">
         <v>-0.8877718584476078</v>
       </c>
+      <c r="AI51" t="n">
+        <v>-0.8900353462774171</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5840,6 +5993,9 @@
       <c r="AH52" t="n">
         <v>-0.8877718584476078</v>
       </c>
+      <c r="AI52" t="n">
+        <v>-0.8900353462774171</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5944,6 +6100,9 @@
       <c r="AH53" t="n">
         <v>-1.187496835826913</v>
       </c>
+      <c r="AI53" t="n">
+        <v>-1.19078299984324</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6048,6 +6207,9 @@
       <c r="AH54" t="n">
         <v>-0.2028763016409469</v>
       </c>
+      <c r="AI54" t="n">
+        <v>-0.2045928363404222</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6152,6 +6314,9 @@
       <c r="AH55" t="n">
         <v>-1.080061284571352</v>
       </c>
+      <c r="AI55" t="n">
+        <v>-1.082849306822119</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6256,6 +6421,9 @@
       <c r="AH56" t="n">
         <v>-0.9511725108511091</v>
       </c>
+      <c r="AI56" t="n">
+        <v>-0.9532854656184375</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6360,6 +6528,9 @@
       <c r="AH57" t="n">
         <v>-1.021335091109953</v>
       </c>
+      <c r="AI57" t="n">
+        <v>-1.025075494847986</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6464,6 +6635,9 @@
       <c r="AH58" t="n">
         <v>-1.162193074349239</v>
       </c>
+      <c r="AI58" t="n">
+        <v>-1.165792744146219</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6568,6 +6742,9 @@
       <c r="AH59" t="n">
         <v>-0.8407249535633263</v>
       </c>
+      <c r="AI59" t="n">
+        <v>-0.8437170962635757</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6672,6 +6849,9 @@
       <c r="AH60" t="n">
         <v>-0.4736994709938874</v>
       </c>
+      <c r="AI60" t="n">
+        <v>-0.4762348168444923</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6776,6 +6956,9 @@
       <c r="AH61" t="n">
         <v>0.3728532454932042</v>
       </c>
+      <c r="AI61" t="n">
+        <v>0.372119370550341</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6880,6 +7063,9 @@
       <c r="AH62" t="n">
         <v>-1.293031958355661</v>
       </c>
+      <c r="AI62" t="n">
+        <v>-1.297426259389396</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6984,6 +7170,9 @@
       <c r="AH63" t="n">
         <v>-0.5929171888825725</v>
       </c>
+      <c r="AI63" t="n">
+        <v>-0.5956638787585765</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7088,6 +7277,9 @@
       <c r="AH64" t="n">
         <v>-0.9127855210966134</v>
       </c>
+      <c r="AI64" t="n">
+        <v>-0.9168157900727597</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7192,6 +7384,9 @@
       <c r="AH65" t="n">
         <v>-0.07558861106465778</v>
       </c>
+      <c r="AI65" t="n">
+        <v>-0.07750174641051946</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7296,6 +7491,9 @@
       <c r="AH66" t="n">
         <v>-0.8504375100722089</v>
       </c>
+      <c r="AI66" t="n">
+        <v>-0.8534305094050059</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -7399,6 +7597,9 @@
       </c>
       <c r="AH67" t="n">
         <v>-0.8369879122666831</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>-0.8396490173887253</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI67"/>
+  <dimension ref="A1:AJ67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,9 @@
       <c r="AI1" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -646,6 +649,9 @@
       <c r="AI2" t="n">
         <v>-0.2556295990534304</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>-0.2577017134286247</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -753,6 +759,9 @@
       <c r="AI3" t="n">
         <v>0.2296096076744699</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>0.2278157381685806</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -860,6 +869,9 @@
       <c r="AI4" t="n">
         <v>0.2149016491991251</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>0.2128958124034557</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -967,6 +979,9 @@
       <c r="AI5" t="n">
         <v>-0.08157306792968021</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>-0.0831137246957119</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1074,6 +1089,9 @@
       <c r="AI6" t="n">
         <v>0.1817487261491079</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>0.1804492024178024</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1181,6 +1199,9 @@
       <c r="AI7" t="n">
         <v>-0.4138217932706441</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>-0.4162293757001929</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1288,6 +1309,9 @@
       <c r="AI8" t="n">
         <v>-0.1451855668619566</v>
       </c>
+      <c r="AJ8" t="n">
+        <v>-0.146835367000857</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1395,6 +1419,9 @@
       <c r="AI9" t="n">
         <v>-0.3329240046050624</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>-0.3360340345915358</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1502,6 +1529,9 @@
       <c r="AI10" t="n">
         <v>0.3830534518517819</v>
       </c>
+      <c r="AJ10" t="n">
+        <v>0.3818607772386236</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1609,6 +1639,9 @@
       <c r="AI11" t="n">
         <v>-0.2171232724950448</v>
       </c>
+      <c r="AJ11" t="n">
+        <v>-0.2190495416445642</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1716,6 +1749,9 @@
       <c r="AI12" t="n">
         <v>-0.1181225489000139</v>
       </c>
+      <c r="AJ12" t="n">
+        <v>-0.120461514420861</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1823,6 +1859,9 @@
       <c r="AI13" t="n">
         <v>-0.0643879334843877</v>
       </c>
+      <c r="AJ13" t="n">
+        <v>-0.06566655321228983</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1930,6 +1969,9 @@
       <c r="AI14" t="n">
         <v>0.02410405580858389</v>
       </c>
+      <c r="AJ14" t="n">
+        <v>0.02089399429917753</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2037,6 +2079,9 @@
       <c r="AI15" t="n">
         <v>-0.1311858142890309</v>
       </c>
+      <c r="AJ15" t="n">
+        <v>-0.1348945318304811</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2144,6 +2189,9 @@
       <c r="AI16" t="n">
         <v>0.2816244419086745</v>
       </c>
+      <c r="AJ16" t="n">
+        <v>0.2773907182020113</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2251,6 +2299,9 @@
       <c r="AI17" t="n">
         <v>0.4075554685238039</v>
       </c>
+      <c r="AJ17" t="n">
+        <v>0.4053223465169289</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2358,6 +2409,9 @@
       <c r="AI18" t="n">
         <v>-0.1702854240197355</v>
       </c>
+      <c r="AJ18" t="n">
+        <v>-0.171927840046439</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2465,6 +2519,9 @@
       <c r="AI19" t="n">
         <v>0.2757010298445305</v>
       </c>
+      <c r="AJ19" t="n">
+        <v>0.2734989512955397</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2572,6 +2629,9 @@
       <c r="AI20" t="n">
         <v>0.1718726339605714</v>
       </c>
+      <c r="AJ20" t="n">
+        <v>0.1678137813824143</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2679,6 +2739,9 @@
       <c r="AI21" t="n">
         <v>0.4662799700983485</v>
       </c>
+      <c r="AJ21" t="n">
+        <v>0.4642239367254518</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2786,6 +2849,9 @@
       <c r="AI22" t="n">
         <v>0.2347112714579321</v>
       </c>
+      <c r="AJ22" t="n">
+        <v>0.2324742950046736</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2893,6 +2959,9 @@
       <c r="AI23" t="n">
         <v>-0.1915017422907311</v>
       </c>
+      <c r="AJ23" t="n">
+        <v>-0.193639938456114</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3000,6 +3069,9 @@
       <c r="AI24" t="n">
         <v>1.143005588305262</v>
       </c>
+      <c r="AJ24" t="n">
+        <v>1.172326960508713</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3107,6 +3179,9 @@
       <c r="AI25" t="n">
         <v>0.3266568630906904</v>
       </c>
+      <c r="AJ25" t="n">
+        <v>0.3279403410178572</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3214,6 +3289,9 @@
       <c r="AI26" t="n">
         <v>0.134977554650437</v>
       </c>
+      <c r="AJ26" t="n">
+        <v>0.1365122387327802</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3321,6 +3399,9 @@
       <c r="AI27" t="n">
         <v>0.04011668585800974</v>
       </c>
+      <c r="AJ27" t="n">
+        <v>0.04218335366052362</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3428,6 +3509,9 @@
       <c r="AI28" t="n">
         <v>0.8366981650224371</v>
       </c>
+      <c r="AJ28" t="n">
+        <v>0.8404889944847462</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3535,6 +3619,9 @@
       <c r="AI29" t="n">
         <v>1.601219234633056</v>
       </c>
+      <c r="AJ29" t="n">
+        <v>1.624586227371274</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3642,6 +3729,9 @@
       <c r="AI30" t="n">
         <v>0.6707060174219865</v>
       </c>
+      <c r="AJ30" t="n">
+        <v>0.6731663980635805</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3749,6 +3839,9 @@
       <c r="AI31" t="n">
         <v>-0.4247611362921231</v>
       </c>
+      <c r="AJ31" t="n">
+        <v>-0.4238167282084913</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3856,6 +3949,9 @@
       <c r="AI32" t="n">
         <v>0.5540389428121023</v>
       </c>
+      <c r="AJ32" t="n">
+        <v>0.5560937109816984</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3963,6 +4059,9 @@
       <c r="AI33" t="n">
         <v>0.7681610943501344</v>
       </c>
+      <c r="AJ33" t="n">
+        <v>0.7696339897421858</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4070,6 +4169,9 @@
       <c r="AI34" t="n">
         <v>-0.8440261744041534</v>
       </c>
+      <c r="AJ34" t="n">
+        <v>-0.8435109048259559</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4177,6 +4279,9 @@
       <c r="AI35" t="n">
         <v>0.825849227746318</v>
       </c>
+      <c r="AJ35" t="n">
+        <v>0.8270499939026076</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4284,6 +4389,9 @@
       <c r="AI36" t="n">
         <v>0.7962054484033059</v>
       </c>
+      <c r="AJ36" t="n">
+        <v>0.7975324023907447</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4391,6 +4499,9 @@
       <c r="AI37" t="n">
         <v>0.7624309359041322</v>
       </c>
+      <c r="AJ37" t="n">
+        <v>0.7638357967613485</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4498,6 +4609,9 @@
       <c r="AI38" t="n">
         <v>0.6608806089628315</v>
       </c>
+      <c r="AJ38" t="n">
+        <v>0.6617766990308442</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4605,6 +4719,9 @@
       <c r="AI39" t="n">
         <v>0.6136974288721481</v>
       </c>
+      <c r="AJ39" t="n">
+        <v>0.6141279199648857</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4712,6 +4829,9 @@
       <c r="AI40" t="n">
         <v>0.7873026054305622</v>
       </c>
+      <c r="AJ40" t="n">
+        <v>0.788471087709354</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4819,6 +4939,9 @@
       <c r="AI41" t="n">
         <v>0.58574450902974</v>
       </c>
+      <c r="AJ41" t="n">
+        <v>0.5859888051039607</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4926,6 +5049,9 @@
       <c r="AI42" t="n">
         <v>0.6514095916365087</v>
       </c>
+      <c r="AJ42" t="n">
+        <v>0.6528806834073759</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5033,6 +5159,9 @@
       <c r="AI43" t="n">
         <v>0.6907447537766065</v>
       </c>
+      <c r="AJ43" t="n">
+        <v>0.6914411102744098</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5140,6 +5269,9 @@
       <c r="AI44" t="n">
         <v>0.716466835753193</v>
       </c>
+      <c r="AJ44" t="n">
+        <v>0.717050066026039</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5247,6 +5379,9 @@
       <c r="AI45" t="n">
         <v>0.7339865937989207</v>
       </c>
+      <c r="AJ45" t="n">
+        <v>0.7352755737330191</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5354,6 +5489,9 @@
       <c r="AI46" t="n">
         <v>-1.356037539337905</v>
       </c>
+      <c r="AJ46" t="n">
+        <v>-1.359221333174463</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5461,6 +5599,9 @@
       <c r="AI47" t="n">
         <v>-1.057778379478858</v>
       </c>
+      <c r="AJ47" t="n">
+        <v>-1.060349201080534</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5568,6 +5709,9 @@
       <c r="AI48" t="n">
         <v>-0.9173509472187247</v>
       </c>
+      <c r="AJ48" t="n">
+        <v>-0.9201383292741714</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5675,6 +5819,9 @@
       <c r="AI49" t="n">
         <v>-0.6767894809387647</v>
       </c>
+      <c r="AJ49" t="n">
+        <v>-0.6791247701565443</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5782,6 +5929,9 @@
       <c r="AI50" t="n">
         <v>-0.09313209133665987</v>
       </c>
+      <c r="AJ50" t="n">
+        <v>-0.09442811360542097</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5889,6 +6039,9 @@
       <c r="AI51" t="n">
         <v>-0.8900353462774171</v>
       </c>
+      <c r="AJ51" t="n">
+        <v>-0.8923194167514478</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5996,6 +6149,9 @@
       <c r="AI52" t="n">
         <v>-0.8900353462774171</v>
       </c>
+      <c r="AJ52" t="n">
+        <v>-0.8923194167514478</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6103,6 +6259,9 @@
       <c r="AI53" t="n">
         <v>-1.19078299984324</v>
       </c>
+      <c r="AJ53" t="n">
+        <v>-1.194053733024771</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6210,6 +6369,9 @@
       <c r="AI54" t="n">
         <v>-0.2045928363404222</v>
       </c>
+      <c r="AJ54" t="n">
+        <v>-0.20627501291092</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6317,6 +6479,9 @@
       <c r="AI55" t="n">
         <v>-1.082849306822119</v>
       </c>
+      <c r="AJ55" t="n">
+        <v>-1.085580920201085</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6424,6 +6589,9 @@
       <c r="AI56" t="n">
         <v>-0.9532854656184375</v>
       </c>
+      <c r="AJ56" t="n">
+        <v>-0.9553211483054026</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6531,6 +6699,9 @@
       <c r="AI57" t="n">
         <v>-1.025075494847986</v>
       </c>
+      <c r="AJ57" t="n">
+        <v>-1.028517915151453</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6638,6 +6809,9 @@
       <c r="AI58" t="n">
         <v>-1.165792744146219</v>
       </c>
+      <c r="AJ58" t="n">
+        <v>-1.169079693645401</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6745,6 +6919,9 @@
       <c r="AI59" t="n">
         <v>-0.8437170962635757</v>
       </c>
+      <c r="AJ59" t="n">
+        <v>-0.846560256496273</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6852,6 +7029,9 @@
       <c r="AI60" t="n">
         <v>-0.4762348168444923</v>
       </c>
+      <c r="AJ60" t="n">
+        <v>-0.4785525167422912</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6959,6 +7139,9 @@
       <c r="AI61" t="n">
         <v>0.372119370550341</v>
       </c>
+      <c r="AJ61" t="n">
+        <v>0.3714253410708598</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7066,6 +7249,9 @@
       <c r="AI62" t="n">
         <v>-1.297426259389396</v>
       </c>
+      <c r="AJ62" t="n">
+        <v>-1.301461012648</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7173,6 +7359,9 @@
       <c r="AI63" t="n">
         <v>-0.5956638787585765</v>
       </c>
+      <c r="AJ63" t="n">
+        <v>-0.5982624198866413</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7280,6 +7469,9 @@
       <c r="AI64" t="n">
         <v>-0.9168157900727597</v>
       </c>
+      <c r="AJ64" t="n">
+        <v>-0.9206396031495032</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7387,6 +7579,9 @@
       <c r="AI65" t="n">
         <v>-0.07750174641051946</v>
       </c>
+      <c r="AJ65" t="n">
+        <v>-0.07924517872674593</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7494,6 +7689,9 @@
       <c r="AI66" t="n">
         <v>-0.8534305094050059</v>
       </c>
+      <c r="AJ66" t="n">
+        <v>-0.8561078904934323</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -7600,6 +7798,9 @@
       </c>
       <c r="AI67" t="n">
         <v>-0.8396490173887253</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>-0.8419577734908958</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ67"/>
+  <dimension ref="A1:AK67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,6 +542,9 @@
       <c r="AJ1" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -652,6 +655,9 @@
       <c r="AJ2" t="n">
         <v>-0.2577017134286247</v>
       </c>
+      <c r="AK2" t="n">
+        <v>-0.2596218004590841</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -762,6 +768,9 @@
       <c r="AJ3" t="n">
         <v>0.2278157381685806</v>
       </c>
+      <c r="AK3" t="n">
+        <v>0.2262175771497898</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -872,6 +881,9 @@
       <c r="AJ4" t="n">
         <v>0.2128958124034557</v>
       </c>
+      <c r="AK4" t="n">
+        <v>0.2110377652349473</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -982,6 +994,9 @@
       <c r="AJ5" t="n">
         <v>-0.0831137246957119</v>
       </c>
+      <c r="AK5" t="n">
+        <v>-0.08451079540403414</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1092,6 +1107,9 @@
       <c r="AJ6" t="n">
         <v>0.1804492024178024</v>
       </c>
+      <c r="AK6" t="n">
+        <v>0.1793300162230534</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1202,6 +1220,9 @@
       <c r="AJ7" t="n">
         <v>-0.4162293757001929</v>
       </c>
+      <c r="AK7" t="n">
+        <v>-0.4184923504491284</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1312,6 +1333,9 @@
       <c r="AJ8" t="n">
         <v>-0.146835367000857</v>
       </c>
+      <c r="AK8" t="n">
+        <v>-0.1484112219737171</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1422,6 +1446,9 @@
       <c r="AJ9" t="n">
         <v>-0.3360340345915358</v>
       </c>
+      <c r="AK9" t="n">
+        <v>-0.3389106449884931</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1532,6 +1559,9 @@
       <c r="AJ10" t="n">
         <v>0.3818607772386236</v>
       </c>
+      <c r="AK10" t="n">
+        <v>0.3808246095790463</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1642,6 +1672,9 @@
       <c r="AJ11" t="n">
         <v>-0.2190495416445642</v>
       </c>
+      <c r="AK11" t="n">
+        <v>-0.2208580328209747</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1752,6 +1785,9 @@
       <c r="AJ12" t="n">
         <v>-0.120461514420861</v>
       </c>
+      <c r="AK12" t="n">
+        <v>-0.1224832862166733</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1862,6 +1898,9 @@
       <c r="AJ13" t="n">
         <v>-0.06566655321228983</v>
       </c>
+      <c r="AK13" t="n">
+        <v>-0.06684832220096051</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1972,6 +2011,9 @@
       <c r="AJ14" t="n">
         <v>0.02089399429917753</v>
       </c>
+      <c r="AK14" t="n">
+        <v>0.01825992744519064</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2082,6 +2124,9 @@
       <c r="AJ15" t="n">
         <v>-0.1348945318304811</v>
       </c>
+      <c r="AK15" t="n">
+        <v>-0.1379029138653927</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2192,6 +2237,9 @@
       <c r="AJ16" t="n">
         <v>0.2773907182020113</v>
       </c>
+      <c r="AK16" t="n">
+        <v>0.2740299189480218</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2302,6 +2350,9 @@
       <c r="AJ17" t="n">
         <v>0.4053223465169289</v>
       </c>
+      <c r="AK17" t="n">
+        <v>0.4037149876856738</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2412,6 +2463,9 @@
       <c r="AJ18" t="n">
         <v>-0.171927840046439</v>
       </c>
+      <c r="AK18" t="n">
+        <v>-0.1733484303690955</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2522,6 +2576,9 @@
       <c r="AJ19" t="n">
         <v>0.2734989512955397</v>
       </c>
+      <c r="AK19" t="n">
+        <v>0.271648396048739</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2632,6 +2689,9 @@
       <c r="AJ20" t="n">
         <v>0.1678137813824143</v>
       </c>
+      <c r="AK20" t="n">
+        <v>0.1646127625193045</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2742,6 +2802,9 @@
       <c r="AJ21" t="n">
         <v>0.4642239367254518</v>
       </c>
+      <c r="AK21" t="n">
+        <v>0.462770864758084</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2852,6 +2915,9 @@
       <c r="AJ22" t="n">
         <v>0.2324742950046736</v>
       </c>
+      <c r="AK22" t="n">
+        <v>0.2308228241773186</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2962,6 +3028,9 @@
       <c r="AJ23" t="n">
         <v>-0.193639938456114</v>
       </c>
+      <c r="AK23" t="n">
+        <v>-0.1952931085354456</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3072,6 +3141,9 @@
       <c r="AJ24" t="n">
         <v>1.172326960508713</v>
       </c>
+      <c r="AK24" t="n">
+        <v>1.201667724990091</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3182,6 +3254,9 @@
       <c r="AJ25" t="n">
         <v>0.3279403410178572</v>
       </c>
+      <c r="AK25" t="n">
+        <v>0.3290428836638788</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3292,6 +3367,9 @@
       <c r="AJ26" t="n">
         <v>0.1365122387327802</v>
       </c>
+      <c r="AK26" t="n">
+        <v>0.1379256326830516</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3402,6 +3480,9 @@
       <c r="AJ27" t="n">
         <v>0.04218335366052362</v>
       </c>
+      <c r="AK27" t="n">
+        <v>0.04408688006636838</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3512,6 +3593,9 @@
       <c r="AJ28" t="n">
         <v>0.8404889944847462</v>
       </c>
+      <c r="AK28" t="n">
+        <v>0.8439888935947579</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3622,6 +3706,9 @@
       <c r="AJ29" t="n">
         <v>1.624586227371274</v>
       </c>
+      <c r="AK29" t="n">
+        <v>1.64659354911155</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3732,6 +3819,9 @@
       <c r="AJ30" t="n">
         <v>0.6731663980635805</v>
       </c>
+      <c r="AK30" t="n">
+        <v>0.675354378383917</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3842,6 +3932,9 @@
       <c r="AJ31" t="n">
         <v>-0.4238167282084913</v>
       </c>
+      <c r="AK31" t="n">
+        <v>-0.4231894437796456</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3952,6 +4045,9 @@
       <c r="AJ32" t="n">
         <v>0.5560937109816984</v>
       </c>
+      <c r="AK32" t="n">
+        <v>0.5579483860074417</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4062,6 +4158,9 @@
       <c r="AJ33" t="n">
         <v>0.7696339897421858</v>
       </c>
+      <c r="AK33" t="n">
+        <v>0.7709429923595345</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4172,6 +4271,9 @@
       <c r="AJ34" t="n">
         <v>-0.8435109048259559</v>
       </c>
+      <c r="AK34" t="n">
+        <v>-0.8431797558752934</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4282,6 +4384,9 @@
       <c r="AJ35" t="n">
         <v>0.8270499939026076</v>
       </c>
+      <c r="AK35" t="n">
+        <v>0.8280826258338156</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4392,6 +4497,9 @@
       <c r="AJ36" t="n">
         <v>0.7975324023907447</v>
       </c>
+      <c r="AK36" t="n">
+        <v>0.7986025928418157</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4502,6 +4610,9 @@
       <c r="AJ37" t="n">
         <v>0.7638357967613485</v>
       </c>
+      <c r="AK37" t="n">
+        <v>0.7649705981063649</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4612,6 +4723,9 @@
       <c r="AJ38" t="n">
         <v>0.6617766990308442</v>
       </c>
+      <c r="AK38" t="n">
+        <v>0.6625242431991429</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4722,6 +4836,9 @@
       <c r="AJ39" t="n">
         <v>0.6141279199648857</v>
       </c>
+      <c r="AK39" t="n">
+        <v>0.6144451317880788</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4832,6 +4949,9 @@
       <c r="AJ40" t="n">
         <v>0.788471087709354</v>
       </c>
+      <c r="AK40" t="n">
+        <v>0.7894895815444597</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4942,6 +5062,9 @@
       <c r="AJ41" t="n">
         <v>0.5859888051039607</v>
       </c>
+      <c r="AK41" t="n">
+        <v>0.5861484245300185</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5052,6 +5175,9 @@
       <c r="AJ42" t="n">
         <v>0.6528806834073759</v>
       </c>
+      <c r="AK42" t="n">
+        <v>0.6540565371246436</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5162,6 +5288,9 @@
       <c r="AJ43" t="n">
         <v>0.6914411102744098</v>
       </c>
+      <c r="AK43" t="n">
+        <v>0.6919994144775951</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5272,6 +5401,9 @@
       <c r="AJ44" t="n">
         <v>0.717050066026039</v>
       </c>
+      <c r="AK44" t="n">
+        <v>0.7174916439297618</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5382,6 +5514,9 @@
       <c r="AJ45" t="n">
         <v>0.7352755737330191</v>
       </c>
+      <c r="AK45" t="n">
+        <v>0.7362361773048951</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5492,6 +5627,9 @@
       <c r="AJ46" t="n">
         <v>-1.359221333174463</v>
       </c>
+      <c r="AK46" t="n">
+        <v>-1.36232344828481</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5602,6 +5740,9 @@
       <c r="AJ47" t="n">
         <v>-1.060349201080534</v>
       </c>
+      <c r="AK47" t="n">
+        <v>-1.062868892969785</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5712,6 +5853,9 @@
       <c r="AJ48" t="n">
         <v>-0.9201383292741714</v>
       </c>
+      <c r="AK48" t="n">
+        <v>-0.922896101287791</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5822,6 +5966,9 @@
       <c r="AJ49" t="n">
         <v>-0.6791247701565443</v>
       </c>
+      <c r="AK49" t="n">
+        <v>-0.6814237911531222</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5932,6 +6079,9 @@
       <c r="AJ50" t="n">
         <v>-0.09442811360542097</v>
       </c>
+      <c r="AK50" t="n">
+        <v>-0.09568552450823836</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6042,6 +6192,9 @@
       <c r="AJ51" t="n">
         <v>-0.8923194167514478</v>
       </c>
+      <c r="AK51" t="n">
+        <v>-0.8946086049678452</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6152,6 +6305,9 @@
       <c r="AJ52" t="n">
         <v>-0.8923194167514478</v>
       </c>
+      <c r="AK52" t="n">
+        <v>-0.8946086049678452</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6262,6 +6418,9 @@
       <c r="AJ53" t="n">
         <v>-1.194053733024771</v>
       </c>
+      <c r="AK53" t="n">
+        <v>-1.197293157989492</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6372,6 +6531,9 @@
       <c r="AJ54" t="n">
         <v>-0.20627501291092</v>
       </c>
+      <c r="AK54" t="n">
+        <v>-0.2079176218352357</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6482,6 +6644,9 @@
       <c r="AJ55" t="n">
         <v>-1.085580920201085</v>
       </c>
+      <c r="AK55" t="n">
+        <v>-1.088250542900276</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6592,6 +6757,9 @@
       <c r="AJ56" t="n">
         <v>-0.9553211483054026</v>
       </c>
+      <c r="AK56" t="n">
+        <v>-0.9572826025724268</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6702,6 +6870,9 @@
       <c r="AJ57" t="n">
         <v>-1.028517915151453</v>
       </c>
+      <c r="AK57" t="n">
+        <v>-1.031680207249177</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6812,6 +6983,9 @@
       <c r="AJ58" t="n">
         <v>-1.169079693645401</v>
       </c>
+      <c r="AK58" t="n">
+        <v>-1.172073557105753</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6922,6 +7096,9 @@
       <c r="AJ59" t="n">
         <v>-0.846560256496273</v>
       </c>
+      <c r="AK59" t="n">
+        <v>-0.8492542072347111</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7032,6 +7209,9 @@
       <c r="AJ60" t="n">
         <v>-0.4785525167422912</v>
       </c>
+      <c r="AK60" t="n">
+        <v>-0.4806633132214224</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7142,6 +7322,9 @@
       <c r="AJ61" t="n">
         <v>0.3714253410708598</v>
       </c>
+      <c r="AK61" t="n">
+        <v>0.3707710621599656</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7252,6 +7435,9 @@
       <c r="AJ62" t="n">
         <v>-1.301461012648</v>
       </c>
+      <c r="AK62" t="n">
+        <v>-1.305158419495614</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7362,6 +7548,9 @@
       <c r="AJ63" t="n">
         <v>-0.5982624198866413</v>
       </c>
+      <c r="AK63" t="n">
+        <v>-0.6007065274864377</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7472,6 +7661,9 @@
       <c r="AJ64" t="n">
         <v>-0.9206396031495032</v>
       </c>
+      <c r="AK64" t="n">
+        <v>-0.9242536305296237</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7582,6 +7774,9 @@
       <c r="AJ65" t="n">
         <v>-0.07924517872674593</v>
       </c>
+      <c r="AK65" t="n">
+        <v>-0.08082790268561652</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7692,6 +7887,9 @@
       <c r="AJ66" t="n">
         <v>-0.8561078904934323</v>
       </c>
+      <c r="AK66" t="n">
+        <v>-0.8584966158342233</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -7801,6 +7999,9 @@
       </c>
       <c r="AJ67" t="n">
         <v>-0.8419577734908958</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>-0.8439525632523482</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK67"/>
+  <dimension ref="A1:AL67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,9 @@
       <c r="AK1" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -658,6 +661,9 @@
       <c r="AK2" t="n">
         <v>-0.2596218004590841</v>
       </c>
+      <c r="AL2" t="n">
+        <v>-0.2613928991242836</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -771,6 +777,9 @@
       <c r="AK3" t="n">
         <v>0.2262175771497898</v>
       </c>
+      <c r="AL3" t="n">
+        <v>0.224806514882313</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -884,6 +893,9 @@
       <c r="AK4" t="n">
         <v>0.2110377652349473</v>
       </c>
+      <c r="AL4" t="n">
+        <v>0.209327684083108</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -997,6 +1009,9 @@
       <c r="AK5" t="n">
         <v>-0.08451079540403414</v>
       </c>
+      <c r="AL5" t="n">
+        <v>-0.08577285929405179</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1110,6 +1125,9 @@
       <c r="AK6" t="n">
         <v>0.1793300162230534</v>
       </c>
+      <c r="AL6" t="n">
+        <v>0.1783790398268919</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1223,6 +1241,9 @@
       <c r="AK7" t="n">
         <v>-0.4184923504491284</v>
       </c>
+      <c r="AL7" t="n">
+        <v>-0.420610167343657</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1336,6 +1357,9 @@
       <c r="AK8" t="n">
         <v>-0.1484112219737171</v>
       </c>
+      <c r="AL8" t="n">
+        <v>-0.1499049028430222</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1449,6 +1473,9 @@
       <c r="AK9" t="n">
         <v>-0.3389106449884931</v>
       </c>
+      <c r="AL9" t="n">
+        <v>-0.3415527640879036</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1562,6 +1589,9 @@
       <c r="AK10" t="n">
         <v>0.3808246095790463</v>
       </c>
+      <c r="AL10" t="n">
+        <v>0.3799333585681643</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1675,6 +1705,9 @@
       <c r="AK11" t="n">
         <v>-0.2208580328209747</v>
       </c>
+      <c r="AL11" t="n">
+        <v>-0.2225500069730408</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1788,6 +1821,9 @@
       <c r="AK12" t="n">
         <v>-0.1224832862166733</v>
       </c>
+      <c r="AL12" t="n">
+        <v>-0.1242155068550164</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1901,6 +1937,9 @@
       <c r="AK13" t="n">
         <v>-0.06684832220096051</v>
       </c>
+      <c r="AL13" t="n">
+        <v>-0.06793926355933198</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2014,6 +2053,9 @@
       <c r="AK14" t="n">
         <v>0.01825992744519064</v>
       </c>
+      <c r="AL14" t="n">
+        <v>0.01614892916394894</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2127,6 +2169,9 @@
       <c r="AK15" t="n">
         <v>-0.1379029138653927</v>
       </c>
+      <c r="AL15" t="n">
+        <v>-0.1402824084876109</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2240,6 +2285,9 @@
       <c r="AK16" t="n">
         <v>0.2740299189480218</v>
       </c>
+      <c r="AL16" t="n">
+        <v>0.2714557326508507</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2353,6 +2401,9 @@
       <c r="AK17" t="n">
         <v>0.4037149876856738</v>
       </c>
+      <c r="AL17" t="n">
+        <v>0.402657337730853</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2466,6 +2517,9 @@
       <c r="AK18" t="n">
         <v>-0.1733484303690955</v>
       </c>
+      <c r="AL18" t="n">
+        <v>-0.1745699221050254</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2579,6 +2633,9 @@
       <c r="AK19" t="n">
         <v>0.271648396048739</v>
       </c>
+      <c r="AL19" t="n">
+        <v>0.2701126981211011</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2692,6 +2749,9 @@
       <c r="AK20" t="n">
         <v>0.1646127625193045</v>
       </c>
+      <c r="AL20" t="n">
+        <v>0.1621796757441825</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2805,6 +2865,9 @@
       <c r="AK21" t="n">
         <v>0.462770864758084</v>
       </c>
+      <c r="AL21" t="n">
+        <v>0.4618475727246433</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2918,6 +2981,9 @@
       <c r="AK22" t="n">
         <v>0.2308228241773186</v>
       </c>
+      <c r="AL22" t="n">
+        <v>0.2296881475951287</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3031,6 +3097,9 @@
       <c r="AK23" t="n">
         <v>-0.1952931085354456</v>
       </c>
+      <c r="AL23" t="n">
+        <v>-0.1965185169666776</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3144,6 +3213,9 @@
       <c r="AK24" t="n">
         <v>1.201667724990091</v>
       </c>
+      <c r="AL24" t="n">
+        <v>1.230501052402839</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3257,6 +3329,9 @@
       <c r="AK25" t="n">
         <v>0.3290428836638788</v>
       </c>
+      <c r="AL25" t="n">
+        <v>0.3299752679240701</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3370,6 +3445,9 @@
       <c r="AK26" t="n">
         <v>0.1379256326830516</v>
       </c>
+      <c r="AL26" t="n">
+        <v>0.1392072345099074</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3483,6 +3561,9 @@
       <c r="AK27" t="n">
         <v>0.04408688006636838</v>
       </c>
+      <c r="AL27" t="n">
+        <v>0.0458187710262783</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3596,6 +3677,9 @@
       <c r="AK28" t="n">
         <v>0.8439888935947579</v>
       </c>
+      <c r="AL28" t="n">
+        <v>0.8471935281010571</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3709,6 +3793,9 @@
       <c r="AK29" t="n">
         <v>1.64659354911155</v>
       </c>
+      <c r="AL29" t="n">
+        <v>1.667058390090915</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3822,6 +3909,9 @@
       <c r="AK30" t="n">
         <v>0.675354378383917</v>
       </c>
+      <c r="AL30" t="n">
+        <v>0.6772750491113541</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3935,6 +4025,9 @@
       <c r="AK31" t="n">
         <v>-0.4231894437796456</v>
       </c>
+      <c r="AL31" t="n">
+        <v>-0.4228489941698726</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4048,6 +4141,9 @@
       <c r="AK32" t="n">
         <v>0.5579483860074417</v>
       </c>
+      <c r="AL32" t="n">
+        <v>0.5596007200512993</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4161,6 +4257,9 @@
       <c r="AK33" t="n">
         <v>0.7709429923595345</v>
       </c>
+      <c r="AL33" t="n">
+        <v>0.7720918062480124</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4274,6 +4373,9 @@
       <c r="AK34" t="n">
         <v>-0.8431797558752934</v>
       </c>
+      <c r="AL34" t="n">
+        <v>-0.8430232314552447</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4387,6 +4489,9 @@
       <c r="AK35" t="n">
         <v>0.8280826258338156</v>
       </c>
+      <c r="AL35" t="n">
+        <v>0.8289596056596549</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4500,6 +4605,9 @@
       <c r="AK36" t="n">
         <v>0.7986025928418157</v>
       </c>
+      <c r="AL36" t="n">
+        <v>0.7994411525159411</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4613,6 +4721,9 @@
       <c r="AK37" t="n">
         <v>0.7649705981063649</v>
       </c>
+      <c r="AL37" t="n">
+        <v>0.7658615534342998</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4726,6 +4837,9 @@
       <c r="AK38" t="n">
         <v>0.6625242431991429</v>
       </c>
+      <c r="AL38" t="n">
+        <v>0.6631343943773693</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4839,6 +4953,9 @@
       <c r="AK39" t="n">
         <v>0.6144451317880788</v>
       </c>
+      <c r="AL39" t="n">
+        <v>0.6146609827799975</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4952,6 +5069,9 @@
       <c r="AK40" t="n">
         <v>0.7894895815444597</v>
       </c>
+      <c r="AL40" t="n">
+        <v>0.7903682437393054</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5065,6 +5185,9 @@
       <c r="AK41" t="n">
         <v>0.5861484245300185</v>
       </c>
+      <c r="AL41" t="n">
+        <v>0.586236014029804</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5178,6 +5301,9 @@
       <c r="AK42" t="n">
         <v>0.6540565371246436</v>
       </c>
+      <c r="AL42" t="n">
+        <v>0.654963187537953</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5291,6 +5417,9 @@
       <c r="AK43" t="n">
         <v>0.6919994144775951</v>
       </c>
+      <c r="AL43" t="n">
+        <v>0.6924326982296061</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5404,6 +5533,9 @@
       <c r="AK44" t="n">
         <v>0.7174916439297618</v>
       </c>
+      <c r="AL44" t="n">
+        <v>0.7178079910522603</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5517,6 +5649,9 @@
       <c r="AK45" t="n">
         <v>0.7362361773048951</v>
       </c>
+      <c r="AL45" t="n">
+        <v>0.7369049966266479</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5630,6 +5765,9 @@
       <c r="AK46" t="n">
         <v>-1.36232344828481</v>
       </c>
+      <c r="AL46" t="n">
+        <v>-1.365339082918148</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5743,6 +5881,9 @@
       <c r="AK47" t="n">
         <v>-1.062868892969785</v>
       </c>
+      <c r="AL47" t="n">
+        <v>-1.065331890845996</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5856,6 +5997,9 @@
       <c r="AK48" t="n">
         <v>-0.922896101287791</v>
       </c>
+      <c r="AL48" t="n">
+        <v>-0.9256116906311249</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5969,6 +6113,9 @@
       <c r="AK49" t="n">
         <v>-0.6814237911531222</v>
       </c>
+      <c r="AL49" t="n">
+        <v>-0.6836776679231935</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6082,6 +6229,9 @@
       <c r="AK50" t="n">
         <v>-0.09568552450823836</v>
       </c>
+      <c r="AL50" t="n">
+        <v>-0.09690395508425551</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6195,6 +6345,9 @@
       <c r="AK51" t="n">
         <v>-0.8946086049678452</v>
       </c>
+      <c r="AL51" t="n">
+        <v>-0.896888956053464</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6308,6 +6461,9 @@
       <c r="AK52" t="n">
         <v>-0.8946086049678452</v>
       </c>
+      <c r="AL52" t="n">
+        <v>-0.896888956053464</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6421,6 +6577,9 @@
       <c r="AK53" t="n">
         <v>-1.197293157989492</v>
       </c>
+      <c r="AL53" t="n">
+        <v>-1.200487172611626</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6534,6 +6693,9 @@
       <c r="AK54" t="n">
         <v>-0.2079176218352357</v>
       </c>
+      <c r="AL54" t="n">
+        <v>-0.2095164180416367</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6647,6 +6809,9 @@
       <c r="AK55" t="n">
         <v>-1.088250542900276</v>
       </c>
+      <c r="AL55" t="n">
+        <v>-1.090853525404194</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6760,6 +6925,9 @@
       <c r="AK56" t="n">
         <v>-0.9572826025724268</v>
       </c>
+      <c r="AL56" t="n">
+        <v>-0.9591729356242437</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6873,6 +7041,9 @@
       <c r="AK57" t="n">
         <v>-1.031680207249177</v>
       </c>
+      <c r="AL57" t="n">
+        <v>-1.034581378905602</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6986,6 +7157,9 @@
       <c r="AK58" t="n">
         <v>-1.172073557105753</v>
       </c>
+      <c r="AL58" t="n">
+        <v>-1.174795270644304</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7099,6 +7273,9 @@
       <c r="AK59" t="n">
         <v>-0.8492542072347111</v>
       </c>
+      <c r="AL59" t="n">
+        <v>-0.8518006640584413</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7212,6 +7389,9 @@
       <c r="AK60" t="n">
         <v>-0.4806633132214224</v>
       </c>
+      <c r="AL60" t="n">
+        <v>-0.4825794831166677</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7325,6 +7505,9 @@
       <c r="AK61" t="n">
         <v>0.3707710621599656</v>
       </c>
+      <c r="AL61" t="n">
+        <v>0.3701559255036529</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7438,6 +7621,9 @@
       <c r="AK62" t="n">
         <v>-1.305158419495614</v>
       </c>
+      <c r="AL62" t="n">
+        <v>-1.30854205064214</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7551,6 +7737,9 @@
       <c r="AK63" t="n">
         <v>-0.6007065274864377</v>
       </c>
+      <c r="AL63" t="n">
+        <v>-0.6029933561583817</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7664,6 +7853,9 @@
       <c r="AK64" t="n">
         <v>-0.9242536305296237</v>
       </c>
+      <c r="AL64" t="n">
+        <v>-0.9276577806228665</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7777,6 +7969,9 @@
       <c r="AK65" t="n">
         <v>-0.08082790268561652</v>
       </c>
+      <c r="AL65" t="n">
+        <v>-0.08226005803106536</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7890,6 +8085,9 @@
       <c r="AK66" t="n">
         <v>-0.8584966158342233</v>
       </c>
+      <c r="AL66" t="n">
+        <v>-0.8606238397829771</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8002,6 +8200,9 @@
       </c>
       <c r="AK67" t="n">
         <v>-0.8439525632523482</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>-0.8456707089858578</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL67"/>
+  <dimension ref="A1:AM67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,6 +548,9 @@
       <c r="AL1" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -664,6 +667,9 @@
       <c r="AL2" t="n">
         <v>-0.2613928991242836</v>
       </c>
+      <c r="AM2" t="n">
+        <v>-0.2630198743266977</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -780,6 +786,9 @@
       <c r="AL3" t="n">
         <v>0.224806514882313</v>
       </c>
+      <c r="AM3" t="n">
+        <v>0.2235722107156869</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -896,6 +905,9 @@
       <c r="AL4" t="n">
         <v>0.209327684083108</v>
       </c>
+      <c r="AM4" t="n">
+        <v>0.2077633492855206</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1012,6 +1024,9 @@
       <c r="AL5" t="n">
         <v>-0.08577285929405179</v>
       </c>
+      <c r="AM5" t="n">
+        <v>-0.08690921696257557</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1128,6 +1143,9 @@
       <c r="AL6" t="n">
         <v>0.1783790398268919</v>
       </c>
+      <c r="AM6" t="n">
+        <v>0.177583151198498</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1244,6 +1262,9 @@
       <c r="AL7" t="n">
         <v>-0.420610167343657</v>
       </c>
+      <c r="AM7" t="n">
+        <v>-0.4225844564422266</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1360,6 +1381,9 @@
       <c r="AL8" t="n">
         <v>-0.1499049028430222</v>
       </c>
+      <c r="AM8" t="n">
+        <v>-0.1513107870297135</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1476,6 +1500,9 @@
       <c r="AL9" t="n">
         <v>-0.3415527640879036</v>
       </c>
+      <c r="AM9" t="n">
+        <v>-0.3439632038854467</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1592,6 +1619,9 @@
       <c r="AL10" t="n">
         <v>0.3799333585681643</v>
       </c>
+      <c r="AM10" t="n">
+        <v>0.3791748145472011</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1708,6 +1738,9 @@
       <c r="AL11" t="n">
         <v>-0.2225500069730408</v>
       </c>
+      <c r="AM11" t="n">
+        <v>-0.2241281802789486</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1824,6 +1857,9 @@
       <c r="AL12" t="n">
         <v>-0.1242155068550164</v>
       </c>
+      <c r="AM12" t="n">
+        <v>-0.1256861817728385</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1940,6 +1976,9 @@
       <c r="AL13" t="n">
         <v>-0.06793926355933198</v>
       </c>
+      <c r="AM13" t="n">
+        <v>-0.06894565794452112</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2056,6 +2095,9 @@
       <c r="AL14" t="n">
         <v>0.01614892916394894</v>
       </c>
+      <c r="AM14" t="n">
+        <v>0.0145074563669295</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2172,6 +2214,9 @@
       <c r="AL15" t="n">
         <v>-0.1402824084876109</v>
       </c>
+      <c r="AM15" t="n">
+        <v>-0.1421038138330697</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2288,6 +2333,9 @@
       <c r="AL16" t="n">
         <v>0.2714557326508507</v>
       </c>
+      <c r="AM16" t="n">
+        <v>0.2695818477663385</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2404,6 +2452,9 @@
       <c r="AL17" t="n">
         <v>0.402657337730853</v>
       </c>
+      <c r="AM17" t="n">
+        <v>0.4020759354219953</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2520,6 +2571,9 @@
       <c r="AL18" t="n">
         <v>-0.1745699221050254</v>
       </c>
+      <c r="AM18" t="n">
+        <v>-0.175614305055408</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2636,6 +2690,9 @@
       <c r="AL19" t="n">
         <v>0.2701126981211011</v>
       </c>
+      <c r="AM19" t="n">
+        <v>0.2688559165248353</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2752,6 +2809,9 @@
       <c r="AL20" t="n">
         <v>0.1621796757441825</v>
       </c>
+      <c r="AM20" t="n">
+        <v>0.1604256308658838</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2868,6 +2928,9 @@
       <c r="AL21" t="n">
         <v>0.4618475727246433</v>
       </c>
+      <c r="AM21" t="n">
+        <v>0.4613830658251348</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2984,6 +3047,9 @@
       <c r="AL22" t="n">
         <v>0.2296881475951287</v>
       </c>
+      <c r="AM22" t="n">
+        <v>0.2290035124398133</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3100,6 +3166,9 @@
       <c r="AL23" t="n">
         <v>-0.1965185169666776</v>
       </c>
+      <c r="AM23" t="n">
+        <v>-0.1973716110191535</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3216,6 +3285,9 @@
       <c r="AL24" t="n">
         <v>1.230501052402839</v>
       </c>
+      <c r="AM24" t="n">
+        <v>1.258392536119084</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3332,6 +3404,9 @@
       <c r="AL25" t="n">
         <v>0.3299752679240701</v>
       </c>
+      <c r="AM25" t="n">
+        <v>0.3307497557158192</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3448,6 +3523,9 @@
       <c r="AL26" t="n">
         <v>0.1392072345099074</v>
       </c>
+      <c r="AM26" t="n">
+        <v>0.1403507757375232</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3564,6 +3642,9 @@
       <c r="AL27" t="n">
         <v>0.0458187710262783</v>
       </c>
+      <c r="AM27" t="n">
+        <v>0.04737514309988544</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3680,6 +3761,9 @@
       <c r="AL28" t="n">
         <v>0.8471935281010571</v>
       </c>
+      <c r="AM28" t="n">
+        <v>0.8501042534907017</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3796,6 +3880,9 @@
       <c r="AL29" t="n">
         <v>1.667058390090915</v>
       </c>
+      <c r="AM29" t="n">
+        <v>1.685857825902461</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3912,6 +3999,9 @@
       <c r="AL30" t="n">
         <v>0.6772750491113541</v>
       </c>
+      <c r="AM30" t="n">
+        <v>0.6789377133728456</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4028,6 +4118,9 @@
       <c r="AL31" t="n">
         <v>-0.4228489941698726</v>
       </c>
+      <c r="AM31" t="n">
+        <v>-0.4227642289725392</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4144,6 +4237,9 @@
       <c r="AL32" t="n">
         <v>0.5596007200512993</v>
       </c>
+      <c r="AM32" t="n">
+        <v>0.5610525292111412</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4260,6 +4356,9 @@
       <c r="AL33" t="n">
         <v>0.7720918062480124</v>
       </c>
+      <c r="AM33" t="n">
+        <v>0.7730864664851537</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4376,6 +4475,9 @@
       <c r="AL34" t="n">
         <v>-0.8430232314552447</v>
       </c>
+      <c r="AM34" t="n">
+        <v>-0.8430297050491181</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4492,6 +4594,9 @@
       <c r="AL35" t="n">
         <v>0.8289596056596549</v>
       </c>
+      <c r="AM35" t="n">
+        <v>0.8296940368090778</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4608,6 +4713,9 @@
       <c r="AL36" t="n">
         <v>0.7994411525159411</v>
       </c>
+      <c r="AM36" t="n">
+        <v>0.8000732166194243</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4724,6 +4832,9 @@
       <c r="AL37" t="n">
         <v>0.7658615534342998</v>
       </c>
+      <c r="AM37" t="n">
+        <v>0.7665349336017617</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4840,6 +4951,9 @@
       <c r="AL38" t="n">
         <v>0.6631343943773693</v>
       </c>
+      <c r="AM38" t="n">
+        <v>0.6636190245485221</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4956,6 +5070,9 @@
       <c r="AL39" t="n">
         <v>0.6146609827799975</v>
       </c>
+      <c r="AM39" t="n">
+        <v>0.6147872612599334</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5072,6 +5189,9 @@
       <c r="AL40" t="n">
         <v>0.7903682437393054</v>
       </c>
+      <c r="AM40" t="n">
+        <v>0.7911178802806007</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5188,6 +5308,9 @@
       <c r="AL41" t="n">
         <v>0.586236014029804</v>
       </c>
+      <c r="AM41" t="n">
+        <v>0.5862634484860831</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5304,6 +5427,9 @@
       <c r="AL42" t="n">
         <v>0.654963187537953</v>
       </c>
+      <c r="AM42" t="n">
+        <v>0.6556273600944645</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5420,6 +5546,9 @@
       <c r="AL43" t="n">
         <v>0.6924326982296061</v>
       </c>
+      <c r="AM43" t="n">
+        <v>0.6927541557786226</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5536,6 +5665,9 @@
       <c r="AL44" t="n">
         <v>0.7178079910522603</v>
       </c>
+      <c r="AM44" t="n">
+        <v>0.7180150641548799</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5652,6 +5784,9 @@
       <c r="AL45" t="n">
         <v>0.7369049966266479</v>
       </c>
+      <c r="AM45" t="n">
+        <v>0.7373178849152835</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5768,6 +5903,9 @@
       <c r="AL46" t="n">
         <v>-1.365339082918148</v>
       </c>
+      <c r="AM46" t="n">
+        <v>-1.368264569284661</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5884,6 +6022,9 @@
       <c r="AL47" t="n">
         <v>-1.065331890845996</v>
       </c>
+      <c r="AM47" t="n">
+        <v>-1.067733549448616</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6000,6 +6141,9 @@
       <c r="AL48" t="n">
         <v>-0.9256116906311249</v>
       </c>
+      <c r="AM48" t="n">
+        <v>-0.9282742848695238</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6116,6 +6260,9 @@
       <c r="AL49" t="n">
         <v>-0.6836776679231935</v>
       </c>
+      <c r="AM49" t="n">
+        <v>-0.6858789294758868</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6232,6 +6379,9 @@
       <c r="AL50" t="n">
         <v>-0.09690395508425551</v>
       </c>
+      <c r="AM50" t="n">
+        <v>-0.09808329950249413</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6348,6 +6498,9 @@
       <c r="AL51" t="n">
         <v>-0.896888956053464</v>
       </c>
+      <c r="AM51" t="n">
+        <v>-0.8991480564305703</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6464,6 +6617,9 @@
       <c r="AL52" t="n">
         <v>-0.896888956053464</v>
       </c>
+      <c r="AM52" t="n">
+        <v>-0.8991480564305703</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6580,6 +6736,9 @@
       <c r="AL53" t="n">
         <v>-1.200487172611626</v>
       </c>
+      <c r="AM53" t="n">
+        <v>-1.203623468949435</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6696,6 +6855,9 @@
       <c r="AL54" t="n">
         <v>-0.2095164180416367</v>
       </c>
+      <c r="AM54" t="n">
+        <v>-0.2110680565832144</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6812,6 +6974,9 @@
       <c r="AL55" t="n">
         <v>-1.090853525404194</v>
       </c>
+      <c r="AM55" t="n">
+        <v>-1.093386116925086</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6928,6 +7093,9 @@
       <c r="AL56" t="n">
         <v>-0.9591729356242437</v>
       </c>
+      <c r="AM56" t="n">
+        <v>-0.9609952655570781</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7044,6 +7212,9 @@
       <c r="AL57" t="n">
         <v>-1.034581378905602</v>
       </c>
+      <c r="AM57" t="n">
+        <v>-1.037241102188577</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7160,6 +7331,9 @@
       <c r="AL58" t="n">
         <v>-1.174795270644304</v>
       </c>
+      <c r="AM58" t="n">
+        <v>-1.177266506218855</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7276,6 +7450,9 @@
       <c r="AL59" t="n">
         <v>-0.8518006640584413</v>
       </c>
+      <c r="AM59" t="n">
+        <v>-0.8542029597431753</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7392,6 +7569,9 @@
       <c r="AL60" t="n">
         <v>-0.4825794831166677</v>
       </c>
+      <c r="AM60" t="n">
+        <v>-0.4843143771048801</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7508,6 +7688,9 @@
       <c r="AL61" t="n">
         <v>0.3701559255036529</v>
       </c>
+      <c r="AM61" t="n">
+        <v>0.3695788972541807</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7624,6 +7807,9 @@
       <c r="AL62" t="n">
         <v>-1.30854205064214</v>
       </c>
+      <c r="AM62" t="n">
+        <v>-1.311636239095806</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7740,6 +7926,9 @@
       <c r="AL63" t="n">
         <v>-0.6029933561583817</v>
       </c>
+      <c r="AM63" t="n">
+        <v>-0.6051229903361128</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7856,6 +8045,9 @@
       <c r="AL64" t="n">
         <v>-0.9276577806228665</v>
       </c>
+      <c r="AM64" t="n">
+        <v>-0.9308547283180466</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7972,6 +8164,9 @@
       <c r="AL65" t="n">
         <v>-0.08226005803106536</v>
       </c>
+      <c r="AM65" t="n">
+        <v>-0.08355256059357417</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8088,6 +8283,9 @@
       <c r="AL66" t="n">
         <v>-0.8606238397829771</v>
       </c>
+      <c r="AM66" t="n">
+        <v>-0.86251640085432</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8203,6 +8401,9 @@
       </c>
       <c r="AL67" t="n">
         <v>-0.8456707089858578</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>-0.8471479654445229</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM67"/>
+  <dimension ref="A1:AN67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,6 +551,9 @@
       <c r="AM1" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -670,6 +673,9 @@
       <c r="AM2" t="n">
         <v>-0.2630198743266977</v>
       </c>
+      <c r="AN2" t="n">
+        <v>-0.2645090459458807</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -789,6 +795,9 @@
       <c r="AM3" t="n">
         <v>0.2235722107156869</v>
       </c>
+      <c r="AN3" t="n">
+        <v>0.2225030332912461</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -908,6 +917,9 @@
       <c r="AM4" t="n">
         <v>0.2077633492855206</v>
       </c>
+      <c r="AN4" t="n">
+        <v>0.2063405553007649</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1027,6 +1039,9 @@
       <c r="AM5" t="n">
         <v>-0.08690921696257557</v>
       </c>
+      <c r="AN5" t="n">
+        <v>-0.08792962034190202</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1146,6 +1161,9 @@
       <c r="AM6" t="n">
         <v>0.177583151198498</v>
       </c>
+      <c r="AN6" t="n">
+        <v>0.1769286245253762</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1265,6 +1283,9 @@
       <c r="AM7" t="n">
         <v>-0.4225844564422266</v>
       </c>
+      <c r="AN7" t="n">
+        <v>-0.4244186681185677</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1384,6 +1405,9 @@
       <c r="AM8" t="n">
         <v>-0.1513107870297135</v>
       </c>
+      <c r="AN8" t="n">
+        <v>-0.1526255423151178</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1503,6 +1527,9 @@
       <c r="AM9" t="n">
         <v>-0.3439632038854467</v>
       </c>
+      <c r="AN9" t="n">
+        <v>-0.3461480245942858</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1622,6 +1649,9 @@
       <c r="AM10" t="n">
         <v>0.3791748145472011</v>
       </c>
+      <c r="AN10" t="n">
+        <v>0.378536464317788</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1741,6 +1771,9 @@
       <c r="AM11" t="n">
         <v>-0.2241281802789486</v>
       </c>
+      <c r="AN11" t="n">
+        <v>-0.2255964547705195</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1860,6 +1893,9 @@
       <c r="AM12" t="n">
         <v>-0.1256861817728385</v>
       </c>
+      <c r="AN12" t="n">
+        <v>-0.1269231363498838</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1979,6 +2015,9 @@
       <c r="AM13" t="n">
         <v>-0.06894565794452112</v>
       </c>
+      <c r="AN13" t="n">
+        <v>-0.06987390950178832</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2098,6 +2137,9 @@
       <c r="AM14" t="n">
         <v>0.0145074563669295</v>
       </c>
+      <c r="AN14" t="n">
+        <v>0.01328238141031424</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2217,6 +2259,9 @@
       <c r="AM15" t="n">
         <v>-0.1421038138330697</v>
       </c>
+      <c r="AN15" t="n">
+        <v>-0.1434361498673043</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2336,6 +2381,9 @@
       <c r="AM16" t="n">
         <v>0.2695818477663385</v>
       </c>
+      <c r="AN16" t="n">
+        <v>0.2683234644056952</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2455,6 +2503,9 @@
       <c r="AM17" t="n">
         <v>0.4020759354219953</v>
       </c>
+      <c r="AN17" t="n">
+        <v>0.401900780268653</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2574,6 +2625,9 @@
       <c r="AM18" t="n">
         <v>-0.175614305055408</v>
       </c>
+      <c r="AN18" t="n">
+        <v>-0.1765026172522052</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2693,6 +2747,9 @@
       <c r="AM19" t="n">
         <v>0.2688559165248353</v>
       </c>
+      <c r="AN19" t="n">
+        <v>0.2678433326026709</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2812,6 +2869,9 @@
       <c r="AM20" t="n">
         <v>0.1604256308658838</v>
       </c>
+      <c r="AN20" t="n">
+        <v>0.1592641436520291</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2931,6 +2991,9 @@
       <c r="AM21" t="n">
         <v>0.4613830658251348</v>
       </c>
+      <c r="AN21" t="n">
+        <v>0.4613094680549087</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3050,6 +3113,9 @@
       <c r="AM22" t="n">
         <v>0.2290035124398133</v>
       </c>
+      <c r="AN22" t="n">
+        <v>0.228704981251121</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3169,6 +3235,9 @@
       <c r="AM23" t="n">
         <v>-0.1973716110191535</v>
       </c>
+      <c r="AN23" t="n">
+        <v>-0.1979053375699161</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3288,6 +3357,9 @@
       <c r="AM24" t="n">
         <v>1.258392536119084</v>
       </c>
+      <c r="AN24" t="n">
+        <v>1.284993499529379</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3407,6 +3479,9 @@
       <c r="AM25" t="n">
         <v>0.3307497557158192</v>
       </c>
+      <c r="AN25" t="n">
+        <v>0.3313796073879326</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3526,6 +3601,9 @@
       <c r="AM26" t="n">
         <v>0.1403507757375232</v>
       </c>
+      <c r="AN26" t="n">
+        <v>0.1413536531611099</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3645,6 +3723,9 @@
       <c r="AM27" t="n">
         <v>0.04737514309988544</v>
       </c>
+      <c r="AN27" t="n">
+        <v>0.04875603760292296</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3764,6 +3845,9 @@
       <c r="AM28" t="n">
         <v>0.8501042534907017</v>
       </c>
+      <c r="AN28" t="n">
+        <v>0.8527271927022204</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3883,6 +3967,9 @@
       <c r="AM29" t="n">
         <v>1.685857825902461</v>
       </c>
+      <c r="AN29" t="n">
+        <v>1.702921068672023</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4002,6 +4089,9 @@
       <c r="AM30" t="n">
         <v>0.6789377133728456</v>
       </c>
+      <c r="AN30" t="n">
+        <v>0.6803550135992229</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4121,6 +4211,9 @@
       <c r="AM31" t="n">
         <v>-0.4227642289725392</v>
       </c>
+      <c r="AN31" t="n">
+        <v>-0.4229038818153857</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4240,6 +4333,9 @@
       <c r="AM32" t="n">
         <v>0.5610525292111412</v>
       </c>
+      <c r="AN32" t="n">
+        <v>0.5623090122894145</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4359,6 +4455,9 @@
       <c r="AM33" t="n">
         <v>0.7730864664851537</v>
       </c>
+      <c r="AN33" t="n">
+        <v>0.7739348515093674</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4478,6 +4577,9 @@
       <c r="AM34" t="n">
         <v>-0.8430297050491181</v>
       </c>
+      <c r="AN34" t="n">
+        <v>-0.8431859887055878</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4597,6 +4699,9 @@
       <c r="AM35" t="n">
         <v>0.8296940368090778</v>
       </c>
+      <c r="AN35" t="n">
+        <v>0.8302993251587069</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4716,6 +4821,9 @@
       <c r="AM36" t="n">
         <v>0.8000732166194243</v>
       </c>
+      <c r="AN36" t="n">
+        <v>0.8005234842973685</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4835,6 +4943,9 @@
       <c r="AM37" t="n">
         <v>0.7665349336017617</v>
       </c>
+      <c r="AN37" t="n">
+        <v>0.7670165974571579</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4954,6 +5065,9 @@
       <c r="AM38" t="n">
         <v>0.6636190245485221</v>
       </c>
+      <c r="AN38" t="n">
+        <v>0.6639903901973366</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5073,6 +5187,9 @@
       <c r="AM39" t="n">
         <v>0.6147872612599334</v>
       </c>
+      <c r="AN39" t="n">
+        <v>0.6148354462128486</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5192,6 +5309,9 @@
       <c r="AM40" t="n">
         <v>0.7911178802806007</v>
       </c>
+      <c r="AN40" t="n">
+        <v>0.7917496729787732</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5311,6 +5431,9 @@
       <c r="AM41" t="n">
         <v>0.5862634484860831</v>
       </c>
+      <c r="AN41" t="n">
+        <v>0.5862417398738902</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5430,6 +5553,9 @@
       <c r="AM42" t="n">
         <v>0.6556273600944645</v>
       </c>
+      <c r="AN42" t="n">
+        <v>0.6560758832411928</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5549,6 +5675,9 @@
       <c r="AM43" t="n">
         <v>0.6927541557786226</v>
       </c>
+      <c r="AN43" t="n">
+        <v>0.6929768786820319</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5668,6 +5797,9 @@
       <c r="AM44" t="n">
         <v>0.7180150641548799</v>
       </c>
+      <c r="AN44" t="n">
+        <v>0.7181281521153368</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5787,6 +5919,9 @@
       <c r="AM45" t="n">
         <v>0.7373178849152835</v>
       </c>
+      <c r="AN45" t="n">
+        <v>0.7375094511301918</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5906,6 +6041,9 @@
       <c r="AM46" t="n">
         <v>-1.368264569284661</v>
       </c>
+      <c r="AN46" t="n">
+        <v>-1.37109729563454</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6025,6 +6163,9 @@
       <c r="AM47" t="n">
         <v>-1.067733549448616</v>
       </c>
+      <c r="AN47" t="n">
+        <v>-1.07007011007847</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6144,6 +6285,9 @@
       <c r="AM48" t="n">
         <v>-0.9282742848695238</v>
       </c>
+      <c r="AN48" t="n">
+        <v>-0.9308747765014584</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6263,6 +6407,9 @@
       <c r="AM49" t="n">
         <v>-0.6858789294758868</v>
       </c>
+      <c r="AN49" t="n">
+        <v>-0.688021444619115</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6382,6 +6529,9 @@
       <c r="AM50" t="n">
         <v>-0.09808329950249413</v>
       </c>
+      <c r="AN50" t="n">
+        <v>-0.09922368928592079</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6501,6 +6651,9 @@
       <c r="AM51" t="n">
         <v>-0.8991480564305703</v>
       </c>
+      <c r="AN51" t="n">
+        <v>-0.901375033068355</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6620,6 +6773,9 @@
       <c r="AM52" t="n">
         <v>-0.8991480564305703</v>
       </c>
+      <c r="AN52" t="n">
+        <v>-0.901375033068355</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6739,6 +6895,9 @@
       <c r="AM53" t="n">
         <v>-1.203623468949435</v>
       </c>
+      <c r="AN53" t="n">
+        <v>-1.206691515095003</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6858,6 +7017,9 @@
       <c r="AM54" t="n">
         <v>-0.2110680565832144</v>
       </c>
+      <c r="AN54" t="n">
+        <v>-0.2125700231167854</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6977,6 +7139,9 @@
       <c r="AM55" t="n">
         <v>-1.093386116925086</v>
       </c>
+      <c r="AN55" t="n">
+        <v>-1.095845420912658</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7096,6 +7261,9 @@
       <c r="AM56" t="n">
         <v>-0.9609952655570781</v>
       </c>
+      <c r="AN56" t="n">
+        <v>-0.9627526784634908</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7215,6 +7383,9 @@
       <c r="AM57" t="n">
         <v>-1.037241102188577</v>
       </c>
+      <c r="AN57" t="n">
+        <v>-1.039679290050856</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7334,6 +7505,9 @@
       <c r="AM58" t="n">
         <v>-1.177266506218855</v>
       </c>
+      <c r="AN58" t="n">
+        <v>-1.179509183931815</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7453,6 +7627,9 @@
       <c r="AM59" t="n">
         <v>-0.8542029597431753</v>
       </c>
+      <c r="AN59" t="n">
+        <v>-0.85646574314006</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7572,6 +7749,9 @@
       <c r="AM60" t="n">
         <v>-0.4843143771048801</v>
       </c>
+      <c r="AN60" t="n">
+        <v>-0.4858820151715821</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7691,6 +7871,9 @@
       <c r="AM61" t="n">
         <v>0.3695788972541807</v>
       </c>
+      <c r="AN61" t="n">
+        <v>0.3690385993229034</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7810,6 +7993,9 @@
       <c r="AM62" t="n">
         <v>-1.311636239095806</v>
       </c>
+      <c r="AN62" t="n">
+        <v>-1.314465556136546</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7929,6 +8115,9 @@
       <c r="AM63" t="n">
         <v>-0.6051229903361128</v>
       </c>
+      <c r="AN63" t="n">
+        <v>-0.6070979676215698</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8048,6 +8237,9 @@
       <c r="AM64" t="n">
         <v>-0.9308547283180466</v>
       </c>
+      <c r="AN64" t="n">
+        <v>-0.9338494669696941</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8167,6 +8359,9 @@
       <c r="AM65" t="n">
         <v>-0.08355256059357417</v>
       </c>
+      <c r="AN65" t="n">
+        <v>-0.08471678073983037</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8286,6 +8481,9 @@
       <c r="AM66" t="n">
         <v>-0.86251640085432</v>
       </c>
+      <c r="AN66" t="n">
+        <v>-0.8642004023853886</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8404,6 +8602,9 @@
       </c>
       <c r="AM67" t="n">
         <v>-0.8471479654445229</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>-0.8484181256042819</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN67"/>
+  <dimension ref="A1:AO67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,6 +554,9 @@
       <c r="AN1" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -676,6 +679,9 @@
       <c r="AN2" t="n">
         <v>-0.2645090459458807</v>
       </c>
+      <c r="AO2" t="n">
+        <v>-0.2658678514896207</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -798,6 +804,9 @@
       <c r="AN3" t="n">
         <v>0.2225030332912461</v>
       </c>
+      <c r="AO3" t="n">
+        <v>0.2215864561260026</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -920,6 +929,9 @@
       <c r="AN4" t="n">
         <v>0.2063405553007649</v>
       </c>
+      <c r="AO4" t="n">
+        <v>0.2050534915404987</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1042,6 +1054,9 @@
       <c r="AN5" t="n">
         <v>-0.08792962034190202</v>
       </c>
+      <c r="AO5" t="n">
+        <v>-0.08884403716120379</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1164,6 +1179,9 @@
       <c r="AN6" t="n">
         <v>0.1769286245253762</v>
       </c>
+      <c r="AO6" t="n">
+        <v>0.1764014694865367</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1286,6 +1304,9 @@
       <c r="AN7" t="n">
         <v>-0.4244186681185677</v>
       </c>
+      <c r="AO7" t="n">
+        <v>-0.4261177375540917</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1408,6 +1429,9 @@
       <c r="AN8" t="n">
         <v>-0.1526255423151178</v>
       </c>
+      <c r="AO8" t="n">
+        <v>-0.1538478215016539</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1530,6 +1554,9 @@
       <c r="AN9" t="n">
         <v>-0.3461480245942858</v>
       </c>
+      <c r="AO9" t="n">
+        <v>-0.3481159389236401</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1652,6 +1679,9 @@
       <c r="AN10" t="n">
         <v>0.378536464317788</v>
       </c>
+      <c r="AO10" t="n">
+        <v>0.3780057617735462</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1774,6 +1804,9 @@
       <c r="AN11" t="n">
         <v>-0.2255964547705195</v>
       </c>
+      <c r="AO11" t="n">
+        <v>-0.226959670854065</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1896,6 +1929,9 @@
       <c r="AN12" t="n">
         <v>-0.1269231363498838</v>
       </c>
+      <c r="AO12" t="n">
+        <v>-0.12795356156914</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2018,6 +2054,9 @@
       <c r="AN13" t="n">
         <v>-0.06987390950178832</v>
       </c>
+      <c r="AO13" t="n">
+        <v>-0.07073042950918212</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2140,6 +2179,9 @@
       <c r="AN14" t="n">
         <v>0.01328238141031424</v>
       </c>
+      <c r="AO14" t="n">
+        <v>0.01242185598880382</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2262,6 +2304,9 @@
       <c r="AN15" t="n">
         <v>-0.1434361498673043</v>
       </c>
+      <c r="AO15" t="n">
+        <v>-0.1443457371383662</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2384,6 +2429,9 @@
       <c r="AN16" t="n">
         <v>0.2683234644056952</v>
       </c>
+      <c r="AO16" t="n">
+        <v>0.2675985434451222</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2506,6 +2554,9 @@
       <c r="AN17" t="n">
         <v>0.401900780268653</v>
       </c>
+      <c r="AO17" t="n">
+        <v>0.402066005486354</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2628,6 +2679,9 @@
       <c r="AN18" t="n">
         <v>-0.1765026172522052</v>
       </c>
+      <c r="AO18" t="n">
+        <v>-0.1772547739443595</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2750,6 +2804,9 @@
       <c r="AN19" t="n">
         <v>0.2678433326026709</v>
       </c>
+      <c r="AO19" t="n">
+        <v>0.2670418494943091</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2872,6 +2929,9 @@
       <c r="AN20" t="n">
         <v>0.1592641436520291</v>
       </c>
+      <c r="AO20" t="n">
+        <v>0.1586122703812941</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2994,6 +3054,9 @@
       <c r="AN21" t="n">
         <v>0.4613094680549087</v>
       </c>
+      <c r="AO21" t="n">
+        <v>0.4615627492658167</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3116,6 +3179,9 @@
       <c r="AN22" t="n">
         <v>0.228704981251121</v>
       </c>
+      <c r="AO22" t="n">
+        <v>0.2287321060473259</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3238,6 +3304,9 @@
       <c r="AN23" t="n">
         <v>-0.1979053375699161</v>
       </c>
+      <c r="AO23" t="n">
+        <v>-0.1981696109071115</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3360,6 +3429,9 @@
       <c r="AN24" t="n">
         <v>1.284993499529379</v>
       </c>
+      <c r="AO24" t="n">
+        <v>1.31003380388791</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3482,6 +3554,9 @@
       <c r="AN25" t="n">
         <v>0.3313796073879326</v>
       </c>
+      <c r="AO25" t="n">
+        <v>0.3318786592385463</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3604,6 +3679,9 @@
       <c r="AN26" t="n">
         <v>0.1413536531611099</v>
       </c>
+      <c r="AO26" t="n">
+        <v>0.1422163858814299</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3726,6 +3804,9 @@
       <c r="AN27" t="n">
         <v>0.04875603760292296</v>
       </c>
+      <c r="AO27" t="n">
+        <v>0.0499647767916802</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3848,6 +3929,9 @@
       <c r="AN28" t="n">
         <v>0.8527271927022204</v>
       </c>
+      <c r="AO28" t="n">
+        <v>0.8550723755553852</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3970,6 +4054,9 @@
       <c r="AN29" t="n">
         <v>1.702921068672023</v>
       </c>
+      <c r="AO29" t="n">
+        <v>1.718222079910081</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4092,6 +4179,9 @@
       <c r="AN30" t="n">
         <v>0.6803550135992229</v>
       </c>
+      <c r="AO30" t="n">
+        <v>0.6815421428131548</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4214,6 +4304,9 @@
       <c r="AN31" t="n">
         <v>-0.4229038818153857</v>
       </c>
+      <c r="AO31" t="n">
+        <v>-0.4232371934251735</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4336,6 +4429,9 @@
       <c r="AN32" t="n">
         <v>0.5623090122894145</v>
       </c>
+      <c r="AO32" t="n">
+        <v>0.563378117474852</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4458,6 +4554,9 @@
       <c r="AN33" t="n">
         <v>0.7739348515093674</v>
       </c>
+      <c r="AO33" t="n">
+        <v>0.7746462412807721</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4580,6 +4679,9 @@
       <c r="AN34" t="n">
         <v>-0.8431859887055878</v>
       </c>
+      <c r="AO34" t="n">
+        <v>-0.8434778380751007</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4702,6 +4804,9 @@
       <c r="AN35" t="n">
         <v>0.8302993251587069</v>
       </c>
+      <c r="AO35" t="n">
+        <v>0.8307889036301563</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4824,6 +4929,9 @@
       <c r="AN36" t="n">
         <v>0.8005234842973685</v>
       </c>
+      <c r="AO36" t="n">
+        <v>0.8008158559953301</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4946,6 +5054,9 @@
       <c r="AN37" t="n">
         <v>0.7670165974571579</v>
       </c>
+      <c r="AO37" t="n">
+        <v>0.7673316030895786</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5068,6 +5179,9 @@
       <c r="AN38" t="n">
         <v>0.6639903901973366</v>
       </c>
+      <c r="AO38" t="n">
+        <v>0.6642608450919867</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5190,6 +5304,9 @@
       <c r="AN39" t="n">
         <v>0.6148354462128486</v>
       </c>
+      <c r="AO39" t="n">
+        <v>0.6148165602213052</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5312,6 +5429,9 @@
       <c r="AN40" t="n">
         <v>0.7917496729787732</v>
       </c>
+      <c r="AO40" t="n">
+        <v>0.7922749397948825</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5434,6 +5554,9 @@
       <c r="AN41" t="n">
         <v>0.5862417398738902</v>
       </c>
+      <c r="AO41" t="n">
+        <v>0.5861809763670014</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5556,6 +5679,9 @@
       <c r="AN42" t="n">
         <v>0.6560758832411928</v>
       </c>
+      <c r="AO42" t="n">
+        <v>0.6563351918937245</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5678,6 +5804,9 @@
       <c r="AN43" t="n">
         <v>0.6929768786820319</v>
       </c>
+      <c r="AO43" t="n">
+        <v>0.6931136350647037</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5800,6 +5929,9 @@
       <c r="AN44" t="n">
         <v>0.7181281521153368</v>
       </c>
+      <c r="AO44" t="n">
+        <v>0.7181617158153418</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5922,6 +6054,9 @@
       <c r="AN45" t="n">
         <v>0.7375094511301918</v>
       </c>
+      <c r="AO45" t="n">
+        <v>0.7375126541814896</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6044,6 +6179,9 @@
       <c r="AN46" t="n">
         <v>-1.37109729563454</v>
       </c>
+      <c r="AO46" t="n">
+        <v>-1.373835621162047</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6166,6 +6304,9 @@
       <c r="AN47" t="n">
         <v>-1.07007011007847</v>
       </c>
+      <c r="AO47" t="n">
+        <v>-1.072338656899428</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6288,6 +6429,9 @@
       <c r="AN48" t="n">
         <v>-0.9308747765014584</v>
       </c>
+      <c r="AO48" t="n">
+        <v>-0.9334056855340224</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6410,6 +6554,9 @@
       <c r="AN49" t="n">
         <v>-0.688021444619115</v>
       </c>
+      <c r="AO49" t="n">
+        <v>-0.6901003429462943</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6532,6 +6679,9 @@
       <c r="AN50" t="n">
         <v>-0.09922368928592079</v>
       </c>
+      <c r="AO50" t="n">
+        <v>-0.1003254673521524</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6654,6 +6804,9 @@
       <c r="AN51" t="n">
         <v>-0.901375033068355</v>
       </c>
+      <c r="AO51" t="n">
+        <v>-0.903560525636012</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6776,6 +6929,9 @@
       <c r="AN52" t="n">
         <v>-0.901375033068355</v>
       </c>
+      <c r="AO52" t="n">
+        <v>-0.903560525636012</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6898,6 +7054,9 @@
       <c r="AN53" t="n">
         <v>-1.206691515095003</v>
       </c>
+      <c r="AO53" t="n">
+        <v>-1.209682506237952</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7020,6 +7179,9 @@
       <c r="AN54" t="n">
         <v>-0.2125700231167854</v>
       </c>
+      <c r="AO54" t="n">
+        <v>-0.2140205609872169</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7142,6 +7304,9 @@
       <c r="AN55" t="n">
         <v>-1.095845420912658</v>
       </c>
+      <c r="AO55" t="n">
+        <v>-1.098229341947423</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7264,6 +7429,9 @@
       <c r="AN56" t="n">
         <v>-0.9627526784634908</v>
       </c>
+      <c r="AO56" t="n">
+        <v>-0.9644481940314351</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7386,6 +7554,9 @@
       <c r="AN57" t="n">
         <v>-1.039679290050856</v>
       </c>
+      <c r="AO57" t="n">
+        <v>-1.041915734538219</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7508,6 +7679,9 @@
       <c r="AN58" t="n">
         <v>-1.179509183931815</v>
       </c>
+      <c r="AO58" t="n">
+        <v>-1.181545058118238</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7630,6 +7804,9 @@
       <c r="AN59" t="n">
         <v>-0.85646574314006</v>
       </c>
+      <c r="AO59" t="n">
+        <v>-0.8585947033012837</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7752,6 +7929,9 @@
       <c r="AN60" t="n">
         <v>-0.4858820151715821</v>
       </c>
+      <c r="AO60" t="n">
+        <v>-0.487296735654166</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7874,6 +8054,9 @@
       <c r="AN61" t="n">
         <v>0.3690385993229034</v>
       </c>
+      <c r="AO61" t="n">
+        <v>0.3685333838243297</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7996,6 +8179,9 @@
       <c r="AN62" t="n">
         <v>-1.314465556136546</v>
       </c>
+      <c r="AO62" t="n">
+        <v>-1.317054365758694</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8118,6 +8304,9 @@
       <c r="AN63" t="n">
         <v>-0.6070979676215698</v>
       </c>
+      <c r="AO63" t="n">
+        <v>-0.6089228373790593</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8240,6 +8429,9 @@
       <c r="AN64" t="n">
         <v>-0.9338494669696941</v>
       </c>
+      <c r="AO64" t="n">
+        <v>-0.9366488881508835</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8362,6 +8554,9 @@
       <c r="AN65" t="n">
         <v>-0.08471678073983037</v>
       </c>
+      <c r="AO65" t="n">
+        <v>-0.08576426674452335</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8484,6 +8679,9 @@
       <c r="AN66" t="n">
         <v>-0.8642004023853886</v>
       </c>
+      <c r="AO66" t="n">
+        <v>-0.8657008741347462</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8605,6 +8803,9 @@
       </c>
       <c r="AN67" t="n">
         <v>-0.8484181256042819</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>-0.8495127272374737</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO67"/>
+  <dimension ref="A1:AP67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,6 +557,9 @@
       <c r="AO1" s="1" t="n">
         <v>40</v>
       </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -682,6 +685,9 @@
       <c r="AO2" t="n">
         <v>-0.2658678514896207</v>
       </c>
+      <c r="AP2" t="n">
+        <v>-0.2671045426623359</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -807,6 +813,9 @@
       <c r="AO3" t="n">
         <v>0.2215864561260026</v>
       </c>
+      <c r="AP3" t="n">
+        <v>0.2208094085663</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -932,6 +941,9 @@
       <c r="AO4" t="n">
         <v>0.2050534915404987</v>
       </c>
+      <c r="AP4" t="n">
+        <v>0.2038950919415089</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1057,6 +1069,9 @@
       <c r="AO5" t="n">
         <v>-0.08884403716120379</v>
       </c>
+      <c r="AP5" t="n">
+        <v>-0.08966244843322765</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1182,6 +1197,9 @@
       <c r="AO6" t="n">
         <v>0.1764014694865367</v>
       </c>
+      <c r="AP6" t="n">
+        <v>0.1759877216181564</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1307,6 +1325,9 @@
       <c r="AO7" t="n">
         <v>-0.4261177375540917</v>
       </c>
+      <c r="AP7" t="n">
+        <v>-0.4276877755079309</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1432,6 +1453,9 @@
       <c r="AO8" t="n">
         <v>-0.1538478215016539</v>
       </c>
+      <c r="AP8" t="n">
+        <v>-0.1549779711261743</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1557,6 +1581,9 @@
       <c r="AO9" t="n">
         <v>-0.3481159389236401</v>
       </c>
+      <c r="AP9" t="n">
+        <v>-0.3498777605163447</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1682,6 +1709,9 @@
       <c r="AO10" t="n">
         <v>0.3780057617735462</v>
       </c>
+      <c r="AP10" t="n">
+        <v>0.3775703559951913</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1807,6 +1837,9 @@
       <c r="AO11" t="n">
         <v>-0.226959670854065</v>
       </c>
+      <c r="AP11" t="n">
+        <v>-0.22822338239025</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1932,6 +1965,9 @@
       <c r="AO12" t="n">
         <v>-0.12795356156914</v>
       </c>
+      <c r="AP12" t="n">
+        <v>-0.1288036419851169</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2057,6 +2093,9 @@
       <c r="AO13" t="n">
         <v>-0.07073042950918212</v>
       </c>
+      <c r="AP13" t="n">
+        <v>-0.07152153701193448</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2182,6 +2221,9 @@
       <c r="AO14" t="n">
         <v>0.01242185598880382</v>
       </c>
+      <c r="AP14" t="n">
+        <v>0.01187601812926416</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2307,6 +2349,9 @@
       <c r="AO15" t="n">
         <v>-0.1443457371383662</v>
       </c>
+      <c r="AP15" t="n">
+        <v>-0.1448954657762373</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2432,6 +2477,9 @@
       <c r="AO16" t="n">
         <v>0.2675985434451222</v>
       </c>
+      <c r="AP16" t="n">
+        <v>0.2673288128542924</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2557,6 +2605,9 @@
       <c r="AO17" t="n">
         <v>0.402066005486354</v>
       </c>
+      <c r="AP17" t="n">
+        <v>0.4025103751849689</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2682,6 +2733,9 @@
       <c r="AO18" t="n">
         <v>-0.1772547739443595</v>
       </c>
+      <c r="AP18" t="n">
+        <v>-0.1778894369769869</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2807,6 +2861,9 @@
       <c r="AO19" t="n">
         <v>0.2670418494943091</v>
       </c>
+      <c r="AP19" t="n">
+        <v>0.2664203022051099</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2932,6 +2989,9 @@
       <c r="AO20" t="n">
         <v>0.1586122703812941</v>
       </c>
+      <c r="AP20" t="n">
+        <v>0.1583915038520508</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3057,6 +3117,9 @@
       <c r="AO21" t="n">
         <v>0.4615627492658167</v>
       </c>
+      <c r="AP21" t="n">
+        <v>0.4620832676528094</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3182,6 +3245,9 @@
       <c r="AO22" t="n">
         <v>0.2287321060473259</v>
       </c>
+      <c r="AP22" t="n">
+        <v>0.2290284368997611</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3307,6 +3373,9 @@
       <c r="AO23" t="n">
         <v>-0.1981696109071115</v>
       </c>
+      <c r="AP23" t="n">
+        <v>-0.198210916803365</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3432,6 +3501,9 @@
       <c r="AO24" t="n">
         <v>1.31003380388791</v>
       </c>
+      <c r="AP24" t="n">
+        <v>1.333314367834539</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3557,6 +3629,9 @@
       <c r="AO25" t="n">
         <v>0.3318786592385463</v>
       </c>
+      <c r="AP25" t="n">
+        <v>0.3322609615874009</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3682,6 +3757,9 @@
       <c r="AO26" t="n">
         <v>0.1422163858814299</v>
       </c>
+      <c r="AP26" t="n">
+        <v>0.142942103056315</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3807,6 +3885,9 @@
       <c r="AO27" t="n">
         <v>0.0499647767916802</v>
       </c>
+      <c r="AP27" t="n">
+        <v>0.05100736618420824</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3932,6 +4013,9 @@
       <c r="AO28" t="n">
         <v>0.8550723755553852</v>
       </c>
+      <c r="AP28" t="n">
+        <v>0.8571529449573758</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4057,6 +4141,9 @@
       <c r="AO29" t="n">
         <v>1.718222079910081</v>
       </c>
+      <c r="AP29" t="n">
+        <v>1.731772608114993</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4182,6 +4269,9 @@
       <c r="AO30" t="n">
         <v>0.6815421428131548</v>
       </c>
+      <c r="AP30" t="n">
+        <v>0.6825161398397761</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4307,6 +4397,9 @@
       <c r="AO31" t="n">
         <v>-0.4232371934251735</v>
       </c>
+      <c r="AP31" t="n">
+        <v>-0.4237344217470125</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4432,6 +4525,9 @@
       <c r="AO32" t="n">
         <v>0.563378117474852</v>
       </c>
+      <c r="AP32" t="n">
+        <v>0.5642699603582204</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4557,6 +4653,9 @@
       <c r="AO33" t="n">
         <v>0.7746462412807721</v>
       </c>
+      <c r="AP33" t="n">
+        <v>0.7752309214973239</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4682,6 +4781,9 @@
       <c r="AO34" t="n">
         <v>-0.8434778380751007</v>
       </c>
+      <c r="AP34" t="n">
+        <v>-0.8438903950501465</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4807,6 +4909,9 @@
       <c r="AO35" t="n">
         <v>0.8307889036301563</v>
       </c>
+      <c r="AP35" t="n">
+        <v>0.831175998328833</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4932,6 +5037,9 @@
       <c r="AO36" t="n">
         <v>0.8008158559953301</v>
       </c>
+      <c r="AP36" t="n">
+        <v>0.8009731410605211</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5057,6 +5165,9 @@
       <c r="AO37" t="n">
         <v>0.7673316030895786</v>
       </c>
+      <c r="AP37" t="n">
+        <v>0.767503893718933</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5182,6 +5293,9 @@
       <c r="AO38" t="n">
         <v>0.6642608450919867</v>
       </c>
+      <c r="AP38" t="n">
+        <v>0.6644425977090685</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5307,6 +5421,9 @@
       <c r="AO39" t="n">
         <v>0.6148165602213052</v>
       </c>
+      <c r="AP39" t="n">
+        <v>0.614741052233446</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5432,6 +5549,9 @@
       <c r="AO40" t="n">
         <v>0.7922749397948825</v>
       </c>
+      <c r="AP40" t="n">
+        <v>0.7927049280487025</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5557,6 +5677,9 @@
       <c r="AO41" t="n">
         <v>0.5861809763670014</v>
       </c>
+      <c r="AP41" t="n">
+        <v>0.5860902877953373</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5682,6 +5805,9 @@
       <c r="AO42" t="n">
         <v>0.6563351918937245</v>
       </c>
+      <c r="AP42" t="n">
+        <v>0.656430916182174</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5807,6 +5933,9 @@
       <c r="AO43" t="n">
         <v>0.6931136350647037</v>
       </c>
+      <c r="AP43" t="n">
+        <v>0.6931766899278685</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5932,6 +6061,9 @@
       <c r="AO44" t="n">
         <v>0.7181617158153418</v>
       </c>
+      <c r="AP44" t="n">
+        <v>0.7181292670536021</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6057,6 +6189,9 @@
       <c r="AO45" t="n">
         <v>0.7375126541814896</v>
       </c>
+      <c r="AP45" t="n">
+        <v>0.7373584882187336</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6182,6 +6317,9 @@
       <c r="AO46" t="n">
         <v>-1.373835621162047</v>
       </c>
+      <c r="AP46" t="n">
+        <v>-1.376478786217236</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6307,6 +6445,9 @@
       <c r="AO47" t="n">
         <v>-1.072338656899428</v>
       </c>
+      <c r="AP47" t="n">
+        <v>-1.074537064448199</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6432,6 +6573,9 @@
       <c r="AO48" t="n">
         <v>-0.9334056855340224</v>
       </c>
+      <c r="AP48" t="n">
+        <v>-0.9358610646584317</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6557,6 +6701,9 @@
       <c r="AO49" t="n">
         <v>-0.6901003429462943</v>
       </c>
+      <c r="AP49" t="n">
+        <v>-0.6921119254704212</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6682,6 +6829,9 @@
       <c r="AO50" t="n">
         <v>-0.1003254673521524</v>
       </c>
+      <c r="AP50" t="n">
+        <v>-0.101389162229272</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6807,6 +6957,9 @@
       <c r="AO51" t="n">
         <v>-0.903560525636012</v>
       </c>
+      <c r="AP51" t="n">
+        <v>-0.9056966361718463</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6932,6 +7085,9 @@
       <c r="AO52" t="n">
         <v>-0.903560525636012</v>
       </c>
+      <c r="AP52" t="n">
+        <v>-0.9056966361718463</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7057,6 +7213,9 @@
       <c r="AO53" t="n">
         <v>-1.209682506237952</v>
       </c>
+      <c r="AP53" t="n">
+        <v>-1.21258929074955</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7182,6 +7341,9 @@
       <c r="AO54" t="n">
         <v>-0.2140205609872169</v>
       </c>
+      <c r="AP54" t="n">
+        <v>-0.2154185965380876</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7307,6 +7469,9 @@
       <c r="AO55" t="n">
         <v>-1.098229341947423</v>
       </c>
+      <c r="AP55" t="n">
+        <v>-1.100536526160363</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7432,6 +7597,9 @@
       <c r="AO56" t="n">
         <v>-0.9644481940314351</v>
       </c>
+      <c r="AP56" t="n">
+        <v>-0.9660847385373903</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7557,6 +7725,9 @@
       <c r="AO57" t="n">
         <v>-1.041915734538219</v>
       </c>
+      <c r="AP57" t="n">
+        <v>-1.043969803014309</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7682,6 +7853,9 @@
       <c r="AO58" t="n">
         <v>-1.181545058118238</v>
       </c>
+      <c r="AP58" t="n">
+        <v>-1.183395372312458</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7807,6 +7981,9 @@
       <c r="AO59" t="n">
         <v>-0.8585947033012837</v>
       </c>
+      <c r="AP59" t="n">
+        <v>-0.8605963193172823</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7932,6 +8109,9 @@
       <c r="AO60" t="n">
         <v>-0.487296735654166</v>
       </c>
+      <c r="AP60" t="n">
+        <v>-0.4885728950949538</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8057,6 +8237,9 @@
       <c r="AO61" t="n">
         <v>0.3685333838243297</v>
       </c>
+      <c r="AP61" t="n">
+        <v>0.3680614005458492</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8182,6 +8365,9 @@
       <c r="AO62" t="n">
         <v>-1.317054365758694</v>
       </c>
+      <c r="AP62" t="n">
+        <v>-1.319426452587992</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8307,6 +8493,9 @@
       <c r="AO63" t="n">
         <v>-0.6089228373790593</v>
       </c>
+      <c r="AP63" t="n">
+        <v>-0.6106037560859117</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8432,6 +8621,9 @@
       <c r="AO64" t="n">
         <v>-0.9366488881508835</v>
       </c>
+      <c r="AP64" t="n">
+        <v>-0.9392613921274988</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8557,6 +8749,9 @@
       <c r="AO65" t="n">
         <v>-0.08576426674452335</v>
       </c>
+      <c r="AP65" t="n">
+        <v>-0.0867065103298988</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8682,6 +8877,9 @@
       <c r="AO66" t="n">
         <v>-0.8657008741347462</v>
       </c>
+      <c r="AP66" t="n">
+        <v>-0.867041507391219</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8806,6 +9004,9 @@
       </c>
       <c r="AO67" t="n">
         <v>-0.8495127272374737</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>-0.8504608486044342</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP67"/>
+  <dimension ref="A1:AQ67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,6 +560,9 @@
       <c r="AP1" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -688,6 +691,9 @@
       <c r="AP2" t="n">
         <v>-0.2671045426623359</v>
       </c>
+      <c r="AQ2" t="n">
+        <v>-0.2682279156053723</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -816,6 +822,9 @@
       <c r="AP3" t="n">
         <v>0.2208094085663</v>
       </c>
+      <c r="AQ3" t="n">
+        <v>0.2201585828549725</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -944,6 +953,9 @@
       <c r="AP4" t="n">
         <v>0.2038950919415089</v>
       </c>
+      <c r="AQ4" t="n">
+        <v>0.2028573521644009</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1072,6 +1084,9 @@
       <c r="AP5" t="n">
         <v>-0.08966244843322765</v>
       </c>
+      <c r="AQ5" t="n">
+        <v>-0.09039467722883757</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1200,6 +1215,9 @@
       <c r="AP6" t="n">
         <v>0.1759877216181564</v>
       </c>
+      <c r="AQ6" t="n">
+        <v>0.175673686507544</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1328,6 +1346,9 @@
       <c r="AP7" t="n">
         <v>-0.4276877755079309</v>
       </c>
+      <c r="AQ7" t="n">
+        <v>-0.4291357865292892</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1456,6 +1477,9 @@
       <c r="AP8" t="n">
         <v>-0.1549779711261743</v>
       </c>
+      <c r="AQ8" t="n">
+        <v>-0.1560177568735397</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1584,6 +1608,9 @@
       <c r="AP9" t="n">
         <v>-0.3498777605163447</v>
       </c>
+      <c r="AQ9" t="n">
+        <v>-0.3514458994686186</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1712,6 +1739,9 @@
       <c r="AP10" t="n">
         <v>0.3775703559951913</v>
       </c>
+      <c r="AQ10" t="n">
+        <v>0.3772182796893023</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1840,6 +1870,9 @@
       <c r="AP11" t="n">
         <v>-0.22822338239025</v>
       </c>
+      <c r="AQ11" t="n">
+        <v>-0.2293936545577491</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1968,6 +2001,9 @@
       <c r="AP12" t="n">
         <v>-0.1288036419851169</v>
       </c>
+      <c r="AQ12" t="n">
+        <v>-0.1294982594262159</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2096,6 +2132,9 @@
       <c r="AP13" t="n">
         <v>-0.07152153701193448</v>
       </c>
+      <c r="AQ13" t="n">
+        <v>-0.07225337557730456</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2224,6 +2263,9 @@
       <c r="AP14" t="n">
         <v>0.01187601812926416</v>
       </c>
+      <c r="AQ14" t="n">
+        <v>0.01159755461585137</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2352,6 +2394,9 @@
       <c r="AP15" t="n">
         <v>-0.1448954657762373</v>
       </c>
+      <c r="AQ15" t="n">
+        <v>-0.1451442376253606</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2480,6 +2525,9 @@
       <c r="AP16" t="n">
         <v>0.2673288128542924</v>
       </c>
+      <c r="AQ16" t="n">
+        <v>0.2674405518211035</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2608,6 +2656,9 @@
       <c r="AP17" t="n">
         <v>0.4025103751849689</v>
       </c>
+      <c r="AQ17" t="n">
+        <v>0.403177624531774</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2736,6 +2787,9 @@
       <c r="AP18" t="n">
         <v>-0.1778894369769869</v>
       </c>
+      <c r="AQ18" t="n">
+        <v>-0.1784239212581612</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2864,6 +2918,9 @@
       <c r="AP19" t="n">
         <v>0.2664203022051099</v>
       </c>
+      <c r="AQ19" t="n">
+        <v>0.2659496868268547</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2992,6 +3049,9 @@
       <c r="AP20" t="n">
         <v>0.1583915038520508</v>
       </c>
+      <c r="AQ20" t="n">
+        <v>0.1585284526965922</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3120,6 +3180,9 @@
       <c r="AP21" t="n">
         <v>0.4620832676528094</v>
       </c>
+      <c r="AQ21" t="n">
+        <v>0.4628161477631267</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3248,6 +3311,9 @@
       <c r="AP22" t="n">
         <v>0.2290284368997611</v>
       </c>
+      <c r="AQ22" t="n">
+        <v>0.2295418820257</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3376,6 +3442,9 @@
       <c r="AP23" t="n">
         <v>-0.198210916803365</v>
       </c>
+      <c r="AQ23" t="n">
+        <v>-0.1980720382878176</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3504,6 +3573,9 @@
       <c r="AP24" t="n">
         <v>1.333314367834539</v>
       </c>
+      <c r="AQ24" t="n">
+        <v>1.354699579112213</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3632,6 +3704,9 @@
       <c r="AP25" t="n">
         <v>0.3322609615874009</v>
       </c>
+      <c r="AQ25" t="n">
+        <v>0.3325404735242458</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3760,6 +3835,9 @@
       <c r="AP26" t="n">
         <v>0.142942103056315</v>
       </c>
+      <c r="AQ26" t="n">
+        <v>0.1435360664042275</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3888,6 +3966,9 @@
       <c r="AP27" t="n">
         <v>0.05100736618420824</v>
       </c>
+      <c r="AQ27" t="n">
+        <v>0.05189194574102496</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4016,6 +4097,9 @@
       <c r="AP28" t="n">
         <v>0.8571529449573758</v>
       </c>
+      <c r="AQ28" t="n">
+        <v>0.8589844330434837</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4144,6 +4228,9 @@
       <c r="AP29" t="n">
         <v>1.731772608114993</v>
       </c>
+      <c r="AQ29" t="n">
+        <v>1.743615697885968</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4272,6 +4359,9 @@
       <c r="AP30" t="n">
         <v>0.6825161398397761</v>
       </c>
+      <c r="AQ30" t="n">
+        <v>0.6832952667684209</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4400,6 +4490,9 @@
       <c r="AP31" t="n">
         <v>-0.4237344217470125</v>
       </c>
+      <c r="AQ31" t="n">
+        <v>-0.4243672488913597</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4528,6 +4621,9 @@
       <c r="AP32" t="n">
         <v>0.5642699603582204</v>
       </c>
+      <c r="AQ32" t="n">
+        <v>0.5649962952911172</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4656,6 +4752,9 @@
       <c r="AP33" t="n">
         <v>0.7752309214973239</v>
       </c>
+      <c r="AQ33" t="n">
+        <v>0.7756998333136295</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4784,6 +4883,9 @@
       <c r="AP34" t="n">
         <v>-0.8438903950501465</v>
       </c>
+      <c r="AQ34" t="n">
+        <v>-0.844408570326286</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4912,6 +5014,9 @@
       <c r="AP35" t="n">
         <v>0.831175998328833</v>
       </c>
+      <c r="AQ35" t="n">
+        <v>0.8314734339115486</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5040,6 +5145,9 @@
       <c r="AP36" t="n">
         <v>0.8009731410605211</v>
       </c>
+      <c r="AQ36" t="n">
+        <v>0.8010168297009991</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5168,6 +5276,9 @@
       <c r="AP37" t="n">
         <v>0.767503893718933</v>
       </c>
+      <c r="AQ37" t="n">
+        <v>0.7675560519894017</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5296,6 +5407,9 @@
       <c r="AP38" t="n">
         <v>0.6644425977090685</v>
       </c>
+      <c r="AQ38" t="n">
+        <v>0.6645475103190883</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5424,6 +5538,9 @@
       <c r="AP39" t="n">
         <v>0.614741052233446</v>
       </c>
+      <c r="AQ39" t="n">
+        <v>0.6146187077068676</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5552,6 +5669,9 @@
       <c r="AP40" t="n">
         <v>0.7927049280487025</v>
       </c>
+      <c r="AQ40" t="n">
+        <v>0.7930506392461203</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5680,6 +5800,9 @@
       <c r="AP41" t="n">
         <v>0.5860902877953373</v>
       </c>
+      <c r="AQ41" t="n">
+        <v>0.5859778338300889</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5808,6 +5931,9 @@
       <c r="AP42" t="n">
         <v>0.656430916182174</v>
       </c>
+      <c r="AQ42" t="n">
+        <v>0.6563875491447089</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5936,6 +6062,9 @@
       <c r="AP43" t="n">
         <v>0.6931766899278685</v>
       </c>
+      <c r="AQ43" t="n">
+        <v>0.6931776630778174</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6064,6 +6193,9 @@
       <c r="AP44" t="n">
         <v>0.7181292670536021</v>
       </c>
+      <c r="AQ44" t="n">
+        <v>0.718043282545233</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6192,6 +6324,9 @@
       <c r="AP45" t="n">
         <v>0.7373584882187336</v>
       </c>
+      <c r="AQ45" t="n">
+        <v>0.7370757503608947</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6320,6 +6455,9 @@
       <c r="AP46" t="n">
         <v>-1.376478786217236</v>
       </c>
+      <c r="AQ46" t="n">
+        <v>-1.379026820043585</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6448,6 +6586,9 @@
       <c r="AP47" t="n">
         <v>-1.074537064448199</v>
       </c>
+      <c r="AQ47" t="n">
+        <v>-1.076663938582033</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6576,6 +6717,9 @@
       <c r="AP48" t="n">
         <v>-0.9358610646584317</v>
       </c>
+      <c r="AQ48" t="n">
+        <v>-0.9382363913520235</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6704,6 +6848,9 @@
       <c r="AP49" t="n">
         <v>-0.6921119254704212</v>
       </c>
+      <c r="AQ49" t="n">
+        <v>-0.6940535680083482</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6832,6 +6979,9 @@
       <c r="AP50" t="n">
         <v>-0.101389162229272</v>
       </c>
+      <c r="AQ50" t="n">
+        <v>-0.1024154627831096</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6960,6 +7110,9 @@
       <c r="AP51" t="n">
         <v>-0.9056966361718463</v>
       </c>
+      <c r="AQ51" t="n">
+        <v>-0.9077768605562055</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7088,6 +7241,9 @@
       <c r="AP52" t="n">
         <v>-0.9056966361718463</v>
       </c>
+      <c r="AQ52" t="n">
+        <v>-0.9077768605562055</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7216,6 +7372,9 @@
       <c r="AP53" t="n">
         <v>-1.21258929074955</v>
       </c>
+      <c r="AQ53" t="n">
+        <v>-1.215406276597707</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7344,6 +7503,9 @@
       <c r="AP54" t="n">
         <v>-0.2154185965380876</v>
       </c>
+      <c r="AQ54" t="n">
+        <v>-0.2167636640848204</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7472,6 +7634,9 @@
       <c r="AP55" t="n">
         <v>-1.100536526160363</v>
       </c>
+      <c r="AQ55" t="n">
+        <v>-1.102766297139065</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7600,6 +7765,9 @@
       <c r="AP56" t="n">
         <v>-0.9660847385373903</v>
       </c>
+      <c r="AQ56" t="n">
+        <v>-0.9676651242683025</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7728,6 +7896,9 @@
       <c r="AP57" t="n">
         <v>-1.043969803014309</v>
       </c>
+      <c r="AQ57" t="n">
+        <v>-1.045860188481306</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7856,6 +8027,9 @@
       <c r="AP58" t="n">
         <v>-1.183395372312458</v>
       </c>
+      <c r="AQ58" t="n">
+        <v>-1.185080577937818</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7984,6 +8158,9 @@
       <c r="AP59" t="n">
         <v>-0.8605963193172823</v>
       </c>
+      <c r="AQ59" t="n">
+        <v>-0.8624776359057673</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8112,6 +8289,9 @@
       <c r="AP60" t="n">
         <v>-0.4885728950949538</v>
       </c>
+      <c r="AQ60" t="n">
+        <v>-0.4897246158214066</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8240,6 +8420,9 @@
       <c r="AP61" t="n">
         <v>0.3680614005458492</v>
       </c>
+      <c r="AQ61" t="n">
+        <v>0.367620657430188</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8368,6 +8551,9 @@
       <c r="AP62" t="n">
         <v>-1.319426452587992</v>
       </c>
+      <c r="AQ62" t="n">
+        <v>-1.321604717965419</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8496,6 +8682,9 @@
       <c r="AP63" t="n">
         <v>-0.6106037560859117</v>
       </c>
+      <c r="AQ63" t="n">
+        <v>-0.6121481201809191</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8624,6 +8813,9 @@
       <c r="AP64" t="n">
         <v>-0.9392613921274988</v>
       </c>
+      <c r="AQ64" t="n">
+        <v>-0.9416965310542622</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8752,6 +8944,9 @@
       <c r="AP65" t="n">
         <v>-0.0867065103298988</v>
       </c>
+      <c r="AQ65" t="n">
+        <v>-0.08755475144848052</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8880,6 +9075,9 @@
       <c r="AP66" t="n">
         <v>-0.867041507391219</v>
       </c>
+      <c r="AQ66" t="n">
+        <v>-0.8682444562583489</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9007,6 +9205,9 @@
       </c>
       <c r="AP67" t="n">
         <v>-0.8504608486044342</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>-0.8512889821565346</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ67"/>
+  <dimension ref="A1:AR67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,6 +563,9 @@
       <c r="AQ1" s="1" t="n">
         <v>42</v>
       </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -694,6 +697,9 @@
       <c r="AQ2" t="n">
         <v>-0.2682279156053723</v>
       </c>
+      <c r="AR2" t="n">
+        <v>-0.2692470740893394</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -825,6 +831,9 @@
       <c r="AQ3" t="n">
         <v>0.2201585828549725</v>
       </c>
+      <c r="AR3" t="n">
+        <v>0.2196206986704415</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -956,6 +965,9 @@
       <c r="AQ4" t="n">
         <v>0.2028573521644009</v>
       </c>
+      <c r="AR4" t="n">
+        <v>0.2019316139953649</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1087,6 +1099,9 @@
       <c r="AQ5" t="n">
         <v>-0.09039467722883757</v>
       </c>
+      <c r="AR5" t="n">
+        <v>-0.09105024678786611</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1218,6 +1233,9 @@
       <c r="AQ6" t="n">
         <v>0.175673686507544</v>
       </c>
+      <c r="AR6" t="n">
+        <v>0.1754461408537404</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1349,6 +1367,9 @@
       <c r="AQ7" t="n">
         <v>-0.4291357865292892</v>
       </c>
+      <c r="AR7" t="n">
+        <v>-0.4304694151683238</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1480,6 +1501,9 @@
       <c r="AQ8" t="n">
         <v>-0.1560177568735397</v>
       </c>
+      <c r="AR8" t="n">
+        <v>-0.1569701076758562</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1611,6 +1635,9 @@
       <c r="AQ9" t="n">
         <v>-0.3514458994686186</v>
       </c>
+      <c r="AR9" t="n">
+        <v>-0.3528339065917696</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1742,6 +1769,9 @@
       <c r="AQ10" t="n">
         <v>0.3772182796893023</v>
       </c>
+      <c r="AR10" t="n">
+        <v>0.3769381010109247</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1873,6 +1903,9 @@
       <c r="AQ11" t="n">
         <v>-0.2293936545577491</v>
       </c>
+      <c r="AR11" t="n">
+        <v>-0.2304768843506679</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2004,6 +2037,9 @@
       <c r="AQ12" t="n">
         <v>-0.1294982594262159</v>
       </c>
+      <c r="AR12" t="n">
+        <v>-0.1300607656950815</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2135,6 +2171,9 @@
       <c r="AQ13" t="n">
         <v>-0.07225337557730456</v>
       </c>
+      <c r="AR13" t="n">
+        <v>-0.07293184517995382</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2266,6 +2305,9 @@
       <c r="AQ14" t="n">
         <v>0.01159755461585137</v>
       </c>
+      <c r="AR14" t="n">
+        <v>0.01154213157433946</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2397,6 +2439,9 @@
       <c r="AQ15" t="n">
         <v>-0.1451442376253606</v>
       </c>
+      <c r="AR15" t="n">
+        <v>-0.1451465642973196</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2528,6 +2573,9 @@
       <c r="AQ16" t="n">
         <v>0.2674405518211035</v>
       </c>
+      <c r="AR16" t="n">
+        <v>0.2678651736074692</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2659,6 +2707,9 @@
       <c r="AQ17" t="n">
         <v>0.403177624531774</v>
       </c>
+      <c r="AR17" t="n">
+        <v>0.4040166612401221</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2790,6 +2841,9 @@
       <c r="AQ18" t="n">
         <v>-0.1784239212581612</v>
       </c>
+      <c r="AR18" t="n">
+        <v>-0.1788741348423731</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2921,6 +2975,9 @@
       <c r="AQ19" t="n">
         <v>0.2659496868268547</v>
       </c>
+      <c r="AR19" t="n">
+        <v>0.2656033174145286</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3052,6 +3109,9 @@
       <c r="AQ20" t="n">
         <v>0.1585284526965922</v>
       </c>
+      <c r="AR20" t="n">
+        <v>0.1589553259074107</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3183,6 +3243,9 @@
       <c r="AQ21" t="n">
         <v>0.4628161477631267</v>
       </c>
+      <c r="AR21" t="n">
+        <v>0.4637115135357769</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3314,6 +3377,9 @@
       <c r="AQ22" t="n">
         <v>0.2295418820257</v>
       </c>
+      <c r="AR22" t="n">
+        <v>0.2302249361787023</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3445,6 +3511,9 @@
       <c r="AQ23" t="n">
         <v>-0.1980720382878176</v>
       </c>
+      <c r="AR23" t="n">
+        <v>-0.1977918888937129</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3576,6 +3645,9 @@
       <c r="AQ24" t="n">
         <v>1.354699579112213</v>
       </c>
+      <c r="AR24" t="n">
+        <v>1.37410975118162</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3707,6 +3779,9 @@
       <c r="AQ25" t="n">
         <v>0.3325404735242458</v>
       </c>
+      <c r="AR25" t="n">
+        <v>0.3327308102299041</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3838,6 +3913,9 @@
       <c r="AQ26" t="n">
         <v>0.1435360664042275</v>
       </c>
+      <c r="AR26" t="n">
+        <v>0.1440052302764979</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3969,6 +4047,9 @@
       <c r="AQ27" t="n">
         <v>0.05189194574102496</v>
       </c>
+      <c r="AR27" t="n">
+        <v>0.05262829144229811</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4100,6 +4181,9 @@
       <c r="AQ28" t="n">
         <v>0.8589844330434837</v>
       </c>
+      <c r="AR28" t="n">
+        <v>0.8605841087821481</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4231,6 +4315,9 @@
       <c r="AQ29" t="n">
         <v>1.743615697885968</v>
       </c>
+      <c r="AR29" t="n">
+        <v>1.75381970301813</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4362,6 +4449,9 @@
       <c r="AQ30" t="n">
         <v>0.6832952667684209</v>
       </c>
+      <c r="AR30" t="n">
+        <v>0.6838984660012564</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4493,6 +4583,9 @@
       <c r="AQ31" t="n">
         <v>-0.4243672488913597</v>
       </c>
+      <c r="AR31" t="n">
+        <v>-0.4251090947042919</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4624,6 +4717,9 @@
       <c r="AQ32" t="n">
         <v>0.5649962952911172</v>
       </c>
+      <c r="AR32" t="n">
+        <v>0.5655700408974621</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4755,6 +4851,9 @@
       <c r="AQ33" t="n">
         <v>0.7756998333136295</v>
       </c>
+      <c r="AR33" t="n">
+        <v>0.776064267370669</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4886,6 +4985,9 @@
       <c r="AQ34" t="n">
         <v>-0.844408570326286</v>
       </c>
+      <c r="AR34" t="n">
+        <v>-0.8450173688015123</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5017,6 +5119,9 @@
       <c r="AQ35" t="n">
         <v>0.8314734339115486</v>
       </c>
+      <c r="AR35" t="n">
+        <v>0.8316934755746118</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5148,6 +5253,9 @@
       <c r="AQ36" t="n">
         <v>0.8010168297009991</v>
       </c>
+      <c r="AR36" t="n">
+        <v>0.8009669232930771</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5279,6 +5387,9 @@
       <c r="AQ37" t="n">
         <v>0.7675560519894017</v>
       </c>
+      <c r="AR37" t="n">
+        <v>0.7675091162965475</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5410,6 +5521,9 @@
       <c r="AQ38" t="n">
         <v>0.6645475103190883</v>
       </c>
+      <c r="AR38" t="n">
+        <v>0.6645869365617734</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5541,6 +5655,9 @@
       <c r="AQ39" t="n">
         <v>0.6146187077068676</v>
       </c>
+      <c r="AR39" t="n">
+        <v>0.6144585835815699</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5672,6 +5789,9 @@
       <c r="AQ40" t="n">
         <v>0.7930506392461203</v>
       </c>
+      <c r="AR40" t="n">
+        <v>0.7933226839051072</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5803,6 +5923,9 @@
       <c r="AQ41" t="n">
         <v>0.5859778338300889</v>
       </c>
+      <c r="AR41" t="n">
+        <v>0.5858508114883832</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5934,6 +6057,9 @@
       <c r="AQ42" t="n">
         <v>0.6563875491447089</v>
       </c>
+      <c r="AR42" t="n">
+        <v>0.6562281867590554</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6065,6 +6191,9 @@
       <c r="AQ43" t="n">
         <v>0.6931776630778174</v>
       </c>
+      <c r="AR43" t="n">
+        <v>0.6931274211834753</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6196,6 +6325,9 @@
       <c r="AQ44" t="n">
         <v>0.718043282545233</v>
       </c>
+      <c r="AR44" t="n">
+        <v>0.7179151491072374</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6327,6 +6459,9 @@
       <c r="AQ45" t="n">
         <v>0.7370757503608947</v>
       </c>
+      <c r="AR45" t="n">
+        <v>0.7366908822256903</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6458,6 +6593,9 @@
       <c r="AQ46" t="n">
         <v>-1.379026820043585</v>
       </c>
+      <c r="AR46" t="n">
+        <v>-1.381480447993748</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6589,6 +6727,9 @@
       <c r="AQ47" t="n">
         <v>-1.076663938582033</v>
       </c>
+      <c r="AR47" t="n">
+        <v>-1.078718552885533</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6720,6 +6861,9 @@
       <c r="AQ48" t="n">
         <v>-0.9382363913520235</v>
       </c>
+      <c r="AR48" t="n">
+        <v>-0.9405284507970499</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6851,6 +6995,9 @@
       <c r="AQ49" t="n">
         <v>-0.6940535680083482</v>
       </c>
+      <c r="AR49" t="n">
+        <v>-0.6959236200795691</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6982,6 +7129,9 @@
       <c r="AQ50" t="n">
         <v>-0.1024154627831096</v>
       </c>
+      <c r="AR50" t="n">
+        <v>-0.1034051937611851</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7113,6 +7263,9 @@
       <c r="AQ51" t="n">
         <v>-0.9077768605562055</v>
       </c>
+      <c r="AR51" t="n">
+        <v>-0.909796005733282</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7244,6 +7397,9 @@
       <c r="AQ52" t="n">
         <v>-0.9077768605562055</v>
       </c>
+      <c r="AR52" t="n">
+        <v>-0.909796005733282</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7375,6 +7531,9 @@
       <c r="AQ53" t="n">
         <v>-1.215406276597707</v>
       </c>
+      <c r="AR53" t="n">
+        <v>-1.218129322904418</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7506,6 +7665,9 @@
       <c r="AQ54" t="n">
         <v>-0.2167636640848204</v>
       </c>
+      <c r="AR54" t="n">
+        <v>-0.2180558318032865</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7637,6 +7799,9 @@
       <c r="AQ55" t="n">
         <v>-1.102766297139065</v>
       </c>
+      <c r="AR55" t="n">
+        <v>-1.104918589087439</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7768,6 +7933,9 @@
       <c r="AQ56" t="n">
         <v>-0.9676651242683025</v>
       </c>
+      <c r="AR56" t="n">
+        <v>-0.9691920345179484</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7899,6 +8067,9 @@
       <c r="AQ57" t="n">
         <v>-1.045860188481306</v>
       </c>
+      <c r="AR57" t="n">
+        <v>-1.04760470985686</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8030,6 +8201,9 @@
       <c r="AQ58" t="n">
         <v>-1.185080577937818</v>
       </c>
+      <c r="AR58" t="n">
+        <v>-1.186620111411199</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8161,6 +8335,9 @@
       <c r="AQ59" t="n">
         <v>-0.8624776359057673</v>
       </c>
+      <c r="AR59" t="n">
+        <v>-0.8642460644249086</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8292,6 +8469,9 @@
       <c r="AQ60" t="n">
         <v>-0.4897246158214066</v>
       </c>
+      <c r="AR60" t="n">
+        <v>-0.490765577939038</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8423,6 +8603,9 @@
       <c r="AQ61" t="n">
         <v>0.367620657430188</v>
       </c>
+      <c r="AR61" t="n">
+        <v>0.3672090741554011</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8554,6 +8737,9 @@
       <c r="AQ62" t="n">
         <v>-1.321604717965419</v>
       </c>
+      <c r="AR62" t="n">
+        <v>-1.323610938685504</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8685,6 +8871,9 @@
       <c r="AQ63" t="n">
         <v>-0.6121481201809191</v>
       </c>
+      <c r="AR63" t="n">
+        <v>-0.6135642364999569</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8816,6 +9005,9 @@
       <c r="AQ64" t="n">
         <v>-0.9416965310542622</v>
       </c>
+      <c r="AR64" t="n">
+        <v>-0.9439646860603075</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8947,6 +9139,9 @@
       <c r="AQ65" t="n">
         <v>-0.08755475144848052</v>
       </c>
+      <c r="AR65" t="n">
+        <v>-0.08831981927216534</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -9078,6 +9273,9 @@
       <c r="AQ66" t="n">
         <v>-0.8682444562583489</v>
       </c>
+      <c r="AR66" t="n">
+        <v>-0.8693301979409618</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9208,6 +9406,9 @@
       </c>
       <c r="AQ67" t="n">
         <v>-0.8512889821565346</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>-0.8520209757478432</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR67"/>
+  <dimension ref="A1:AS67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,6 +566,9 @@
       <c r="AR1" s="1" t="n">
         <v>43</v>
       </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -700,6 +703,9 @@
       <c r="AR2" t="n">
         <v>-0.2692470740893394</v>
       </c>
+      <c r="AS2" t="n">
+        <v>-0.2701712245428208</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -834,6 +840,9 @@
       <c r="AR3" t="n">
         <v>0.2196206986704415</v>
       </c>
+      <c r="AS3" t="n">
+        <v>0.2191827269939104</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -968,6 +977,9 @@
       <c r="AR4" t="n">
         <v>0.2019316139953649</v>
       </c>
+      <c r="AS4" t="n">
+        <v>0.2011088171165142</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1102,6 +1114,9 @@
       <c r="AR5" t="n">
         <v>-0.09105024678786611</v>
       </c>
+      <c r="AS5" t="n">
+        <v>-0.09163826585627197</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1236,6 +1251,9 @@
       <c r="AR6" t="n">
         <v>0.1754461408537404</v>
       </c>
+      <c r="AS6" t="n">
+        <v>0.175292493648891</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1370,6 +1388,9 @@
       <c r="AR7" t="n">
         <v>-0.4304694151683238</v>
       </c>
+      <c r="AS7" t="n">
+        <v>-0.4316967202167062</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1504,6 +1525,9 @@
       <c r="AR8" t="n">
         <v>-0.1569701076758562</v>
       </c>
+      <c r="AS8" t="n">
+        <v>-0.1578388798949339</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1638,6 +1662,9 @@
       <c r="AR9" t="n">
         <v>-0.3528339065917696</v>
       </c>
+      <c r="AS9" t="n">
+        <v>-0.3540560669926799</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1772,6 +1799,9 @@
       <c r="AR10" t="n">
         <v>0.3769381010109247</v>
       </c>
+      <c r="AS10" t="n">
+        <v>0.3767190419084471</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1906,6 +1936,9 @@
       <c r="AR11" t="n">
         <v>-0.2304768843506679</v>
       </c>
+      <c r="AS11" t="n">
+        <v>-0.2314796432397582</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2040,6 +2073,9 @@
       <c r="AR12" t="n">
         <v>-0.1300607656950815</v>
       </c>
+      <c r="AS12" t="n">
+        <v>-0.1305128174785647</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2174,6 +2210,9 @@
       <c r="AR13" t="n">
         <v>-0.07293184517995382</v>
       </c>
+      <c r="AS13" t="n">
+        <v>-0.07356254813635736</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2308,6 +2347,9 @@
       <c r="AR14" t="n">
         <v>0.01154213157433946</v>
       </c>
+      <c r="AS14" t="n">
+        <v>0.011668706107218</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2442,6 +2484,9 @@
       <c r="AR15" t="n">
         <v>-0.1451465642973196</v>
       </c>
+      <c r="AS15" t="n">
+        <v>-0.144952304074372</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2576,6 +2621,9 @@
       <c r="AR16" t="n">
         <v>0.2678651736074692</v>
       </c>
+      <c r="AS16" t="n">
+        <v>0.2685396280912734</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2710,6 +2758,9 @@
       <c r="AR17" t="n">
         <v>0.4040166612401221</v>
       </c>
+      <c r="AS17" t="n">
+        <v>0.4049816461509588</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2844,6 +2895,9 @@
       <c r="AR18" t="n">
         <v>-0.1788741348423731</v>
       </c>
+      <c r="AS18" t="n">
+        <v>-0.1792545490731313</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2978,6 +3032,9 @@
       <c r="AR19" t="n">
         <v>0.2656033174145286</v>
       </c>
+      <c r="AS19" t="n">
+        <v>0.2653569188749126</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3112,6 +3169,9 @@
       <c r="AR20" t="n">
         <v>0.1589553259074107</v>
       </c>
+      <c r="AS20" t="n">
+        <v>0.1596102442390722</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3246,6 +3306,9 @@
       <c r="AR21" t="n">
         <v>0.4637115135357769</v>
       </c>
+      <c r="AS21" t="n">
+        <v>0.4647245951314921</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3380,6 +3443,9 @@
       <c r="AR22" t="n">
         <v>0.2302249361787023</v>
       </c>
+      <c r="AS22" t="n">
+        <v>0.2310347936516343</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3514,6 +3580,9 @@
       <c r="AR23" t="n">
         <v>-0.1977918888937129</v>
       </c>
+      <c r="AS23" t="n">
+        <v>-0.1974054396375606</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3648,6 +3717,9 @@
       <c r="AR24" t="n">
         <v>1.37410975118162</v>
       </c>
+      <c r="AS24" t="n">
+        <v>1.391513752129981</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3782,6 +3854,9 @@
       <c r="AR25" t="n">
         <v>0.3327308102299041</v>
       </c>
+      <c r="AS25" t="n">
+        <v>0.3328450386238115</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3916,6 +3991,9 @@
       <c r="AR26" t="n">
         <v>0.1440052302764979</v>
       </c>
+      <c r="AS26" t="n">
+        <v>0.1443578410569752</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4050,6 +4128,9 @@
       <c r="AR27" t="n">
         <v>0.05262829144229811</v>
       </c>
+      <c r="AS27" t="n">
+        <v>0.0532273677782408</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4184,6 +4265,9 @@
       <c r="AR28" t="n">
         <v>0.8605841087821481</v>
       </c>
+      <c r="AS28" t="n">
+        <v>0.8619703971829665</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4318,6 +4402,9 @@
       <c r="AR29" t="n">
         <v>1.75381970301813</v>
       </c>
+      <c r="AS29" t="n">
+        <v>1.762472823540326</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4452,6 +4539,9 @@
       <c r="AR30" t="n">
         <v>0.6838984660012564</v>
       </c>
+      <c r="AS30" t="n">
+        <v>0.6843448934190013</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4586,6 +4676,9 @@
       <c r="AR31" t="n">
         <v>-0.4251090947042919</v>
       </c>
+      <c r="AS31" t="n">
+        <v>-0.4259353466529875</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4720,6 +4813,9 @@
       <c r="AR32" t="n">
         <v>0.5655700408974621</v>
       </c>
+      <c r="AS32" t="n">
+        <v>0.5660048595317175</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4854,6 +4950,9 @@
       <c r="AR33" t="n">
         <v>0.776064267370669</v>
       </c>
+      <c r="AS33" t="n">
+        <v>0.7763356004230104</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4988,6 +5087,9 @@
       <c r="AR34" t="n">
         <v>-0.8450173688015123</v>
       </c>
+      <c r="AS34" t="n">
+        <v>-0.845702161194409</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5122,6 +5224,9 @@
       <c r="AR35" t="n">
         <v>0.8316934755746118</v>
       </c>
+      <c r="AS35" t="n">
+        <v>0.8318477048430145</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5256,6 +5361,9 @@
       <c r="AR36" t="n">
         <v>0.8009669232930771</v>
       </c>
+      <c r="AS36" t="n">
+        <v>0.800841817001516</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5390,6 +5498,9 @@
       <c r="AR37" t="n">
         <v>0.7675091162965475</v>
       </c>
+      <c r="AS37" t="n">
+        <v>0.7673824527539922</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5524,6 +5635,9 @@
       <c r="AR38" t="n">
         <v>0.6645869365617734</v>
       </c>
+      <c r="AS38" t="n">
+        <v>0.6645715942239301</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5658,6 +5772,9 @@
       <c r="AR39" t="n">
         <v>0.6144585835815699</v>
       </c>
+      <c r="AS39" t="n">
+        <v>0.6142689655006042</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5792,6 +5909,9 @@
       <c r="AR40" t="n">
         <v>0.7933226839051072</v>
       </c>
+      <c r="AS40" t="n">
+        <v>0.7935311644841033</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5926,6 +6046,9 @@
       <c r="AR41" t="n">
         <v>0.5858508114883832</v>
       </c>
+      <c r="AS41" t="n">
+        <v>0.5857154787744823</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6060,6 +6183,9 @@
       <c r="AR42" t="n">
         <v>0.6562281867590554</v>
       </c>
+      <c r="AS42" t="n">
+        <v>0.6559743335566942</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6194,6 +6320,9 @@
       <c r="AR43" t="n">
         <v>0.6931274211834753</v>
       </c>
+      <c r="AS43" t="n">
+        <v>0.6930360004677568</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6328,6 +6457,9 @@
       <c r="AR44" t="n">
         <v>0.7179151491072374</v>
       </c>
+      <c r="AS44" t="n">
+        <v>0.7177551362162989</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6462,6 +6594,9 @@
       <c r="AR45" t="n">
         <v>0.7366908822256903</v>
       </c>
+      <c r="AS45" t="n">
+        <v>0.7362278767337158</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6596,6 +6731,9 @@
       <c r="AR46" t="n">
         <v>-1.381480447993748</v>
       </c>
+      <c r="AS46" t="n">
+        <v>-1.383840999911797</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6730,6 +6868,9 @@
       <c r="AR47" t="n">
         <v>-1.078718552885533</v>
       </c>
+      <c r="AS47" t="n">
+        <v>-1.080700782343718</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6864,6 +7005,9 @@
       <c r="AR48" t="n">
         <v>-0.9405284507970499</v>
       </c>
+      <c r="AS48" t="n">
+        <v>-0.9427352130759699</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6998,6 +7142,9 @@
       <c r="AR49" t="n">
         <v>-0.6959236200795691</v>
       </c>
+      <c r="AS49" t="n">
+        <v>-0.697721301751864</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7132,6 +7279,9 @@
       <c r="AR50" t="n">
         <v>-0.1034051937611851</v>
       </c>
+      <c r="AS50" t="n">
+        <v>-0.10435929242064</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7266,6 +7416,9 @@
       <c r="AR51" t="n">
         <v>-0.909796005733282</v>
       </c>
+      <c r="AS51" t="n">
+        <v>-0.9117500962746996</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7400,6 +7553,9 @@
       <c r="AR52" t="n">
         <v>-0.909796005733282</v>
       </c>
+      <c r="AS52" t="n">
+        <v>-0.9117500962746996</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7534,6 +7690,9 @@
       <c r="AR53" t="n">
         <v>-1.218129322904418</v>
       </c>
+      <c r="AS53" t="n">
+        <v>-1.220755620961335</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7668,6 +7827,9 @@
       <c r="AR54" t="n">
         <v>-0.2180558318032865</v>
       </c>
+      <c r="AS54" t="n">
+        <v>-0.2192956296070611</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7802,6 +7964,9 @@
       <c r="AR55" t="n">
         <v>-1.104918589087439</v>
       </c>
+      <c r="AS55" t="n">
+        <v>-1.106993878807205</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7936,6 +8101,9 @@
       <c r="AR56" t="n">
         <v>-0.9691920345179484</v>
       </c>
+      <c r="AS56" t="n">
+        <v>-0.9706680133947488</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8070,6 +8238,9 @@
       <c r="AR57" t="n">
         <v>-1.04760470985686</v>
       </c>
+      <c r="AS57" t="n">
+        <v>-1.049220157927822</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8204,6 +8375,9 @@
       <c r="AR58" t="n">
         <v>-1.186620111411199</v>
       </c>
+      <c r="AS58" t="n">
+        <v>-1.188032224283345</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8338,6 +8512,9 @@
       <c r="AR59" t="n">
         <v>-0.8642460644249086</v>
       </c>
+      <c r="AS59" t="n">
+        <v>-0.8659092086659163</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8472,6 +8649,9 @@
       <c r="AR60" t="n">
         <v>-0.490765577939038</v>
       </c>
+      <c r="AS60" t="n">
+        <v>-0.4917088522623119</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8606,6 +8786,9 @@
       <c r="AR61" t="n">
         <v>0.3672090741554011</v>
       </c>
+      <c r="AS61" t="n">
+        <v>0.3668245289820091</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8740,6 +8923,9 @@
       <c r="AR62" t="n">
         <v>-1.323610938685504</v>
       </c>
+      <c r="AS62" t="n">
+        <v>-1.325465582763299</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8874,6 +9060,9 @@
       <c r="AR63" t="n">
         <v>-0.6135642364999569</v>
       </c>
+      <c r="AS63" t="n">
+        <v>-0.6148610298277525</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9008,6 +9197,9 @@
       <c r="AR64" t="n">
         <v>-0.9439646860603075</v>
       </c>
+      <c r="AS64" t="n">
+        <v>-0.9460767786677109</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9142,6 +9334,9 @@
       <c r="AR65" t="n">
         <v>-0.08831981927216534</v>
       </c>
+      <c r="AS65" t="n">
+        <v>-0.08901200628738767</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -9276,6 +9471,9 @@
       <c r="AR66" t="n">
         <v>-0.8693301979409618</v>
       </c>
+      <c r="AS66" t="n">
+        <v>-0.8703174450779874</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9409,6 +9607,9 @@
       </c>
       <c r="AR67" t="n">
         <v>-0.8520209757478432</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>-0.8526780314831205</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS67"/>
+  <dimension ref="A1:AT67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,6 +569,9 @@
       <c r="AS1" s="1" t="n">
         <v>44</v>
       </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -706,6 +709,9 @@
       <c r="AS2" t="n">
         <v>-0.2701712245428208</v>
       </c>
+      <c r="AT2" t="n">
+        <v>-0.2710095014756738</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -843,6 +849,9 @@
       <c r="AS3" t="n">
         <v>0.2191827269939104</v>
       </c>
+      <c r="AT3" t="n">
+        <v>0.2188320755565728</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -980,6 +989,9 @@
       <c r="AS4" t="n">
         <v>0.2011088171165142</v>
       </c>
+      <c r="AT4" t="n">
+        <v>0.200379718910217</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1117,6 +1129,9 @@
       <c r="AS5" t="n">
         <v>-0.09163826585627197</v>
       </c>
+      <c r="AT5" t="n">
+        <v>-0.09216733902962815</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1254,6 +1269,9 @@
       <c r="AS6" t="n">
         <v>0.175292493648891</v>
       </c>
+      <c r="AT6" t="n">
+        <v>0.1752009108757522</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1391,6 +1409,9 @@
       <c r="AS7" t="n">
         <v>-0.4316967202167062</v>
       </c>
+      <c r="AT7" t="n">
+        <v>-0.4328259765586127</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1528,6 +1549,9 @@
       <c r="AS8" t="n">
         <v>-0.1578388798949339</v>
       </c>
+      <c r="AT8" t="n">
+        <v>-0.1586286424645585</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1665,6 +1689,9 @@
       <c r="AS9" t="n">
         <v>-0.3540560669926799</v>
       </c>
+      <c r="AT9" t="n">
+        <v>-0.3551270426268385</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1802,6 +1829,9 @@
       <c r="AS10" t="n">
         <v>0.3767190419084471</v>
       </c>
+      <c r="AT10" t="n">
+        <v>0.3765510661745496</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1939,6 +1969,9 @@
       <c r="AS11" t="n">
         <v>-0.2314796432397582</v>
       </c>
+      <c r="AT11" t="n">
+        <v>-0.2324085412566967</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2076,6 +2109,9 @@
       <c r="AS12" t="n">
         <v>-0.1305128174785647</v>
       </c>
+      <c r="AT12" t="n">
+        <v>-0.1308742667205016</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2213,6 +2249,9 @@
       <c r="AS13" t="n">
         <v>-0.07356254813635736</v>
       </c>
+      <c r="AT13" t="n">
+        <v>-0.07415074794089105</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2350,6 +2389,9 @@
       <c r="AS14" t="n">
         <v>0.011668706107218</v>
       </c>
+      <c r="AT14" t="n">
+        <v>0.01193973183787808</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2487,6 +2529,9 @@
       <c r="AS15" t="n">
         <v>-0.144952304074372</v>
       </c>
+      <c r="AT15" t="n">
+        <v>-0.1446065209429361</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2624,6 +2669,9 @@
       <c r="AS16" t="n">
         <v>0.2685396280912734</v>
       </c>
+      <c r="AT16" t="n">
+        <v>0.2694066446857222</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2761,6 +2809,9 @@
       <c r="AS17" t="n">
         <v>0.4049816461509588</v>
       </c>
+      <c r="AT17" t="n">
+        <v>0.4060319699407707</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2898,6 +2949,9 @@
       <c r="AS18" t="n">
         <v>-0.1792545490731313</v>
       </c>
+      <c r="AT18" t="n">
+        <v>-0.1795781952081166</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3035,6 +3089,9 @@
       <c r="AS19" t="n">
         <v>0.2653569188749126</v>
       </c>
+      <c r="AT19" t="n">
+        <v>0.2651886639887206</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3172,6 +3229,9 @@
       <c r="AS20" t="n">
         <v>0.1596102442390722</v>
       </c>
+      <c r="AT20" t="n">
+        <v>0.1604373996545292</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3309,6 +3369,9 @@
       <c r="AS21" t="n">
         <v>0.4647245951314921</v>
       </c>
+      <c r="AT21" t="n">
+        <v>0.4658157274373135</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3446,6 +3509,9 @@
       <c r="AS22" t="n">
         <v>0.2310347936516343</v>
       </c>
+      <c r="AT22" t="n">
+        <v>0.231933361595955</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3583,6 +3649,9 @@
       <c r="AS23" t="n">
         <v>-0.1974054396375606</v>
       </c>
+      <c r="AT23" t="n">
+        <v>-0.1969437265728316</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3720,6 +3789,9 @@
       <c r="AS24" t="n">
         <v>1.391513752129981</v>
       </c>
+      <c r="AT24" t="n">
+        <v>1.406921910241867</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3857,6 +3929,9 @@
       <c r="AS25" t="n">
         <v>0.3328450386238115</v>
       </c>
+      <c r="AT25" t="n">
+        <v>0.3328955170196883</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3994,6 +4069,9 @@
       <c r="AS26" t="n">
         <v>0.1443578410569752</v>
       </c>
+      <c r="AT26" t="n">
+        <v>0.1446030767315133</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4131,6 +4209,9 @@
       <c r="AS27" t="n">
         <v>0.0532273677782408</v>
       </c>
+      <c r="AT27" t="n">
+        <v>0.05370093079510391</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4268,6 +4349,9 @@
       <c r="AS28" t="n">
         <v>0.8619703971829665</v>
       </c>
+      <c r="AT28" t="n">
+        <v>0.8631623690645595</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4405,6 +4489,9 @@
       <c r="AS29" t="n">
         <v>1.762472823540326</v>
       </c>
+      <c r="AT29" t="n">
+        <v>1.76967817572092</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4542,6 +4629,9 @@
       <c r="AS30" t="n">
         <v>0.6843448934190013</v>
       </c>
+      <c r="AT30" t="n">
+        <v>0.684653523551109</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4679,6 +4769,9 @@
       <c r="AS31" t="n">
         <v>-0.4259353466529875</v>
       </c>
+      <c r="AT31" t="n">
+        <v>-0.4268235155095584</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4816,6 +4909,9 @@
       <c r="AS32" t="n">
         <v>0.5660048595317175</v>
       </c>
+      <c r="AT32" t="n">
+        <v>0.5663147896234519</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4953,6 +5049,9 @@
       <c r="AS33" t="n">
         <v>0.7763356004230104</v>
       </c>
+      <c r="AT33" t="n">
+        <v>0.7765250724309659</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5090,6 +5189,9 @@
       <c r="AS34" t="n">
         <v>-0.845702161194409</v>
       </c>
+      <c r="AT34" t="n">
+        <v>-0.8464489056064275</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5227,6 +5329,9 @@
       <c r="AS35" t="n">
         <v>0.8318477048430145</v>
       </c>
+      <c r="AT35" t="n">
+        <v>0.8319469262031924</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5364,6 +5469,9 @@
       <c r="AS36" t="n">
         <v>0.800841817001516</v>
       </c>
+      <c r="AT36" t="n">
+        <v>0.8006582287382276</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5501,6 +5609,9 @@
       <c r="AS37" t="n">
         <v>0.7673824527539922</v>
       </c>
+      <c r="AT37" t="n">
+        <v>0.7671936764719286</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5638,6 +5749,9 @@
       <c r="AS38" t="n">
         <v>0.6645715942239301</v>
       </c>
+      <c r="AT38" t="n">
+        <v>0.6645114698769788</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5775,6 +5889,9 @@
       <c r="AS39" t="n">
         <v>0.6142689655006042</v>
       </c>
+      <c r="AT39" t="n">
+        <v>0.6140573447066111</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5912,6 +6029,9 @@
       <c r="AS40" t="n">
         <v>0.7935311644841033</v>
       </c>
+      <c r="AT40" t="n">
+        <v>0.79368558431366</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6049,6 +6169,9 @@
       <c r="AS41" t="n">
         <v>0.5857154787744823</v>
       </c>
+      <c r="AT41" t="n">
+        <v>0.5855771915070316</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6186,6 +6309,9 @@
       <c r="AS42" t="n">
         <v>0.6559743335566942</v>
       </c>
+      <c r="AT42" t="n">
+        <v>0.6556457670328502</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6323,6 +6449,9 @@
       <c r="AS43" t="n">
         <v>0.6930360004677568</v>
       </c>
+      <c r="AT43" t="n">
+        <v>0.692912556580924</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6460,6 +6589,9 @@
       <c r="AS44" t="n">
         <v>0.7177551362162989</v>
       </c>
+      <c r="AT44" t="n">
+        <v>0.7175723922517149</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6597,6 +6729,9 @@
       <c r="AS45" t="n">
         <v>0.7362278767337158</v>
       </c>
+      <c r="AT45" t="n">
+        <v>0.7357082418807384</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6734,6 +6869,9 @@
       <c r="AS46" t="n">
         <v>-1.383840999911797</v>
       </c>
+      <c r="AT46" t="n">
+        <v>-1.386110321112613</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6871,6 +7009,9 @@
       <c r="AS47" t="n">
         <v>-1.080700782343718</v>
       </c>
+      <c r="AT47" t="n">
+        <v>-1.082611035872971</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -7008,6 +7149,9 @@
       <c r="AS48" t="n">
         <v>-0.9427352130759699</v>
       </c>
+      <c r="AT48" t="n">
+        <v>-0.9448557076818663</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -7145,6 +7289,9 @@
       <c r="AS49" t="n">
         <v>-0.697721301751864</v>
       </c>
+      <c r="AT49" t="n">
+        <v>-0.6994466005435582</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7282,6 +7429,9 @@
       <c r="AS50" t="n">
         <v>-0.10435929242064</v>
       </c>
+      <c r="AT50" t="n">
+        <v>-0.1052787864651741</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7419,6 +7569,9 @@
       <c r="AS51" t="n">
         <v>-0.9117500962746996</v>
       </c>
+      <c r="AT51" t="n">
+        <v>-0.9136362735218304</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7556,6 +7709,9 @@
       <c r="AS52" t="n">
         <v>-0.9117500962746996</v>
       </c>
+      <c r="AT52" t="n">
+        <v>-0.9136362735218304</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7693,6 +7849,9 @@
       <c r="AS53" t="n">
         <v>-1.220755620961335</v>
       </c>
+      <c r="AT53" t="n">
+        <v>-1.223283568531516</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7830,6 +7989,9 @@
       <c r="AS54" t="n">
         <v>-0.2192956296070611</v>
       </c>
+      <c r="AT54" t="n">
+        <v>-0.2204839799118108</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7967,6 +8129,9 @@
       <c r="AS55" t="n">
         <v>-1.106993878807205</v>
       </c>
+      <c r="AT55" t="n">
+        <v>-1.108993117868957</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -8104,6 +8269,9 @@
       <c r="AS56" t="n">
         <v>-0.9706680133947488</v>
       </c>
+      <c r="AT56" t="n">
+        <v>-0.9720954597542922</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8241,6 +8409,9 @@
       <c r="AS57" t="n">
         <v>-1.049220157927822</v>
       </c>
+      <c r="AT57" t="n">
+        <v>-1.050722182630575</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8378,6 +8549,9 @@
       <c r="AS58" t="n">
         <v>-1.188032224283345</v>
       </c>
+      <c r="AT58" t="n">
+        <v>-1.189333861036753</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8515,6 +8689,9 @@
       <c r="AS59" t="n">
         <v>-0.8659092086659163</v>
       </c>
+      <c r="AT59" t="n">
+        <v>-0.8674747145096953</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8652,6 +8829,9 @@
       <c r="AS60" t="n">
         <v>-0.4917088522623119</v>
       </c>
+      <c r="AT60" t="n">
+        <v>-0.4925667706108846</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8789,6 +8969,9 @@
       <c r="AS61" t="n">
         <v>0.3668245289820091</v>
       </c>
+      <c r="AT61" t="n">
+        <v>0.3664648991099584</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8926,6 +9109,9 @@
       <c r="AS62" t="n">
         <v>-1.325465582763299</v>
       </c>
+      <c r="AT62" t="n">
+        <v>-1.327187676570826</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -9063,6 +9249,9 @@
       <c r="AS63" t="n">
         <v>-0.6148610298277525</v>
       </c>
+      <c r="AT63" t="n">
+        <v>-0.616047786615983</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9200,6 +9389,9 @@
       <c r="AS64" t="n">
         <v>-0.9460767786677109</v>
       </c>
+      <c r="AT64" t="n">
+        <v>-0.9480440163597172</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9337,6 +9529,9 @@
       <c r="AS65" t="n">
         <v>-0.08901200628738767</v>
       </c>
+      <c r="AT65" t="n">
+        <v>-0.08964097237480473</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -9474,6 +9669,9 @@
       <c r="AS66" t="n">
         <v>-0.8703174450779874</v>
       </c>
+      <c r="AT66" t="n">
+        <v>-0.8712231034313387</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9610,6 +9808,9 @@
       </c>
       <c r="AS67" t="n">
         <v>-0.8526780314831205</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>-0.8532787529805614</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_12.xlsx
+++ b/predicted_variables_matrix_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT67"/>
+  <dimension ref="A1:AU67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,6 +572,9 @@
       <c r="AT1" s="1" t="n">
         <v>45</v>
       </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -712,6 +715,9 @@
       <c r="AT2" t="n">
         <v>-0.2710095014756738</v>
       </c>
+      <c r="AU2" t="n">
+        <v>-0.2717708215919665</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -852,6 +858,9 @@
       <c r="AT3" t="n">
         <v>0.2188320755565728</v>
       </c>
+      <c r="AU3" t="n">
+        <v>0.2185567384241648</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -992,6 +1001,9 @@
       <c r="AT4" t="n">
         <v>0.200379718910217</v>
       </c>
+      <c r="AU4" t="n">
+        <v>0.19973508338241</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1132,6 +1144,9 @@
       <c r="AT5" t="n">
         <v>-0.09216733902962815</v>
       </c>
+      <c r="AU5" t="n">
+        <v>-0.09264549981616216</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1272,6 +1287,9 @@
       <c r="AT6" t="n">
         <v>0.1752009108757522</v>
       </c>
+      <c r="AU6" t="n">
+        <v>0.1751604071926434</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1412,6 +1430,9 @@
       <c r="AT7" t="n">
         <v>-0.4328259765586127</v>
       </c>
+      <c r="AU7" t="n">
+        <v>-0.4338655038306666</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1552,6 +1573,9 @@
       <c r="AT8" t="n">
         <v>-0.1586286424645585</v>
       </c>
+      <c r="AU8" t="n">
+        <v>-0.1593444834095949</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1692,6 +1716,9 @@
       <c r="AT9" t="n">
         <v>-0.3551270426268385</v>
       </c>
+      <c r="AU9" t="n">
+        <v>-0.3560615626982179</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1832,6 +1859,9 @@
       <c r="AT10" t="n">
         <v>0.3765510661745496</v>
       </c>
+      <c r="AU10" t="n">
+        <v>0.3764249403861177</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1972,6 +2002,9 @@
       <c r="AT11" t="n">
         <v>-0.2324085412566967</v>
       </c>
+      <c r="AU11" t="n">
+        <v>-0.2332701115350479</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2112,6 +2145,9 @@
       <c r="AT12" t="n">
         <v>-0.1308742667205016</v>
       </c>
+      <c r="AU12" t="n">
+        <v>-0.1311630998335334</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2252,6 +2288,9 @@
       <c r="AT13" t="n">
         <v>-0.07415074794089105</v>
       </c>
+      <c r="AU13" t="n">
+        <v>-0.07470133981368435</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2392,6 +2431,9 @@
       <c r="AT14" t="n">
         <v>0.01193973183787808</v>
       </c>
+      <c r="AU14" t="n">
+        <v>0.01232127101928639</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2532,6 +2574,9 @@
       <c r="AT15" t="n">
         <v>-0.1446065209429361</v>
       </c>
+      <c r="AU15" t="n">
+        <v>-0.1441494495591998</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2672,6 +2717,9 @@
       <c r="AT16" t="n">
         <v>0.2694066446857222</v>
       </c>
+      <c r="AU16" t="n">
+        <v>0.2704148358203994</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2812,6 +2860,9 @@
       <c r="AT17" t="n">
         <v>0.4060319699407707</v>
       </c>
+      <c r="AU17" t="n">
+        <v>0.4071321421313731</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2952,6 +3003,9 @@
       <c r="AT18" t="n">
         <v>-0.1795781952081166</v>
       </c>
+      <c r="AU18" t="n">
+        <v>-0.1798566839897616</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3092,6 +3146,9 @@
       <c r="AT19" t="n">
         <v>0.2651886639887206</v>
       </c>
+      <c r="AU19" t="n">
+        <v>0.2650791623806331</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3232,6 +3289,9 @@
       <c r="AT20" t="n">
         <v>0.1604373996545292</v>
       </c>
+      <c r="AU20" t="n">
+        <v>0.1613870832760259</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3372,6 +3432,9 @@
       <c r="AT21" t="n">
         <v>0.4658157274373135</v>
       </c>
+      <c r="AU21" t="n">
+        <v>0.4669502571482067</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3512,6 +3575,9 @@
       <c r="AT22" t="n">
         <v>0.231933361595955</v>
       </c>
+      <c r="AU22" t="n">
+        <v>0.2328871886257753</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3652,6 +3718,9 @@
       <c r="AT23" t="n">
         <v>-0.1969437265728316</v>
       </c>
+      <c r="AU23" t="n">
+        <v>-0.1964339264377961</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3792,6 +3861,9 @@
       <c r="AT24" t="n">
         <v>1.406921910241867</v>
       </c>
+      <c r="AU24" t="n">
+        <v>1.420379279662805</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3932,6 +4004,9 @@
       <c r="AT25" t="n">
         <v>0.3328955170196883</v>
       </c>
+      <c r="AU25" t="n">
+        <v>0.3328937744604544</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -4072,6 +4147,9 @@
       <c r="AT26" t="n">
         <v>0.1446030767315133</v>
       </c>
+      <c r="AU26" t="n">
+        <v>0.1447507266802207</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4212,6 +4290,9 @@
       <c r="AT27" t="n">
         <v>0.05370093079510391</v>
       </c>
+      <c r="AU27" t="n">
+        <v>0.05406118059570013</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4352,6 +4433,9 @@
       <c r="AT28" t="n">
         <v>0.8631623690645595</v>
       </c>
+      <c r="AU28" t="n">
+        <v>0.8641792993453753</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4492,6 +4576,9 @@
       <c r="AT29" t="n">
         <v>1.76967817572092</v>
       </c>
+      <c r="AU29" t="n">
+        <v>1.775549394557338</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4632,6 +4719,9 @@
       <c r="AT30" t="n">
         <v>0.684653523551109</v>
       </c>
+      <c r="AU30" t="n">
+        <v>0.6848428221392661</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4772,6 +4862,9 @@
       <c r="AT31" t="n">
         <v>-0.4268235155095584</v>
       </c>
+      <c r="AU31" t="n">
+        <v>-0.4277533260185868</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4912,6 +5005,9 @@
       <c r="AT32" t="n">
         <v>0.5663147896234519</v>
       </c>
+      <c r="AU32" t="n">
+        <v>0.5665139291369686</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -5052,6 +5148,9 @@
       <c r="AT33" t="n">
         <v>0.7765250724309659</v>
       </c>
+      <c r="AU33" t="n">
+        <v>0.7766436016567347</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5192,6 +5291,9 @@
       <c r="AT34" t="n">
         <v>-0.8464489056064275</v>
       </c>
+      <c r="AU34" t="n">
+        <v>-0.8472443229958835</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5332,6 +5434,9 @@
       <c r="AT35" t="n">
         <v>0.8319469262031924</v>
       </c>
+      <c r="AU35" t="n">
+        <v>0.8320011015473339</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5472,6 +5577,9 @@
       <c r="AT36" t="n">
         <v>0.8006582287382276</v>
       </c>
+      <c r="AU36" t="n">
+        <v>0.8004311686207193</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5612,6 +5720,9 @@
       <c r="AT37" t="n">
         <v>0.7671936764719286</v>
       </c>
+      <c r="AU37" t="n">
+        <v>0.7669586159638687</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5752,6 +5863,9 @@
       <c r="AT38" t="n">
         <v>0.6645114698769788</v>
       </c>
+      <c r="AU38" t="n">
+        <v>0.6644157520286009</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5892,6 +6006,9 @@
       <c r="AT39" t="n">
         <v>0.6140573447066111</v>
       </c>
+      <c r="AU39" t="n">
+        <v>0.6138304120896125</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -6032,6 +6149,9 @@
       <c r="AT40" t="n">
         <v>0.79368558431366</v>
       </c>
+      <c r="AU40" t="n">
+        <v>0.7937947802926294</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6172,6 +6292,9 @@
       <c r="AT41" t="n">
         <v>0.5855771915070316</v>
       </c>
+      <c r="AU41" t="n">
+        <v>0.5854404506194787</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6312,6 +6435,9 @@
       <c r="AT42" t="n">
         <v>0.6556457670328502</v>
       </c>
+      <c r="AU42" t="n">
+        <v>0.6552604541319711</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6452,6 +6578,9 @@
       <c r="AT43" t="n">
         <v>0.692912556580924</v>
       </c>
+      <c r="AU43" t="n">
+        <v>0.6927653382880359</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6592,6 +6721,9 @@
       <c r="AT44" t="n">
         <v>0.7175723922517149</v>
       </c>
+      <c r="AU44" t="n">
+        <v>0.7173749608965198</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6732,6 +6864,9 @@
       <c r="AT45" t="n">
         <v>0.7357082418807384</v>
       </c>
+      <c r="AU45" t="n">
+        <v>0.7351510134743973</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6872,6 +7007,9 @@
       <c r="AT46" t="n">
         <v>-1.386110321112613</v>
       </c>
+      <c r="AU46" t="n">
+        <v>-1.388290687140907</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -7012,6 +7150,9 @@
       <c r="AT47" t="n">
         <v>-1.082611035872971</v>
       </c>
+      <c r="AU47" t="n">
+        <v>-1.08445018908857</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -7152,6 +7293,9 @@
       <c r="AT48" t="n">
         <v>-0.9448557076818663</v>
       </c>
+      <c r="AU48" t="n">
+        <v>-0.9468898979746734</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -7292,6 +7436,9 @@
       <c r="AT49" t="n">
         <v>-0.6994466005435582</v>
       </c>
+      <c r="AU49" t="n">
+        <v>-0.70110017018157</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7432,6 +7579,9 @@
       <c r="AT50" t="n">
         <v>-0.1052787864651741</v>
       </c>
+      <c r="AU50" t="n">
+        <v>-0.1061647734714039</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7572,6 +7722,9 @@
       <c r="AT51" t="n">
         <v>-0.9136362735218304</v>
       </c>
+      <c r="AU51" t="n">
+        <v>-0.9154526901887994</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7712,6 +7865,9 @@
       <c r="AT52" t="n">
         <v>-0.9136362735218304</v>
       </c>
+      <c r="AU52" t="n">
+        <v>-0.9154526901887994</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7852,6 +8008,9 @@
       <c r="AT53" t="n">
         <v>-1.223283568531516</v>
       </c>
+      <c r="AU53" t="n">
+        <v>-1.22571264079063</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7992,6 +8151,9 @@
       <c r="AT54" t="n">
         <v>-0.2204839799118108</v>
       </c>
+      <c r="AU54" t="n">
+        <v>-0.2216221320175772</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -8132,6 +8294,9 @@
       <c r="AT55" t="n">
         <v>-1.108993117868957</v>
       </c>
+      <c r="AU55" t="n">
+        <v>-1.110917666142704</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -8272,6 +8437,9 @@
       <c r="AT56" t="n">
         <v>-0.9720954597542922</v>
       </c>
+      <c r="AU56" t="n">
+        <v>-0.97347662463465</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8412,6 +8580,9 @@
       <c r="AT57" t="n">
         <v>-1.050722182630575</v>
       </c>
+      <c r="AU57" t="n">
+        <v>-1.052125217299318</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8552,6 +8723,9 @@
       <c r="AT58" t="n">
         <v>-1.189333861036753</v>
       </c>
+      <c r="AU58" t="n">
+        <v>-1.190540579227306</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8692,6 +8866,9 @@
       <c r="AT59" t="n">
         <v>-0.8674747145096953</v>
       </c>
+      <c r="AU59" t="n">
+        <v>-0.8689501423054002</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8832,6 +9009,9 @@
       <c r="AT60" t="n">
         <v>-0.4925667706108846</v>
       </c>
+      <c r="AU60" t="n">
+        <v>-0.4933508298562919</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8972,6 +9152,9 @@
       <c r="AT61" t="n">
         <v>0.3664648991099584</v>
       </c>
+      <c r="AU61" t="n">
+        <v>0.3661280948501022</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -9112,6 +9295,9 @@
       <c r="AT62" t="n">
         <v>-1.327187676570826</v>
       </c>
+      <c r="AU62" t="n">
+        <v>-1.328794717722183</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -9252,6 +9438,9 @@
       <c r="AT63" t="n">
         <v>-0.616047786615983</v>
       </c>
+      <c r="AU63" t="n">
+        <v>-0.6171339335137961</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9392,6 +9581,9 @@
       <c r="AT64" t="n">
         <v>-0.9480440163597172</v>
       </c>
+      <c r="AU64" t="n">
+        <v>-0.9498776715786776</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9532,6 +9724,9 @@
       <c r="AT65" t="n">
         <v>-0.08964097237480473</v>
       </c>
+      <c r="AU65" t="n">
+        <v>-0.0902156757683899</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -9672,6 +9867,9 @@
       <c r="AT66" t="n">
         <v>-0.8712231034313387</v>
       </c>
+      <c r="AU66" t="n">
+        <v>-0.8720622685480692</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9811,6 +10009,9 @@
       </c>
       <c r="AT67" t="n">
         <v>-0.8532787529805614</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>-0.8538392324939027</v>
       </c>
     </row>
   </sheetData>
